--- a/prot/ООО Регионстрой/Трехосные_КД_ПП/1330.xlsx
+++ b/prot/ООО Регионстрой/Трехосные_КД_ПП/1330.xlsx
@@ -8491,14 +8491,8 @@
     </row>
     <row r="47" ht="16.5" customHeight="1">
       <c r="A47" s="144" t="n"/>
-      <c r="B47" s="144" t="inlineStr">
-        <is>
-          <t>K0, д.е.</t>
-        </is>
-      </c>
-      <c r="C47" s="144" t="n">
-        <v>0.7920883091822406</v>
-      </c>
+      <c r="B47" s="144" t="n"/>
+      <c r="C47" s="144" t="n"/>
       <c r="D47" s="144" t="n"/>
       <c r="E47" s="144" t="n"/>
       <c r="F47" s="144" t="n"/>
@@ -8555,14 +8549,8 @@
     </row>
     <row r="48" ht="16.5" customHeight="1">
       <c r="A48" s="144" t="n"/>
-      <c r="B48" s="144" t="inlineStr">
-        <is>
-          <t>q_zg, МПа</t>
-        </is>
-      </c>
-      <c r="C48" s="144" t="n">
-        <v>0.07765570416157953</v>
-      </c>
+      <c r="B48" s="144" t="n"/>
+      <c r="C48" s="144" t="n"/>
       <c r="D48" s="144" t="n"/>
       <c r="E48" s="144" t="n"/>
       <c r="F48" s="144" t="n"/>
@@ -8712,20 +8700,12 @@
         <f>B70/A70</f>
         <v/>
       </c>
-      <c r="F50" s="144" t="inlineStr">
-        <is>
-          <t>Точки модуля (полное напр.), МПа</t>
-        </is>
-      </c>
+      <c r="F50" s="144" t="n"/>
       <c r="G50" s="144" t="n"/>
       <c r="H50" s="144" t="n"/>
       <c r="I50" s="144" t="n"/>
-      <c r="J50" s="144" t="n">
-        <v>0.07765570416157953</v>
-      </c>
-      <c r="K50" s="144" t="n">
-        <v>0.1242491266585273</v>
-      </c>
+      <c r="J50" s="144" t="n"/>
+      <c r="K50" s="144" t="n"/>
       <c r="L50" s="144" t="n"/>
       <c r="N50" s="148">
         <f>J50</f>
@@ -8802,17 +8782,11 @@
         <f>A65/B65</f>
         <v/>
       </c>
-      <c r="F51" s="144" t="inlineStr">
-        <is>
-          <t>qf (полное напр.), МПа</t>
-        </is>
-      </c>
+      <c r="F51" s="144" t="n"/>
       <c r="G51" s="144" t="n"/>
       <c r="H51" s="144" t="n"/>
       <c r="I51" s="144" t="n"/>
-      <c r="J51" s="144" t="n">
-        <v>0.1190062401236265</v>
-      </c>
+      <c r="J51" s="144" t="n"/>
       <c r="K51" s="144" t="n"/>
       <c r="L51" s="144" t="n"/>
       <c r="M51" s="1" t="n"/>
@@ -9258,10 +9232,10 @@
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>0.02096704012362648</v>
+        <v>0.03314325074425921</v>
       </c>
       <c r="B65" t="n">
-        <v>0.01745942903627812</v>
+        <v>0.02759866108850085</v>
       </c>
       <c r="C65" s="151">
         <f>MATCH(A65,F65:F1000,1)-A67</f>
@@ -9318,29 +9292,29 @@
         </is>
       </c>
       <c r="F66" s="170" t="n">
-        <v>0.001977419394535052</v>
+        <v>0.001741814793898538</v>
       </c>
       <c r="G66" s="171" t="n">
-        <v>0.000826080754604544</v>
+        <v>0.0008470295669096757</v>
       </c>
       <c r="H66" s="171" t="n"/>
       <c r="J66" s="170" t="n">
-        <v>0.001697421402284585</v>
+        <v>0.00419381952486142</v>
       </c>
       <c r="K66" s="171" t="n">
-        <v>0.000832267596387686</v>
+        <v>0.0008349763756228578</v>
       </c>
       <c r="L66" s="172" t="n">
-        <v>0.003201116069669191</v>
+        <v>0.005706088750135507</v>
       </c>
       <c r="M66" s="170" t="n">
-        <v>0.0008523991829618369</v>
+        <v>0.0008210519375641403</v>
       </c>
       <c r="N66" s="171" t="n">
-        <v>0.004275245333564437</v>
+        <v>0.001741814793898538</v>
       </c>
       <c r="O66" s="172" t="n">
-        <v>0.0008260110634876701</v>
+        <v>0.0008470295669096757</v>
       </c>
       <c r="Q66" s="151" t="inlineStr">
         <is>
@@ -9358,29 +9332,29 @@
         <v>2</v>
       </c>
       <c r="F67" s="170" t="n">
-        <v>0.003914863921548897</v>
+        <v>0.003951102484855723</v>
       </c>
       <c r="G67" s="171" t="n">
-        <v>0.001652161509209088</v>
+        <v>0.001694059133819351</v>
       </c>
       <c r="H67" s="171" t="n"/>
       <c r="J67" s="170" t="n">
-        <v>0.003589426955603631</v>
+        <v>0.00919774747131813</v>
       </c>
       <c r="K67" s="171" t="n">
-        <v>0.001664535192775372</v>
+        <v>0.001669952751245716</v>
       </c>
       <c r="L67" s="172" t="n">
-        <v>0.005960799999999961</v>
+        <v>0.01251477389553918</v>
       </c>
       <c r="M67" s="170" t="n">
-        <v>0.001489231152809202</v>
+        <v>0.001642103875128281</v>
       </c>
       <c r="N67" s="171" t="n">
-        <v>0.01196079999999994</v>
+        <v>0.003951102484855723</v>
       </c>
       <c r="O67" s="172" t="n">
-        <v>0.001854491701332984</v>
+        <v>0.001694059133819351</v>
       </c>
       <c r="Q67" s="151" t="inlineStr">
         <is>
@@ -9400,29 +9374,29 @@
         </is>
       </c>
       <c r="F68" s="170" t="n">
-        <v>0.001772358713520369</v>
+        <v>0.00661675357297814</v>
       </c>
       <c r="G68" s="171" t="n">
-        <v>0.002478242263813632</v>
+        <v>0.002541088700729027</v>
       </c>
       <c r="H68" s="171" t="n"/>
       <c r="J68" s="170" t="n">
-        <v>0.005349053172548857</v>
+        <v>0.01408864096833198</v>
       </c>
       <c r="K68" s="171" t="n">
-        <v>0.002496802789163058</v>
+        <v>0.002504929126868573</v>
       </c>
       <c r="L68" s="172" t="n">
-        <v>0.008034550934703705</v>
+        <v>0.01875404742442766</v>
       </c>
       <c r="M68" s="170" t="n">
-        <v>0.002557197548885511</v>
+        <v>0.002463155812692421</v>
       </c>
       <c r="N68" s="171" t="n">
-        <v>0.01459409427586356</v>
+        <v>0.00661675357297814</v>
       </c>
       <c r="O68" s="172" t="n">
-        <v>0.00247803319046301</v>
+        <v>0.002541088700729027</v>
       </c>
       <c r="Q68" s="151" t="inlineStr">
         <is>
@@ -9447,29 +9421,29 @@
         </is>
       </c>
       <c r="F69" s="170" t="n">
-        <v>0.00450992890292827</v>
+        <v>0.008527658558372314</v>
       </c>
       <c r="G69" s="171" t="n">
-        <v>0.003304323018418176</v>
+        <v>0.003388118267638703</v>
       </c>
       <c r="H69" s="171" t="n"/>
       <c r="J69" s="170" t="n">
-        <v>0.007449336565711867</v>
+        <v>0.01764335714486473</v>
       </c>
       <c r="K69" s="171" t="n">
-        <v>0.003329070385550744</v>
+        <v>0.003339905502491431</v>
       </c>
       <c r="L69" s="172" t="n">
-        <v>0.01068215901567243</v>
+        <v>0.02545190132501812</v>
       </c>
       <c r="M69" s="170" t="n">
-        <v>0.003409596731847347</v>
+        <v>0.003284207750256561</v>
       </c>
       <c r="N69" s="171" t="n">
-        <v>0.0186960414296537</v>
+        <v>0.008527658558372314</v>
       </c>
       <c r="O69" s="172" t="n">
-        <v>0.00330404425395068</v>
+        <v>0.003388118267638703</v>
       </c>
       <c r="Q69" s="151" t="inlineStr">
         <is>
@@ -9484,62 +9458,62 @@
     </row>
     <row r="70" ht="15" customHeight="1">
       <c r="A70" t="n">
-        <v>0.005819809678759374</v>
+        <v>0.0124710397</v>
       </c>
       <c r="B70" t="n">
-        <v>0.01164835562423693</v>
+        <v>0.02496079999999999</v>
       </c>
       <c r="F70" s="170" t="n">
-        <v>0.009087599622251405</v>
+        <v>0.01057270794114477</v>
       </c>
       <c r="G70" s="171" t="n">
-        <v>0.004130403773022719</v>
+        <v>0.004235147834548378</v>
       </c>
       <c r="H70" s="171" t="n"/>
       <c r="J70" s="170" t="n">
-        <v>0.009163313647684371</v>
+        <v>0.02243875312987834</v>
       </c>
       <c r="K70" s="171" t="n">
-        <v>0.00416133798193843</v>
+        <v>0.004174881878114289</v>
       </c>
       <c r="L70" s="172" t="n">
-        <v>0.01240352175970966</v>
+        <v>0.03023632758552747</v>
       </c>
       <c r="M70" s="170" t="n">
-        <v>0.004261995914809184</v>
+        <v>0.004105259687820701</v>
       </c>
       <c r="N70" s="171" t="n">
-        <v>0.0207707649600587</v>
+        <v>0.01057270794114477</v>
       </c>
       <c r="O70" s="172" t="n">
-        <v>0.00413005531743835</v>
+        <v>0.004235147834548378</v>
       </c>
     </row>
     <row r="71">
       <c r="F71" s="170" t="n">
-        <v>0.006465396003968588</v>
+        <v>0.0121407922214021</v>
       </c>
       <c r="G71" s="171" t="n">
-        <v>0.004956484527627264</v>
+        <v>0.005082177401458055</v>
       </c>
       <c r="H71" s="171" t="n"/>
       <c r="J71" s="170" t="n">
-        <v>0.01026402093105803</v>
+        <v>0.02665168605233453</v>
       </c>
       <c r="K71" s="171" t="n">
-        <v>0.004993605578326115</v>
+        <v>0.005009858253737147</v>
       </c>
       <c r="L71" s="172" t="n">
-        <v>0.01482375215966503</v>
+        <v>0.03653531819417255</v>
       </c>
       <c r="M71" s="170" t="n">
-        <v>0.005114395097771021</v>
+        <v>0.004926311625384841</v>
       </c>
       <c r="N71" s="171" t="n">
-        <v>0.02345446189145955</v>
+        <v>0.0121407922214021</v>
       </c>
       <c r="O71" s="172" t="n">
-        <v>0.00495606638092602</v>
+        <v>0.005082177401458055</v>
       </c>
     </row>
     <row r="72">
@@ -9554,29 +9528,29 @@
         </is>
       </c>
       <c r="F72" s="170" t="n">
-        <v>0.01164835562423693</v>
+        <v>0.01462080189925077</v>
       </c>
       <c r="G72" s="171" t="n">
-        <v>0.005819809678759374</v>
+        <v>0.00592920696836773</v>
       </c>
       <c r="H72" s="171" t="n"/>
       <c r="J72" s="170" t="n">
-        <v>0.01192449492842457</v>
+        <v>0.03075901304119527</v>
       </c>
       <c r="K72" s="171" t="n">
-        <v>0.005825873174713801</v>
+        <v>0.005844834629360004</v>
       </c>
       <c r="L72" s="172" t="n">
-        <v>0.01636796320838821</v>
+        <v>0.04097686513917037</v>
       </c>
       <c r="M72" s="170" t="n">
-        <v>0.005966794280732858</v>
+        <v>0.005747363562948982</v>
       </c>
       <c r="N72" s="171" t="n">
-        <v>0.02688332924823716</v>
+        <v>0.01462080189925077</v>
       </c>
       <c r="O72" s="172" t="n">
-        <v>0.00578207744441369</v>
+        <v>0.00592920696836773</v>
       </c>
     </row>
     <row r="73">
@@ -9600,29 +9574,29 @@
         <v/>
       </c>
       <c r="F73" s="170" t="n">
-        <v>0.009535829983598212</v>
+        <v>0.01610162747479739</v>
       </c>
       <c r="G73" s="171" t="n">
-        <v>0.006608646036836352</v>
+        <v>0.006776236535277405</v>
       </c>
       <c r="H73" s="171" t="n"/>
       <c r="J73" s="170" t="n">
-        <v>0.0139608</v>
+        <v>0.03403759122542227</v>
       </c>
       <c r="K73" s="171" t="n">
-        <v>0.006975164699999998</v>
+        <v>0.006679811004982862</v>
       </c>
       <c r="L73" s="172" t="n">
-        <v>0.01736126789872894</v>
+        <v>0.04458896040873778</v>
       </c>
       <c r="M73" s="170" t="n">
-        <v>0.006819193463694695</v>
+        <v>0.006568415500513122</v>
       </c>
       <c r="N73" s="171" t="n">
-        <v>0.03049356405477238</v>
+        <v>0.01610162747479739</v>
       </c>
       <c r="O73" s="172" t="n">
-        <v>0.006608088507901361</v>
+        <v>0.006776236535277405</v>
       </c>
     </row>
     <row r="74">
@@ -9637,29 +9611,29 @@
         </is>
       </c>
       <c r="F74" s="170" t="n">
-        <v>0.0113491819966116</v>
+        <v>0.01767215944814844</v>
       </c>
       <c r="G74" s="171" t="n">
-        <v>0.007434726791440895</v>
+        <v>0.007623266102187082</v>
       </c>
       <c r="H74" s="171" t="n"/>
       <c r="J74" s="170" t="n">
-        <v>0.01462530468344174</v>
+        <v>0.0376642777339774</v>
       </c>
       <c r="K74" s="171" t="n">
-        <v>0.007490408367489173</v>
+        <v>0.00751478738060572</v>
       </c>
       <c r="L74" s="172" t="n">
-        <v>0.01872877922353688</v>
+        <v>0.04849959599109177</v>
       </c>
       <c r="M74" s="170" t="n">
-        <v>0.007671592646656532</v>
+        <v>0.007389467438077262</v>
       </c>
       <c r="N74" s="171" t="n">
-        <v>0.03172136333544595</v>
+        <v>0.01767215944814844</v>
       </c>
       <c r="O74" s="172" t="n">
-        <v>0.00743409957138903</v>
+        <v>0.007623266102187082</v>
       </c>
     </row>
     <row r="75">
@@ -9681,29 +9655,29 @@
         </is>
       </c>
       <c r="F75" s="170" t="n">
-        <v>0.01206280067712159</v>
+        <v>0.01942128831941051</v>
       </c>
       <c r="G75" s="171" t="n">
-        <v>0.008260807546045438</v>
+        <v>0.008470295669096756</v>
       </c>
       <c r="H75" s="171" t="n"/>
       <c r="J75" s="170" t="n">
-        <v>0.01507169752842014</v>
+        <v>0.04091592969582256</v>
       </c>
       <c r="K75" s="171" t="n">
-        <v>0.00832267596387686</v>
+        <v>0.008349763756228578</v>
       </c>
       <c r="L75" s="172" t="n">
-        <v>0.02099561017566168</v>
+        <v>0.05196079999999992</v>
       </c>
       <c r="M75" s="170" t="n">
-        <v>0.008523991829618369</v>
+        <v>0.007907197829135414</v>
       </c>
       <c r="N75" s="171" t="n">
-        <v>0.03500292411463901</v>
+        <v>0.01942128831941051</v>
       </c>
       <c r="O75" s="172" t="n">
-        <v>0.008260110634876699</v>
+        <v>0.008470295669096756</v>
       </c>
     </row>
     <row r="76">
@@ -9723,29 +9697,29 @@
         <v>0</v>
       </c>
       <c r="F76" s="170" t="n">
-        <v>0.01169594177798351</v>
+        <v>0.02093790458869012</v>
       </c>
       <c r="G76" s="171" t="n">
-        <v>0.009086888300649984</v>
+        <v>0.009317325236006433</v>
       </c>
       <c r="H76" s="171" t="n"/>
       <c r="J76" s="170" t="n">
-        <v>0.0161761785254701</v>
+        <v>0.04386940423991953</v>
       </c>
       <c r="K76" s="171" t="n">
-        <v>0.009154943560264545</v>
+        <v>0.009184740131851436</v>
       </c>
       <c r="L76" s="172" t="n">
-        <v>0.02108687374795304</v>
+        <v>0.05556574347303311</v>
       </c>
       <c r="M76" s="170" t="n">
-        <v>0.009376391012580206</v>
+        <v>0.009031571313205543</v>
       </c>
       <c r="N76" s="171" t="n">
-        <v>0.03597444341673239</v>
+        <v>0.02093790458869012</v>
       </c>
       <c r="O76" s="172" t="n">
-        <v>0.009086121698364371</v>
+        <v>0.009317325236006433</v>
       </c>
     </row>
     <row r="77" ht="15" customHeight="1">
@@ -9760,28 +9734,28 @@
         </is>
       </c>
       <c r="F77" t="n">
-        <v>0.01326786105205265</v>
+        <v>0.02231089875609384</v>
       </c>
       <c r="G77" t="n">
-        <v>0.009912969055254527</v>
+        <v>0.01016435480291611</v>
       </c>
       <c r="J77" t="n">
-        <v>0.01665585530266783</v>
+        <v>0.04590155849523017</v>
       </c>
       <c r="K77" t="n">
-        <v>0.00998721115665223</v>
+        <v>0.01001971650747429</v>
       </c>
       <c r="L77" t="n">
-        <v>0.02222768293326069</v>
+        <v>0.05840842001380164</v>
       </c>
       <c r="M77" t="n">
-        <v>0.01022879019554204</v>
+        <v>0.009852623250769682</v>
       </c>
       <c r="N77" t="n">
-        <v>0.03897211826610703</v>
+        <v>0.02231089875609384</v>
       </c>
       <c r="O77" t="n">
-        <v>0.00991213276185204</v>
+        <v>0.01016435480291611</v>
       </c>
     </row>
     <row r="78" ht="15" customHeight="1">
@@ -9800,28 +9774,28 @@
         <v/>
       </c>
       <c r="F78" t="n">
-        <v>0.0117978142521843</v>
+        <v>0.02302916132172814</v>
       </c>
       <c r="G78" t="n">
-        <v>0.01073904980985907</v>
+        <v>0.01101138436982578</v>
       </c>
       <c r="J78" t="n">
-        <v>0.01712783548808951</v>
+        <v>0.0478892495907163</v>
       </c>
       <c r="K78" t="n">
-        <v>0.01081947875303992</v>
+        <v>0.01085469288309715</v>
       </c>
       <c r="L78" t="n">
-        <v>0.0237431507244342</v>
+        <v>0.06022555042498229</v>
       </c>
       <c r="M78" t="n">
-        <v>0.01108118937850388</v>
+        <v>0.01067367518833382</v>
       </c>
       <c r="N78" t="n">
-        <v>0.04123214568714362</v>
+        <v>0.02302916132172814</v>
       </c>
       <c r="O78" t="n">
-        <v>0.01073814382533971</v>
+        <v>0.01101138436982578</v>
       </c>
     </row>
     <row r="79" ht="15" customHeight="1">
@@ -9842,28 +9816,28 @@
         <v/>
       </c>
       <c r="F79" t="n">
-        <v>0.01230505713123377</v>
+        <v>0.02408158278569963</v>
       </c>
       <c r="G79" t="n">
-        <v>0.01156513056446362</v>
+        <v>0.01185841393673546</v>
       </c>
       <c r="J79" t="n">
-        <v>0.01810922670981129</v>
+        <v>0.05010933465533979</v>
       </c>
       <c r="K79" t="n">
-        <v>0.0116517463494276</v>
+        <v>0.01168966925872001</v>
       </c>
       <c r="L79" t="n">
-        <v>0.02555839011432334</v>
+        <v>0.06134841731075802</v>
       </c>
       <c r="M79" t="n">
-        <v>0.01193358856146572</v>
+        <v>0.01149472712589796</v>
       </c>
       <c r="N79" t="n">
-        <v>0.04229072270422324</v>
+        <v>0.02408158278569963</v>
       </c>
       <c r="O79" t="n">
-        <v>0.01156415488882738</v>
+        <v>0.01185841393673546</v>
       </c>
     </row>
     <row r="80" ht="15" customHeight="1">
@@ -9873,28 +9847,28 @@
         </is>
       </c>
       <c r="F80" t="n">
-        <v>0.01680884544205638</v>
+        <v>0.02496079999999999</v>
       </c>
       <c r="G80" t="n">
-        <v>0.01239121131906816</v>
+        <v>0.0124710397</v>
       </c>
       <c r="J80" t="n">
-        <v>0.01801713659590935</v>
+        <v>0.05083867081806245</v>
       </c>
       <c r="K80" t="n">
-        <v>0.01248401394581529</v>
+        <v>0.01252464563434287</v>
       </c>
       <c r="L80" t="n">
-        <v>0.02609851409577782</v>
+        <v>0.06350830327531193</v>
       </c>
       <c r="M80" t="n">
-        <v>0.01278598774442755</v>
+        <v>0.0123157790634621</v>
       </c>
       <c r="N80" t="n">
-        <v>0.04478404634172667</v>
+        <v>0.02496079999999999</v>
       </c>
       <c r="O80" t="n">
-        <v>0.01239016595231505</v>
+        <v>0.0124710397</v>
       </c>
     </row>
     <row r="81" ht="15" customHeight="1">
@@ -9910,28 +9884,28 @@
         </is>
       </c>
       <c r="F81" t="n">
-        <v>0.01532843493750739</v>
+        <v>0.02562774510820813</v>
       </c>
       <c r="G81" t="n">
-        <v>0.0132172920736727</v>
+        <v>0.01355247307055481</v>
       </c>
       <c r="J81" t="n">
-        <v>0.01856867277445987</v>
+        <v>0.05296079999999997</v>
       </c>
       <c r="K81" t="n">
-        <v>0.01331628154220298</v>
+        <v>0.01336660818458163</v>
       </c>
       <c r="L81" t="n">
-        <v>0.02748863566164722</v>
+        <v>0.06513649092282675</v>
       </c>
       <c r="M81" t="n">
-        <v>0.01363838692738939</v>
+        <v>0.01313683100102624</v>
       </c>
       <c r="N81" t="n">
-        <v>0.04664831362403488</v>
+        <v>0.02562774510820813</v>
       </c>
       <c r="O81" t="n">
-        <v>0.01321617701580272</v>
+        <v>0.01355247307055481</v>
       </c>
     </row>
     <row r="82" ht="15" customHeight="1">
@@ -9944,28 +9918,28 @@
         <v/>
       </c>
       <c r="F82" t="n">
-        <v>0.01488308137044214</v>
+        <v>0.02581597014931718</v>
       </c>
       <c r="G82" t="n">
-        <v>0.01404337282827725</v>
+        <v>0.01439950263746449</v>
       </c>
       <c r="J82" t="n">
-        <v>0.01858094287353901</v>
+        <v>0.05338678638320338</v>
       </c>
       <c r="K82" t="n">
-        <v>0.01414854913859066</v>
+        <v>0.01419459838558858</v>
       </c>
       <c r="L82" t="n">
-        <v>0.02885386780478133</v>
+        <v>0.06756426285748585</v>
       </c>
       <c r="M82" t="n">
-        <v>0.01449078611035123</v>
+        <v>0.01395788293859038</v>
       </c>
       <c r="N82" t="n">
-        <v>0.04991972157552882</v>
+        <v>0.02581597014931718</v>
       </c>
       <c r="O82" t="n">
-        <v>0.01404218807929039</v>
+        <v>0.01439950263746449</v>
       </c>
     </row>
     <row r="83" ht="15" customHeight="1">
@@ -9975,28 +9949,28 @@
         </is>
       </c>
       <c r="F83" t="n">
-        <v>0.01749204049371592</v>
+        <v>0.02673559768629903</v>
       </c>
       <c r="G83" t="n">
-        <v>0.01486945358288179</v>
+        <v>0.01524653220437416</v>
       </c>
       <c r="J83" t="n">
-        <v>0.01887105452122294</v>
+        <v>0.05330105850524142</v>
       </c>
       <c r="K83" t="n">
-        <v>0.01498081673497835</v>
+        <v>0.01502957476121144</v>
       </c>
       <c r="L83" t="n">
-        <v>0.02971932351802981</v>
+        <v>0.06872290168347195</v>
       </c>
       <c r="M83" t="n">
-        <v>0.01534318529331306</v>
+        <v>0.01477893487615452</v>
       </c>
       <c r="N83" t="n">
-        <v>0.05153446722058924</v>
+        <v>0.02673559768629903</v>
       </c>
       <c r="O83" t="n">
-        <v>0.01486819914277806</v>
+        <v>0.01524653220437416</v>
       </c>
     </row>
     <row r="84" ht="15" customHeight="1">
@@ -10011,28 +9985,28 @@
         </is>
       </c>
       <c r="F84" t="n">
-        <v>0.01817456806018401</v>
+        <v>0.02739685631146653</v>
       </c>
       <c r="G84" t="n">
-        <v>0.01569553433748633</v>
+        <v>0.01609356177128384</v>
       </c>
       <c r="J84" t="n">
-        <v>0.01935611534558784</v>
+        <v>0.05441621073937553</v>
       </c>
       <c r="K84" t="n">
-        <v>0.01581308433136603</v>
+        <v>0.0158645511368343</v>
       </c>
       <c r="L84" t="n">
-        <v>0.03091011579424224</v>
+        <v>0.07114369000496812</v>
       </c>
       <c r="M84" t="n">
-        <v>0.0161955844762749</v>
+        <v>0.01559998681371866</v>
       </c>
       <c r="N84" t="n">
-        <v>0.05502874758359716</v>
+        <v>0.02739685631146653</v>
       </c>
       <c r="O84" t="n">
-        <v>0.01569421020626573</v>
+        <v>0.01609356177128384</v>
       </c>
     </row>
     <row r="85" ht="15" customHeight="1">
@@ -10051,28 +10025,28 @@
         <v/>
       </c>
       <c r="F85" t="n">
-        <v>0.01594991982270173</v>
+        <v>0.02780997461713257</v>
       </c>
       <c r="G85" t="n">
-        <v>0.01652161509209088</v>
+        <v>0.01694059133819351</v>
       </c>
       <c r="J85" t="n">
-        <v>0.0195532329747099</v>
+        <v>0.05435151176374853</v>
       </c>
       <c r="K85" t="n">
-        <v>0.01664535192775372</v>
+        <v>0.01669952751245716</v>
       </c>
       <c r="L85" t="n">
-        <v>0.03265135762626842</v>
+        <v>0.07255791042615733</v>
       </c>
       <c r="M85" t="n">
-        <v>0.01704798365923674</v>
+        <v>0.0164210387512828</v>
       </c>
       <c r="N85" t="n">
-        <v>0.05703875968893335</v>
+        <v>0.02780997461713257</v>
       </c>
       <c r="O85" t="n">
-        <v>0.0165202212697534</v>
+        <v>0.01694059133819351</v>
       </c>
     </row>
     <row r="86" ht="15" customHeight="1">
@@ -10093,28 +10067,28 @@
         <v/>
       </c>
       <c r="F86" t="n">
-        <v>0.02096704012362648</v>
+        <v>0.02808518119560997</v>
       </c>
       <c r="G86" t="n">
-        <v>0.01745942903627812</v>
+        <v>0.01778762090510319</v>
       </c>
       <c r="J86" t="n">
-        <v>0.02037951503666527</v>
+        <v>0.05452623025650305</v>
       </c>
       <c r="K86" t="n">
-        <v>0.01747761952414141</v>
+        <v>0.01753450388808001</v>
       </c>
       <c r="L86" t="n">
-        <v>0.03446816200695796</v>
+        <v>0.07369684555122263</v>
       </c>
       <c r="M86" t="n">
-        <v>0.01790038284219857</v>
+        <v>0.01724209068884695</v>
       </c>
       <c r="N86" t="n">
-        <v>0.06030070056097869</v>
+        <v>0.02808518119560997</v>
       </c>
       <c r="O86" t="n">
-        <v>0.01734623233324107</v>
+        <v>0.01778762090510319</v>
       </c>
     </row>
     <row r="87" ht="15" customHeight="1">
@@ -10124,28 +10098,28 @@
         </is>
       </c>
       <c r="F87" t="n">
-        <v>0.02000081312615813</v>
+        <v>0.02833270463921157</v>
       </c>
       <c r="G87" t="n">
-        <v>0.01817377660129997</v>
+        <v>0.01863465047201287</v>
       </c>
       <c r="J87" t="n">
-        <v>0.02025206915953012</v>
+        <v>0.05505963489578164</v>
       </c>
       <c r="K87" t="n">
-        <v>0.01830988712052909</v>
+        <v>0.01836948026370287</v>
       </c>
       <c r="L87" t="n">
-        <v>0.03638564192916061</v>
+        <v>0.07509177798434691</v>
       </c>
       <c r="M87" t="n">
-        <v>0.01875278202516041</v>
+        <v>0.01806314262641109</v>
       </c>
       <c r="N87" t="n">
-        <v>0.06415076722411428</v>
+        <v>0.02833270463921157</v>
       </c>
       <c r="O87" t="n">
-        <v>0.01817224339672874</v>
+        <v>0.01863465047201287</v>
       </c>
     </row>
     <row r="88" ht="15" customHeight="1">
@@ -10159,28 +10133,28 @@
       <c r="C88" s="139" t="n"/>
       <c r="D88" s="139" t="n"/>
       <c r="F88" t="n">
-        <v>0.02262115698426947</v>
+        <v>0.02886277354025028</v>
       </c>
       <c r="G88" t="n">
-        <v>0.01899985735590451</v>
+        <v>0.01948168003892254</v>
       </c>
       <c r="J88" t="n">
-        <v>0.02108800297138064</v>
+        <v>0.05577099435972704</v>
       </c>
       <c r="K88" t="n">
-        <v>0.01914215471691678</v>
+        <v>0.01920445663932573</v>
       </c>
       <c r="L88" t="n">
-        <v>0.03952891038572601</v>
+        <v>0.07677399032971322</v>
       </c>
       <c r="M88" t="n">
-        <v>0.01960518120812225</v>
+        <v>0.01888419456397523</v>
       </c>
       <c r="N88" t="n">
-        <v>0.06782515670272082</v>
+        <v>0.02886277354025028</v>
       </c>
       <c r="O88" t="n">
-        <v>0.01899825446021641</v>
+        <v>0.01948168003892254</v>
       </c>
     </row>
     <row r="89" ht="15" customHeight="1">
@@ -10193,4578 +10167,4578 @@
         <v/>
       </c>
       <c r="F89" t="n">
-        <v>0.02358843598128658</v>
+        <v>0.0287856164910389</v>
       </c>
       <c r="G89" t="n">
-        <v>0.01982593811050905</v>
+        <v>0.02032870960583222</v>
       </c>
       <c r="J89" t="n">
-        <v>0.02110442410029295</v>
+        <v>0.05617957732648188</v>
       </c>
       <c r="K89" t="n">
-        <v>0.01997442231330446</v>
+        <v>0.02003943301494859</v>
       </c>
       <c r="L89" t="n">
-        <v>0.04162308036950388</v>
+        <v>0.07907476519150453</v>
       </c>
       <c r="M89" t="n">
-        <v>0.02045758039108408</v>
+        <v>0.01970524650153936</v>
       </c>
       <c r="N89" t="n">
-        <v>0.07076006602117935</v>
+        <v>0.0287856164910389</v>
       </c>
       <c r="O89" t="n">
-        <v>0.01982426552370408</v>
+        <v>0.02032870960583222</v>
       </c>
     </row>
     <row r="90" ht="15" customHeight="1">
       <c r="F90" t="n">
-        <v>0.02378875706594784</v>
+        <v>0.02921146208389035</v>
       </c>
       <c r="G90" t="n">
-        <v>0.0206520188651136</v>
+        <v>0.02117573917274189</v>
       </c>
       <c r="J90" t="n">
-        <v>0.02171844017434332</v>
+        <v>0.05670465247418893</v>
       </c>
       <c r="K90" t="n">
-        <v>0.02080668990969215</v>
+        <v>0.02087440939057144</v>
       </c>
       <c r="L90" t="n">
-        <v>0.04449326487334382</v>
+        <v>0.08072538517390376</v>
       </c>
       <c r="M90" t="n">
-        <v>0.02130997957404592</v>
+        <v>0.02052629843910351</v>
       </c>
       <c r="N90" t="n">
-        <v>0.07639169220387065</v>
+        <v>0.02921146208389035</v>
       </c>
       <c r="O90" t="n">
-        <v>0.02065027658719175</v>
+        <v>0.02117573917274189</v>
       </c>
     </row>
     <row r="91" ht="15" customHeight="1">
       <c r="F91" t="n">
-        <v>0.02610822718699161</v>
+        <v>0.0295505389111174</v>
       </c>
       <c r="G91" t="n">
-        <v>0.02147809961971814</v>
+        <v>0.02202276873965157</v>
       </c>
       <c r="J91" t="n">
-        <v>0.02284715882160786</v>
+        <v>0.05696548848099064</v>
       </c>
       <c r="K91" t="n">
-        <v>0.02163895750607983</v>
+        <v>0.0217093857661943</v>
       </c>
       <c r="L91" t="n">
-        <v>0.04756457689009561</v>
+        <v>0.08564034946609472</v>
       </c>
       <c r="M91" t="n">
-        <v>0.02216237875700776</v>
+        <v>0.02172070693627707</v>
       </c>
       <c r="N91" t="n">
-        <v>0.08125623227517553</v>
+        <v>0.0295505389111174</v>
       </c>
       <c r="O91" t="n">
-        <v>0.02147628765067942</v>
+        <v>0.02202276873965157</v>
       </c>
     </row>
     <row r="92" ht="15" customHeight="1">
       <c r="F92" t="n">
-        <v>0.03243295329315631</v>
+        <v>0.03021307556503296</v>
       </c>
       <c r="G92" t="n">
-        <v>0.02230418037432268</v>
+        <v>0.02286979830656125</v>
       </c>
       <c r="J92" t="n">
-        <v>0.02340768767016276</v>
+        <v>0.05678135402502987</v>
       </c>
       <c r="K92" t="n">
-        <v>0.02247122510246752</v>
+        <v>0.02254436214181716</v>
       </c>
       <c r="L92" t="n">
-        <v>0.05046212941260883</v>
+        <v>0.08542049247001754</v>
       </c>
       <c r="M92" t="n">
-        <v>0.0230147779399696</v>
+        <v>0.02216840231423179</v>
       </c>
       <c r="N92" t="n">
-        <v>0.08564034946609472</v>
+        <v>0.03021307556503296</v>
       </c>
       <c r="O92" t="n">
-        <v>0.02213053159545211</v>
+        <v>0.02286979830656125</v>
       </c>
     </row>
     <row r="93" ht="15" customHeight="1">
       <c r="F93" t="n">
-        <v>0.03064904233318029</v>
+        <v>0.03040930063794987</v>
       </c>
       <c r="G93" t="n">
-        <v>0.02313026112892723</v>
+        <v>0.02371682787347092</v>
       </c>
       <c r="J93" t="n">
-        <v>0.02431713434808415</v>
+        <v>0.05717151778444918</v>
       </c>
       <c r="K93" t="n">
-        <v>0.0233034926988552</v>
+        <v>0.02337933851744002</v>
       </c>
       <c r="L93" t="n">
-        <v>0.05411103543373325</v>
+        <v>0.08961705097575134</v>
       </c>
       <c r="M93" t="n">
-        <v>0.02386717712293143</v>
+        <v>0.02298945425179593</v>
       </c>
       <c r="N93" t="n">
-        <v>0.0971433603196224</v>
+        <v>0.03040930063794987</v>
       </c>
       <c r="O93" t="n">
-        <v>0.02312830977765476</v>
+        <v>0.02371682787347092</v>
       </c>
     </row>
     <row r="94" ht="15" customHeight="1">
       <c r="F94" t="n">
-        <v>0.03464260125580194</v>
+        <v>0.03074944272218098</v>
       </c>
       <c r="G94" t="n">
-        <v>0.02395634188353177</v>
+        <v>0.0245638574403806</v>
       </c>
       <c r="J94" t="n">
-        <v>0.02549260648344825</v>
+        <v>0.05845524843739114</v>
       </c>
       <c r="K94" t="n">
-        <v>0.02413576029524289</v>
+        <v>0.02421431489306287</v>
       </c>
       <c r="L94" t="n">
-        <v>0.05939180010517697</v>
+        <v>0.09262762860064677</v>
       </c>
       <c r="M94" t="n">
-        <v>0.02473049449124474</v>
+        <v>0.02381050618936007</v>
       </c>
       <c r="N94" t="n">
-        <v>0.1123629138909877</v>
+        <v>0.03074944272218098</v>
       </c>
       <c r="O94" t="n">
-        <v>0.02395432084114243</v>
+        <v>0.0245638574403806</v>
       </c>
     </row>
     <row r="95" ht="15" customHeight="1">
       <c r="F95" t="n">
-        <v>0.03829973700975967</v>
+        <v>0.03104373041003917</v>
       </c>
       <c r="G95" t="n">
-        <v>0.02478242263813632</v>
+        <v>0.02541088700729027</v>
       </c>
       <c r="J95" t="n">
-        <v>0.02705121170433121</v>
+        <v>0.05939180010517697</v>
       </c>
       <c r="K95" t="n">
-        <v>0.02496802789163058</v>
+        <v>0.02498284647584928</v>
       </c>
       <c r="L95" t="n">
-        <v>0.07116524384445905</v>
+        <v>0.09621741349826857</v>
       </c>
       <c r="M95" t="n">
-        <v>0.02557197548885511</v>
+        <v>0.02463155812692421</v>
       </c>
       <c r="N95" t="n">
-        <v>0.1280168316996032</v>
+        <v>0.03104373041003917</v>
       </c>
       <c r="O95" t="n">
-        <v>0.0247803319046301</v>
+        <v>0.02541088700729027</v>
       </c>
     </row>
     <row r="96" ht="15" customHeight="1">
       <c r="F96" t="n">
-        <v>0.03850655654379184</v>
+        <v>0.03210239229383723</v>
       </c>
       <c r="G96" t="n">
-        <v>0.02560850339274086</v>
+        <v>0.02625791657419995</v>
       </c>
       <c r="J96" t="n">
-        <v>0.02861005763880924</v>
+        <v>0.05983550045413483</v>
       </c>
       <c r="K96" t="n">
-        <v>0.02580029548801827</v>
+        <v>0.0258842676443086</v>
       </c>
       <c r="L96" t="n">
-        <v>0.09233605444044413</v>
+        <v>0.09845159382218094</v>
       </c>
       <c r="M96" t="n">
-        <v>0.02642437467181694</v>
+        <v>0.02545261006448835</v>
       </c>
       <c r="N96" t="n">
-        <v>0.1455133028616886</v>
+        <v>0.03210239229383723</v>
       </c>
       <c r="O96" t="n">
-        <v>0.02560634296811777</v>
+        <v>0.02625791657419995</v>
       </c>
     </row>
     <row r="97" ht="15" customHeight="1">
       <c r="F97" t="n">
-        <v>0.03614916680663682</v>
+        <v>0.03243565696588809</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02643458414734541</v>
+        <v>0.02710494614110962</v>
       </c>
       <c r="J97" t="n">
-        <v>0.03018625191495848</v>
+        <v>0.06145178181944461</v>
       </c>
       <c r="K97" t="n">
-        <v>0.02663256308440595</v>
+        <v>0.02671924401993145</v>
       </c>
       <c r="L97" t="n">
-        <v>0.1101205386142102</v>
+        <v>0.1025953577259485</v>
       </c>
       <c r="M97" t="n">
-        <v>0.02727677385477878</v>
+        <v>0.02627366200205249</v>
       </c>
       <c r="N97" t="n">
-        <v>0.157560516493463</v>
+        <v>0.03243565696588809</v>
       </c>
       <c r="O97" t="n">
-        <v>0.02643235403160544</v>
+        <v>0.02710494614110962</v>
       </c>
     </row>
     <row r="98" ht="15" customHeight="1">
       <c r="F98" t="n">
-        <v>0.03821108409159713</v>
+        <v>0.03314325074425921</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02726066490194995</v>
+        <v>0.02759866108850085</v>
       </c>
       <c r="J98" t="n">
+        <v>0.06354508152002597</v>
+      </c>
+      <c r="K98" t="n">
+        <v>0.02755422039555431</v>
+      </c>
+      <c r="L98" t="n">
+        <v>0.1077138933631355</v>
+      </c>
+      <c r="M98" t="n">
+        <v>0.02709471393961663</v>
+      </c>
+      <c r="N98" t="n">
         <v>0.03314325074425921</v>
       </c>
-      <c r="K98" t="n">
+      <c r="O98" t="n">
         <v>0.02759866108850085</v>
-      </c>
-      <c r="L98" t="n">
-        <v>0.1133264227854935</v>
-      </c>
-      <c r="M98" t="n">
-        <v>0.02812917303774062</v>
-      </c>
-      <c r="N98" t="n">
-        <v>0.1632666617111462</v>
-      </c>
-      <c r="O98" t="n">
-        <v>0.02725836509509311</v>
       </c>
     </row>
     <row r="99" ht="15" customHeight="1">
       <c r="F99" t="n">
-        <v>0.04012314808772356</v>
+        <v>0.03436461216790994</v>
       </c>
       <c r="G99" t="n">
-        <v>0.02808674565655449</v>
+        <v>0.02879900527492897</v>
       </c>
       <c r="J99" t="n">
-        <v>0.06393608756920967</v>
+        <v>0.06565835619390664</v>
       </c>
       <c r="K99" t="n">
-        <v>0.02829709827718132</v>
+        <v>0.02838919677117716</v>
       </c>
       <c r="L99" t="n">
-        <v>0.1137274125972809</v>
+        <v>0.1109723888873066</v>
       </c>
       <c r="M99" t="n">
-        <v>0.02898157222070245</v>
+        <v>0.02791576587718077</v>
       </c>
       <c r="N99" t="n">
-        <v>0.1638180226290757</v>
+        <v>0.03436461216790994</v>
       </c>
       <c r="O99" t="n">
-        <v>0.02808437615858078</v>
+        <v>0.02879900527492897</v>
       </c>
     </row>
     <row r="100" ht="15" customHeight="1">
       <c r="F100" t="n">
-        <v>0.03595903389741138</v>
+        <v>0.03589414438614562</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02891282641115904</v>
+        <v>0.02964603484183865</v>
       </c>
       <c r="J100" t="n">
-        <v>0.06341546207511033</v>
+        <v>0.06853456247911444</v>
       </c>
       <c r="K100" t="n">
-        <v>0.02912936587356901</v>
+        <v>0.02922417314680003</v>
       </c>
       <c r="L100" t="n">
-        <v>0.1126291575924077</v>
+        <v>0.1145360324520263</v>
       </c>
       <c r="M100" t="n">
-        <v>0.02983397140366429</v>
+        <v>0.02873681781474491</v>
       </c>
       <c r="N100" t="n">
-        <v>0.1623268358865733</v>
+        <v>0.03589414438614562</v>
       </c>
       <c r="O100" t="n">
-        <v>0.02891038722206845</v>
+        <v>0.02964603484183865</v>
       </c>
     </row>
     <row r="101" ht="15" customHeight="1">
       <c r="F101" t="n">
-        <v>0.03772711685348332</v>
+        <v>0.0372212270772616</v>
       </c>
       <c r="G101" t="n">
-        <v>0.02973890716576358</v>
+        <v>0.03049306440874833</v>
       </c>
       <c r="J101" t="n">
-        <v>0.06340351803787374</v>
+        <v>0.0717166570136768</v>
       </c>
       <c r="K101" t="n">
-        <v>0.02996163346995669</v>
+        <v>0.03005914952242288</v>
       </c>
       <c r="L101" t="n">
-        <v>0.1122728382223301</v>
+        <v>0.1204700122108589</v>
       </c>
       <c r="M101" t="n">
-        <v>0.03068637058662613</v>
+        <v>0.02955786975230905</v>
       </c>
       <c r="N101" t="n">
-        <v>0.1625405927090482</v>
+        <v>0.0372212270772616</v>
       </c>
       <c r="O101" t="n">
-        <v>0.02973639828555612</v>
+        <v>0.03049306440874833</v>
       </c>
     </row>
     <row r="102" ht="15" customHeight="1">
       <c r="F102" t="n">
-        <v>0.0364357722887621</v>
+        <v>0.03909723848221845</v>
       </c>
       <c r="G102" t="n">
-        <v>0.03056498792036813</v>
+        <v>0.03134009397565801</v>
       </c>
       <c r="J102" t="n">
-        <v>0.06252822057802694</v>
+        <v>0.07514759643562158</v>
       </c>
       <c r="K102" t="n">
-        <v>0.03079390106634438</v>
+        <v>0.03089412589804574</v>
       </c>
       <c r="L102" t="n">
-        <v>0.1105996349385047</v>
+        <v>0.1245395163173689</v>
       </c>
       <c r="M102" t="n">
-        <v>0.03153876976958796</v>
+        <v>0.03037892168987319</v>
       </c>
       <c r="N102" t="n">
-        <v>0.1609145224604319</v>
+        <v>0.03909723848221845</v>
       </c>
       <c r="O102" t="n">
-        <v>0.03056240934904379</v>
+        <v>0.03134009397565801</v>
       </c>
     </row>
     <row r="103" ht="15" customHeight="1">
       <c r="F103" t="n">
-        <v>0.03609337553607046</v>
+        <v>0.04177355684197658</v>
       </c>
       <c r="G103" t="n">
-        <v>0.03139106867497267</v>
+        <v>0.03218712354256768</v>
       </c>
       <c r="J103" t="n">
-        <v>0.06191753481609695</v>
+        <v>0.0792703373829764</v>
       </c>
       <c r="K103" t="n">
-        <v>0.03162616866273207</v>
+        <v>0.0317291022736686</v>
       </c>
       <c r="L103" t="n">
-        <v>0.1099507281923877</v>
+        <v>0.1288097329251208</v>
       </c>
       <c r="M103" t="n">
-        <v>0.0323911689525498</v>
+        <v>0.03119997362743733</v>
       </c>
       <c r="N103" t="n">
-        <v>0.1596038545046557</v>
+        <v>0.04177355684197658</v>
       </c>
       <c r="O103" t="n">
-        <v>0.03138842041253146</v>
+        <v>0.03218712354256768</v>
       </c>
     </row>
     <row r="104" ht="15" customHeight="1">
       <c r="F104" t="n">
-        <v>0.03870830192823115</v>
+        <v>0.04380156039749654</v>
       </c>
       <c r="G104" t="n">
-        <v>0.03221714942957721</v>
+        <v>0.03303415310947735</v>
       </c>
       <c r="J104" t="n">
-        <v>0.06149942587261094</v>
+        <v>0.08252783649376894</v>
       </c>
       <c r="K104" t="n">
-        <v>0.03245843625911975</v>
+        <v>0.03256407864929146</v>
       </c>
       <c r="L104" t="n">
-        <v>0.1086672984354355</v>
+        <v>0.1334458501876791</v>
       </c>
       <c r="M104" t="n">
-        <v>0.03324356813551164</v>
+        <v>0.03202102556500147</v>
       </c>
       <c r="N104" t="n">
-        <v>0.157963818205651</v>
+        <v>0.04380156039749654</v>
       </c>
       <c r="O104" t="n">
-        <v>0.03221443147601913</v>
+        <v>0.03303415310947735</v>
       </c>
     </row>
     <row r="105" ht="15" customHeight="1">
       <c r="F105" t="n">
-        <v>0.03828892679806688</v>
+        <v>0.04653262738973886</v>
       </c>
       <c r="G105" t="n">
-        <v>0.03304323018418175</v>
+        <v>0.03388118267638703</v>
       </c>
       <c r="J105" t="n">
-        <v>0.06030185886809587</v>
+        <v>0.08656305040602691</v>
       </c>
       <c r="K105" t="n">
-        <v>0.03329070385550744</v>
+        <v>0.03339905502491431</v>
       </c>
       <c r="L105" t="n">
-        <v>0.1067905261191044</v>
+        <v>0.1367130562586081</v>
       </c>
       <c r="M105" t="n">
-        <v>0.03409596731847347</v>
+        <v>0.0328420775025656</v>
       </c>
       <c r="N105" t="n">
-        <v>0.154749642927349</v>
+        <v>0.04653262738973886</v>
       </c>
       <c r="O105" t="n">
-        <v>0.0330404425395068</v>
+        <v>0.03388118267638703</v>
       </c>
     </row>
     <row r="106" ht="15" customHeight="1">
       <c r="F106" t="n">
-        <v>0.03484362547840038</v>
+        <v>0.04871813605966395</v>
       </c>
       <c r="G106" t="n">
-        <v>0.0338693109387863</v>
+        <v>0.0347282122432967</v>
       </c>
       <c r="J106" t="n">
-        <v>0.05945279892307888</v>
+        <v>0.09091893575777799</v>
       </c>
       <c r="K106" t="n">
-        <v>0.03412297145189512</v>
+        <v>0.03423403140053717</v>
       </c>
       <c r="L106" t="n">
-        <v>0.1047615916948508</v>
+        <v>0.1414765392914724</v>
       </c>
       <c r="M106" t="n">
-        <v>0.03494836650143531</v>
+        <v>0.03366312944012975</v>
       </c>
       <c r="N106" t="n">
-        <v>0.1525165580336812</v>
+        <v>0.04871813605966395</v>
       </c>
       <c r="O106" t="n">
-        <v>0.03386645360299447</v>
+        <v>0.0347282122432967</v>
       </c>
     </row>
     <row r="107" ht="15" customHeight="1">
       <c r="F107" t="n">
-        <v>0.0363807733020544</v>
+        <v>0.0513094646482324</v>
       </c>
       <c r="G107" t="n">
-        <v>0.03469539169339084</v>
+        <v>0.03557524181020638</v>
       </c>
       <c r="J107" t="n">
-        <v>0.05858021115808699</v>
+        <v>0.09503844918704984</v>
       </c>
       <c r="K107" t="n">
-        <v>0.03495523904828281</v>
+        <v>0.03506900777616002</v>
       </c>
       <c r="L107" t="n">
-        <v>0.103221675614131</v>
+        <v>0.1458014874398363</v>
       </c>
       <c r="M107" t="n">
-        <v>0.03580076568439715</v>
+        <v>0.03448418137769389</v>
       </c>
       <c r="N107" t="n">
-        <v>0.1513197928885789</v>
+        <v>0.0513094646482324</v>
       </c>
       <c r="O107" t="n">
-        <v>0.03469246466648215</v>
+        <v>0.03557524181020638</v>
       </c>
     </row>
     <row r="108" ht="15" customHeight="1">
       <c r="F108" t="n">
-        <v>0.03390874560185168</v>
+        <v>0.05405799139640459</v>
       </c>
       <c r="G108" t="n">
-        <v>0.03552147244799539</v>
+        <v>0.03642227137711605</v>
       </c>
       <c r="J108" t="n">
-        <v>0.05801206069364732</v>
+        <v>0.09826454733187018</v>
       </c>
       <c r="K108" t="n">
-        <v>0.0357875066446705</v>
+        <v>0.03590398415178288</v>
       </c>
       <c r="L108" t="n">
-        <v>0.1018119583284013</v>
+        <v>0.1489530888572646</v>
       </c>
       <c r="M108" t="n">
-        <v>0.03665316486735899</v>
+        <v>0.03530523331525803</v>
       </c>
       <c r="N108" t="n">
-        <v>0.1484145768559735</v>
+        <v>0.05405799139640459</v>
       </c>
       <c r="O108" t="n">
-        <v>0.03551847572996981</v>
+        <v>0.03642227137711605</v>
       </c>
     </row>
     <row r="109" ht="15" customHeight="1">
       <c r="F109" t="n">
-        <v>0.03643591771061494</v>
+        <v>0.05591509454514111</v>
       </c>
       <c r="G109" t="n">
-        <v>0.03634755320259993</v>
+        <v>0.03726930094402573</v>
       </c>
       <c r="J109" t="n">
-        <v>0.05707631265028686</v>
+        <v>0.1016401868302667</v>
       </c>
       <c r="K109" t="n">
-        <v>0.03661977424105818</v>
+        <v>0.03673896052740575</v>
       </c>
       <c r="L109" t="n">
-        <v>0.100973620289118</v>
+        <v>0.1523965316973215</v>
       </c>
       <c r="M109" t="n">
-        <v>0.03750556405032082</v>
+        <v>0.03612628525282217</v>
       </c>
       <c r="N109" t="n">
-        <v>0.1473561392997962</v>
+        <v>0.05591509454514111</v>
       </c>
       <c r="O109" t="n">
-        <v>0.03634448679345748</v>
+        <v>0.03726930094402573</v>
       </c>
     </row>
     <row r="110" ht="15" customHeight="1">
       <c r="F110" t="n">
-        <v>0.03497066496116689</v>
+        <v>0.05813215233540238</v>
       </c>
       <c r="G110" t="n">
-        <v>0.03717363395720447</v>
+        <v>0.03811633051093541</v>
       </c>
       <c r="J110" t="n">
-        <v>0.05630093214853273</v>
+        <v>0.105608324320267</v>
       </c>
       <c r="K110" t="n">
-        <v>0.03745204183744587</v>
+        <v>0.0375739369030286</v>
       </c>
       <c r="L110" t="n">
-        <v>0.09954784194773775</v>
+        <v>0.1569970041135713</v>
       </c>
       <c r="M110" t="n">
-        <v>0.03835796323328266</v>
+        <v>0.03694733719038631</v>
       </c>
       <c r="N110" t="n">
-        <v>0.1435997095839786</v>
+        <v>0.05813215233540238</v>
       </c>
       <c r="O110" t="n">
-        <v>0.03717049785694515</v>
+        <v>0.03811633051093541</v>
       </c>
     </row>
     <row r="111" ht="15" customHeight="1">
       <c r="F111" t="n">
-        <v>0.03252136268633031</v>
+        <v>0.06056054300814899</v>
       </c>
       <c r="G111" t="n">
-        <v>0.03799971471180902</v>
+        <v>0.03896336007784509</v>
       </c>
       <c r="J111" t="n">
-        <v>0.05571388430891201</v>
+        <v>0.1088119164398988</v>
       </c>
       <c r="K111" t="n">
-        <v>0.03828430943383355</v>
+        <v>0.03840891327865146</v>
       </c>
       <c r="L111" t="n">
-        <v>0.09767580375571649</v>
+        <v>0.1586196942595788</v>
       </c>
       <c r="M111" t="n">
-        <v>0.0392103624162445</v>
+        <v>0.03776838912795046</v>
       </c>
       <c r="N111" t="n">
-        <v>0.1428005170724517</v>
+        <v>0.06056054300814899</v>
       </c>
       <c r="O111" t="n">
-        <v>0.03799650892043282</v>
+        <v>0.03896336007784509</v>
       </c>
     </row>
     <row r="112" ht="15" customHeight="1">
       <c r="F112" t="n">
-        <v>0.03309638621892791</v>
+        <v>0.06215164480434131</v>
       </c>
       <c r="G112" t="n">
-        <v>0.03882579546641356</v>
+        <v>0.03981038964475476</v>
       </c>
       <c r="J112" t="n">
-        <v>0.05514313425195171</v>
+        <v>0.1108939198271899</v>
       </c>
       <c r="K112" t="n">
-        <v>0.03911657703022124</v>
+        <v>0.03924388965427432</v>
       </c>
       <c r="L112" t="n">
-        <v>0.09669868616451077</v>
+        <v>0.1612297902889083</v>
       </c>
       <c r="M112" t="n">
-        <v>0.04006276159920633</v>
+        <v>0.0385894410655146</v>
       </c>
       <c r="N112" t="n">
-        <v>0.1413137911291472</v>
+        <v>0.06215164480434131</v>
       </c>
       <c r="O112" t="n">
-        <v>0.03882251998392049</v>
+        <v>0.03981038964475476</v>
       </c>
     </row>
     <row r="113" ht="15" customHeight="1">
       <c r="F113" t="n">
-        <v>0.03170411089178242</v>
+        <v>0.0637568359649399</v>
       </c>
       <c r="G113" t="n">
-        <v>0.03965187622101811</v>
+        <v>0.04065741921166444</v>
       </c>
       <c r="J113" t="n">
-        <v>0.05501664709817893</v>
+        <v>0.1133972911201678</v>
       </c>
       <c r="K113" t="n">
-        <v>0.03994884462660892</v>
+        <v>0.04007886602989717</v>
       </c>
       <c r="L113" t="n">
-        <v>0.09675766962557686</v>
+        <v>0.1641924803551243</v>
       </c>
       <c r="M113" t="n">
-        <v>0.04091516078216817</v>
+        <v>0.03941049300307873</v>
       </c>
       <c r="N113" t="n">
-        <v>0.1386947611179963</v>
+        <v>0.0637568359649399</v>
       </c>
       <c r="O113" t="n">
-        <v>0.03964853104740816</v>
+        <v>0.04065741921166444</v>
       </c>
     </row>
     <row r="114" ht="15" customHeight="1">
       <c r="F114" t="n">
-        <v>0.03035291203771656</v>
+        <v>0.06472749473090526</v>
       </c>
       <c r="G114" t="n">
-        <v>0.04047795697562265</v>
+        <v>0.04150444877857411</v>
       </c>
       <c r="J114" t="n">
-        <v>0.0542623879681207</v>
+        <v>0.1152649869568603</v>
       </c>
       <c r="K114" t="n">
-        <v>0.04078111222299661</v>
+        <v>0.04091384240552003</v>
       </c>
       <c r="L114" t="n">
-        <v>0.09599393459037114</v>
+        <v>0.1672729526117913</v>
       </c>
       <c r="M114" t="n">
-        <v>0.04176755996513001</v>
+        <v>0.04023154494064287</v>
       </c>
       <c r="N114" t="n">
-        <v>0.1378986564029303</v>
+        <v>0.06472749473090526</v>
       </c>
       <c r="O114" t="n">
-        <v>0.04047454211089583</v>
+        <v>0.04150444877857411</v>
       </c>
     </row>
     <row r="115" ht="15" customHeight="1">
       <c r="F115" t="n">
-        <v>0.0310511649895531</v>
+        <v>0.06571499934319787</v>
       </c>
       <c r="G115" t="n">
-        <v>0.04130403773022719</v>
+        <v>0.04235147834548379</v>
       </c>
       <c r="J115" t="n">
-        <v>0.05450513488133728</v>
+        <v>0.1171399639752951</v>
       </c>
       <c r="K115" t="n">
-        <v>0.0416133798193843</v>
+        <v>0.04174881878114289</v>
       </c>
       <c r="L115" t="n">
-        <v>0.09574834760765499</v>
+        <v>0.1684363952124736</v>
       </c>
       <c r="M115" t="n">
-        <v>0.04261995914809184</v>
+        <v>0.04105259687820701</v>
       </c>
       <c r="N115" t="n">
-        <v>0.1381807063478807</v>
+        <v>0.06571499934319787</v>
       </c>
       <c r="O115" t="n">
-        <v>0.0413005531743835</v>
+        <v>0.04235147834548379</v>
       </c>
     </row>
     <row r="116" ht="15" customHeight="1">
       <c r="F116" t="n">
-        <v>0.03080724508011475</v>
+        <v>0.0662865014885184</v>
       </c>
       <c r="G116" t="n">
-        <v>0.04213011848483175</v>
+        <v>0.04319850791239346</v>
       </c>
       <c r="J116" t="n">
-        <v>0.0545910231527897</v>
+        <v>0.1187836002103539</v>
       </c>
       <c r="K116" t="n">
-        <v>0.04244564741577198</v>
+        <v>0.04258379515676575</v>
       </c>
       <c r="L116" t="n">
-        <v>0.09578988458363569</v>
+        <v>0.1697479963107357</v>
       </c>
       <c r="M116" t="n">
-        <v>0.04347235833105368</v>
+        <v>0.04187364881577115</v>
       </c>
       <c r="N116" t="n">
-        <v>0.1370961403167787</v>
+        <v>0.0662865014885184</v>
       </c>
       <c r="O116" t="n">
-        <v>0.04212656423787117</v>
+        <v>0.04319850791239346</v>
       </c>
     </row>
     <row r="117" ht="15" customHeight="1">
       <c r="F117" t="n">
-        <v>0.03162952764222425</v>
+        <v>0.06568319114273601</v>
       </c>
       <c r="G117" t="n">
-        <v>0.04295619923943628</v>
+        <v>0.04404553747930313</v>
       </c>
       <c r="J117" t="n">
-        <v>0.05458391259569705</v>
+        <v>0.1184835999918716</v>
       </c>
       <c r="K117" t="n">
-        <v>0.04327791501215967</v>
+        <v>0.04341877153238861</v>
       </c>
       <c r="L117" t="n">
-        <v>0.09646087195081482</v>
+        <v>0.1712806989321894</v>
       </c>
       <c r="M117" t="n">
-        <v>0.04432475751401552</v>
+        <v>0.04269470075333529</v>
       </c>
       <c r="N117" t="n">
-        <v>0.138339572557711</v>
+        <v>0.06568319114273601</v>
       </c>
       <c r="O117" t="n">
-        <v>0.04295257530135884</v>
+        <v>0.04404553747930313</v>
       </c>
     </row>
     <row r="118" ht="15" customHeight="1">
       <c r="F118" t="n">
-        <v>0.03152638800870432</v>
+        <v>0.06606853351317189</v>
       </c>
       <c r="G118" t="n">
-        <v>0.04378227999404083</v>
+        <v>0.04489256704621281</v>
       </c>
       <c r="J118" t="n">
-        <v>0.05507391654401701</v>
+        <v>0.1178775709460317</v>
       </c>
       <c r="K118" t="n">
-        <v>0.04411018260854736</v>
+        <v>0.04425374790801146</v>
       </c>
       <c r="L118" t="n">
-        <v>0.09683938137507764</v>
+        <v>0.170079915718615</v>
       </c>
       <c r="M118" t="n">
-        <v>0.04517715669697735</v>
+        <v>0.04351575269089943</v>
       </c>
       <c r="N118" t="n">
-        <v>0.1372252713144607</v>
+        <v>0.06606853351317189</v>
       </c>
       <c r="O118" t="n">
-        <v>0.04377858636484651</v>
+        <v>0.04489256704621281</v>
       </c>
     </row>
     <row r="119" ht="15" customHeight="1">
       <c r="F119" t="n">
-        <v>0.03150724765179647</v>
+        <v>0.06624247183664496</v>
       </c>
       <c r="G119" t="n">
-        <v>0.04460836074864537</v>
+        <v>0.04573959661312249</v>
       </c>
       <c r="J119" t="n">
-        <v>0.05515114833170727</v>
+        <v>0.1179597635851836</v>
       </c>
       <c r="K119" t="n">
-        <v>0.04494245020493504</v>
+        <v>0.04508872428363433</v>
       </c>
       <c r="L119" t="n">
-        <v>0.09750348452230923</v>
+        <v>0.1695176304901312</v>
       </c>
       <c r="M119" t="n">
-        <v>0.04602955587993919</v>
+        <v>0.04433680462846357</v>
       </c>
       <c r="N119" t="n">
-        <v>0.1394206211575779</v>
+        <v>0.06624247183664496</v>
       </c>
       <c r="O119" t="n">
-        <v>0.04460459742833418</v>
+        <v>0.04573959661312249</v>
       </c>
     </row>
     <row r="120" ht="15" customHeight="1">
       <c r="F120" t="n">
-        <v>0.03059553000458073</v>
+        <v>0.06580533703597878</v>
       </c>
       <c r="G120" t="n">
-        <v>0.04543444150324991</v>
+        <v>0.04658662618003216</v>
       </c>
       <c r="J120" t="n">
-        <v>0.05590572129272538</v>
+        <v>0.1179303805058504</v>
       </c>
       <c r="K120" t="n">
-        <v>0.04577471780132273</v>
+        <v>0.04592370065925718</v>
       </c>
       <c r="L120" t="n">
-        <v>0.09883125305839513</v>
+        <v>0.1699592706453591</v>
       </c>
       <c r="M120" t="n">
-        <v>0.04688195506290103</v>
+        <v>0.04515785656602771</v>
       </c>
       <c r="N120" t="n">
-        <v>0.1403936187198861</v>
+        <v>0.06580533703597878</v>
       </c>
       <c r="O120" t="n">
-        <v>0.04543060849182185</v>
+        <v>0.04658662618003216</v>
       </c>
     </row>
     <row r="121" ht="15" customHeight="1">
       <c r="F121" t="n">
-        <v>0.03178919917826774</v>
+        <v>0.06605746003399691</v>
       </c>
       <c r="G121" t="n">
-        <v>0.04626052225785447</v>
+        <v>0.04743365574694184</v>
       </c>
       <c r="J121" t="n">
-        <v>0.05622774876102911</v>
+        <v>0.118189624304555</v>
       </c>
       <c r="K121" t="n">
-        <v>0.04660698539771041</v>
+        <v>0.04675867703488003</v>
       </c>
       <c r="L121" t="n">
-        <v>0.1000007586492204</v>
+        <v>0.1707098000020905</v>
       </c>
       <c r="M121" t="n">
-        <v>0.04773435424586286</v>
+        <v>0.04597890850359185</v>
       </c>
       <c r="N121" t="n">
-        <v>0.1419122606342094</v>
+        <v>0.06605746003399691</v>
       </c>
       <c r="O121" t="n">
-        <v>0.04625661955530952</v>
+        <v>0.04743365574694184</v>
       </c>
     </row>
     <row r="122" ht="15" customHeight="1">
       <c r="F122" t="n">
-        <v>0.03307653072715978</v>
+        <v>0.06559917175352294</v>
       </c>
       <c r="G122" t="n">
-        <v>0.047086603012459</v>
+        <v>0.04828068531385152</v>
       </c>
       <c r="J122" t="n">
-        <v>0.0568073440705761</v>
+        <v>0.1178376975778205</v>
       </c>
       <c r="K122" t="n">
-        <v>0.0474392529940981</v>
+        <v>0.0475936534105029</v>
       </c>
       <c r="L122" t="n">
-        <v>0.1008900729606705</v>
+        <v>0.1695741823781174</v>
       </c>
       <c r="M122" t="n">
-        <v>0.0485867534288247</v>
+        <v>0.046799960441156</v>
       </c>
       <c r="N122" t="n">
-        <v>0.1434445435333713</v>
+        <v>0.06559917175352294</v>
       </c>
       <c r="O122" t="n">
-        <v>0.04708263061879719</v>
+        <v>0.04828068531385152</v>
       </c>
     </row>
     <row r="123" ht="15" customHeight="1">
       <c r="F123" t="n">
-        <v>0.03444580020555912</v>
+        <v>0.06573080311738035</v>
       </c>
       <c r="G123" t="n">
-        <v>0.04791268376706355</v>
+        <v>0.0491277148807612</v>
       </c>
       <c r="J123" t="n">
-        <v>0.05753462055532403</v>
+        <v>0.1176748029221702</v>
       </c>
       <c r="K123" t="n">
-        <v>0.04827152059048578</v>
+        <v>0.04842862978612575</v>
       </c>
       <c r="L123" t="n">
-        <v>0.1016772676586306</v>
+        <v>0.1691573815912319</v>
       </c>
       <c r="M123" t="n">
-        <v>0.04943915261178654</v>
+        <v>0.04762101237872014</v>
       </c>
       <c r="N123" t="n">
-        <v>0.1436584640501955</v>
+        <v>0.06573080311738035</v>
       </c>
       <c r="O123" t="n">
-        <v>0.04790864168228486</v>
+        <v>0.0491277148807612</v>
       </c>
     </row>
     <row r="124" ht="15" customHeight="1">
       <c r="F124" t="n">
-        <v>0.03288528316776808</v>
+        <v>0.06555268504839278</v>
       </c>
       <c r="G124" t="n">
-        <v>0.04873876452166809</v>
+        <v>0.04997474444767086</v>
       </c>
       <c r="J124" t="n">
-        <v>0.05839969154923048</v>
+        <v>0.117401142934127</v>
       </c>
       <c r="K124" t="n">
-        <v>0.04910378818687347</v>
+        <v>0.04926360616174861</v>
       </c>
       <c r="L124" t="n">
-        <v>0.1036404144089858</v>
+        <v>0.1695643614592261</v>
       </c>
       <c r="M124" t="n">
-        <v>0.05029155179474838</v>
+        <v>0.04844206431628428</v>
       </c>
       <c r="N124" t="n">
-        <v>0.1462220188175058</v>
+        <v>0.06555268504839278</v>
       </c>
       <c r="O124" t="n">
-        <v>0.04873465274577253</v>
+        <v>0.04997474444767086</v>
       </c>
     </row>
     <row r="125" ht="15" customHeight="1">
       <c r="F125" t="n">
-        <v>0.03438325516808895</v>
+        <v>0.06586514846938375</v>
       </c>
       <c r="G125" t="n">
-        <v>0.04956484527627264</v>
+        <v>0.05082177401458054</v>
       </c>
       <c r="J125" t="n">
-        <v>0.05859267038625322</v>
+        <v>0.1174169202102139</v>
       </c>
       <c r="K125" t="n">
-        <v>0.04993605578326116</v>
+        <v>0.05009858253737147</v>
       </c>
       <c r="L125" t="n">
-        <v>0.1053575848776216</v>
+        <v>0.1681000857998918</v>
       </c>
       <c r="M125" t="n">
-        <v>0.05114395097771021</v>
+        <v>0.04926311625384842</v>
       </c>
       <c r="N125" t="n">
-        <v>0.1474032044681259</v>
+        <v>0.06586514846938375</v>
       </c>
       <c r="O125" t="n">
-        <v>0.0495606638092602</v>
+        <v>0.05082177401458054</v>
       </c>
     </row>
     <row r="126" ht="15" customHeight="1">
       <c r="F126" t="n">
-        <v>0.03492799176082399</v>
+        <v>0.06516852430317686</v>
       </c>
       <c r="G126" t="n">
-        <v>0.05039092603087718</v>
+        <v>0.05166880358149022</v>
       </c>
       <c r="J126" t="n">
-        <v>0.05950367040034978</v>
+        <v>0.1182223373469542</v>
       </c>
       <c r="K126" t="n">
-        <v>0.05076832337964884</v>
+        <v>0.05093355891299432</v>
       </c>
       <c r="L126" t="n">
-        <v>0.1069068507304233</v>
+        <v>0.1676695184310213</v>
       </c>
       <c r="M126" t="n">
-        <v>0.05199635016067205</v>
+        <v>0.05008416819141256</v>
       </c>
       <c r="N126" t="n">
-        <v>0.1508700176348797</v>
+        <v>0.06516852430317686</v>
       </c>
       <c r="O126" t="n">
-        <v>0.05038667487274787</v>
+        <v>0.05166880358149022</v>
       </c>
     </row>
     <row r="127" ht="15" customHeight="1">
       <c r="F127" t="n">
-        <v>0.03250776850027552</v>
+        <v>0.06526314347259561</v>
       </c>
       <c r="G127" t="n">
-        <v>0.05121700678548172</v>
+        <v>0.05251583314839989</v>
       </c>
       <c r="J127" t="n">
-        <v>0.06032280492547797</v>
+        <v>0.1171175969408709</v>
       </c>
       <c r="K127" t="n">
-        <v>0.05160059097603653</v>
+        <v>0.05176853528861719</v>
       </c>
       <c r="L127" t="n">
-        <v>0.1077662836332759</v>
+        <v>0.1672776231704062</v>
       </c>
       <c r="M127" t="n">
-        <v>0.05284874934363389</v>
+        <v>0.0509052201289767</v>
       </c>
       <c r="N127" t="n">
-        <v>0.1524904549505907</v>
+        <v>0.06526314347259561</v>
       </c>
       <c r="O127" t="n">
-        <v>0.05121268593623554</v>
+        <v>0.05251583314839989</v>
       </c>
     </row>
     <row r="128" ht="15" customHeight="1">
       <c r="F128" t="n">
-        <v>0.03411086094074584</v>
+        <v>0.06524933690046365</v>
       </c>
       <c r="G128" t="n">
-        <v>0.05204308754008626</v>
+        <v>0.05336286271530957</v>
       </c>
       <c r="J128" t="n">
-        <v>0.06094018729559532</v>
+        <v>0.1181029015884871</v>
       </c>
       <c r="K128" t="n">
-        <v>0.05243285857242421</v>
+        <v>0.05260351166424004</v>
       </c>
       <c r="L128" t="n">
-        <v>0.1093139552520649</v>
+        <v>0.166329363835839</v>
       </c>
       <c r="M128" t="n">
-        <v>0.05370114852659572</v>
+        <v>0.05172627206654084</v>
       </c>
       <c r="N128" t="n">
-        <v>0.1554325130480827</v>
+        <v>0.06524933690046365</v>
       </c>
       <c r="O128" t="n">
-        <v>0.05203869699972321</v>
+        <v>0.05336286271530957</v>
       </c>
     </row>
     <row r="129" ht="15" customHeight="1">
       <c r="F129" t="n">
-        <v>0.03672554463653721</v>
+        <v>0.06482743550960447</v>
       </c>
       <c r="G129" t="n">
-        <v>0.05286916829469081</v>
+        <v>0.05420989228221924</v>
       </c>
       <c r="J129" t="n">
-        <v>0.06174593084465964</v>
+        <v>0.1179784538863258</v>
       </c>
       <c r="K129" t="n">
-        <v>0.0532651261688119</v>
+        <v>0.0534384880398629</v>
       </c>
       <c r="L129" t="n">
-        <v>0.1103279372526755</v>
+        <v>0.1650297042451113</v>
       </c>
       <c r="M129" t="n">
-        <v>0.05455354770955756</v>
+        <v>0.05254732400410498</v>
       </c>
       <c r="N129" t="n">
-        <v>0.1571641885601795</v>
+        <v>0.06482743550960447</v>
       </c>
       <c r="O129" t="n">
-        <v>0.05286470806321088</v>
+        <v>0.05420989228221924</v>
       </c>
     </row>
     <row r="130" ht="15" customHeight="1">
       <c r="F130" t="n">
-        <v>0.03534009514195191</v>
+        <v>0.06489777022284161</v>
       </c>
       <c r="G130" t="n">
-        <v>0.05369524904929535</v>
+        <v>0.05505692184912892</v>
       </c>
       <c r="J130" t="n">
-        <v>0.06233014890662843</v>
+        <v>0.1172444564309101</v>
       </c>
       <c r="K130" t="n">
-        <v>0.05409739376519958</v>
+        <v>0.05427346441548576</v>
       </c>
       <c r="L130" t="n">
-        <v>0.1117863013009929</v>
+        <v>0.1651836082160153</v>
       </c>
       <c r="M130" t="n">
-        <v>0.0554059468925194</v>
+        <v>0.05336837594166912</v>
       </c>
       <c r="N130" t="n">
-        <v>0.1596534781197048</v>
+        <v>0.06489777022284161</v>
       </c>
       <c r="O130" t="n">
-        <v>0.05369071912669856</v>
+        <v>0.05505692184912892</v>
       </c>
     </row>
     <row r="131" ht="15" customHeight="1">
       <c r="F131" t="n">
-        <v>0.03594278801129229</v>
+        <v>0.06456067196299876</v>
       </c>
       <c r="G131" t="n">
-        <v>0.05452132980389991</v>
+        <v>0.0559039514160386</v>
       </c>
       <c r="J131" t="n">
-        <v>0.06318295481545948</v>
+        <v>0.1175011118187632</v>
       </c>
       <c r="K131" t="n">
-        <v>0.05492966136158728</v>
+        <v>0.05510844079110861</v>
       </c>
       <c r="L131" t="n">
-        <v>0.1133671190629025</v>
+        <v>0.162996039566343</v>
       </c>
       <c r="M131" t="n">
-        <v>0.05625834607548123</v>
+        <v>0.05418942787923325</v>
       </c>
       <c r="N131" t="n">
-        <v>0.1610683783594823</v>
+        <v>0.06456067196299876</v>
       </c>
       <c r="O131" t="n">
-        <v>0.05451673019018622</v>
+        <v>0.0559039514160386</v>
       </c>
     </row>
     <row r="132" ht="15" customHeight="1">
       <c r="F132" t="n">
-        <v>0.03852189879886059</v>
+        <v>0.06441647165289936</v>
       </c>
       <c r="G132" t="n">
-        <v>0.05534741055850444</v>
+        <v>0.05675098098294827</v>
       </c>
       <c r="J132" t="n">
-        <v>0.0638944619051104</v>
+        <v>0.116648622646408</v>
       </c>
       <c r="K132" t="n">
-        <v>0.05576192895797496</v>
+        <v>0.05594341716673147</v>
       </c>
       <c r="L132" t="n">
-        <v>0.1143484622042895</v>
+        <v>0.1626719621138863</v>
       </c>
       <c r="M132" t="n">
-        <v>0.05711074525844307</v>
+        <v>0.05501047981679739</v>
       </c>
       <c r="N132" t="n">
-        <v>0.1621768859123359</v>
+        <v>0.06441647165289936</v>
       </c>
       <c r="O132" t="n">
-        <v>0.0553427412536739</v>
+        <v>0.05675098098294827</v>
       </c>
     </row>
     <row r="133" ht="15" customHeight="1">
       <c r="F133" t="n">
-        <v>0.03606570305895911</v>
+        <v>0.06486550021536698</v>
       </c>
       <c r="G133" t="n">
-        <v>0.05617349131310898</v>
+        <v>0.05759801054985795</v>
       </c>
       <c r="J133" t="n">
-        <v>0.06415478350953881</v>
+        <v>0.1162871915103678</v>
       </c>
       <c r="K133" t="n">
-        <v>0.05659419655436265</v>
+        <v>0.05677839354235432</v>
       </c>
       <c r="L133" t="n">
-        <v>0.1152084023910392</v>
+        <v>0.1608163396764375</v>
       </c>
       <c r="M133" t="n">
-        <v>0.05796314444140491</v>
+        <v>0.05583153175436154</v>
       </c>
       <c r="N133" t="n">
-        <v>0.1641469974110891</v>
+        <v>0.06486550021536698</v>
       </c>
       <c r="O133" t="n">
-        <v>0.05616875231716156</v>
+        <v>0.05759801054985795</v>
       </c>
     </row>
     <row r="134" ht="15" customHeight="1">
       <c r="F134" t="n">
-        <v>0.03756247634589015</v>
+        <v>0.06450808857322525</v>
       </c>
       <c r="G134" t="n">
-        <v>0.05699957206771353</v>
+        <v>0.05844504011676763</v>
       </c>
       <c r="J134" t="n">
-        <v>0.06505403296270244</v>
+        <v>0.1162170210071655</v>
       </c>
       <c r="K134" t="n">
-        <v>0.05742646415075033</v>
+        <v>0.05761336991797719</v>
       </c>
       <c r="L134" t="n">
-        <v>0.1168250112890368</v>
+        <v>0.1606341360717883</v>
       </c>
       <c r="M134" t="n">
-        <v>0.05881554362436674</v>
+        <v>0.05665258369192568</v>
       </c>
       <c r="N134" t="n">
-        <v>0.1656467094885657</v>
+        <v>0.06450808857322525</v>
       </c>
       <c r="O134" t="n">
-        <v>0.05699476338064923</v>
+        <v>0.05844504011676763</v>
       </c>
     </row>
     <row r="135" ht="15" customHeight="1">
       <c r="F135" t="n">
-        <v>0.039000494213956</v>
+        <v>0.06454456764929768</v>
       </c>
       <c r="G135" t="n">
-        <v>0.05782565282231808</v>
+        <v>0.05929206968367731</v>
       </c>
       <c r="J135" t="n">
-        <v>0.06498232359855895</v>
+        <v>0.1160383137333242</v>
       </c>
       <c r="K135" t="n">
-        <v>0.05825873174713802</v>
+        <v>0.05844834629360005</v>
       </c>
       <c r="L135" t="n">
-        <v>0.1168763605641677</v>
+        <v>0.1592303151177308</v>
       </c>
       <c r="M135" t="n">
-        <v>0.05966794280732858</v>
+        <v>0.05747363562948982</v>
       </c>
       <c r="N135" t="n">
-        <v>0.1666440187775894</v>
+        <v>0.06454456764929768</v>
       </c>
       <c r="O135" t="n">
-        <v>0.05782077444413689</v>
+        <v>0.05929206968367731</v>
       </c>
     </row>
     <row r="136" ht="15" customHeight="1">
       <c r="F136" t="n">
-        <v>0.03736803221745894</v>
+        <v>0.06407526836640788</v>
       </c>
       <c r="G136" t="n">
-        <v>0.05865173357692262</v>
+        <v>0.06013909925058698</v>
       </c>
       <c r="J136" t="n">
-        <v>0.06572976875106597</v>
+        <v>0.1168512722853672</v>
       </c>
       <c r="K136" t="n">
-        <v>0.05909099934352571</v>
+        <v>0.05928332266922291</v>
       </c>
       <c r="L136" t="n">
-        <v>0.117440521882317</v>
+        <v>0.1595098406320572</v>
       </c>
       <c r="M136" t="n">
-        <v>0.06052034199029042</v>
+        <v>0.05829468756705396</v>
       </c>
       <c r="N136" t="n">
-        <v>0.1682069219109842</v>
+        <v>0.06407526836640788</v>
       </c>
       <c r="O136" t="n">
-        <v>0.05864678550762457</v>
+        <v>0.06013909925058698</v>
       </c>
     </row>
     <row r="137" ht="15" customHeight="1">
       <c r="F137" t="n">
-        <v>0.04065336591070128</v>
+        <v>0.06420052164737934</v>
       </c>
       <c r="G137" t="n">
-        <v>0.05947781433152716</v>
+        <v>0.06098612881749665</v>
       </c>
       <c r="J137" t="n">
-        <v>0.06568648175418114</v>
+        <v>0.1165560992598172</v>
       </c>
       <c r="K137" t="n">
-        <v>0.05992326693991339</v>
+        <v>0.06011829904484576</v>
       </c>
       <c r="L137" t="n">
-        <v>0.1187836002103539</v>
+        <v>0.1575776764325592</v>
       </c>
       <c r="M137" t="n">
-        <v>0.06137274117325225</v>
+        <v>0.0591157395046181</v>
       </c>
       <c r="N137" t="n">
-        <v>0.1696034155215734</v>
+        <v>0.06420052164737934</v>
       </c>
       <c r="O137" t="n">
-        <v>0.05947279657111224</v>
+        <v>0.06098612881749665</v>
       </c>
     </row>
     <row r="138" ht="15" customHeight="1">
       <c r="F138" t="n">
-        <v>0.04184477084798531</v>
+        <v>0.06362065841503566</v>
       </c>
       <c r="G138" t="n">
-        <v>0.06030389508613171</v>
+        <v>0.06183315838440633</v>
       </c>
       <c r="J138" t="n">
-        <v>0.06624257594186218</v>
+        <v>0.1153529972531977</v>
       </c>
       <c r="K138" t="n">
-        <v>0.06075553453630108</v>
+        <v>0.06095327542046862</v>
       </c>
       <c r="L138" t="n">
-        <v>0.1190469748378223</v>
+        <v>0.1565387863370291</v>
       </c>
       <c r="M138" t="n">
-        <v>0.06222514035621409</v>
+        <v>0.05993679144218224</v>
       </c>
       <c r="N138" t="n">
-        <v>0.1708014962421812</v>
+        <v>0.06362065841503566</v>
       </c>
       <c r="O138" t="n">
-        <v>0.06029880763459991</v>
+        <v>0.06183315838440633</v>
       </c>
     </row>
     <row r="139" ht="15" customHeight="1">
       <c r="F139" t="n">
-        <v>0.04193408024725295</v>
+        <v>0.06373600959220042</v>
       </c>
       <c r="G139" t="n">
-        <v>0.06112997584073625</v>
+        <v>0.06268018795131601</v>
       </c>
       <c r="J139" t="n">
-        <v>0.0662865014885184</v>
+        <v>0.1156421688620315</v>
       </c>
       <c r="K139" t="n">
-        <v>0.06158780213268876</v>
+        <v>0.06178825179609147</v>
       </c>
       <c r="L139" t="n">
-        <v>0.1181923817688645</v>
+        <v>0.1561981341632587</v>
       </c>
       <c r="M139" t="n">
-        <v>0.06307753953917593</v>
+        <v>0.06075784337974638</v>
       </c>
       <c r="N139" t="n">
-        <v>0.1695691607056311</v>
+        <v>0.06373600959220042</v>
       </c>
       <c r="O139" t="n">
-        <v>0.06112481869808759</v>
+        <v>0.06268018795131601</v>
       </c>
     </row>
     <row r="140" ht="15" customHeight="1">
       <c r="F140" t="n">
-        <v>0.04093392033909396</v>
+        <v>0.06304690610169715</v>
       </c>
       <c r="G140" t="n">
-        <v>0.06195605659534079</v>
+        <v>0.06352721751822567</v>
       </c>
       <c r="J140" t="n">
-        <v>0.06571675569239711</v>
+        <v>0.1156238166828417</v>
       </c>
       <c r="K140" t="n">
-        <v>0.06242006972907645</v>
+        <v>0.06262322817171433</v>
       </c>
       <c r="L140" t="n">
-        <v>0.118531978301587</v>
+        <v>0.1544606837290401</v>
       </c>
       <c r="M140" t="n">
-        <v>0.06392993872213776</v>
+        <v>0.06157889531731051</v>
       </c>
       <c r="N140" t="n">
-        <v>0.1712806989321894</v>
+        <v>0.06304690610169715</v>
       </c>
       <c r="O140" t="n">
-        <v>0.06195082976157525</v>
+        <v>0.06352721751822567</v>
       </c>
     </row>
     <row r="141" ht="15" customHeight="1">
       <c r="F141" t="n">
-        <v>0.04093321791737167</v>
+        <v>0.06305367886634942</v>
       </c>
       <c r="G141" t="n">
-        <v>0.06278213734994534</v>
+        <v>0.06437424708513535</v>
       </c>
       <c r="J141" t="n">
-        <v>0.06583905071477118</v>
+        <v>0.1154981433121515</v>
       </c>
       <c r="K141" t="n">
-        <v>0.06325233732546413</v>
+        <v>0.06345820454733719</v>
       </c>
       <c r="L141" t="n">
-        <v>0.1196656950060073</v>
+        <v>0.1531313988521653</v>
       </c>
       <c r="M141" t="n">
-        <v>0.0647823379050996</v>
+        <v>0.06239994725487465</v>
       </c>
       <c r="N141" t="n">
-        <v>0.1702386910470721</v>
+        <v>0.06305367886634942</v>
       </c>
       <c r="O141" t="n">
-        <v>0.06277684082506292</v>
+        <v>0.06437424708513535</v>
       </c>
     </row>
     <row r="142" ht="15" customHeight="1">
       <c r="F142" t="n">
-        <v>0.04093195763817824</v>
+        <v>0.06295665880898081</v>
       </c>
       <c r="G142" t="n">
-        <v>0.06360821810454989</v>
+        <v>0.06522127665204502</v>
       </c>
       <c r="J142" t="n">
-        <v>0.06636062223359947</v>
+        <v>0.1149653513464839</v>
       </c>
       <c r="K142" t="n">
-        <v>0.06408460492185182</v>
+        <v>0.06429318092296006</v>
       </c>
       <c r="L142" t="n">
-        <v>0.1198934624521431</v>
+        <v>0.1520152433504263</v>
       </c>
       <c r="M142" t="n">
-        <v>0.06563473708806143</v>
+        <v>0.0632209991924388</v>
       </c>
       <c r="N142" t="n">
-        <v>0.1697784455783726</v>
+        <v>0.06295665880898081</v>
       </c>
       <c r="O142" t="n">
-        <v>0.0636028518885506</v>
+        <v>0.06522127665204502</v>
       </c>
     </row>
     <row r="143" ht="15" customHeight="1">
       <c r="F143" t="n">
-        <v>0.04193014087043044</v>
+        <v>0.06255617685241489</v>
       </c>
       <c r="G143" t="n">
-        <v>0.06443429885915443</v>
+        <v>0.06606830621895469</v>
       </c>
       <c r="J143" t="n">
-        <v>0.06618147494208231</v>
+        <v>0.1153256433823621</v>
       </c>
       <c r="K143" t="n">
-        <v>0.06491687251823951</v>
+        <v>0.06512815729858291</v>
       </c>
       <c r="L143" t="n">
-        <v>0.1194152112100117</v>
+        <v>0.1512171810416152</v>
       </c>
       <c r="M143" t="n">
-        <v>0.06648713627102328</v>
+        <v>0.06404205113000294</v>
       </c>
       <c r="N143" t="n">
-        <v>0.1693933329398368</v>
+        <v>0.06255617685241489</v>
       </c>
       <c r="O143" t="n">
-        <v>0.06442886295203826</v>
+        <v>0.06606830621895469</v>
       </c>
     </row>
     <row r="144" ht="15" customHeight="1">
       <c r="F144" t="n">
-        <v>0.04192776898304509</v>
+        <v>0.06285256391947518</v>
       </c>
       <c r="G144" t="n">
-        <v>0.06526037961375897</v>
+        <v>0.06691533578586438</v>
       </c>
       <c r="J144" t="n">
-        <v>0.06640161353342024</v>
+        <v>0.114579222016309</v>
       </c>
       <c r="K144" t="n">
-        <v>0.06574914011462718</v>
+        <v>0.06596313367420577</v>
       </c>
       <c r="L144" t="n">
-        <v>0.1200308718496308</v>
+        <v>0.1498421757435239</v>
       </c>
       <c r="M144" t="n">
-        <v>0.06733953545398511</v>
+        <v>0.06486310306756708</v>
       </c>
       <c r="N144" t="n">
-        <v>0.1707845450478966</v>
+        <v>0.06285256391947518</v>
       </c>
       <c r="O144" t="n">
-        <v>0.06525487401552593</v>
+        <v>0.06691533578586438</v>
       </c>
     </row>
     <row r="145" ht="15" customHeight="1">
       <c r="F145" t="n">
-        <v>0.0379248433449389</v>
+        <v>0.06224615093298526</v>
       </c>
       <c r="G145" t="n">
-        <v>0.06608646036836351</v>
+        <v>0.06776236535277405</v>
       </c>
       <c r="J145" t="n">
-        <v>0.06582104270081367</v>
+        <v>0.1140262898448479</v>
       </c>
       <c r="K145" t="n">
-        <v>0.06658140771101488</v>
+        <v>0.06679811004982862</v>
       </c>
       <c r="L145" t="n">
-        <v>0.1203403749410178</v>
+        <v>0.1500951912739444</v>
       </c>
       <c r="M145" t="n">
-        <v>0.06819193463694695</v>
+        <v>0.06568415500513121</v>
       </c>
       <c r="N145" t="n">
-        <v>0.1691532738189842</v>
+        <v>0.06224615093298526</v>
       </c>
       <c r="O145" t="n">
-        <v>0.06608088507901359</v>
+        <v>0.06776236535277405</v>
       </c>
     </row>
     <row r="146" ht="15" customHeight="1">
       <c r="F146" t="n">
-        <v>0.04092136532502871</v>
+        <v>0.06213726881576871</v>
       </c>
       <c r="G146" t="n">
-        <v>0.06691254112296806</v>
+        <v>0.06860939491968372</v>
       </c>
       <c r="J146" t="n">
-        <v>0.066239767137463</v>
+        <v>0.1144670494645016</v>
       </c>
       <c r="K146" t="n">
-        <v>0.06741367530740257</v>
+        <v>0.06763308642545147</v>
       </c>
       <c r="L146" t="n">
-        <v>0.1203436510541905</v>
+        <v>0.1488811914506689</v>
       </c>
       <c r="M146" t="n">
-        <v>0.06904433381990879</v>
+        <v>0.06650520694269536</v>
       </c>
       <c r="N146" t="n">
-        <v>0.1694007111695311</v>
+        <v>0.06213726881576871</v>
       </c>
       <c r="O146" t="n">
-        <v>0.06690689614250127</v>
+        <v>0.06860939491968372</v>
       </c>
     </row>
     <row r="147" ht="15" customHeight="1">
       <c r="F147" t="n">
-        <v>0.04091733629223124</v>
+        <v>0.06212624849064909</v>
       </c>
       <c r="G147" t="n">
-        <v>0.0677386218775726</v>
+        <v>0.06945642448659341</v>
       </c>
       <c r="J147" t="n">
-        <v>0.06605779153656872</v>
+        <v>0.1133017034717934</v>
       </c>
       <c r="K147" t="n">
-        <v>0.06824594290379024</v>
+        <v>0.06846806280107434</v>
       </c>
       <c r="L147" t="n">
-        <v>0.1204406307591662</v>
+        <v>0.1485051400914892</v>
       </c>
       <c r="M147" t="n">
-        <v>0.06989673300287062</v>
+        <v>0.0673262588802595</v>
       </c>
       <c r="N147" t="n">
-        <v>0.1695280490159696</v>
+        <v>0.06212624849064909</v>
       </c>
       <c r="O147" t="n">
-        <v>0.06773290720598894</v>
+        <v>0.06945642448659341</v>
       </c>
     </row>
     <row r="148" ht="15" customHeight="1">
       <c r="F148" t="n">
-        <v>0.0379127576154633</v>
+        <v>0.0616134208804499</v>
       </c>
       <c r="G148" t="n">
-        <v>0.06856470263217714</v>
+        <v>0.07030345405350308</v>
       </c>
       <c r="J148" t="n">
-        <v>0.0662751205913313</v>
+        <v>0.1140304544632464</v>
       </c>
       <c r="K148" t="n">
-        <v>0.06907821050017794</v>
+        <v>0.0693030391766972</v>
       </c>
       <c r="L148" t="n">
-        <v>0.1212312446259624</v>
+        <v>0.1468720010141973</v>
       </c>
       <c r="M148" t="n">
-        <v>0.07074913218583247</v>
+        <v>0.06814731081782364</v>
       </c>
       <c r="N148" t="n">
-        <v>0.1690364792747314</v>
+        <v>0.0616134208804499</v>
       </c>
       <c r="O148" t="n">
-        <v>0.06855891826947662</v>
+        <v>0.07030345405350308</v>
       </c>
     </row>
     <row r="149" ht="15" customHeight="1">
       <c r="F149" t="n">
-        <v>0.03990763066364164</v>
+        <v>0.06179911690799479</v>
       </c>
       <c r="G149" t="n">
-        <v>0.06939078338678169</v>
+        <v>0.07115048362041276</v>
       </c>
       <c r="J149" t="n">
-        <v>0.06619175899495118</v>
+        <v>0.1130535050353836</v>
       </c>
       <c r="K149" t="n">
-        <v>0.06991047809656563</v>
+        <v>0.07013801555232005</v>
       </c>
       <c r="L149" t="n">
-        <v>0.1212154232245966</v>
+        <v>0.1467867380365855</v>
       </c>
       <c r="M149" t="n">
-        <v>0.0716015313687943</v>
+        <v>0.06896836275538779</v>
       </c>
       <c r="N149" t="n">
-        <v>0.1691271938622486</v>
+        <v>0.06179911690799479</v>
       </c>
       <c r="O149" t="n">
-        <v>0.06938492933296429</v>
+        <v>0.07115048362041276</v>
       </c>
     </row>
     <row r="150" ht="15" customHeight="1">
       <c r="F150" t="n">
-        <v>0.04090195680568307</v>
+        <v>0.0609836674961073</v>
       </c>
       <c r="G150" t="n">
-        <v>0.07021686414138624</v>
+        <v>0.07199751318732243</v>
       </c>
       <c r="J150" t="n">
-        <v>0.06620771144062874</v>
+        <v>0.112471057784728</v>
       </c>
       <c r="K150" t="n">
-        <v>0.0707427456929533</v>
+        <v>0.07097299192794292</v>
       </c>
       <c r="L150" t="n">
-        <v>0.1213930971250865</v>
+        <v>0.1453478833600004</v>
       </c>
       <c r="M150" t="n">
-        <v>0.07245393055175614</v>
+        <v>0.06978941469295193</v>
       </c>
       <c r="N150" t="n">
-        <v>0.169601384694953</v>
+        <v>0.0609836674961073</v>
       </c>
       <c r="O150" t="n">
-        <v>0.07021094039645195</v>
+        <v>0.07199751318732243</v>
       </c>
     </row>
     <row r="151" ht="15" customHeight="1">
       <c r="F151" t="n">
-        <v>0.03789573741050431</v>
+        <v>0.06076740356761097</v>
       </c>
       <c r="G151" t="n">
-        <v>0.07104294489599078</v>
+        <v>0.07284454275423211</v>
       </c>
       <c r="J151" t="n">
-        <v>0.06642298262156453</v>
+        <v>0.1127833153078028</v>
       </c>
       <c r="K151" t="n">
-        <v>0.071575013289341</v>
+        <v>0.07180796830356577</v>
       </c>
       <c r="L151" t="n">
-        <v>0.1212641968974494</v>
+        <v>0.1446249080537042</v>
       </c>
       <c r="M151" t="n">
-        <v>0.07330632973471797</v>
+        <v>0.07061046663051607</v>
       </c>
       <c r="N151" t="n">
-        <v>0.1685602436892765</v>
+        <v>0.06076740356761097</v>
       </c>
       <c r="O151" t="n">
-        <v>0.07103695145993963</v>
+        <v>0.07284454275423211</v>
       </c>
     </row>
     <row r="152" ht="15" customHeight="1">
       <c r="F152" t="n">
-        <v>0.0418889738470222</v>
+        <v>0.06065065604532931</v>
       </c>
       <c r="G152" t="n">
-        <v>0.07186902565059532</v>
+        <v>0.07369157232114179</v>
       </c>
       <c r="J152" t="n">
-        <v>0.06603757723095889</v>
+        <v>0.1128904802011311</v>
       </c>
       <c r="K152" t="n">
-        <v>0.07240728088572868</v>
+        <v>0.07264294467918864</v>
       </c>
       <c r="L152" t="n">
-        <v>0.1211286531117031</v>
+        <v>0.1437126190723496</v>
       </c>
       <c r="M152" t="n">
-        <v>0.07415872891767981</v>
+        <v>0.07143151856808021</v>
       </c>
       <c r="N152" t="n">
-        <v>0.1687049627616512</v>
+        <v>0.06065065604532931</v>
       </c>
       <c r="O152" t="n">
-        <v>0.07186296252342729</v>
+        <v>0.07369157232114179</v>
       </c>
     </row>
     <row r="153" ht="15" customHeight="1">
       <c r="F153" t="n">
-        <v>0.03788166748415345</v>
+        <v>0.06063375585208601</v>
       </c>
       <c r="G153" t="n">
-        <v>0.07269510640519987</v>
+        <v>0.07453860188805146</v>
       </c>
       <c r="J153" t="n">
-        <v>0.06615149996201229</v>
+        <v>0.1115927550612359</v>
       </c>
       <c r="K153" t="n">
-        <v>0.07323954848211636</v>
+        <v>0.07347792105481149</v>
       </c>
       <c r="L153" t="n">
-        <v>0.121486396337865</v>
+        <v>0.1433103710949651</v>
       </c>
       <c r="M153" t="n">
-        <v>0.07501112810064164</v>
+        <v>0.07225257050564435</v>
       </c>
       <c r="N153" t="n">
-        <v>0.1687367338285088</v>
+        <v>0.06063375585208601</v>
       </c>
       <c r="O153" t="n">
-        <v>0.07268897358691497</v>
+        <v>0.07453860188805146</v>
       </c>
     </row>
     <row r="154" ht="15" customHeight="1">
       <c r="F154" t="n">
-        <v>0.03887381969081488</v>
+        <v>0.06031703391070452</v>
       </c>
       <c r="G154" t="n">
-        <v>0.07352118715980441</v>
+        <v>0.07538563145496113</v>
       </c>
       <c r="J154" t="n">
-        <v>0.06626475550792528</v>
+        <v>0.1113903424846404</v>
       </c>
       <c r="K154" t="n">
-        <v>0.07407181607850405</v>
+        <v>0.07431289743043434</v>
       </c>
       <c r="L154" t="n">
-        <v>0.1215373571459526</v>
+        <v>0.1420175188005791</v>
       </c>
       <c r="M154" t="n">
-        <v>0.07586352728360349</v>
+        <v>0.07307362244320849</v>
       </c>
       <c r="N154" t="n">
-        <v>0.1680567488062814</v>
+        <v>0.06031703391070452</v>
       </c>
       <c r="O154" t="n">
-        <v>0.07351498465040263</v>
+        <v>0.07538563145496113</v>
       </c>
     </row>
     <row r="155" ht="15" customHeight="1">
       <c r="F155" t="n">
-        <v>0.03786543183592324</v>
+        <v>0.06050082114400844</v>
       </c>
       <c r="G155" t="n">
-        <v>0.07434726791440895</v>
+        <v>0.07623266102187082</v>
       </c>
       <c r="J155" t="n">
-        <v>0.06627734856189814</v>
+        <v>0.1118834450678675</v>
       </c>
       <c r="K155" t="n">
-        <v>0.07490408367489174</v>
+        <v>0.0751478738060572</v>
       </c>
       <c r="L155" t="n">
-        <v>0.1216814661059834</v>
+        <v>0.1423334168682202</v>
       </c>
       <c r="M155" t="n">
-        <v>0.07671592646656532</v>
+        <v>0.07389467438077263</v>
       </c>
       <c r="N155" t="n">
-        <v>0.1680661996114008</v>
+        <v>0.06050082114400844</v>
       </c>
       <c r="O155" t="n">
-        <v>0.0743409957138903</v>
+        <v>0.07623266102187082</v>
       </c>
     </row>
     <row r="156" ht="15" customHeight="1">
       <c r="F156" t="n">
-        <v>0.04185650528839532</v>
+        <v>0.06018544847482137</v>
       </c>
       <c r="G156" t="n">
-        <v>0.0751733486690135</v>
+        <v>0.07707969058878049</v>
       </c>
       <c r="J156" t="n">
-        <v>0.06658928381713146</v>
+        <v>0.1106722654074405</v>
       </c>
       <c r="K156" t="n">
-        <v>0.07573635127127942</v>
+        <v>0.07598285018168005</v>
       </c>
       <c r="L156" t="n">
-        <v>0.1217186537879749</v>
+        <v>0.1419574199769167</v>
       </c>
       <c r="M156" t="n">
-        <v>0.07756832564952716</v>
+        <v>0.07471572631833677</v>
       </c>
       <c r="N156" t="n">
-        <v>0.1667662781602991</v>
+        <v>0.06018544847482137</v>
       </c>
       <c r="O156" t="n">
-        <v>0.07516700677737798</v>
+        <v>0.07707969058878049</v>
       </c>
     </row>
     <row r="157" ht="15" customHeight="1">
       <c r="F157" t="n">
-        <v>0.0398470414171479</v>
+        <v>0.05946987220698287</v>
       </c>
       <c r="G157" t="n">
-        <v>0.07599942942361804</v>
+        <v>0.07792672015569017</v>
       </c>
       <c r="J157" t="n">
-        <v>0.06620056596682559</v>
+        <v>0.1112570060998823</v>
       </c>
       <c r="K157" t="n">
-        <v>0.07656861886766711</v>
+        <v>0.07681782655730292</v>
       </c>
       <c r="L157" t="n">
-        <v>0.1221488507619448</v>
+        <v>0.1396888828056969</v>
       </c>
       <c r="M157" t="n">
-        <v>0.07842072483248899</v>
+        <v>0.07553677825590091</v>
       </c>
       <c r="N157" t="n">
-        <v>0.1675581763694081</v>
+        <v>0.05946987220698287</v>
       </c>
       <c r="O157" t="n">
-        <v>0.07599301784086564</v>
+        <v>0.07792672015569017</v>
       </c>
     </row>
     <row r="158" ht="15" customHeight="1">
       <c r="F158" t="n">
-        <v>0.03883704159109774</v>
+        <v>0.05973598219935185</v>
       </c>
       <c r="G158" t="n">
-        <v>0.07682551017822259</v>
+        <v>0.07877374972259985</v>
       </c>
       <c r="J158" t="n">
-        <v>0.06641119970418101</v>
+        <v>0.110437869741716</v>
       </c>
       <c r="K158" t="n">
-        <v>0.0774008864640548</v>
+        <v>0.07765280293292579</v>
       </c>
       <c r="L158" t="n">
-        <v>0.1226719875979105</v>
+        <v>0.1403271600335893</v>
       </c>
       <c r="M158" t="n">
-        <v>0.07927312401545084</v>
+        <v>0.07635783019346505</v>
       </c>
       <c r="N158" t="n">
-        <v>0.1675430861551597</v>
+        <v>0.05973598219935185</v>
       </c>
       <c r="O158" t="n">
-        <v>0.07681902890435331</v>
+        <v>0.07877374972259985</v>
       </c>
     </row>
     <row r="159" ht="15" customHeight="1">
       <c r="F159" t="n">
-        <v>0.03882650717916161</v>
+        <v>0.05917906494353566</v>
       </c>
       <c r="G159" t="n">
-        <v>0.07765159093282713</v>
+        <v>0.07962077928950952</v>
       </c>
       <c r="J159" t="n">
-        <v>0.06652118972239827</v>
+        <v>0.1099150589294648</v>
       </c>
       <c r="K159" t="n">
-        <v>0.07823315406044248</v>
+        <v>0.07848777930854864</v>
       </c>
       <c r="L159" t="n">
-        <v>0.1227879948658896</v>
+        <v>0.1394716063396225</v>
       </c>
       <c r="M159" t="n">
-        <v>0.08012552319841267</v>
+        <v>0.07717888213102919</v>
       </c>
       <c r="N159" t="n">
-        <v>0.1671221994339859</v>
+        <v>0.05917906494353566</v>
       </c>
       <c r="O159" t="n">
-        <v>0.07764503996784097</v>
+        <v>0.07962077928950952</v>
       </c>
     </row>
     <row r="160" ht="15" customHeight="1">
       <c r="F160" t="n">
-        <v>0.04081543955025629</v>
+        <v>0.05870040742704534</v>
       </c>
       <c r="G160" t="n">
-        <v>0.07847767168743168</v>
+        <v>0.0804678088564192</v>
       </c>
       <c r="J160" t="n">
-        <v>0.06603054071467761</v>
+        <v>0.1103887762596518</v>
       </c>
       <c r="K160" t="n">
-        <v>0.07906542165683017</v>
+        <v>0.07932275568417149</v>
       </c>
       <c r="L160" t="n">
-        <v>0.1226968031358994</v>
+        <v>0.1384215764028248</v>
       </c>
       <c r="M160" t="n">
-        <v>0.08097792238137451</v>
+        <v>0.07799993406859333</v>
       </c>
       <c r="N160" t="n">
-        <v>0.1665967081223186</v>
+        <v>0.05870040742704534</v>
       </c>
       <c r="O160" t="n">
-        <v>0.07847105103132865</v>
+        <v>0.0804678088564192</v>
       </c>
     </row>
     <row r="161" ht="15" customHeight="1">
       <c r="F161" t="n">
-        <v>0.03980384007329857</v>
+        <v>0.05900129663739188</v>
       </c>
       <c r="G161" t="n">
-        <v>0.07930375244203622</v>
+        <v>0.08131483842332887</v>
       </c>
       <c r="J161" t="n">
-        <v>0.0665392573742196</v>
+        <v>0.1098592243287999</v>
       </c>
       <c r="K161" t="n">
-        <v>0.07989768925321784</v>
+        <v>0.08015773205979435</v>
       </c>
       <c r="L161" t="n">
-        <v>0.1226983429779578</v>
+        <v>0.1383764249022246</v>
       </c>
       <c r="M161" t="n">
-        <v>0.08183032156433634</v>
+        <v>0.07882098600615746</v>
       </c>
       <c r="N161" t="n">
-        <v>0.1653678041365897</v>
+        <v>0.05900129663739188</v>
       </c>
       <c r="O161" t="n">
-        <v>0.07929706209481632</v>
+        <v>0.08131483842332887</v>
       </c>
     </row>
     <row r="162" ht="15" customHeight="1">
       <c r="F162" t="n">
-        <v>0.04079171011720521</v>
+        <v>0.05858301956208632</v>
       </c>
       <c r="G162" t="n">
-        <v>0.08012983319664076</v>
+        <v>0.08216186799023854</v>
       </c>
       <c r="J162" t="n">
-        <v>0.0663473443942247</v>
+        <v>0.1093266057334323</v>
       </c>
       <c r="K162" t="n">
-        <v>0.08072995684960554</v>
+        <v>0.08099270843541721</v>
       </c>
       <c r="L162" t="n">
-        <v>0.122892544962082</v>
+        <v>0.1378355065168503</v>
       </c>
       <c r="M162" t="n">
-        <v>0.08268272074729817</v>
+        <v>0.0796420379437216</v>
       </c>
       <c r="N162" t="n">
-        <v>0.1646366793932312</v>
+        <v>0.05858301956208632</v>
       </c>
       <c r="O162" t="n">
-        <v>0.08012307315830398</v>
+        <v>0.08216186799023854</v>
       </c>
     </row>
     <row r="163" ht="15" customHeight="1">
       <c r="F163" t="n">
-        <v>0.04077905105089298</v>
+        <v>0.05774686318863963</v>
       </c>
       <c r="G163" t="n">
-        <v>0.08095591395124531</v>
+        <v>0.08300889755714821</v>
       </c>
       <c r="J163" t="n">
-        <v>0.0666548064678933</v>
+        <v>0.109391123070072</v>
       </c>
       <c r="K163" t="n">
-        <v>0.08156222444599322</v>
+        <v>0.08182768481104007</v>
       </c>
       <c r="L163" t="n">
-        <v>0.1227793396582897</v>
+        <v>0.1363981759257304</v>
       </c>
       <c r="M163" t="n">
-        <v>0.08353511993026001</v>
+        <v>0.08046308988128574</v>
       </c>
       <c r="N163" t="n">
-        <v>0.164704525808675</v>
+        <v>0.05774686318863963</v>
       </c>
       <c r="O163" t="n">
-        <v>0.08094908422179166</v>
+        <v>0.08300889755714821</v>
       </c>
     </row>
     <row r="164" ht="15" customHeight="1">
       <c r="F164" t="n">
-        <v>0.04176586424327867</v>
+        <v>0.0578941145045629</v>
       </c>
       <c r="G164" t="n">
-        <v>0.08178199470584985</v>
+        <v>0.08385592712405789</v>
       </c>
       <c r="J164" t="n">
-        <v>0.06646164828842589</v>
+        <v>0.1083529789352423</v>
       </c>
       <c r="K164" t="n">
-        <v>0.0823944920423809</v>
+        <v>0.08266266118666292</v>
       </c>
       <c r="L164" t="n">
-        <v>0.1232586576365983</v>
+        <v>0.1354637878078933</v>
       </c>
       <c r="M164" t="n">
-        <v>0.08438751911322184</v>
+        <v>0.08128414181884988</v>
       </c>
       <c r="N164" t="n">
-        <v>0.1654725352993529</v>
+        <v>0.0578941145045629</v>
       </c>
       <c r="O164" t="n">
-        <v>0.08177509528527933</v>
+        <v>0.08385592712405789</v>
       </c>
     </row>
     <row r="165" ht="15" customHeight="1">
       <c r="F165" t="n">
-        <v>0.04175215106327905</v>
+        <v>0.05712606049736711</v>
       </c>
       <c r="G165" t="n">
-        <v>0.08260807546045439</v>
+        <v>0.08470295669096757</v>
       </c>
       <c r="J165" t="n">
-        <v>0.0660678745490229</v>
+        <v>0.1082123759254661</v>
       </c>
       <c r="K165" t="n">
-        <v>0.0832267596387686</v>
+        <v>0.08349763756228577</v>
       </c>
       <c r="L165" t="n">
-        <v>0.1234304294670255</v>
+        <v>0.1362316968423673</v>
       </c>
       <c r="M165" t="n">
-        <v>0.08523991829618369</v>
+        <v>0.08210519375641402</v>
       </c>
       <c r="N165" t="n">
-        <v>0.164941899781697</v>
+        <v>0.05712606049736711</v>
       </c>
       <c r="O165" t="n">
-        <v>0.08260110634876701</v>
+        <v>0.08470295669096757</v>
       </c>
     </row>
     <row r="166" ht="15" customHeight="1">
       <c r="F166" t="n">
-        <v>0.04173791287981088</v>
+        <v>0.05724398815456329</v>
       </c>
       <c r="G166" t="n">
-        <v>0.08343415621505894</v>
+        <v>0.08554998625787724</v>
       </c>
       <c r="J166" t="n">
-        <v>0.0664734899428847</v>
+        <v>0.1072530883856827</v>
       </c>
       <c r="K166" t="n">
-        <v>0.08405902723515628</v>
+        <v>0.08433261393790864</v>
       </c>
       <c r="L166" t="n">
-        <v>0.1234945857195887</v>
+        <v>0.1344012577081811</v>
       </c>
       <c r="M166" t="n">
-        <v>0.08609231747914552</v>
+        <v>0.08292624569397816</v>
       </c>
       <c r="N166" t="n">
-        <v>0.1646138111721392</v>
+        <v>0.05724398815456329</v>
       </c>
       <c r="O166" t="n">
-        <v>0.08342711741225467</v>
+        <v>0.08554998625787724</v>
       </c>
     </row>
     <row r="167" ht="15" customHeight="1">
       <c r="F167" t="n">
-        <v>0.04072315106179095</v>
+        <v>0.05644918446366247</v>
       </c>
       <c r="G167" t="n">
-        <v>0.08426023696966349</v>
+        <v>0.08639701582478691</v>
       </c>
       <c r="J167" t="n">
-        <v>0.06637849916321188</v>
+        <v>0.1073433627551004</v>
       </c>
       <c r="K167" t="n">
-        <v>0.08489129483154396</v>
+        <v>0.08516759031353149</v>
       </c>
       <c r="L167" t="n">
-        <v>0.1235510569643055</v>
+        <v>0.1341718250843628</v>
       </c>
       <c r="M167" t="n">
-        <v>0.08694471666210736</v>
+        <v>0.0837472976315423</v>
       </c>
       <c r="N167" t="n">
-        <v>0.1634894613871114</v>
+        <v>0.05644918446366247</v>
       </c>
       <c r="O167" t="n">
-        <v>0.08425312847574234</v>
+        <v>0.08639701582478691</v>
       </c>
     </row>
     <row r="168" ht="15" customHeight="1">
       <c r="F168" t="n">
-        <v>0.03970786697813604</v>
+        <v>0.05594293641217564</v>
       </c>
       <c r="G168" t="n">
-        <v>0.08508631772426803</v>
+        <v>0.0872440453916966</v>
       </c>
       <c r="J168" t="n">
-        <v>0.06668290690320482</v>
+        <v>0.1063851589392237</v>
       </c>
       <c r="K168" t="n">
-        <v>0.08572356242793167</v>
+        <v>0.08600256668915436</v>
       </c>
       <c r="L168" t="n">
-        <v>0.1234997737711934</v>
+        <v>0.1338427536499411</v>
       </c>
       <c r="M168" t="n">
-        <v>0.08779711584506919</v>
+        <v>0.08456834956910644</v>
       </c>
       <c r="N168" t="n">
-        <v>0.1626700423430454</v>
+        <v>0.05594293641217564</v>
       </c>
       <c r="O168" t="n">
-        <v>0.08507913953923002</v>
+        <v>0.0872440453916966</v>
       </c>
     </row>
     <row r="169" ht="15" customHeight="1">
       <c r="F169" t="n">
-        <v>0.0376920619977629</v>
+        <v>0.05582653098761382</v>
       </c>
       <c r="G169" t="n">
-        <v>0.08591239847887257</v>
+        <v>0.08809107495860627</v>
       </c>
       <c r="J169" t="n">
-        <v>0.06668671785606388</v>
+        <v>0.1066814336013229</v>
       </c>
       <c r="K169" t="n">
-        <v>0.08655583002431934</v>
+        <v>0.08683754306477721</v>
       </c>
       <c r="L169" t="n">
-        <v>0.1225406667102698</v>
+        <v>0.1322133980839443</v>
       </c>
       <c r="M169" t="n">
-        <v>0.08864951502803103</v>
+        <v>0.08538940150667058</v>
       </c>
       <c r="N169" t="n">
-        <v>0.1627567459563733</v>
+        <v>0.05582653098761382</v>
       </c>
       <c r="O169" t="n">
-        <v>0.08590515060271768</v>
+        <v>0.08809107495860627</v>
       </c>
     </row>
     <row r="170" ht="15" customHeight="1">
       <c r="F170" t="n">
-        <v>0.04067573748958832</v>
+        <v>0.05560125517748808</v>
       </c>
       <c r="G170" t="n">
-        <v>0.08673847923347712</v>
+        <v>0.08893810452551594</v>
       </c>
       <c r="J170" t="n">
-        <v>0.06608993671498968</v>
+        <v>0.1059351434046688</v>
       </c>
       <c r="K170" t="n">
-        <v>0.08738809762070703</v>
+        <v>0.08767251944040007</v>
       </c>
       <c r="L170" t="n">
-        <v>0.1236736663515524</v>
+        <v>0.1330831130654008</v>
       </c>
       <c r="M170" t="n">
-        <v>0.08950191421099286</v>
+        <v>0.08621045344423472</v>
       </c>
       <c r="N170" t="n">
-        <v>0.162250764143527</v>
+        <v>0.05560125517748808</v>
       </c>
       <c r="O170" t="n">
-        <v>0.08673116166620536</v>
+        <v>0.08893810452551594</v>
       </c>
     </row>
     <row r="171" ht="15" customHeight="1">
       <c r="F171" t="n">
-        <v>0.03765889482252908</v>
+        <v>0.05476839596930937</v>
       </c>
       <c r="G171" t="n">
-        <v>0.08756455998808166</v>
+        <v>0.08978513409242563</v>
       </c>
       <c r="J171" t="n">
-        <v>0.06609256817318256</v>
+        <v>0.1047492450125316</v>
       </c>
       <c r="K171" t="n">
-        <v>0.08822036521709471</v>
+        <v>0.08850749581602292</v>
       </c>
       <c r="L171" t="n">
-        <v>0.1233987032650586</v>
+        <v>0.1318512532733391</v>
       </c>
       <c r="M171" t="n">
-        <v>0.09035431339395471</v>
+        <v>0.08703150538179887</v>
       </c>
       <c r="N171" t="n">
-        <v>0.1629532888209385</v>
+        <v>0.05476839596930937</v>
       </c>
       <c r="O171" t="n">
-        <v>0.08755717272969302</v>
+        <v>0.08978513409242563</v>
       </c>
     </row>
     <row r="172" ht="15" customHeight="1">
       <c r="F172" t="n">
-        <v>0.03864153536550195</v>
+        <v>0.05462924035058882</v>
       </c>
       <c r="G172" t="n">
-        <v>0.0883906407426862</v>
+        <v>0.0906321636593353</v>
       </c>
       <c r="J172" t="n">
-        <v>0.06649461692384294</v>
+        <v>0.105226695088182</v>
       </c>
       <c r="K172" t="n">
-        <v>0.0890526328134824</v>
+        <v>0.08934247219164577</v>
       </c>
       <c r="L172" t="n">
-        <v>0.1235157080208061</v>
+        <v>0.1303171733867875</v>
       </c>
       <c r="M172" t="n">
-        <v>0.09120671257691654</v>
+        <v>0.08785255731936301</v>
       </c>
       <c r="N172" t="n">
-        <v>0.1623612229184659</v>
+        <v>0.05462924035058882</v>
       </c>
       <c r="O172" t="n">
-        <v>0.08838318379318069</v>
+        <v>0.0906321636593353</v>
       </c>
     </row>
     <row r="173" ht="15" customHeight="1">
       <c r="F173" t="n">
-        <v>0.0376236604874237</v>
+        <v>0.05428507530883732</v>
       </c>
       <c r="G173" t="n">
-        <v>0.08921672149729074</v>
+        <v>0.09147919322624498</v>
       </c>
       <c r="J173" t="n">
-        <v>0.06619608766017131</v>
+        <v>0.1038704502948904</v>
       </c>
       <c r="K173" t="n">
-        <v>0.08988490040987009</v>
+        <v>0.09017744856726866</v>
       </c>
       <c r="L173" t="n">
-        <v>0.1236246111888124</v>
+        <v>0.1294802280847746</v>
       </c>
       <c r="M173" t="n">
-        <v>0.09205911175987838</v>
+        <v>0.08867360925692715</v>
       </c>
       <c r="N173" t="n">
-        <v>0.1618481425605659</v>
+        <v>0.05428507530883732</v>
       </c>
       <c r="O173" t="n">
-        <v>0.08920919485666835</v>
+        <v>0.09147919322624498</v>
       </c>
     </row>
     <row r="174" ht="15" customHeight="1">
       <c r="F174" t="n">
-        <v>0.04060527155721112</v>
+        <v>0.05323718783156593</v>
       </c>
       <c r="G174" t="n">
-        <v>0.09004280225189529</v>
+        <v>0.09232622279315465</v>
       </c>
       <c r="J174" t="n">
-        <v>0.0661969850753681</v>
+        <v>0.1037834672959275</v>
       </c>
       <c r="K174" t="n">
-        <v>0.09071716800625777</v>
+        <v>0.09101242494289151</v>
       </c>
       <c r="L174" t="n">
-        <v>0.1233196651533575</v>
+        <v>0.1296397720463286</v>
       </c>
       <c r="M174" t="n">
-        <v>0.09291151094284021</v>
+        <v>0.08949466119449129</v>
       </c>
       <c r="N174" t="n">
-        <v>0.160811060328949</v>
+        <v>0.05323718783156593</v>
       </c>
       <c r="O174" t="n">
-        <v>0.09003520592015603</v>
+        <v>0.09232622279315465</v>
       </c>
     </row>
     <row r="175" ht="15" customHeight="1">
       <c r="F175" t="n">
-        <v>0.03958634879598141</v>
+        <v>0.0528868649062857</v>
       </c>
       <c r="G175" t="n">
-        <v>0.09086888300649983</v>
+        <v>0.09317325236006432</v>
       </c>
       <c r="J175" t="n">
-        <v>0.0663973138626338</v>
+        <v>0.1026687027545637</v>
       </c>
       <c r="K175" t="n">
-        <v>0.09154943560264546</v>
+        <v>0.09184740131851436</v>
       </c>
       <c r="L175" t="n">
-        <v>0.1226519517719103</v>
+        <v>0.1282951599504782</v>
       </c>
       <c r="M175" t="n">
-        <v>0.09376391012580206</v>
+        <v>0.09031571313205543</v>
       </c>
       <c r="N175" t="n">
-        <v>0.1608520772570519</v>
+        <v>0.0528868649062857</v>
       </c>
       <c r="O175" t="n">
-        <v>0.0908612169836437</v>
+        <v>0.09317325236006432</v>
       </c>
     </row>
     <row r="176" ht="15" customHeight="1">
       <c r="F176" t="n">
-        <v>0.04055663646850725</v>
+        <v>0.05243539352050765</v>
       </c>
       <c r="G176" t="n">
-        <v>0.09169496376110438</v>
+        <v>0.09402028192697401</v>
       </c>
       <c r="J176" t="n">
-        <v>0.06668730407510669</v>
+        <v>0.1024291133340695</v>
       </c>
       <c r="K176" t="n">
-        <v>0.09238170319903315</v>
+        <v>0.09268237769413722</v>
       </c>
       <c r="L176" t="n">
-        <v>0.1225130004499305</v>
+        <v>0.1281457464762516</v>
       </c>
       <c r="M176" t="n">
-        <v>0.09461630930876389</v>
+        <v>0.09113676506961957</v>
       </c>
       <c r="N176" t="n">
-        <v>0.1600732943783112</v>
+        <v>0.05243539352050765</v>
       </c>
       <c r="O176" t="n">
-        <v>0.09168722804713136</v>
+        <v>0.09402028192697401</v>
       </c>
     </row>
     <row r="177" ht="15" customHeight="1">
       <c r="F177" t="n">
-        <v>0.03750824176269821</v>
+        <v>0.05198406066174278</v>
       </c>
       <c r="G177" t="n">
-        <v>0.09252104451570893</v>
+        <v>0.09486731149388368</v>
       </c>
       <c r="J177" t="n">
-        <v>0.0666542322982573</v>
+        <v>0.1013676556977154</v>
       </c>
       <c r="K177" t="n">
-        <v>0.09321397079542082</v>
+        <v>0.09351735406976007</v>
       </c>
       <c r="L177" t="n">
-        <v>0.1225062582816928</v>
+        <v>0.1276908863026772</v>
       </c>
       <c r="M177" t="n">
-        <v>0.09546870849172573</v>
+        <v>0.09195781700718371</v>
       </c>
       <c r="N177" t="n">
-        <v>0.1606768127261637</v>
+        <v>0.05198406066174278</v>
       </c>
       <c r="O177" t="n">
-        <v>0.09251323911061904</v>
+        <v>0.09486731149388368</v>
       </c>
     </row>
     <row r="178" ht="15" customHeight="1">
       <c r="F178" t="n">
-        <v>0.03944210719110103</v>
+        <v>0.05183415331750209</v>
       </c>
       <c r="G178" t="n">
-        <v>0.09334712527031347</v>
+        <v>0.09571434106079335</v>
       </c>
       <c r="J178" t="n">
-        <v>0.06599900427989298</v>
+        <v>0.1002872865087721</v>
       </c>
       <c r="K178" t="n">
-        <v>0.09404623839180852</v>
+        <v>0.09435233044538294</v>
       </c>
       <c r="L178" t="n">
-        <v>0.1229351723614723</v>
+        <v>0.1271299341087837</v>
       </c>
       <c r="M178" t="n">
-        <v>0.09632110767468757</v>
+        <v>0.09277886894474785</v>
       </c>
       <c r="N178" t="n">
-        <v>0.1605647333340458</v>
+        <v>0.05183415331750209</v>
       </c>
       <c r="O178" t="n">
-        <v>0.09333925017410671</v>
+        <v>0.09571434106079335</v>
       </c>
     </row>
     <row r="179" ht="15" customHeight="1">
       <c r="F179" t="n">
-        <v>0.03835917526626234</v>
+        <v>0.05118695847529665</v>
       </c>
       <c r="G179" t="n">
-        <v>0.09417320602491801</v>
+        <v>0.09656137062770304</v>
       </c>
       <c r="J179" t="n">
-        <v>0.06652260415347787</v>
+        <v>0.09999096243050976</v>
       </c>
       <c r="K179" t="n">
-        <v>0.09487850598819621</v>
+        <v>0.09518730682100579</v>
       </c>
       <c r="L179" t="n">
-        <v>0.1220031897835437</v>
+        <v>0.1268622445735993</v>
       </c>
       <c r="M179" t="n">
-        <v>0.0971735068576494</v>
+        <v>0.09359992088231199</v>
       </c>
       <c r="N179" t="n">
-        <v>0.1589391572353944</v>
+        <v>0.05118695847529665</v>
       </c>
       <c r="O179" t="n">
-        <v>0.09416526123759439</v>
+        <v>0.09656137062770304</v>
       </c>
     </row>
     <row r="180" ht="15" customHeight="1">
       <c r="F180" t="n">
-        <v>0.04126038850072884</v>
+        <v>0.05084376312263743</v>
       </c>
       <c r="G180" t="n">
-        <v>0.09499928677952255</v>
+        <v>0.09740840019461271</v>
       </c>
       <c r="J180" t="n">
-        <v>0.06642601605247618</v>
+        <v>0.09928164012619922</v>
       </c>
       <c r="K180" t="n">
-        <v>0.09571077358458388</v>
+        <v>0.09602228319662864</v>
       </c>
       <c r="L180" t="n">
-        <v>0.122013757642182</v>
+        <v>0.1263871723761525</v>
       </c>
       <c r="M180" t="n">
-        <v>0.09802590604061125</v>
+        <v>0.09442097281987613</v>
       </c>
       <c r="N180" t="n">
-        <v>0.1593021854636461</v>
+        <v>0.05084376312263743</v>
       </c>
       <c r="O180" t="n">
-        <v>0.09499127230108205</v>
+        <v>0.09740840019461271</v>
       </c>
     </row>
     <row r="181" ht="15" customHeight="1">
       <c r="F181" t="n">
-        <v>0.03914668940704723</v>
+        <v>0.05050585424703548</v>
       </c>
       <c r="G181" t="n">
-        <v>0.0958253675341271</v>
+        <v>0.09825542976152239</v>
       </c>
       <c r="J181" t="n">
-        <v>0.06631022411035188</v>
+        <v>0.09766227625911084</v>
       </c>
       <c r="K181" t="n">
-        <v>0.09654304118097157</v>
+        <v>0.0968572595722515</v>
       </c>
       <c r="L181" t="n">
-        <v>0.1218703230316621</v>
+        <v>0.1257040721954716</v>
       </c>
       <c r="M181" t="n">
-        <v>0.09887830522357308</v>
+        <v>0.09524202475744027</v>
       </c>
       <c r="N181" t="n">
-        <v>0.1593559190522374</v>
+        <v>0.05050585424703548</v>
       </c>
       <c r="O181" t="n">
-        <v>0.09581728336456972</v>
+        <v>0.09825542976152239</v>
       </c>
     </row>
     <row r="182" ht="15" customHeight="1">
       <c r="F182" t="n">
-        <v>0.04001902049776418</v>
+        <v>0.0497745188360018</v>
       </c>
       <c r="G182" t="n">
-        <v>0.09665144828873164</v>
+        <v>0.09910245932843206</v>
       </c>
       <c r="J182" t="n">
-        <v>0.06617621246056925</v>
+        <v>0.09693582749251523</v>
       </c>
       <c r="K182" t="n">
-        <v>0.09737530877735927</v>
+        <v>0.09769223594787436</v>
       </c>
       <c r="L182" t="n">
-        <v>0.1212763330462589</v>
+        <v>0.1249122987105851</v>
       </c>
       <c r="M182" t="n">
-        <v>0.09973070440653492</v>
+        <v>0.09606307669500441</v>
       </c>
       <c r="N182" t="n">
-        <v>0.1578024590346051</v>
+        <v>0.0497745188360018</v>
       </c>
       <c r="O182" t="n">
-        <v>0.0966432944280574</v>
+        <v>0.09910245932843206</v>
       </c>
     </row>
     <row r="183" ht="15" customHeight="1">
       <c r="F183" t="n">
-        <v>0.04087832428542638</v>
+        <v>0.04925104387704747</v>
       </c>
       <c r="G183" t="n">
-        <v>0.09747752904333618</v>
+        <v>0.09994948889534172</v>
       </c>
       <c r="J183" t="n">
-        <v>0.06552496523659233</v>
+        <v>0.09680525048968275</v>
       </c>
       <c r="K183" t="n">
-        <v>0.09820757637374694</v>
+        <v>0.09852721232349722</v>
       </c>
       <c r="L183" t="n">
-        <v>0.1205352347802472</v>
+        <v>0.1232112066005216</v>
       </c>
       <c r="M183" t="n">
-        <v>0.1005831035894968</v>
+        <v>0.09688412863256855</v>
       </c>
       <c r="N183" t="n">
-        <v>0.1578439064441858</v>
+        <v>0.04925104387704747</v>
       </c>
       <c r="O183" t="n">
-        <v>0.09746930549154506</v>
+        <v>0.09994948889534172</v>
       </c>
     </row>
     <row r="184" ht="15" customHeight="1">
       <c r="F184" t="n">
-        <v>0.0407255432825805</v>
+        <v>0.04883671635768343</v>
       </c>
       <c r="G184" t="n">
-        <v>0.09830360979794073</v>
+        <v>0.1007965184622514</v>
       </c>
       <c r="J184" t="n">
-        <v>0.06545746657188524</v>
+        <v>0.09557350191388408</v>
       </c>
       <c r="K184" t="n">
-        <v>0.09903984397013463</v>
+        <v>0.09936218869912009</v>
       </c>
       <c r="L184" t="n">
-        <v>0.1191504753279021</v>
+        <v>0.1233001505443093</v>
       </c>
       <c r="M184" t="n">
-        <v>0.1014355027724586</v>
+        <v>0.09770518057013269</v>
       </c>
       <c r="N184" t="n">
-        <v>0.157982362314416</v>
+        <v>0.04883671635768343</v>
       </c>
       <c r="O184" t="n">
-        <v>0.09829531655503274</v>
+        <v>0.1007965184622514</v>
       </c>
     </row>
     <row r="185" ht="15" customHeight="1">
       <c r="F185" t="n">
-        <v>0.03956162000177324</v>
+        <v>0.04853282326542067</v>
       </c>
       <c r="G185" t="n">
-        <v>0.09912969055254528</v>
+        <v>0.1016435480291611</v>
       </c>
       <c r="J185" t="n">
-        <v>0.06537470059991214</v>
+        <v>0.09454353842838964</v>
       </c>
       <c r="K185" t="n">
-        <v>0.09987211156652231</v>
+        <v>0.1001971650747429</v>
       </c>
       <c r="L185" t="n">
-        <v>0.1192255017834983</v>
+        <v>0.1221784852209766</v>
       </c>
       <c r="M185" t="n">
-        <v>0.1022879019554204</v>
+        <v>0.09852623250769683</v>
       </c>
       <c r="N185" t="n">
-        <v>0.1571199276787327</v>
+        <v>0.04853282326542067</v>
       </c>
       <c r="O185" t="n">
-        <v>0.0991213276185204</v>
+        <v>0.1016435480291611</v>
       </c>
     </row>
     <row r="186" ht="15" customHeight="1">
       <c r="F186" t="n">
-        <v>0.03838749695555126</v>
+        <v>0.04854065158777034</v>
       </c>
       <c r="G186" t="n">
-        <v>0.09995577130714982</v>
+        <v>0.1024905775960708</v>
       </c>
       <c r="J186" t="n">
-        <v>0.06537765145413714</v>
+        <v>0.09371831669647002</v>
       </c>
       <c r="K186" t="n">
-        <v>0.10070437916291</v>
+        <v>0.1010321414503658</v>
       </c>
       <c r="L186" t="n">
-        <v>0.1180637612413107</v>
+        <v>0.1209455653095521</v>
       </c>
       <c r="M186" t="n">
-        <v>0.1031403011383823</v>
+        <v>0.09934728444526097</v>
       </c>
       <c r="N186" t="n">
-        <v>0.1558587035705722</v>
+        <v>0.04854065158777034</v>
       </c>
       <c r="O186" t="n">
-        <v>0.09994733868200807</v>
+        <v>0.1024905775960708</v>
       </c>
     </row>
     <row r="187" ht="15" customHeight="1">
       <c r="F187" t="n">
-        <v>0.03920411665646126</v>
+        <v>0.04816148831224339</v>
       </c>
       <c r="G187" t="n">
-        <v>0.1007818520617544</v>
+        <v>0.1033376071629804</v>
       </c>
       <c r="J187" t="n">
-        <v>0.06526730326802437</v>
+        <v>0.0927007933813957</v>
       </c>
       <c r="K187" t="n">
-        <v>0.1015366467592977</v>
+        <v>0.1018671178259886</v>
       </c>
       <c r="L187" t="n">
-        <v>0.1172687007956143</v>
+        <v>0.1211007454890641</v>
       </c>
       <c r="M187" t="n">
-        <v>0.1039927003213441</v>
+        <v>0.1001683363828251</v>
       </c>
       <c r="N187" t="n">
-        <v>0.1553007910233714</v>
+        <v>0.04816148831224339</v>
       </c>
       <c r="O187" t="n">
-        <v>0.1007733497454957</v>
+        <v>0.1033376071629804</v>
       </c>
     </row>
     <row r="188" ht="15" customHeight="1">
       <c r="F188" t="n">
-        <v>0.03601242161704993</v>
+        <v>0.04779662042635081</v>
       </c>
       <c r="G188" t="n">
-        <v>0.1016079328163589</v>
+        <v>0.1041846367298901</v>
       </c>
       <c r="J188" t="n">
-        <v>0.06494464017503791</v>
+        <v>0.09159392514643716</v>
       </c>
       <c r="K188" t="n">
-        <v>0.1023689143556854</v>
+        <v>0.1027020942016115</v>
       </c>
       <c r="L188" t="n">
-        <v>0.117343767540684</v>
+        <v>0.1194433804385412</v>
       </c>
       <c r="M188" t="n">
-        <v>0.1048450995043059</v>
+        <v>0.1009893883203893</v>
       </c>
       <c r="N188" t="n">
-        <v>0.1548482910705667</v>
+        <v>0.04779662042635081</v>
       </c>
       <c r="O188" t="n">
-        <v>0.1015993608089834</v>
+        <v>0.1041846367298901</v>
       </c>
     </row>
     <row r="189" ht="15" customHeight="1">
       <c r="F189" t="n">
-        <v>0.03681335434986395</v>
+        <v>0.04704733491760367</v>
       </c>
       <c r="G189" t="n">
-        <v>0.1024340135709634</v>
+        <v>0.1050316662967998</v>
       </c>
       <c r="J189" t="n">
-        <v>0.06451064630864196</v>
+        <v>0.09170066865486498</v>
       </c>
       <c r="K189" t="n">
-        <v>0.1032011819520731</v>
+        <v>0.1035370705772344</v>
       </c>
       <c r="L189" t="n">
-        <v>0.1161924085707945</v>
+        <v>0.1187728248370115</v>
       </c>
       <c r="M189" t="n">
-        <v>0.1056974986872678</v>
+        <v>0.1018104402579534</v>
       </c>
       <c r="N189" t="n">
-        <v>0.155803304745595</v>
+        <v>0.04704733491760367</v>
       </c>
       <c r="O189" t="n">
-        <v>0.1024253718724711</v>
+        <v>0.1050316662967998</v>
       </c>
     </row>
     <row r="190" ht="15" customHeight="1">
       <c r="F190" t="n">
-        <v>0.03560785736744999</v>
+        <v>0.04661491877351297</v>
       </c>
       <c r="G190" t="n">
-        <v>0.103260094325568</v>
+        <v>0.1058786958637095</v>
       </c>
       <c r="J190" t="n">
-        <v>0.06436630580230059</v>
+        <v>0.09092398056994949</v>
       </c>
       <c r="K190" t="n">
-        <v>0.1040334495484607</v>
+        <v>0.1043720469528572</v>
       </c>
       <c r="L190" t="n">
-        <v>0.115518070980221</v>
+        <v>0.1192884333635037</v>
       </c>
       <c r="M190" t="n">
-        <v>0.1065498978702296</v>
+        <v>0.1026314921955175</v>
       </c>
       <c r="N190" t="n">
-        <v>0.1550679330818928</v>
+        <v>0.04661491877351297</v>
       </c>
       <c r="O190" t="n">
-        <v>0.1032513829359587</v>
+        <v>0.1058786958637095</v>
       </c>
     </row>
     <row r="191" ht="15" customHeight="1">
       <c r="F191" t="n">
-        <v>0.03939687318235476</v>
+        <v>0.04670065898158969</v>
       </c>
       <c r="G191" t="n">
-        <v>0.1040861750801725</v>
+        <v>0.1067257254306191</v>
       </c>
       <c r="J191" t="n">
-        <v>0.06381260278947797</v>
+        <v>0.08946681755496144</v>
       </c>
       <c r="K191" t="n">
-        <v>0.1048657171448484</v>
+        <v>0.1052070233284801</v>
       </c>
       <c r="L191" t="n">
-        <v>0.1147242018632382</v>
+        <v>0.1180895606970462</v>
       </c>
       <c r="M191" t="n">
-        <v>0.1074022970531914</v>
+        <v>0.1034525441330817</v>
       </c>
       <c r="N191" t="n">
-        <v>0.1551442771128966</v>
+        <v>0.04670065898158969</v>
       </c>
       <c r="O191" t="n">
-        <v>0.1040773939994464</v>
+        <v>0.1067257254306191</v>
       </c>
     </row>
     <row r="192" ht="15" customHeight="1">
       <c r="F192" t="n">
-        <v>0.03818134430712491</v>
+        <v>0.04650584252934493</v>
       </c>
       <c r="G192" t="n">
-        <v>0.1049122558347771</v>
+        <v>0.1075727549975288</v>
       </c>
       <c r="J192" t="n">
-        <v>0.06375052140363817</v>
+        <v>0.08933194616520923</v>
       </c>
       <c r="K192" t="n">
-        <v>0.1056979847412361</v>
+        <v>0.1060419997041029</v>
       </c>
       <c r="L192" t="n">
-        <v>0.114114248314121</v>
+        <v>0.1160755615166673</v>
       </c>
       <c r="M192" t="n">
-        <v>0.1082546962361533</v>
+        <v>0.1042735960706458</v>
       </c>
       <c r="N192" t="n">
-        <v>0.1544344378720434</v>
+        <v>0.04650584252934493</v>
       </c>
       <c r="O192" t="n">
-        <v>0.1049034050629341</v>
+        <v>0.1075727549975288</v>
       </c>
     </row>
     <row r="193" ht="15" customHeight="1">
       <c r="F193" t="n">
-        <v>0.03796221325430714</v>
+        <v>0.04613175640428964</v>
       </c>
       <c r="G193" t="n">
-        <v>0.1057383365893816</v>
+        <v>0.1084197845644385</v>
       </c>
       <c r="J193" t="n">
-        <v>0.06348104577824536</v>
+        <v>0.0878962713790627</v>
       </c>
       <c r="K193" t="n">
-        <v>0.1065302523376238</v>
+        <v>0.1068769760797258</v>
       </c>
       <c r="L193" t="n">
-        <v>0.1126916574271443</v>
+        <v>0.1160457905013954</v>
       </c>
       <c r="M193" t="n">
-        <v>0.1091070954191151</v>
+        <v>0.10509464800821</v>
       </c>
       <c r="N193" t="n">
-        <v>0.1535405163927697</v>
+        <v>0.04613175640428964</v>
       </c>
       <c r="O193" t="n">
-        <v>0.1057294161264218</v>
+        <v>0.1084197845644385</v>
       </c>
     </row>
     <row r="194" ht="15" customHeight="1">
       <c r="F194" t="n">
-        <v>0.03574042253644814</v>
+        <v>0.04577968759393487</v>
       </c>
       <c r="G194" t="n">
-        <v>0.1065644173439862</v>
+        <v>0.1092668141313482</v>
       </c>
       <c r="J194" t="n">
-        <v>0.06330516004676363</v>
+        <v>0.08714351198288833</v>
       </c>
       <c r="K194" t="n">
-        <v>0.1073625199340115</v>
+        <v>0.1077119524553487</v>
       </c>
       <c r="L194" t="n">
-        <v>0.111959876296583</v>
+        <v>0.1149996023302591</v>
       </c>
       <c r="M194" t="n">
-        <v>0.109959494602077</v>
+        <v>0.1059156999457741</v>
       </c>
       <c r="N194" t="n">
-        <v>0.1532646137085121</v>
+        <v>0.04577968759393487</v>
       </c>
       <c r="O194" t="n">
-        <v>0.1065554271899094</v>
+        <v>0.1092668141313482</v>
       </c>
     </row>
     <row r="195" ht="15" customHeight="1">
       <c r="F195" t="n">
-        <v>0.03851691466609461</v>
+        <v>0.04525092308579169</v>
       </c>
       <c r="G195" t="n">
-        <v>0.1073904980985907</v>
+        <v>0.1101138436982578</v>
       </c>
       <c r="J195" t="n">
-        <v>0.06262384834265715</v>
+        <v>0.08647540006992727</v>
       </c>
       <c r="K195" t="n">
-        <v>0.1081947875303992</v>
+        <v>0.1085469288309715</v>
       </c>
       <c r="L195" t="n">
-        <v>0.1117223520167122</v>
+        <v>0.1138279501626521</v>
       </c>
       <c r="M195" t="n">
-        <v>0.1108118937850388</v>
+        <v>0.1067367518833382</v>
       </c>
       <c r="N195" t="n">
-        <v>0.1534088308527072</v>
+        <v>0.04525092308579169</v>
       </c>
       <c r="O195" t="n">
-        <v>0.1073814382533971</v>
+        <v>0.1101138436982578</v>
       </c>
     </row>
     <row r="196" ht="15" customHeight="1">
       <c r="F196" t="n">
-        <v>0.03529263215579319</v>
+        <v>0.04524674986737094</v>
       </c>
       <c r="G196" t="n">
-        <v>0.1082165788531952</v>
+        <v>0.1109608732651675</v>
       </c>
       <c r="J196" t="n">
-        <v>0.06273809479938998</v>
+        <v>0.08659366773342042</v>
       </c>
       <c r="K196" t="n">
-        <v>0.1090270551267869</v>
+        <v>0.1093819052065944</v>
       </c>
       <c r="L196" t="n">
-        <v>0.1104825316818065</v>
+        <v>0.114092975435903</v>
       </c>
       <c r="M196" t="n">
-        <v>0.1116642929680006</v>
+        <v>0.1075578038209024</v>
       </c>
       <c r="N196" t="n">
-        <v>0.1530752688587917</v>
+        <v>0.04524674986737094</v>
       </c>
       <c r="O196" t="n">
-        <v>0.1082074493168848</v>
+        <v>0.1109608732651675</v>
       </c>
     </row>
     <row r="197" ht="15" customHeight="1">
       <c r="F197" t="n">
-        <v>0.03406851751809059</v>
+        <v>0.04496845492618388</v>
       </c>
       <c r="G197" t="n">
-        <v>0.1090426596077998</v>
+        <v>0.1118079028320772</v>
       </c>
       <c r="J197" t="n">
-        <v>0.06214888355042635</v>
+        <v>0.08570004706660894</v>
       </c>
       <c r="K197" t="n">
-        <v>0.1098593227231746</v>
+        <v>0.1102168815822172</v>
       </c>
       <c r="L197" t="n">
-        <v>0.1099438623861409</v>
+        <v>0.1122964401541876</v>
       </c>
       <c r="M197" t="n">
-        <v>0.1125166921509625</v>
+        <v>0.1083788557584665</v>
       </c>
       <c r="N197" t="n">
-        <v>0.1521660287602024</v>
+        <v>0.04496845492618388</v>
       </c>
       <c r="O197" t="n">
-        <v>0.1090334603803724</v>
+        <v>0.1118079028320772</v>
       </c>
     </row>
     <row r="198" ht="15" customHeight="1">
       <c r="F198" t="n">
-        <v>0.0378455132655335</v>
+        <v>0.0451144976744897</v>
       </c>
       <c r="G198" t="n">
-        <v>0.1098687403624043</v>
+        <v>0.1126549323989869</v>
       </c>
       <c r="J198" t="n">
-        <v>0.06205719872923025</v>
+        <v>0.08449627016273364</v>
       </c>
       <c r="K198" t="n">
-        <v>0.1106915903195622</v>
+        <v>0.1110518579578401</v>
       </c>
       <c r="L198" t="n">
-        <v>0.1092097912239903</v>
+        <v>0.1110456800704789</v>
       </c>
       <c r="M198" t="n">
-        <v>0.1133690913339243</v>
+        <v>0.1091999076960306</v>
       </c>
       <c r="N198" t="n">
-        <v>0.1517832115903757</v>
+        <v>0.0451144976744897</v>
       </c>
       <c r="O198" t="n">
-        <v>0.1098594714438601</v>
+        <v>0.1126549323989869</v>
       </c>
     </row>
     <row r="199" ht="15" customHeight="1">
       <c r="F199" t="n">
-        <v>0.03362456191066859</v>
+        <v>0.0449725163218873</v>
       </c>
       <c r="G199" t="n">
-        <v>0.1106948211170089</v>
+        <v>0.1135019619658965</v>
       </c>
       <c r="J199" t="n">
-        <v>0.06146402446926592</v>
+        <v>0.08418406911503568</v>
       </c>
       <c r="K199" t="n">
-        <v>0.1115238579159499</v>
+        <v>0.1118868343334629</v>
       </c>
       <c r="L199" t="n">
-        <v>0.1085837652896297</v>
+        <v>0.1101480309377497</v>
       </c>
       <c r="M199" t="n">
-        <v>0.1142214905168861</v>
+        <v>0.1100209596335948</v>
       </c>
       <c r="N199" t="n">
-        <v>0.1514289183827484</v>
+        <v>0.0449725163218873</v>
       </c>
       <c r="O199" t="n">
-        <v>0.1106854825073478</v>
+        <v>0.1135019619658965</v>
       </c>
     </row>
     <row r="200" ht="15" customHeight="1">
       <c r="F200" t="n">
-        <v>0.03340660596604254</v>
+        <v>0.04494018088836292</v>
       </c>
       <c r="G200" t="n">
-        <v>0.1115209018716134</v>
+        <v>0.1143489915328062</v>
       </c>
       <c r="J200" t="n">
-        <v>0.06137034490399738</v>
+        <v>0.08236517601675591</v>
       </c>
       <c r="K200" t="n">
-        <v>0.1123561255123376</v>
+        <v>0.1127218107090858</v>
       </c>
       <c r="L200" t="n">
-        <v>0.1077692316773338</v>
+        <v>0.1083108285089729</v>
       </c>
       <c r="M200" t="n">
-        <v>0.115073889699848</v>
+        <v>0.1108420115711589</v>
       </c>
       <c r="N200" t="n">
-        <v>0.1521052501707571</v>
+        <v>0.04494018088836292</v>
       </c>
       <c r="O200" t="n">
-        <v>0.1115114935708355</v>
+        <v>0.1143489915328062</v>
       </c>
     </row>
     <row r="201" ht="15" customHeight="1">
       <c r="F201" t="n">
-        <v>0.03319258794420203</v>
+        <v>0.04471665231581613</v>
       </c>
       <c r="G201" t="n">
-        <v>0.112346982626218</v>
+        <v>0.1151960210997159</v>
       </c>
       <c r="J201" t="n">
-        <v>0.0608771441668889</v>
+        <v>0.08174132296113557</v>
       </c>
       <c r="K201" t="n">
-        <v>0.1131883931087253</v>
+        <v>0.1135567870847086</v>
       </c>
       <c r="L201" t="n">
-        <v>0.1069696374813776</v>
+        <v>0.1086414085371215</v>
       </c>
       <c r="M201" t="n">
-        <v>0.1159262888828098</v>
+        <v>0.1116630635087231</v>
       </c>
       <c r="N201" t="n">
-        <v>0.1518143079878385</v>
+        <v>0.04471665231581613</v>
       </c>
       <c r="O201" t="n">
-        <v>0.1123375046343231</v>
+        <v>0.1151960210997159</v>
       </c>
     </row>
     <row r="202" ht="15" customHeight="1">
       <c r="F202" t="n">
-        <v>0.03398345035769379</v>
+        <v>0.04440109154614678</v>
       </c>
       <c r="G202" t="n">
-        <v>0.1131730633808225</v>
+        <v>0.1160430506666256</v>
       </c>
       <c r="J202" t="n">
-        <v>0.06068540639140445</v>
+        <v>0.0810142420414155</v>
       </c>
       <c r="K202" t="n">
-        <v>0.114020660705113</v>
+        <v>0.1143917634603315</v>
       </c>
       <c r="L202" t="n">
-        <v>0.1058884297960359</v>
+        <v>0.107147106775168</v>
       </c>
       <c r="M202" t="n">
-        <v>0.1167786880657717</v>
+        <v>0.1124841154462872</v>
       </c>
       <c r="N202" t="n">
-        <v>0.1509581928674292</v>
+        <v>0.04440109154614678</v>
       </c>
       <c r="O202" t="n">
-        <v>0.1131635156978108</v>
+        <v>0.1160430506666256</v>
       </c>
     </row>
     <row r="203" ht="15" customHeight="1">
       <c r="F203" t="n">
-        <v>0.03377799057731966</v>
+        <v>0.0442926595212544</v>
       </c>
       <c r="G203" t="n">
-        <v>0.1139991441354271</v>
+        <v>0.1168900802335353</v>
       </c>
       <c r="J203" t="n">
-        <v>0.06089611571100821</v>
+        <v>0.0803856653508368</v>
       </c>
       <c r="K203" t="n">
-        <v>0.1148529283015007</v>
+        <v>0.1152267398359544</v>
       </c>
       <c r="L203" t="n">
-        <v>0.1044288649455163</v>
+        <v>0.1047352589760856</v>
       </c>
       <c r="M203" t="n">
-        <v>0.1176310872487335</v>
+        <v>0.1133051673838514</v>
       </c>
       <c r="N203" t="n">
-        <v>0.1505390058429658</v>
+        <v>0.0442926595212544</v>
       </c>
       <c r="O203" t="n">
-        <v>0.1139895267612985</v>
+        <v>0.1168900802335353</v>
       </c>
     </row>
     <row r="204" ht="15" customHeight="1">
       <c r="F204" t="n">
-        <v>0.03257062589259384</v>
+        <v>0.04439051718303878</v>
       </c>
       <c r="G204" t="n">
-        <v>0.1148252248900316</v>
+        <v>0.1177371098004449</v>
       </c>
       <c r="J204" t="n">
-        <v>0.06051025625916438</v>
+        <v>0.0790573249826404</v>
       </c>
       <c r="K204" t="n">
-        <v>0.1156851958978884</v>
+        <v>0.1160617162115772</v>
       </c>
       <c r="L204" t="n">
-        <v>0.1036736372075041</v>
+        <v>0.104213200892847</v>
       </c>
       <c r="M204" t="n">
-        <v>0.1184834864316953</v>
+        <v>0.1141262193214155</v>
       </c>
       <c r="N204" t="n">
-        <v>0.150658847947885</v>
+        <v>0.04439051718303878</v>
       </c>
       <c r="O204" t="n">
-        <v>0.1148155378247861</v>
+        <v>0.1177371098004449</v>
       </c>
     </row>
     <row r="205" ht="15" customHeight="1">
       <c r="F205" t="n">
-        <v>0.03336099931787156</v>
+        <v>0.04389382547339961</v>
       </c>
       <c r="G205" t="n">
-        <v>0.1156513056446362</v>
+        <v>0.1185841393673546</v>
       </c>
       <c r="J205" t="n">
-        <v>0.05972881216933697</v>
+        <v>0.0781309530300674</v>
       </c>
       <c r="K205" t="n">
-        <v>0.116517463494276</v>
+        <v>0.1168966925872001</v>
       </c>
       <c r="L205" t="n">
-        <v>0.1034097533062791</v>
+        <v>0.1037882682784252</v>
       </c>
       <c r="M205" t="n">
-        <v>0.1193358856146572</v>
+        <v>0.1149472712589796</v>
       </c>
       <c r="N205" t="n">
-        <v>0.1512198202156235</v>
+        <v>0.04389382547339961</v>
       </c>
       <c r="O205" t="n">
-        <v>0.1156415488882738</v>
+        <v>0.1185841393673546</v>
       </c>
     </row>
     <row r="206" ht="15" customHeight="1">
       <c r="F206" t="n">
-        <v>0.03614910819121522</v>
+        <v>0.04430174533423652</v>
       </c>
       <c r="G206" t="n">
-        <v>0.1164773863992407</v>
+        <v>0.1194311689342643</v>
       </c>
       <c r="J206" t="n">
-        <v>0.05965276757499015</v>
+        <v>0.0775082815863587</v>
       </c>
       <c r="K206" t="n">
-        <v>0.1173497310906637</v>
+        <v>0.1177316689628229</v>
       </c>
       <c r="L206" t="n">
-        <v>0.1028372120088974</v>
+        <v>0.101667796885793</v>
       </c>
       <c r="M206" t="n">
-        <v>0.120188284797619</v>
+        <v>0.1157683231965438</v>
       </c>
       <c r="N206" t="n">
-        <v>0.1510184291311499</v>
+        <v>0.04430174533423652</v>
       </c>
       <c r="O206" t="n">
-        <v>0.1164675599517615</v>
+        <v>0.1194311689342643</v>
       </c>
     </row>
     <row r="207" ht="15" customHeight="1">
       <c r="F207" t="n">
-        <v>0.03393494985068719</v>
+        <v>0.04421343770744925</v>
       </c>
       <c r="G207" t="n">
-        <v>0.1173034671538452</v>
+        <v>0.120278198501174</v>
       </c>
       <c r="J207" t="n">
-        <v>0.0596831066095881</v>
+        <v>0.07719104274475547</v>
       </c>
       <c r="K207" t="n">
-        <v>0.1181819986870514</v>
+        <v>0.1185666453384458</v>
       </c>
       <c r="L207" t="n">
-        <v>0.1013560120824156</v>
+        <v>0.09995912246792316</v>
       </c>
       <c r="M207" t="n">
-        <v>0.1210406839805808</v>
+        <v>0.1165893751341079</v>
       </c>
       <c r="N207" t="n">
-        <v>0.1504323557164148</v>
+        <v>0.04421343770744925</v>
       </c>
       <c r="O207" t="n">
-        <v>0.1172935710152491</v>
+        <v>0.120278198501174</v>
       </c>
     </row>
     <row r="208" ht="15" customHeight="1">
       <c r="F208" t="n">
-        <v>0.03371852163434984</v>
+        <v>0.04382806353493741</v>
       </c>
       <c r="G208" t="n">
-        <v>0.1181295479084498</v>
+        <v>0.1211252280680836</v>
       </c>
       <c r="J208" t="n">
-        <v>0.05912081340659485</v>
+        <v>0.07648096859849857</v>
       </c>
       <c r="K208" t="n">
-        <v>0.1190142662834391</v>
+        <v>0.1194016217140687</v>
       </c>
       <c r="L208" t="n">
-        <v>0.1012661522938894</v>
+        <v>0.09916958077778881</v>
       </c>
       <c r="M208" t="n">
-        <v>0.1218930831635427</v>
+        <v>0.1174104270716721</v>
       </c>
       <c r="N208" t="n">
-        <v>0.1505591283941304</v>
+        <v>0.04382806353493741</v>
       </c>
       <c r="O208" t="n">
-        <v>0.1181195820787368</v>
+        <v>0.1211252280680836</v>
       </c>
     </row>
     <row r="209" ht="15" customHeight="1">
       <c r="F209" t="n">
-        <v>0.03249982088026557</v>
+        <v>0.04354478375860081</v>
       </c>
       <c r="G209" t="n">
-        <v>0.1189556286630543</v>
+        <v>0.1219722576349933</v>
       </c>
       <c r="J209" t="n">
-        <v>0.05916527857849214</v>
+        <v>0.0749797912408291</v>
       </c>
       <c r="K209" t="n">
-        <v>0.1198465338798268</v>
+        <v>0.1202365980896915</v>
       </c>
       <c r="L209" t="n">
-        <v>0.09976763141037537</v>
+        <v>0.09900650756836249</v>
       </c>
       <c r="M209" t="n">
-        <v>0.1227454823465045</v>
+        <v>0.1182314790092362</v>
       </c>
       <c r="N209" t="n">
-        <v>0.1508988525498237</v>
+        <v>0.04354478375860081</v>
       </c>
       <c r="O209" t="n">
-        <v>0.1189455931422245</v>
+        <v>0.1219722576349933</v>
       </c>
     </row>
     <row r="210" ht="15" customHeight="1">
       <c r="F210" t="n">
-        <v>0.03427884492649678</v>
+        <v>0.04386275932033902</v>
       </c>
       <c r="G210" t="n">
-        <v>0.1197817094176589</v>
+        <v>0.122819287201903</v>
       </c>
       <c r="J210" t="n">
-        <v>0.05840871592426657</v>
+        <v>0.07518924276498806</v>
       </c>
       <c r="K210" t="n">
-        <v>0.1206788014762145</v>
+        <v>0.1210715744653144</v>
       </c>
       <c r="L210" t="n">
-        <v>0.09986044819892953</v>
+        <v>0.09667723859261723</v>
       </c>
       <c r="M210" t="n">
-        <v>0.1235978815294664</v>
+        <v>0.1190525309468003</v>
       </c>
       <c r="N210" t="n">
-        <v>0.1514516335690219</v>
+        <v>0.04386275932033902</v>
       </c>
       <c r="O210" t="n">
-        <v>0.1197716042057122</v>
+        <v>0.122819287201903</v>
       </c>
     </row>
     <row r="211" ht="15" customHeight="1">
       <c r="F211" t="n">
-        <v>0.03105559111110583</v>
+        <v>0.0439811511620518</v>
       </c>
       <c r="G211" t="n">
-        <v>0.1206077901722634</v>
+        <v>0.1236663167688127</v>
       </c>
       <c r="J211" t="n">
-        <v>0.05844994388121615</v>
+        <v>0.07371105526421645</v>
       </c>
       <c r="K211" t="n">
-        <v>0.1215110690726022</v>
+        <v>0.1219065508409372</v>
       </c>
       <c r="L211" t="n">
-        <v>0.09894460142660816</v>
+        <v>0.09638910960352592</v>
       </c>
       <c r="M211" t="n">
-        <v>0.1244502807124282</v>
+        <v>0.1198735828843645</v>
       </c>
       <c r="N211" t="n">
-        <v>0.151217576837252</v>
+        <v>0.0439811511620518</v>
       </c>
       <c r="O211" t="n">
-        <v>0.1205976152691998</v>
+        <v>0.1236663167688127</v>
       </c>
     </row>
     <row r="212" ht="15" customHeight="1">
       <c r="F212" t="n">
-        <v>0.03283005677215509</v>
+        <v>0.0434991202256388</v>
       </c>
       <c r="G212" t="n">
-        <v>0.121433870926868</v>
+        <v>0.1245133463357223</v>
       </c>
       <c r="J212" t="n">
-        <v>0.05838896348525453</v>
+        <v>0.07344696083175523</v>
       </c>
       <c r="K212" t="n">
-        <v>0.1223433366689898</v>
+        <v>0.1227415272165601</v>
       </c>
       <c r="L212" t="n">
-        <v>0.09772008986046743</v>
+        <v>0.0953494563540615</v>
       </c>
       <c r="M212" t="n">
-        <v>0.12530267989539</v>
+        <v>0.1206946348219286</v>
       </c>
       <c r="N212" t="n">
-        <v>0.1518967877400408</v>
+        <v>0.0434991202256388</v>
       </c>
       <c r="O212" t="n">
-        <v>0.1214236263326875</v>
+        <v>0.1245133463357223</v>
       </c>
     </row>
     <row r="213" ht="15" customHeight="1">
       <c r="F213" t="n">
-        <v>0.03060223924770697</v>
+        <v>0.04371582745299978</v>
       </c>
       <c r="G213" t="n">
-        <v>0.1222599516814725</v>
+        <v>0.125360375902632</v>
       </c>
       <c r="J213" t="n">
-        <v>0.05812577577229548</v>
+        <v>0.07259869156084547</v>
       </c>
       <c r="K213" t="n">
-        <v>0.1231756042653775</v>
+        <v>0.1235765035921829</v>
       </c>
       <c r="L213" t="n">
-        <v>0.09728691226756364</v>
+        <v>0.09356561459719664</v>
       </c>
       <c r="M213" t="n">
-        <v>0.1261550790783519</v>
+        <v>0.1215156867594928</v>
       </c>
       <c r="N213" t="n">
-        <v>0.1513893716629155</v>
+        <v>0.04371582745299978</v>
       </c>
       <c r="O213" t="n">
-        <v>0.1222496373961752</v>
+        <v>0.125360375902632</v>
       </c>
     </row>
     <row r="214" ht="15" customHeight="1">
       <c r="F214" t="n">
-        <v>0.03337213587582387</v>
+        <v>0.04353043378603431</v>
       </c>
       <c r="G214" t="n">
-        <v>0.123086032436077</v>
+        <v>0.1262074054695417</v>
       </c>
       <c r="J214" t="n">
-        <v>0.05736038177825269</v>
+        <v>0.07186797954472812</v>
       </c>
       <c r="K214" t="n">
-        <v>0.1240078718617652</v>
+        <v>0.1244114799678058</v>
       </c>
       <c r="L214" t="n">
-        <v>0.09574506741495287</v>
+        <v>0.09384492008590434</v>
       </c>
       <c r="M214" t="n">
-        <v>0.1270074782613137</v>
+        <v>0.1223367386970569</v>
       </c>
       <c r="N214" t="n">
-        <v>0.1516954339914031</v>
+        <v>0.04353043378603431</v>
       </c>
       <c r="O214" t="n">
-        <v>0.1230756484596628</v>
+        <v>0.1262074054695417</v>
       </c>
     </row>
     <row r="215" ht="15" customHeight="1">
       <c r="F215" t="n">
-        <v>0.03013974399456812</v>
+        <v>0.04324210016664216</v>
       </c>
       <c r="G215" t="n">
-        <v>0.1239121131906816</v>
+        <v>0.1270544350364513</v>
       </c>
       <c r="J215" t="n">
-        <v>0.05769278253903991</v>
+        <v>0.07095655687664437</v>
       </c>
       <c r="K215" t="n">
-        <v>0.1248401394581529</v>
+        <v>0.1252464563434287</v>
       </c>
       <c r="L215" t="n">
-        <v>0.09499455406969148</v>
+        <v>0.09169470857315742</v>
       </c>
       <c r="M215" t="n">
-        <v>0.1278598774442755</v>
+        <v>0.123157790634621</v>
       </c>
       <c r="N215" t="n">
-        <v>0.1519150801110305</v>
+        <v>0.04324210016664216</v>
       </c>
       <c r="O215" t="n">
-        <v>0.1239016595231505</v>
+        <v>0.1270544350364513</v>
       </c>
     </row>
     <row r="216" ht="15" customHeight="1">
       <c r="F216" t="n">
-        <v>0.03390506094200214</v>
+        <v>0.043549987536723</v>
       </c>
       <c r="G216" t="n">
-        <v>0.1247381939452861</v>
+        <v>0.127901464603361</v>
       </c>
       <c r="J216" t="n">
-        <v>0.05732297909057089</v>
+        <v>0.06966615564983497</v>
       </c>
       <c r="K216" t="n">
-        <v>0.1256724070545406</v>
+        <v>0.1260814327190515</v>
       </c>
       <c r="L216" t="n">
-        <v>0.0938353709988356</v>
+        <v>0.09162231581192881</v>
       </c>
       <c r="M216" t="n">
-        <v>0.1287122766272374</v>
+        <v>0.1239788425721852</v>
       </c>
       <c r="N216" t="n">
-        <v>0.1520484154073249</v>
+        <v>0.043549987536723</v>
       </c>
       <c r="O216" t="n">
-        <v>0.1247276705866382</v>
+        <v>0.127901464603361</v>
       </c>
     </row>
     <row r="217" ht="15" customHeight="1">
       <c r="F217" t="n">
-        <v>0.03066808405618832</v>
+        <v>0.04345325683817648</v>
       </c>
       <c r="G217" t="n">
-        <v>0.1255642746998907</v>
+        <v>0.1287484941702707</v>
       </c>
       <c r="J217" t="n">
-        <v>0.05695097246875928</v>
+        <v>0.06939850795754116</v>
       </c>
       <c r="K217" t="n">
-        <v>0.1265046746509283</v>
+        <v>0.1269164090946744</v>
       </c>
       <c r="L217" t="n">
-        <v>0.09316751696944131</v>
+        <v>0.09031362821754929</v>
       </c>
       <c r="M217" t="n">
-        <v>0.1295646758101992</v>
+        <v>0.1247998945097493</v>
       </c>
       <c r="N217" t="n">
-        <v>0.1520955452658134</v>
+        <v>0.04345325683817648</v>
       </c>
       <c r="O217" t="n">
-        <v>0.1255536816501258</v>
+        <v>0.1287484941702707</v>
       </c>
     </row>
     <row r="218" ht="15" customHeight="1">
       <c r="F218" t="n">
-        <v>0.029428810675189</v>
+        <v>0.04305106901290238</v>
       </c>
       <c r="G218" t="n">
-        <v>0.1263903554544952</v>
+        <v>0.1295955237371804</v>
       </c>
       <c r="J218" t="n">
-        <v>0.05647676370951886</v>
+        <v>0.06855534589300383</v>
       </c>
       <c r="K218" t="n">
-        <v>0.127336942247316</v>
+        <v>0.1277513854702972</v>
       </c>
       <c r="L218" t="n">
-        <v>0.09239099074856505</v>
+        <v>0.0907103958038929</v>
       </c>
       <c r="M218" t="n">
-        <v>0.130417074993161</v>
+        <v>0.1256209464473134</v>
       </c>
       <c r="N218" t="n">
-        <v>0.1520565750720227</v>
+        <v>0.04305106901290238</v>
       </c>
       <c r="O218" t="n">
-        <v>0.1263796927136135</v>
+        <v>0.1295955237371804</v>
       </c>
     </row>
     <row r="219" ht="15" customHeight="1">
       <c r="F219" t="n">
-        <v>0.03218723813706663</v>
+        <v>0.04314258500280031</v>
       </c>
       <c r="G219" t="n">
-        <v>0.1272164362090998</v>
+        <v>0.13044255330409</v>
       </c>
       <c r="J219" t="n">
-        <v>0.05600035384876333</v>
+        <v>0.06783840154946397</v>
       </c>
       <c r="K219" t="n">
-        <v>0.1281692098437036</v>
+        <v>0.1285863618459201</v>
       </c>
       <c r="L219" t="n">
-        <v>0.09230579110326304</v>
+        <v>0.08880924981989835</v>
       </c>
       <c r="M219" t="n">
-        <v>0.1312694741761229</v>
+        <v>0.1264419983848776</v>
       </c>
       <c r="N219" t="n">
-        <v>0.15163161021148</v>
+        <v>0.04314258500280031</v>
       </c>
       <c r="O219" t="n">
-        <v>0.1272057037771012</v>
+        <v>0.13044255330409</v>
       </c>
     </row>
     <row r="220" ht="15" customHeight="1">
       <c r="F220" t="n">
-        <v>0.03194336377988351</v>
+        <v>0.04272696574976999</v>
       </c>
       <c r="G220" t="n">
-        <v>0.1280425169637043</v>
+        <v>0.1312895828709997</v>
       </c>
       <c r="J220" t="n">
-        <v>0.05632174392240642</v>
+        <v>0.06714940702016275</v>
       </c>
       <c r="K220" t="n">
-        <v>0.1290014774400913</v>
+        <v>0.1294213382215429</v>
       </c>
       <c r="L220" t="n">
-        <v>0.09091191680059124</v>
+        <v>0.08811068142176465</v>
       </c>
       <c r="M220" t="n">
-        <v>0.1321218733590847</v>
+        <v>0.1272630503224417</v>
       </c>
       <c r="N220" t="n">
-        <v>0.1521207560697123</v>
+        <v>0.04272696574976999</v>
       </c>
       <c r="O220" t="n">
-        <v>0.1280317148405889</v>
+        <v>0.1312895828709997</v>
       </c>
     </row>
     <row r="221" ht="15" customHeight="1">
       <c r="F221" t="n">
-        <v>0.02869718494170209</v>
+        <v>0.04240337219571107</v>
       </c>
       <c r="G221" t="n">
-        <v>0.1288685977183089</v>
+        <v>0.1321366124379094</v>
       </c>
       <c r="J221" t="n">
-        <v>0.0555409349663618</v>
+        <v>0.06679009439834094</v>
       </c>
       <c r="K221" t="n">
-        <v>0.129833745036479</v>
+        <v>0.1302563145971658</v>
       </c>
       <c r="L221" t="n">
-        <v>0.09020936660760598</v>
+        <v>0.08731518176569064</v>
       </c>
       <c r="M221" t="n">
-        <v>0.1329742725420466</v>
+        <v>0.1280841022600059</v>
       </c>
       <c r="N221" t="n">
-        <v>0.1524241180322466</v>
+        <v>0.04240337219571107</v>
       </c>
       <c r="O221" t="n">
-        <v>0.1288577259040765</v>
+        <v>0.1321366124379094</v>
       </c>
     </row>
     <row r="222" ht="15" customHeight="1">
       <c r="F222" t="n">
-        <v>0.03144869896058473</v>
+        <v>0.04247096528252327</v>
       </c>
       <c r="G222" t="n">
-        <v>0.1296946784729134</v>
+        <v>0.1329836420048191</v>
       </c>
       <c r="J222" t="n">
-        <v>0.05565792801654333</v>
+        <v>0.06696219577723977</v>
       </c>
       <c r="K222" t="n">
-        <v>0.1306660126328667</v>
+        <v>0.1310912909727887</v>
       </c>
       <c r="L222" t="n">
-        <v>0.08869813929136361</v>
+        <v>0.0866232420078753</v>
       </c>
       <c r="M222" t="n">
-        <v>0.1338266717250084</v>
+        <v>0.12890515419757</v>
       </c>
       <c r="N222" t="n">
-        <v>0.1526418014846101</v>
+        <v>0.04247096528252327</v>
       </c>
       <c r="O222" t="n">
-        <v>0.1296837369675642</v>
+        <v>0.1329836420048191</v>
       </c>
     </row>
     <row r="223" ht="15" customHeight="1">
       <c r="F223" t="n">
-        <v>0.03219790317459381</v>
+        <v>0.04253143331363286</v>
       </c>
       <c r="G223" t="n">
-        <v>0.1305207592275179</v>
+        <v>0.1338306715717288</v>
       </c>
       <c r="J223" t="n">
-        <v>0.05537272410886455</v>
+        <v>0.06576716954753076</v>
       </c>
       <c r="K223" t="n">
-        <v>0.1314982802292544</v>
+        <v>0.1319262673484115</v>
       </c>
       <c r="L223" t="n">
-        <v>0.08767823361892019</v>
+        <v>0.08623535330451748</v>
       </c>
       <c r="M223" t="n">
-        <v>0.1346790709079702</v>
+        <v>0.1297262061351342</v>
       </c>
       <c r="N223" t="n">
-        <v>0.1523739118123296</v>
+        <v>0.04253143331363286</v>
       </c>
       <c r="O223" t="n">
-        <v>0.1305097480310519</v>
+        <v>0.1338306715717288</v>
       </c>
     </row>
     <row r="224" ht="15" customHeight="1">
       <c r="F224" t="n">
-        <v>0.02794479492179172</v>
+        <v>0.04258711162424249</v>
       </c>
       <c r="G224" t="n">
-        <v>0.1313468399821225</v>
+        <v>0.1346777011386384</v>
       </c>
       <c r="J224" t="n">
-        <v>0.0548853242792393</v>
+        <v>0.06528646492190288</v>
       </c>
       <c r="K224" t="n">
-        <v>0.1323305478256421</v>
+        <v>0.1327612437240344</v>
       </c>
       <c r="L224" t="n">
-        <v>0.08674964835733195</v>
+        <v>0.08675200681181611</v>
       </c>
       <c r="M224" t="n">
-        <v>0.1355314700909321</v>
+        <v>0.1305472580726983</v>
       </c>
       <c r="N224" t="n">
-        <v>0.1532205544009322</v>
+        <v>0.04258711162424249</v>
       </c>
       <c r="O224" t="n">
-        <v>0.1313357590945395</v>
+        <v>0.1346777011386384</v>
       </c>
     </row>
     <row r="225" ht="15" customHeight="1">
       <c r="F225" t="n">
-        <v>0.02768937154024084</v>
+        <v>0.04223803972443334</v>
       </c>
       <c r="G225" t="n">
-        <v>0.132172920736727</v>
+        <v>0.1355247307055481</v>
       </c>
       <c r="J225" t="n">
-        <v>0.05469572956358122</v>
+        <v>0.06530822766413724</v>
       </c>
       <c r="K225" t="n">
-        <v>0.1331628154220298</v>
+        <v>0.1335962200996572</v>
       </c>
       <c r="L225" t="n">
-        <v>0.08641238227365505</v>
+        <v>0.08457369368596995</v>
       </c>
       <c r="M225" t="n">
-        <v>0.1363838692738939</v>
+        <v>0.1313683100102624</v>
       </c>
       <c r="N225" t="n">
-        <v>0.1526818346359449</v>
+        <v>0.04223803972443334</v>
       </c>
       <c r="O225" t="n">
-        <v>0.1321617701580272</v>
+        <v>0.1355247307055481</v>
       </c>
     </row>
     <row r="226" ht="15" customHeight="1">
       <c r="F226" t="n">
-        <v>0.02943163036800354</v>
+        <v>0.0417842570257284</v>
       </c>
       <c r="G226" t="n">
-        <v>0.1329990014913316</v>
+        <v>0.1363717602724578</v>
       </c>
       <c r="J226" t="n">
-        <v>0.05420394099780414</v>
+        <v>0.06423277932226573</v>
       </c>
       <c r="K226" t="n">
-        <v>0.1339950830184174</v>
+        <v>0.1344311964752801</v>
       </c>
       <c r="L226" t="n">
-        <v>0.08516643413494585</v>
+        <v>0.08440090508317805</v>
       </c>
       <c r="M226" t="n">
-        <v>0.1372362684568557</v>
+        <v>0.1321893619478266</v>
       </c>
       <c r="N226" t="n">
-        <v>0.1531578579028947</v>
+        <v>0.0417842570257284</v>
       </c>
       <c r="O226" t="n">
-        <v>0.1329877812215149</v>
+        <v>0.1363717602724578</v>
       </c>
     </row>
     <row r="227" ht="15" customHeight="1">
       <c r="F227" t="n">
-        <v>0.02817156874314224</v>
+        <v>0.04202580293965068</v>
       </c>
       <c r="G227" t="n">
-        <v>0.1338250822459361</v>
+        <v>0.1372187898393674</v>
       </c>
       <c r="J227" t="n">
-        <v>0.05400995961782172</v>
+        <v>0.06466044144432065</v>
       </c>
       <c r="K227" t="n">
-        <v>0.1348273506148051</v>
+        <v>0.1352661728509029</v>
       </c>
       <c r="L227" t="n">
-        <v>0.0842118027082604</v>
+        <v>0.08463413215963933</v>
       </c>
       <c r="M227" t="n">
-        <v>0.1380886676398176</v>
+        <v>0.1330104138853907</v>
       </c>
       <c r="N227" t="n">
-        <v>0.1531487295873087</v>
+        <v>0.04202580293965068</v>
       </c>
       <c r="O227" t="n">
-        <v>0.1338137922850025</v>
+        <v>0.1372187898393674</v>
       </c>
     </row>
     <row r="228" ht="15" customHeight="1">
       <c r="F228" t="n">
-        <v>0.02690918400371928</v>
+        <v>0.04146271687772306</v>
       </c>
       <c r="G228" t="n">
-        <v>0.1346511630005407</v>
+        <v>0.1380658194062771</v>
       </c>
       <c r="J228" t="n">
-        <v>0.05391378645954771</v>
+        <v>0.06379153557833406</v>
       </c>
       <c r="K228" t="n">
-        <v>0.1356596182111928</v>
+        <v>0.1361011492265258</v>
       </c>
       <c r="L228" t="n">
-        <v>0.08304848676065502</v>
+        <v>0.08407386607155259</v>
       </c>
       <c r="M228" t="n">
-        <v>0.1389410668227794</v>
+        <v>0.1338314658229549</v>
       </c>
       <c r="N228" t="n">
-        <v>0.1543545550747139</v>
+        <v>0.04146271687772306</v>
       </c>
       <c r="O228" t="n">
-        <v>0.1346398033484902</v>
+        <v>0.1380658194062771</v>
       </c>
     </row>
     <row r="229" ht="15" customHeight="1">
       <c r="F229" t="n">
-        <v>0.02664447348779708</v>
+        <v>0.04139503825146855</v>
       </c>
       <c r="G229" t="n">
-        <v>0.1354772437551452</v>
+        <v>0.1389128489731868</v>
       </c>
       <c r="J229" t="n">
-        <v>0.05311542255889574</v>
+        <v>0.06352638327233817</v>
       </c>
       <c r="K229" t="n">
-        <v>0.1364918858075805</v>
+        <v>0.1369361256021487</v>
       </c>
       <c r="L229" t="n">
-        <v>0.08257648505918591</v>
+        <v>0.08322059797511677</v>
       </c>
       <c r="M229" t="n">
-        <v>0.1397934660057412</v>
+        <v>0.134652517760519</v>
       </c>
       <c r="N229" t="n">
-        <v>0.1542754397506372</v>
+        <v>0.04139503825146855</v>
       </c>
       <c r="O229" t="n">
-        <v>0.1354658144119779</v>
+        <v>0.1389128489731868</v>
       </c>
     </row>
     <row r="230" ht="15" customHeight="1">
       <c r="F230" t="n">
-        <v>0.02637743453343799</v>
+        <v>0.04102280647241018</v>
       </c>
       <c r="G230" t="n">
-        <v>0.1363033245097497</v>
+        <v>0.1397598785400965</v>
       </c>
       <c r="J230" t="n">
-        <v>0.05341486895177962</v>
+        <v>0.06336530607436508</v>
       </c>
       <c r="K230" t="n">
-        <v>0.1373241534039682</v>
+        <v>0.1377711019777715</v>
       </c>
       <c r="L230" t="n">
-        <v>0.08089579637090921</v>
+        <v>0.08277481902653083</v>
       </c>
       <c r="M230" t="n">
-        <v>0.1406458651887031</v>
+        <v>0.1354735696980832</v>
       </c>
       <c r="N230" t="n">
-        <v>0.1544114890006058</v>
+        <v>0.04102280647241018</v>
       </c>
       <c r="O230" t="n">
-        <v>0.1362918254754656</v>
+        <v>0.1397598785400965</v>
       </c>
     </row>
     <row r="231" ht="15" customHeight="1">
       <c r="F231" t="n">
-        <v>0.02710806447870442</v>
+        <v>0.04104606095207085</v>
       </c>
       <c r="G231" t="n">
-        <v>0.1371294052643543</v>
+        <v>0.1406069081070062</v>
       </c>
       <c r="J231" t="n">
-        <v>0.05281212667411307</v>
+        <v>0.06210862553244689</v>
       </c>
       <c r="K231" t="n">
-        <v>0.1381564210003559</v>
+        <v>0.1386060783533944</v>
       </c>
       <c r="L231" t="n">
-        <v>0.08010641946288122</v>
+        <v>0.08073702038199354</v>
       </c>
       <c r="M231" t="n">
-        <v>0.1414982643716649</v>
+        <v>0.1362946216356473</v>
       </c>
       <c r="N231" t="n">
-        <v>0.1558628082101468</v>
+        <v>0.04104606095207085</v>
       </c>
       <c r="O231" t="n">
-        <v>0.1371178365389532</v>
+        <v>0.1406069081070062</v>
       </c>
     </row>
     <row r="232" ht="15" customHeight="1">
       <c r="F232" t="n">
-        <v>0.02583636066165876</v>
+        <v>0.04116484110197351</v>
       </c>
       <c r="G232" t="n">
-        <v>0.1379554860189588</v>
+        <v>0.1414539376739158</v>
       </c>
       <c r="J232" t="n">
-        <v>0.0528071967618098</v>
+        <v>0.06195666319461574</v>
       </c>
       <c r="K232" t="n">
-        <v>0.1389886885967436</v>
+        <v>0.1394410547290172</v>
       </c>
       <c r="L232" t="n">
-        <v>0.07930835310215806</v>
+        <v>0.08090769319770391</v>
       </c>
       <c r="M232" t="n">
-        <v>0.1423506635546267</v>
+        <v>0.1371156735732114</v>
       </c>
       <c r="N232" t="n">
-        <v>0.1547295027647868</v>
+        <v>0.04116484110197351</v>
       </c>
       <c r="O232" t="n">
-        <v>0.1379438476024409</v>
+        <v>0.1414539376739158</v>
       </c>
     </row>
     <row r="233" ht="15" customHeight="1">
       <c r="F233" t="n">
-        <v>0.02756232042036334</v>
+        <v>0.04077918633364112</v>
       </c>
       <c r="G233" t="n">
-        <v>0.1387815667735634</v>
+        <v>0.1423009672408255</v>
       </c>
       <c r="J233" t="n">
-        <v>0.05240008025078348</v>
+        <v>0.06090974060890381</v>
       </c>
       <c r="K233" t="n">
-        <v>0.1398209561931313</v>
+        <v>0.1402760311046401</v>
       </c>
       <c r="L233" t="n">
-        <v>0.07800159605579599</v>
+        <v>0.08018732862986083</v>
       </c>
       <c r="M233" t="n">
-        <v>0.1432030627375886</v>
+        <v>0.1379367255107756</v>
       </c>
       <c r="N233" t="n">
-        <v>0.1559116780500532</v>
+        <v>0.04077918633364112</v>
       </c>
       <c r="O233" t="n">
-        <v>0.1387698586659286</v>
+        <v>0.1423009672408255</v>
       </c>
     </row>
     <row r="234" ht="15" customHeight="1">
       <c r="F234" t="n">
-        <v>0.02928594109288059</v>
+        <v>0.04048913605859671</v>
       </c>
       <c r="G234" t="n">
-        <v>0.1396076475281679</v>
+        <v>0.1431479968077352</v>
       </c>
       <c r="J234" t="n">
-        <v>0.05219077817694794</v>
+        <v>0.06136817932334321</v>
       </c>
       <c r="K234" t="n">
-        <v>0.1406532237895189</v>
+        <v>0.141111007480263</v>
       </c>
       <c r="L234" t="n">
-        <v>0.07728614709085124</v>
+        <v>0.0792764178346631</v>
       </c>
       <c r="M234" t="n">
-        <v>0.1440554619205504</v>
+        <v>0.1387577774483397</v>
       </c>
       <c r="N234" t="n">
-        <v>0.1572094394514729</v>
+        <v>0.04048913605859671</v>
       </c>
       <c r="O234" t="n">
-        <v>0.1395958697294162</v>
+        <v>0.1431479968077352</v>
       </c>
     </row>
     <row r="235" ht="15" customHeight="1">
       <c r="F235" t="n">
-        <v>0.02900722001727288</v>
+        <v>0.04019472968836323</v>
       </c>
       <c r="G235" t="n">
-        <v>0.1404337282827725</v>
+        <v>0.1439950263746449</v>
       </c>
       <c r="J235" t="n">
-        <v>0.05167929157621677</v>
+        <v>0.06043230088596607</v>
       </c>
       <c r="K235" t="n">
-        <v>0.1414854913859066</v>
+        <v>0.1419459838558858</v>
       </c>
       <c r="L235" t="n">
-        <v>0.07656200497437998</v>
+        <v>0.07947545196830985</v>
       </c>
       <c r="M235" t="n">
-        <v>0.1449078611035123</v>
+        <v>0.1395788293859039</v>
       </c>
       <c r="N235" t="n">
-        <v>0.157422892354573</v>
+        <v>0.04019472968836323</v>
       </c>
       <c r="O235" t="n">
-        <v>0.1404218807929039</v>
+        <v>0.1439950263746449</v>
       </c>
     </row>
     <row r="236" ht="15" customHeight="1">
       <c r="F236" t="n">
-        <v>0.0287261545316026</v>
+        <v>0.04019600663446359</v>
       </c>
       <c r="G236" t="n">
-        <v>0.141259809037377</v>
+        <v>0.1448420559415546</v>
       </c>
       <c r="J236" t="n">
-        <v>0.05136562148450376</v>
+        <v>0.06010242684480455</v>
       </c>
       <c r="K236" t="n">
-        <v>0.1423177589822943</v>
+        <v>0.1427809602315087</v>
       </c>
       <c r="L236" t="n">
-        <v>0.0754291684734385</v>
+        <v>0.07808492218699964</v>
       </c>
       <c r="M236" t="n">
-        <v>0.1457602602864741</v>
+        <v>0.140399881323468</v>
       </c>
       <c r="N236" t="n">
-        <v>0.1570521421448803</v>
+        <v>0.04019600663446359</v>
       </c>
       <c r="O236" t="n">
-        <v>0.1412478918563916</v>
+        <v>0.1448420559415546</v>
       </c>
     </row>
     <row r="237" ht="15" customHeight="1">
       <c r="F237" t="n">
-        <v>0.02744274197393214</v>
+        <v>0.03979300630842079</v>
       </c>
       <c r="G237" t="n">
-        <v>0.1420858897919816</v>
+        <v>0.1456890855084642</v>
       </c>
       <c r="J237" t="n">
-        <v>0.05104976893772266</v>
+        <v>0.05927887874789073</v>
       </c>
       <c r="K237" t="n">
-        <v>0.143150026578682</v>
+        <v>0.1436159366071315</v>
       </c>
       <c r="L237" t="n">
-        <v>0.07428763635508284</v>
+        <v>0.07690531964693159</v>
       </c>
       <c r="M237" t="n">
-        <v>0.1466126594694359</v>
+        <v>0.1412209332610321</v>
       </c>
       <c r="N237" t="n">
-        <v>0.157197294207922</v>
+        <v>0.03979300630842079</v>
       </c>
       <c r="O237" t="n">
-        <v>0.1420739029198793</v>
+        <v>0.1456890855084642</v>
       </c>
     </row>
     <row r="238" ht="15" customHeight="1">
       <c r="F238" t="n">
-        <v>0.02615697968232385</v>
+        <v>0.03958576812175783</v>
       </c>
       <c r="G238" t="n">
-        <v>0.1429119705465861</v>
+        <v>0.1465361150753739</v>
       </c>
       <c r="J238" t="n">
-        <v>0.05043173497178717</v>
+        <v>0.05936197814325683</v>
       </c>
       <c r="K238" t="n">
-        <v>0.1439822941750697</v>
+        <v>0.1444509129827544</v>
       </c>
       <c r="L238" t="n">
-        <v>0.07313740738636937</v>
+        <v>0.07703713550430463</v>
       </c>
       <c r="M238" t="n">
-        <v>0.1474650586523978</v>
+        <v>0.1420419851985963</v>
       </c>
       <c r="N238" t="n">
-        <v>0.1579584539292251</v>
+        <v>0.03958576812175783</v>
       </c>
       <c r="O238" t="n">
-        <v>0.1428999139833669</v>
+        <v>0.1465361150753739</v>
       </c>
     </row>
     <row r="239" ht="15" customHeight="1">
       <c r="F239" t="n">
-        <v>0.02486886499484016</v>
+        <v>0.03947433148599765</v>
       </c>
       <c r="G239" t="n">
-        <v>0.1437380513011906</v>
+        <v>0.1473831446422836</v>
       </c>
       <c r="J239" t="n">
-        <v>0.050311520622611</v>
+        <v>0.05915204657893491</v>
       </c>
       <c r="K239" t="n">
-        <v>0.1448145617714574</v>
+        <v>0.1452858893583773</v>
       </c>
       <c r="L239" t="n">
-        <v>0.0721784803343542</v>
+        <v>0.07708086091531752</v>
       </c>
       <c r="M239" t="n">
-        <v>0.1483174578353596</v>
+        <v>0.1428630371361604</v>
       </c>
       <c r="N239" t="n">
-        <v>0.1594357266943167</v>
+        <v>0.03947433148599765</v>
       </c>
       <c r="O239" t="n">
-        <v>0.1437259250468546</v>
+        <v>0.1473831446422836</v>
       </c>
     </row>
     <row r="240" ht="15" customHeight="1">
       <c r="F240" t="n">
-        <v>0.02757839524954339</v>
+        <v>0.03955873581266321</v>
       </c>
       <c r="G240" t="n">
-        <v>0.1445641320557952</v>
+        <v>0.1482301742091932</v>
       </c>
       <c r="J240" t="n">
-        <v>0.04968912692610787</v>
+        <v>0.05894940560295714</v>
       </c>
       <c r="K240" t="n">
-        <v>0.145646829367845</v>
+        <v>0.1461208657340001</v>
       </c>
       <c r="L240" t="n">
-        <v>0.07151085396609363</v>
+        <v>0.07603698703616929</v>
       </c>
       <c r="M240" t="n">
-        <v>0.1491698570183214</v>
+        <v>0.1436840890737245</v>
       </c>
       <c r="N240" t="n">
-        <v>0.1590292178887237</v>
+        <v>0.03955873581266321</v>
       </c>
       <c r="O240" t="n">
-        <v>0.1445519361103423</v>
+        <v>0.1482301742091932</v>
       </c>
     </row>
     <row r="241" ht="15" customHeight="1">
       <c r="F241" t="n">
-        <v>0.025285567784496</v>
+        <v>0.03913902051327743</v>
       </c>
       <c r="G241" t="n">
-        <v>0.1453902128103997</v>
+        <v>0.1490772037761029</v>
       </c>
       <c r="J241" t="n">
-        <v>0.0494645549181915</v>
+        <v>0.05805437676335562</v>
       </c>
       <c r="K241" t="n">
-        <v>0.1464790969642327</v>
+        <v>0.146955842109623</v>
       </c>
       <c r="L241" t="n">
-        <v>0.07063452704864381</v>
+        <v>0.07480600502305879</v>
       </c>
       <c r="M241" t="n">
-        <v>0.1500222562012833</v>
+        <v>0.1445051410112887</v>
       </c>
       <c r="N241" t="n">
-        <v>0.1588390328979731</v>
+        <v>0.03913902051327743</v>
       </c>
       <c r="O241" t="n">
-        <v>0.1453779471738299</v>
+        <v>0.1490772037761029</v>
       </c>
     </row>
     <row r="242" ht="15" customHeight="1">
       <c r="F242" t="n">
-        <v>0.02699037993776032</v>
+        <v>0.03921522499936338</v>
       </c>
       <c r="G242" t="n">
-        <v>0.1462162935650043</v>
+        <v>0.1499242333430126</v>
       </c>
       <c r="J242" t="n">
-        <v>0.04903780563477562</v>
+        <v>0.0579672816081625</v>
       </c>
       <c r="K242" t="n">
-        <v>0.1473113645606204</v>
+        <v>0.1477908184852458</v>
       </c>
       <c r="L242" t="n">
-        <v>0.06934949834906107</v>
+        <v>0.07458840603218492</v>
       </c>
       <c r="M242" t="n">
-        <v>0.1508746553842451</v>
+        <v>0.1453261929488528</v>
       </c>
       <c r="N242" t="n">
-        <v>0.159965277107592</v>
+        <v>0.03921522499936338</v>
       </c>
       <c r="O242" t="n">
-        <v>0.1462039582373176</v>
+        <v>0.1499242333430126</v>
       </c>
     </row>
     <row r="243" ht="15" customHeight="1">
       <c r="F243" t="n">
-        <v>0.02369282904739874</v>
+        <v>0.03858738868244389</v>
       </c>
       <c r="G243" t="n">
-        <v>0.1470423743196088</v>
+        <v>0.1507712629099223</v>
       </c>
       <c r="J243" t="n">
-        <v>0.04870888011177398</v>
+        <v>0.05738844168541002</v>
       </c>
       <c r="K243" t="n">
-        <v>0.1481436321570081</v>
+        <v>0.1486257948608687</v>
       </c>
       <c r="L243" t="n">
-        <v>0.06775576663440136</v>
+        <v>0.07438468121974656</v>
       </c>
       <c r="M243" t="n">
-        <v>0.151727054567207</v>
+        <v>0.146147244886417</v>
       </c>
       <c r="N243" t="n">
-        <v>0.1602080559031073</v>
+        <v>0.03858738868244389</v>
       </c>
       <c r="O243" t="n">
-        <v>0.1470299693008053</v>
+        <v>0.1507712629099223</v>
       </c>
     </row>
     <row r="244" ht="15" customHeight="1">
       <c r="F244" t="n">
-        <v>0.02639291245147367</v>
+        <v>0.03815555097404209</v>
       </c>
       <c r="G244" t="n">
-        <v>0.1478684550742134</v>
+        <v>0.151618292476832</v>
       </c>
       <c r="J244" t="n">
-        <v>0.0485777793851002</v>
+        <v>0.05661817854313012</v>
       </c>
       <c r="K244" t="n">
-        <v>0.1489758997533958</v>
+        <v>0.1494607712364916</v>
       </c>
       <c r="L244" t="n">
-        <v>0.06725333067172112</v>
+        <v>0.0741953217419426</v>
       </c>
       <c r="M244" t="n">
-        <v>0.1525794537501688</v>
+        <v>0.1469682968239811</v>
       </c>
       <c r="N244" t="n">
-        <v>0.1614674746700464</v>
+        <v>0.03815555097404209</v>
       </c>
       <c r="O244" t="n">
-        <v>0.1478559803642929</v>
+        <v>0.151618292476832</v>
       </c>
     </row>
     <row r="245" ht="15" customHeight="1">
       <c r="F245" t="n">
-        <v>0.02609062748804744</v>
+        <v>0.03821975128568082</v>
       </c>
       <c r="G245" t="n">
-        <v>0.1486945358288179</v>
+        <v>0.1524653220437416</v>
       </c>
       <c r="J245" t="n">
-        <v>0.04864450449066811</v>
+        <v>0.0571568137293551</v>
       </c>
       <c r="K245" t="n">
-        <v>0.1498081673497835</v>
+        <v>0.1502957476121144</v>
       </c>
       <c r="L245" t="n">
-        <v>0.06544218922807643</v>
+        <v>0.07332081875497204</v>
       </c>
       <c r="M245" t="n">
-        <v>0.1534318529331306</v>
+        <v>0.1477893487615453</v>
       </c>
       <c r="N245" t="n">
-        <v>0.1615436387939358</v>
+        <v>0.03821975128568082</v>
       </c>
       <c r="O245" t="n">
-        <v>0.1486819914277806</v>
+        <v>0.1524653220437416</v>
       </c>
     </row>
     <row r="246" ht="15" customHeight="1">
       <c r="F246" t="n">
-        <v>0.0247859714951825</v>
+        <v>0.03798002902888313</v>
       </c>
       <c r="G246" t="n">
-        <v>0.1495206165834224</v>
+        <v>0.1533123516106513</v>
       </c>
       <c r="J246" t="n">
-        <v>0.04790905646439138</v>
+        <v>0.05610466879211701</v>
       </c>
       <c r="K246" t="n">
-        <v>0.1506404349461712</v>
+        <v>0.1511307239877373</v>
       </c>
       <c r="L246" t="n">
-        <v>0.06452234107052363</v>
+        <v>0.07276166341503365</v>
       </c>
       <c r="M246" t="n">
-        <v>0.1542842521160925</v>
+        <v>0.1486104006991094</v>
       </c>
       <c r="N246" t="n">
-        <v>0.1630366536603028</v>
+        <v>0.03798002902888313</v>
       </c>
       <c r="O246" t="n">
-        <v>0.1495080024912683</v>
+        <v>0.1533123516106513</v>
       </c>
     </row>
     <row r="247" ht="15" customHeight="1">
       <c r="F247" t="n">
-        <v>0.02547894181094118</v>
+        <v>0.03783642361517194</v>
       </c>
       <c r="G247" t="n">
-        <v>0.150346697338027</v>
+        <v>0.154159381177561</v>
       </c>
       <c r="J247" t="n">
-        <v>0.04747143634218377</v>
+        <v>0.05576206527944805</v>
       </c>
       <c r="K247" t="n">
-        <v>0.1514727025425588</v>
+        <v>0.1519657003633601</v>
       </c>
       <c r="L247" t="n">
-        <v>0.06399378496611874</v>
+        <v>0.07281834687832633</v>
       </c>
       <c r="M247" t="n">
-        <v>0.1551366512990543</v>
+        <v>0.1494314526366735</v>
       </c>
       <c r="N247" t="n">
-        <v>0.1638466246546744</v>
+        <v>0.03783642361517194</v>
       </c>
       <c r="O247" t="n">
-        <v>0.150334013554756</v>
+        <v>0.154159381177561</v>
       </c>
     </row>
     <row r="248" ht="15" customHeight="1">
       <c r="F248" t="n">
-        <v>0.02416953577338589</v>
+        <v>0.03718897445607018</v>
       </c>
       <c r="G248" t="n">
-        <v>0.1511727780926315</v>
+        <v>0.1550064107444707</v>
       </c>
       <c r="J248" t="n">
-        <v>0.04723164515995899</v>
+        <v>0.0561293247393802</v>
       </c>
       <c r="K248" t="n">
-        <v>0.1523049701389465</v>
+        <v>0.152800676738983</v>
       </c>
       <c r="L248" t="n">
-        <v>0.06225651968191831</v>
+        <v>0.07299136030104914</v>
       </c>
       <c r="M248" t="n">
-        <v>0.1559890504820161</v>
+        <v>0.1502525045742377</v>
       </c>
       <c r="N248" t="n">
-        <v>0.1635736571625775</v>
+        <v>0.03718897445607018</v>
       </c>
       <c r="O248" t="n">
-        <v>0.1511600246182436</v>
+        <v>0.1550064107444707</v>
       </c>
     </row>
     <row r="249" ht="15" customHeight="1">
       <c r="F249" t="n">
-        <v>0.02385775072057901</v>
+        <v>0.03753772096310086</v>
       </c>
       <c r="G249" t="n">
-        <v>0.1519988588472361</v>
+        <v>0.1558534403113803</v>
       </c>
       <c r="J249" t="n">
-        <v>0.04688968395363073</v>
+        <v>0.05550676871994581</v>
       </c>
       <c r="K249" t="n">
-        <v>0.1531372377353342</v>
+        <v>0.1536356531146058</v>
       </c>
       <c r="L249" t="n">
-        <v>0.06081054398497809</v>
+        <v>0.0709811948394008</v>
       </c>
       <c r="M249" t="n">
-        <v>0.156841449664978</v>
+        <v>0.1510735565118018</v>
       </c>
       <c r="N249" t="n">
-        <v>0.1641178565695394</v>
+        <v>0.03753772096310086</v>
       </c>
       <c r="O249" t="n">
-        <v>0.1519860356817313</v>
+        <v>0.1558534403113803</v>
       </c>
     </row>
     <row r="250" ht="15" customHeight="1">
       <c r="F250" t="n">
-        <v>0.02054358399058291</v>
+        <v>0.03688270254778693</v>
       </c>
       <c r="G250" t="n">
-        <v>0.1528249396018406</v>
+        <v>0.15670046987829</v>
       </c>
       <c r="J250" t="n">
-        <v>0.04674555375911273</v>
+        <v>0.05479471876917696</v>
       </c>
       <c r="K250" t="n">
-        <v>0.1539695053317219</v>
+        <v>0.1544706294902287</v>
       </c>
       <c r="L250" t="n">
-        <v>0.05955585664235469</v>
+        <v>0.07098834164958034</v>
       </c>
       <c r="M250" t="n">
-        <v>0.1576938488479398</v>
+        <v>0.1518946084493659</v>
       </c>
       <c r="N250" t="n">
-        <v>0.1652793282610868</v>
+        <v>0.03688270254778693</v>
       </c>
       <c r="O250" t="n">
-        <v>0.1528120467452189</v>
+        <v>0.15670046987829</v>
       </c>
     </row>
     <row r="251" ht="15" customHeight="1">
       <c r="F251" t="n">
-        <v>0.02422703292146</v>
+        <v>0.03692395862165142</v>
       </c>
       <c r="G251" t="n">
-        <v>0.1536510203564452</v>
+        <v>0.1575474994451997</v>
       </c>
       <c r="J251" t="n">
-        <v>0.04619925561231868</v>
+        <v>0.05519349643510568</v>
       </c>
       <c r="K251" t="n">
-        <v>0.1548017729281096</v>
+        <v>0.1553056058658516</v>
       </c>
       <c r="L251" t="n">
-        <v>0.05929245642110403</v>
+        <v>0.07031329188778651</v>
       </c>
       <c r="M251" t="n">
-        <v>0.1585462480309017</v>
+        <v>0.1527156603869301</v>
       </c>
       <c r="N251" t="n">
-        <v>0.164858177622747</v>
+        <v>0.03692395862165142</v>
       </c>
       <c r="O251" t="n">
-        <v>0.1536380578087066</v>
+        <v>0.1575474994451997</v>
       </c>
     </row>
     <row r="252" ht="15" customHeight="1">
       <c r="F252" t="n">
-        <v>0.02290809485127264</v>
+        <v>0.03626152859621719</v>
       </c>
       <c r="G252" t="n">
-        <v>0.1544771011110497</v>
+        <v>0.1583945290121094</v>
       </c>
       <c r="J252" t="n">
-        <v>0.04595079054916239</v>
+        <v>0.05390342326576414</v>
       </c>
       <c r="K252" t="n">
-        <v>0.1556340405244973</v>
+        <v>0.1561405822414744</v>
       </c>
       <c r="L252" t="n">
-        <v>0.05802034208828255</v>
+        <v>0.07025653671021842</v>
       </c>
       <c r="M252" t="n">
-        <v>0.1593986472138635</v>
+        <v>0.1535367123244942</v>
       </c>
       <c r="N252" t="n">
-        <v>0.1668545100400468</v>
+        <v>0.03626152859621719</v>
       </c>
       <c r="O252" t="n">
-        <v>0.1544640688721943</v>
+        <v>0.1583945290121094</v>
       </c>
     </row>
     <row r="253" ht="15" customHeight="1">
       <c r="F253" t="n">
-        <v>0.0215867671180832</v>
+        <v>0.03589545188300734</v>
       </c>
       <c r="G253" t="n">
-        <v>0.1553031818656543</v>
+        <v>0.159241558579019</v>
       </c>
       <c r="J253" t="n">
-        <v>0.04560015960555754</v>
+        <v>0.05382482080918444</v>
       </c>
       <c r="K253" t="n">
-        <v>0.156466308120885</v>
+        <v>0.1569755586170973</v>
       </c>
       <c r="L253" t="n">
-        <v>0.0569395124109463</v>
+        <v>0.07001856727307482</v>
       </c>
       <c r="M253" t="n">
-        <v>0.1602510463968253</v>
+        <v>0.1543577642620584</v>
       </c>
       <c r="N253" t="n">
-        <v>0.1665684308985133</v>
+        <v>0.03589545188300734</v>
       </c>
       <c r="O253" t="n">
-        <v>0.1552900799356819</v>
+        <v>0.159241558579019</v>
       </c>
     </row>
     <row r="254" ht="15" customHeight="1">
       <c r="F254" t="n">
-        <v>0.02226304705995409</v>
+        <v>0.03592576789354467</v>
       </c>
       <c r="G254" t="n">
-        <v>0.1561292626202588</v>
+        <v>0.1600885881459287</v>
       </c>
       <c r="J254" t="n">
-        <v>0.0452473638174178</v>
+        <v>0.0543580106133989</v>
       </c>
       <c r="K254" t="n">
-        <v>0.1572985757172727</v>
+        <v>0.1578105349927201</v>
       </c>
       <c r="L254" t="n">
-        <v>0.05524996615615152</v>
+        <v>0.06969987473255462</v>
       </c>
       <c r="M254" t="n">
-        <v>0.1611034455797871</v>
+        <v>0.1551788161996225</v>
       </c>
       <c r="N254" t="n">
-        <v>0.1676000455836735</v>
+        <v>0.03592576789354467</v>
       </c>
       <c r="O254" t="n">
-        <v>0.1561160909991696</v>
+        <v>0.1600885881459287</v>
       </c>
     </row>
     <row r="255" ht="15" customHeight="1">
       <c r="F255" t="n">
-        <v>0.0219369320149477</v>
+        <v>0.03585251603935226</v>
       </c>
       <c r="G255" t="n">
-        <v>0.1569553433748634</v>
+        <v>0.1609356177128384</v>
       </c>
       <c r="J255" t="n">
-        <v>0.04469240422065691</v>
+        <v>0.05320331422643948</v>
       </c>
       <c r="K255" t="n">
-        <v>0.1581308433136603</v>
+        <v>0.158645511368343</v>
       </c>
       <c r="L255" t="n">
-        <v>0.05465170209095455</v>
+        <v>0.06930095024485677</v>
       </c>
       <c r="M255" t="n">
-        <v>0.161955844762749</v>
+        <v>0.1559998681371867</v>
       </c>
       <c r="N255" t="n">
-        <v>0.1680494594810545</v>
+        <v>0.03585251603935226</v>
       </c>
       <c r="O255" t="n">
-        <v>0.1569421020626573</v>
+        <v>0.1609356177128384</v>
       </c>
     </row>
     <row r="256" ht="15" customHeight="1">
       <c r="F256" t="n">
-        <v>0.02160841932112639</v>
+        <v>0.03507573573195306</v>
       </c>
       <c r="G256" t="n">
-        <v>0.1577814241294679</v>
+        <v>0.1617826472797481</v>
       </c>
       <c r="J256" t="n">
-        <v>0.04473528185118865</v>
+        <v>0.05286105319633838</v>
       </c>
       <c r="K256" t="n">
-        <v>0.158963110910048</v>
+        <v>0.1594804877439658</v>
       </c>
       <c r="L256" t="n">
-        <v>0.05254471898241142</v>
+        <v>0.07002228496618013</v>
       </c>
       <c r="M256" t="n">
-        <v>0.1628082439457108</v>
+        <v>0.1568209200747508</v>
       </c>
       <c r="N256" t="n">
-        <v>0.1686167779761833</v>
+        <v>0.03507573573195306</v>
       </c>
       <c r="O256" t="n">
-        <v>0.157768113126145</v>
+        <v>0.1617826472797481</v>
       </c>
     </row>
     <row r="257" ht="15" customHeight="1">
       <c r="F257" t="n">
-        <v>0.02027750631655256</v>
+        <v>0.03489546638287001</v>
       </c>
       <c r="G257" t="n">
-        <v>0.1586075048840724</v>
+        <v>0.1626296768466577</v>
       </c>
       <c r="J257" t="n">
-        <v>0.04427599774492667</v>
+        <v>0.05333154907112769</v>
       </c>
       <c r="K257" t="n">
-        <v>0.1597953785064357</v>
+        <v>0.1603154641195887</v>
       </c>
       <c r="L257" t="n">
-        <v>0.05182901559757841</v>
+        <v>0.06926437005272357</v>
       </c>
       <c r="M257" t="n">
-        <v>0.1636606431286727</v>
+        <v>0.1576419720123149</v>
       </c>
       <c r="N257" t="n">
-        <v>0.1706021064545868</v>
+        <v>0.03489546638287001</v>
       </c>
       <c r="O257" t="n">
-        <v>0.1585941241896326</v>
+        <v>0.1626296768466577</v>
       </c>
     </row>
     <row r="258" ht="15" customHeight="1">
       <c r="F258" t="n">
-        <v>0.01894419033928858</v>
+        <v>0.03481174740362609</v>
       </c>
       <c r="G258" t="n">
-        <v>0.159433585638677</v>
+        <v>0.1634767064135674</v>
       </c>
       <c r="J258" t="n">
-        <v>0.04361455293778473</v>
+        <v>0.05241512339883964</v>
       </c>
       <c r="K258" t="n">
-        <v>0.1606276461028234</v>
+        <v>0.1611504404952116</v>
       </c>
       <c r="L258" t="n">
-        <v>0.05080459070351176</v>
+        <v>0.06842769666068615</v>
       </c>
       <c r="M258" t="n">
-        <v>0.1645130423116345</v>
+        <v>0.1584630239498791</v>
       </c>
       <c r="N258" t="n">
-        <v>0.1706055503017923</v>
+        <v>0.03481174740362609</v>
       </c>
       <c r="O258" t="n">
-        <v>0.1594201352531203</v>
+        <v>0.1634767064135674</v>
       </c>
     </row>
     <row r="259" ht="15" customHeight="1">
       <c r="F259" t="n">
-        <v>0.02060846872739686</v>
+        <v>0.03462461820574429</v>
       </c>
       <c r="G259" t="n">
-        <v>0.1602596663932815</v>
+        <v>0.1643237359804771</v>
       </c>
       <c r="J259" t="n">
-        <v>0.04325094846567658</v>
+        <v>0.05321209772750629</v>
       </c>
       <c r="K259" t="n">
-        <v>0.1614599136992111</v>
+        <v>0.1619854168708344</v>
       </c>
       <c r="L259" t="n">
-        <v>0.0491714430672677</v>
+        <v>0.06911275594626659</v>
       </c>
       <c r="M259" t="n">
-        <v>0.1653654414945963</v>
+        <v>0.1592840758874432</v>
       </c>
       <c r="N259" t="n">
-        <v>0.1722272149033264</v>
+        <v>0.03462461820574429</v>
       </c>
       <c r="O259" t="n">
-        <v>0.160246146316608</v>
+        <v>0.1643237359804771</v>
       </c>
     </row>
     <row r="260" ht="15" customHeight="1">
       <c r="F260" t="n">
-        <v>0.01727033881893973</v>
+        <v>0.03403411820074755</v>
       </c>
       <c r="G260" t="n">
-        <v>0.1610857471478861</v>
+        <v>0.1651707655473867</v>
       </c>
       <c r="J260" t="n">
-        <v>0.04298518536451586</v>
+        <v>0.05252279360515977</v>
       </c>
       <c r="K260" t="n">
-        <v>0.1622921812955988</v>
+        <v>0.1628203932464573</v>
       </c>
       <c r="L260" t="n">
-        <v>0.04752957145590234</v>
+        <v>0.06822003906566387</v>
       </c>
       <c r="M260" t="n">
-        <v>0.1662178406775582</v>
+        <v>0.1601051278250074</v>
       </c>
       <c r="N260" t="n">
-        <v>0.1723672056447165</v>
+        <v>0.03403411820074755</v>
       </c>
       <c r="O260" t="n">
-        <v>0.1610721573800956</v>
+        <v>0.1651707655473867</v>
       </c>
     </row>
     <row r="261" ht="15" customHeight="1">
       <c r="F261" t="n">
-        <v>0.01692979795197962</v>
+        <v>0.03414028680015883</v>
       </c>
       <c r="G261" t="n">
-        <v>0.1619118279024906</v>
+        <v>0.1660177951142964</v>
       </c>
       <c r="J261" t="n">
-        <v>0.04261726467021636</v>
+        <v>0.05224753257983222</v>
       </c>
       <c r="K261" t="n">
-        <v>0.1631244488919864</v>
+        <v>0.1636553696220801</v>
       </c>
       <c r="L261" t="n">
-        <v>0.04647897463647196</v>
+        <v>0.06905003717507691</v>
       </c>
       <c r="M261" t="n">
-        <v>0.16707023986052</v>
+        <v>0.1609261797625715</v>
       </c>
       <c r="N261" t="n">
-        <v>0.1736256279114894</v>
+        <v>0.03414028680015883</v>
       </c>
       <c r="O261" t="n">
-        <v>0.1618981684435833</v>
+        <v>0.1660177951142964</v>
       </c>
     </row>
     <row r="262" ht="15" customHeight="1">
       <c r="F262" t="n">
-        <v>0.01858684346457887</v>
+        <v>0.0336431634155011</v>
       </c>
       <c r="G262" t="n">
-        <v>0.1627379086570952</v>
+        <v>0.1668648246812061</v>
       </c>
       <c r="J262" t="n">
-        <v>0.0420471874186918</v>
+        <v>0.05188663619955577</v>
       </c>
       <c r="K262" t="n">
-        <v>0.1639567164883741</v>
+        <v>0.164490345997703</v>
       </c>
       <c r="L262" t="n">
-        <v>0.04551965137603278</v>
+        <v>0.06850324143070446</v>
       </c>
       <c r="M262" t="n">
-        <v>0.1679226390434819</v>
+        <v>0.1617472317001356</v>
       </c>
       <c r="N262" t="n">
-        <v>0.1748025870891722</v>
+        <v>0.0336431634155011</v>
       </c>
       <c r="O262" t="n">
-        <v>0.162724179507071</v>
+        <v>0.1668648246812061</v>
       </c>
     </row>
     <row r="263" ht="15" customHeight="1">
       <c r="F263" t="n">
-        <v>0.01724147269479993</v>
+        <v>0.03334278745829734</v>
       </c>
       <c r="G263" t="n">
-        <v>0.1635639894116997</v>
+        <v>0.1677118542481158</v>
       </c>
       <c r="J263" t="n">
-        <v>0.04177495464585583</v>
+        <v>0.05154042601236258</v>
       </c>
       <c r="K263" t="n">
-        <v>0.1647889840847618</v>
+        <v>0.1653253223733258</v>
       </c>
       <c r="L263" t="n">
-        <v>0.044051600441641</v>
+        <v>0.06748014298874566</v>
       </c>
       <c r="M263" t="n">
-        <v>0.1687750382264437</v>
+        <v>0.1625682836376998</v>
       </c>
       <c r="N263" t="n">
-        <v>0.175898188563292</v>
+        <v>0.03334278745829734</v>
       </c>
       <c r="O263" t="n">
-        <v>0.1635501905705587</v>
+        <v>0.1677118542481158</v>
       </c>
     </row>
     <row r="264" ht="15" customHeight="1">
       <c r="F264" t="n">
-        <v>0.01589368298070513</v>
+        <v>0.03323919834007048</v>
       </c>
       <c r="G264" t="n">
-        <v>0.1643900701663042</v>
+        <v>0.1685588838150255</v>
       </c>
       <c r="J264" t="n">
-        <v>0.04140056738762231</v>
+        <v>0.05180922356628481</v>
       </c>
       <c r="K264" t="n">
-        <v>0.1656212516811495</v>
+        <v>0.1661602987489487</v>
       </c>
       <c r="L264" t="n">
-        <v>0.0431748206003528</v>
+        <v>0.06868123300539919</v>
       </c>
       <c r="M264" t="n">
-        <v>0.1696274374094055</v>
+        <v>0.1633893355752639</v>
       </c>
       <c r="N264" t="n">
-        <v>0.1768125377193757</v>
+        <v>0.03323919834007048</v>
       </c>
       <c r="O264" t="n">
-        <v>0.1643762016340463</v>
+        <v>0.1685588838150255</v>
       </c>
     </row>
     <row r="265" ht="15" customHeight="1"/>

--- a/prot/ООО Регионстрой/Трехосные_КД_ПП/1330.xlsx
+++ b/prot/ООО Регионстрой/Трехосные_КД_ПП/1330.xlsx
@@ -8491,8 +8491,14 @@
     </row>
     <row r="47" ht="16.5" customHeight="1">
       <c r="A47" s="144" t="n"/>
-      <c r="B47" s="144" t="n"/>
-      <c r="C47" s="144" t="n"/>
+      <c r="B47" s="144" t="inlineStr">
+        <is>
+          <t>K0, д.е.</t>
+        </is>
+      </c>
+      <c r="C47" s="144" t="n">
+        <v>0.7920883091822406</v>
+      </c>
       <c r="D47" s="144" t="n"/>
       <c r="E47" s="144" t="n"/>
       <c r="F47" s="144" t="n"/>
@@ -8549,8 +8555,14 @@
     </row>
     <row r="48" ht="16.5" customHeight="1">
       <c r="A48" s="144" t="n"/>
-      <c r="B48" s="144" t="n"/>
-      <c r="C48" s="144" t="n"/>
+      <c r="B48" s="144" t="inlineStr">
+        <is>
+          <t>q_zg, МПа</t>
+        </is>
+      </c>
+      <c r="C48" s="144" t="n">
+        <v>0.07765570416157953</v>
+      </c>
       <c r="D48" s="144" t="n"/>
       <c r="E48" s="144" t="n"/>
       <c r="F48" s="144" t="n"/>
@@ -8700,12 +8712,20 @@
         <f>B70/A70</f>
         <v/>
       </c>
-      <c r="F50" s="144" t="n"/>
+      <c r="F50" s="144" t="inlineStr">
+        <is>
+          <t>Точки модуля (полное напр.), МПа</t>
+        </is>
+      </c>
       <c r="G50" s="144" t="n"/>
       <c r="H50" s="144" t="n"/>
       <c r="I50" s="144" t="n"/>
-      <c r="J50" s="144" t="n"/>
-      <c r="K50" s="144" t="n"/>
+      <c r="J50" s="144" t="n">
+        <v>0.07765570416157953</v>
+      </c>
+      <c r="K50" s="144" t="n">
+        <v>0.1242491266585273</v>
+      </c>
       <c r="L50" s="144" t="n"/>
       <c r="N50" s="148">
         <f>J50</f>
@@ -8782,11 +8802,17 @@
         <f>A65/B65</f>
         <v/>
       </c>
-      <c r="F51" s="144" t="n"/>
+      <c r="F51" s="144" t="inlineStr">
+        <is>
+          <t>qf (полное напр.), МПа</t>
+        </is>
+      </c>
       <c r="G51" s="144" t="n"/>
       <c r="H51" s="144" t="n"/>
       <c r="I51" s="144" t="n"/>
-      <c r="J51" s="144" t="n"/>
+      <c r="J51" s="144" t="n">
+        <v>0.1190062401236265</v>
+      </c>
       <c r="K51" s="144" t="n"/>
       <c r="L51" s="144" t="n"/>
       <c r="M51" s="1" t="n"/>
@@ -9232,10 +9258,10 @@
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>0.03314325074425921</v>
+        <v>0.02096704012362648</v>
       </c>
       <c r="B65" t="n">
-        <v>0.02759866108850085</v>
+        <v>0.01745942903627812</v>
       </c>
       <c r="C65" s="151">
         <f>MATCH(A65,F65:F1000,1)-A67</f>
@@ -9292,29 +9318,29 @@
         </is>
       </c>
       <c r="F66" s="170" t="n">
-        <v>0.001741814793898538</v>
+        <v>-4.413349345511186e-05</v>
       </c>
       <c r="G66" s="171" t="n">
-        <v>0.0008470295669096757</v>
+        <v>0.001669957977655923</v>
       </c>
       <c r="H66" s="171" t="n"/>
       <c r="J66" s="170" t="n">
-        <v>0.00419381952486142</v>
+        <v>0.003163826177615653</v>
       </c>
       <c r="K66" s="171" t="n">
-        <v>0.0008349763756228578</v>
+        <v>0.001692987358805279</v>
       </c>
       <c r="L66" s="172" t="n">
-        <v>0.005706088750135507</v>
+        <v>0.007356514059804142</v>
       </c>
       <c r="M66" s="170" t="n">
-        <v>0.0008210519375641403</v>
+        <v>0.001687712825212314</v>
       </c>
       <c r="N66" s="171" t="n">
-        <v>0.001741814793898538</v>
+        <v>0.01206458463583782</v>
       </c>
       <c r="O66" s="172" t="n">
-        <v>0.0008470295669096757</v>
+        <v>0.001689761187772689</v>
       </c>
       <c r="Q66" s="151" t="inlineStr">
         <is>
@@ -9332,29 +9358,29 @@
         <v>2</v>
       </c>
       <c r="F67" s="170" t="n">
-        <v>0.003951102484855723</v>
+        <v>0.006581488091143006</v>
       </c>
       <c r="G67" s="171" t="n">
-        <v>0.001694059133819351</v>
+        <v>0.003339915955311845</v>
       </c>
       <c r="H67" s="171" t="n"/>
       <c r="J67" s="170" t="n">
-        <v>0.00919774747131813</v>
+        <v>0.006774327154687607</v>
       </c>
       <c r="K67" s="171" t="n">
-        <v>0.001669952751245716</v>
+        <v>0.003385974717610557</v>
       </c>
       <c r="L67" s="172" t="n">
-        <v>0.01251477389553918</v>
+        <v>0.01577153668235814</v>
       </c>
       <c r="M67" s="170" t="n">
-        <v>0.001642103875128281</v>
+        <v>0.003375425650424628</v>
       </c>
       <c r="N67" s="171" t="n">
-        <v>0.003951102484855723</v>
+        <v>0.02236070000328888</v>
       </c>
       <c r="O67" s="172" t="n">
-        <v>0.001694059133819351</v>
+        <v>0.003379522375545377</v>
       </c>
       <c r="Q67" s="151" t="inlineStr">
         <is>
@@ -9374,29 +9400,29 @@
         </is>
       </c>
       <c r="F68" s="170" t="n">
-        <v>0.00661675357297814</v>
+        <v>0.01164835562423693</v>
       </c>
       <c r="G68" s="171" t="n">
-        <v>0.002541088700729027</v>
+        <v>0.005819809678759374</v>
       </c>
       <c r="H68" s="171" t="n"/>
       <c r="J68" s="170" t="n">
-        <v>0.01408864096833198</v>
+        <v>0.01073993953481231</v>
       </c>
       <c r="K68" s="171" t="n">
-        <v>0.002504929126868573</v>
+        <v>0.005078962076415836</v>
       </c>
       <c r="L68" s="172" t="n">
-        <v>0.01875404742442766</v>
+        <v>0.02209197711069794</v>
       </c>
       <c r="M68" s="170" t="n">
-        <v>0.002463155812692421</v>
+        <v>0.005063138475636941</v>
       </c>
       <c r="N68" s="171" t="n">
-        <v>0.00661675357297814</v>
+        <v>0.03380323720138478</v>
       </c>
       <c r="O68" s="172" t="n">
-        <v>0.002541088700729027</v>
+        <v>0.005069283563318066</v>
       </c>
       <c r="Q68" s="151" t="inlineStr">
         <is>
@@ -9421,29 +9447,29 @@
         </is>
       </c>
       <c r="F69" s="170" t="n">
-        <v>0.008527658558372314</v>
+        <v>0.01263265813690444</v>
       </c>
       <c r="G69" s="171" t="n">
-        <v>0.003388118267638703</v>
+        <v>0.006679831910623691</v>
       </c>
       <c r="H69" s="171" t="n"/>
       <c r="J69" s="170" t="n">
-        <v>0.01764335714486473</v>
+        <v>0.01470587999999999</v>
       </c>
       <c r="K69" s="171" t="n">
-        <v>0.003339905502491431</v>
+        <v>0.007347425294999994</v>
       </c>
       <c r="L69" s="172" t="n">
-        <v>0.02545190132501812</v>
+        <v>0.02970587999999999</v>
       </c>
       <c r="M69" s="170" t="n">
-        <v>0.003284207750256561</v>
+        <v>0.006997547899999995</v>
       </c>
       <c r="N69" s="171" t="n">
-        <v>0.008527658558372314</v>
+        <v>0.04470587999999998</v>
       </c>
       <c r="O69" s="172" t="n">
-        <v>0.003388118267638703</v>
+        <v>0.007133422616504848</v>
       </c>
       <c r="Q69" s="151" t="inlineStr">
         <is>
@@ -9458,62 +9484,62 @@
     </row>
     <row r="70" ht="15" customHeight="1">
       <c r="A70" t="n">
-        <v>0.0124710397</v>
+        <v>0.005819809678759374</v>
       </c>
       <c r="B70" t="n">
-        <v>0.02496079999999999</v>
+        <v>0.01164835562423693</v>
       </c>
       <c r="F70" s="170" t="n">
-        <v>0.01057270794114477</v>
+        <v>0.01029782206689971</v>
       </c>
       <c r="G70" s="171" t="n">
-        <v>0.004235147834548378</v>
+        <v>0.008349789888279613</v>
       </c>
       <c r="H70" s="171" t="n"/>
       <c r="J70" s="170" t="n">
-        <v>0.02243875312987834</v>
+        <v>0.01602169183091956</v>
       </c>
       <c r="K70" s="171" t="n">
-        <v>0.004174881878114289</v>
+        <v>0.008464936794026393</v>
       </c>
       <c r="L70" s="172" t="n">
-        <v>0.03023632758552747</v>
+        <v>0.0334036560804544</v>
       </c>
       <c r="M70" s="170" t="n">
-        <v>0.004105259687820701</v>
+        <v>0.00843856412606157</v>
       </c>
       <c r="N70" s="171" t="n">
-        <v>0.01057270794114477</v>
+        <v>0.04890481874756369</v>
       </c>
       <c r="O70" s="172" t="n">
-        <v>0.004235147834548378</v>
+        <v>0.008448805938863444</v>
       </c>
     </row>
     <row r="71">
       <c r="F71" s="170" t="n">
-        <v>0.0121407922214021</v>
+        <v>0.01570583566245097</v>
       </c>
       <c r="G71" s="171" t="n">
-        <v>0.005082177401458055</v>
+        <v>0.01001974786593554</v>
       </c>
       <c r="H71" s="171" t="n"/>
       <c r="J71" s="170" t="n">
-        <v>0.02665168605233453</v>
+        <v>0.01853905420240788</v>
       </c>
       <c r="K71" s="171" t="n">
-        <v>0.005009858253737147</v>
+        <v>0.01015792415283167</v>
       </c>
       <c r="L71" s="172" t="n">
-        <v>0.03653531819417255</v>
+        <v>0.03705929002009589</v>
       </c>
       <c r="M71" s="170" t="n">
-        <v>0.004926311625384841</v>
+        <v>0.01012627695127388</v>
       </c>
       <c r="N71" s="171" t="n">
-        <v>0.0121407922214021</v>
+        <v>0.0548722273898275</v>
       </c>
       <c r="O71" s="172" t="n">
-        <v>0.005082177401458055</v>
+        <v>0.01013856712663613</v>
       </c>
     </row>
     <row r="72">
@@ -9528,29 +9554,29 @@
         </is>
       </c>
       <c r="F72" s="170" t="n">
-        <v>0.01462080189925077</v>
+        <v>0.01393752248580549</v>
       </c>
       <c r="G72" s="171" t="n">
-        <v>0.00592920696836773</v>
+        <v>0.01168970584359146</v>
       </c>
       <c r="H72" s="171" t="n"/>
       <c r="J72" s="170" t="n">
-        <v>0.03075901304119527</v>
+        <v>0.02107530915940725</v>
       </c>
       <c r="K72" s="171" t="n">
-        <v>0.005844834629360004</v>
+        <v>0.01185091151163695</v>
       </c>
       <c r="L72" s="172" t="n">
-        <v>0.04097686513917037</v>
+        <v>0.04146728820830675</v>
       </c>
       <c r="M72" s="170" t="n">
-        <v>0.005747363562948982</v>
+        <v>0.0118139897764862</v>
       </c>
       <c r="N72" s="171" t="n">
-        <v>0.01462080189925077</v>
+        <v>0.06014119894341424</v>
       </c>
       <c r="O72" s="172" t="n">
-        <v>0.00592920696836773</v>
+        <v>0.01182832831440882</v>
       </c>
     </row>
     <row r="73">
@@ -9574,29 +9600,29 @@
         <v/>
       </c>
       <c r="F73" s="170" t="n">
-        <v>0.01610162747479739</v>
+        <v>0.01507370609921062</v>
       </c>
       <c r="G73" s="171" t="n">
-        <v>0.006776236535277405</v>
+        <v>0.01335966382124738</v>
       </c>
       <c r="H73" s="171" t="n"/>
       <c r="J73" s="170" t="n">
-        <v>0.03403759122542227</v>
+        <v>0.02267352854821945</v>
       </c>
       <c r="K73" s="171" t="n">
-        <v>0.006679811004982862</v>
+        <v>0.01354389887044223</v>
       </c>
       <c r="L73" s="172" t="n">
-        <v>0.04458896040873778</v>
+        <v>0.04395424724589875</v>
       </c>
       <c r="M73" s="170" t="n">
-        <v>0.006568415500513122</v>
+        <v>0.01350170260169851</v>
       </c>
       <c r="N73" s="171" t="n">
-        <v>0.01610162747479739</v>
+        <v>0.06510807752263142</v>
       </c>
       <c r="O73" s="172" t="n">
-        <v>0.006776236535277405</v>
+        <v>0.01351808950218151</v>
       </c>
     </row>
     <row r="74">
@@ -9611,29 +9637,29 @@
         </is>
       </c>
       <c r="F74" s="170" t="n">
-        <v>0.01767215944814844</v>
+        <v>0.01919521006491365</v>
       </c>
       <c r="G74" s="171" t="n">
-        <v>0.007623266102187082</v>
+        <v>0.0150296217989033</v>
       </c>
       <c r="H74" s="171" t="n"/>
       <c r="J74" s="170" t="n">
-        <v>0.0376642777339774</v>
+        <v>0.02507678421514629</v>
       </c>
       <c r="K74" s="171" t="n">
-        <v>0.00751478738060572</v>
+        <v>0.01523688622924751</v>
       </c>
       <c r="L74" s="172" t="n">
-        <v>0.04849959599109177</v>
+        <v>0.04784676373368354</v>
       </c>
       <c r="M74" s="170" t="n">
-        <v>0.007389467438077262</v>
+        <v>0.01518941542691082</v>
       </c>
       <c r="N74" s="171" t="n">
-        <v>0.01767215944814844</v>
+        <v>0.06946920724178618</v>
       </c>
       <c r="O74" s="172" t="n">
-        <v>0.007623266102187082</v>
+        <v>0.0152078506899542</v>
       </c>
     </row>
     <row r="75">
@@ -9655,29 +9681,29 @@
         </is>
       </c>
       <c r="F75" s="170" t="n">
-        <v>0.01942128831941051</v>
+        <v>0.02096704012362648</v>
       </c>
       <c r="G75" s="171" t="n">
-        <v>0.008470295669096756</v>
+        <v>0.01745942903627812</v>
       </c>
       <c r="H75" s="171" t="n"/>
       <c r="J75" s="170" t="n">
-        <v>0.04091592969582256</v>
+        <v>0.02712814800648954</v>
       </c>
       <c r="K75" s="171" t="n">
-        <v>0.008349763756228578</v>
+        <v>0.01692987358805279</v>
       </c>
       <c r="L75" s="172" t="n">
-        <v>0.05196079999999992</v>
+        <v>0.05027143427247294</v>
       </c>
       <c r="M75" s="170" t="n">
-        <v>0.007907197829135414</v>
+        <v>0.01687712825212314</v>
       </c>
       <c r="N75" s="171" t="n">
-        <v>0.01942128831941051</v>
+        <v>0.07202093221518602</v>
       </c>
       <c r="O75" s="172" t="n">
-        <v>0.008470295669096756</v>
+        <v>0.01689761187772689</v>
       </c>
     </row>
     <row r="76">
@@ -9697,29 +9723,29 @@
         <v>0</v>
       </c>
       <c r="F76" s="170" t="n">
-        <v>0.02093790458869012</v>
+        <v>0.02070504539186151</v>
       </c>
       <c r="G76" s="171" t="n">
-        <v>0.009317325236006433</v>
+        <v>0.01836953775421515</v>
       </c>
       <c r="H76" s="171" t="n"/>
       <c r="J76" s="170" t="n">
-        <v>0.04386940423991953</v>
+        <v>0.02857069176855102</v>
       </c>
       <c r="K76" s="171" t="n">
-        <v>0.009184740131851436</v>
+        <v>0.01862286094685807</v>
       </c>
       <c r="L76" s="172" t="n">
-        <v>0.05556574347303311</v>
+        <v>0.05395485546307871</v>
       </c>
       <c r="M76" s="170" t="n">
-        <v>0.009031571313205543</v>
+        <v>0.01856484107733545</v>
       </c>
       <c r="N76" s="171" t="n">
-        <v>0.02093790458869012</v>
+        <v>0.07775959655713804</v>
       </c>
       <c r="O76" s="172" t="n">
-        <v>0.009317325236006433</v>
+        <v>0.01858737306549958</v>
       </c>
     </row>
     <row r="77" ht="15" customHeight="1">
@@ -9734,28 +9760,28 @@
         </is>
       </c>
       <c r="F77" t="n">
-        <v>0.02231089875609384</v>
+        <v>0.02013621922717913</v>
       </c>
       <c r="G77" t="n">
-        <v>0.01016435480291611</v>
+        <v>0.02003949573187107</v>
       </c>
       <c r="J77" t="n">
-        <v>0.04590155849523017</v>
+        <v>0.03104748734763248</v>
       </c>
       <c r="K77" t="n">
-        <v>0.01001971650747429</v>
+        <v>0.02031584830566334</v>
       </c>
       <c r="L77" t="n">
-        <v>0.05840842001380164</v>
+        <v>0.05939180010517697</v>
       </c>
       <c r="M77" t="n">
-        <v>0.009852623250769682</v>
+        <v>0.02099264369999999</v>
       </c>
       <c r="N77" t="n">
-        <v>0.02231089875609384</v>
+        <v>0.08188154438194967</v>
       </c>
       <c r="O77" t="n">
-        <v>0.01016435480291611</v>
+        <v>0.02027713425327226</v>
       </c>
     </row>
     <row r="78" ht="15" customHeight="1">
@@ -9774,28 +9800,28 @@
         <v/>
       </c>
       <c r="F78" t="n">
-        <v>0.02302916132172814</v>
+        <v>0.02164228680565151</v>
       </c>
       <c r="G78" t="n">
-        <v>0.01101138436982578</v>
+        <v>0.02170945370952699</v>
       </c>
       <c r="J78" t="n">
-        <v>0.0478892495907163</v>
+        <v>0.03314325074425921</v>
       </c>
       <c r="K78" t="n">
-        <v>0.01085469288309715</v>
+        <v>0.02204227588499999</v>
       </c>
       <c r="L78" t="n">
-        <v>0.06022555042498229</v>
+        <v>0.0614015591138331</v>
       </c>
       <c r="M78" t="n">
-        <v>0.01067367518833382</v>
+        <v>0.02194026672776008</v>
       </c>
       <c r="N78" t="n">
-        <v>0.02302916132172814</v>
+        <v>0.08564034946609472</v>
       </c>
       <c r="O78" t="n">
-        <v>0.01101138436982578</v>
+        <v>0.02140026784951455</v>
       </c>
     </row>
     <row r="79" ht="15" customHeight="1">
@@ -9816,28 +9842,28 @@
         <v/>
       </c>
       <c r="F79" t="n">
-        <v>0.02408158278569963</v>
+        <v>0.02519402105553921</v>
       </c>
       <c r="G79" t="n">
-        <v>0.01185841393673546</v>
+        <v>0.02337941168718292</v>
       </c>
       <c r="J79" t="n">
-        <v>0.05010933465533979</v>
+        <v>0.03529880884305302</v>
       </c>
       <c r="K79" t="n">
-        <v>0.01168966925872001</v>
+        <v>0.0237018230232739</v>
       </c>
       <c r="L79" t="n">
-        <v>0.06134841731075802</v>
+        <v>0.06521382594939357</v>
       </c>
       <c r="M79" t="n">
-        <v>0.01149472712589796</v>
+        <v>0.02362797955297239</v>
       </c>
       <c r="N79" t="n">
-        <v>0.02408158278569963</v>
+        <v>0.09183933535557309</v>
       </c>
       <c r="O79" t="n">
-        <v>0.01185841393673546</v>
+        <v>0.02365665662881764</v>
       </c>
     </row>
     <row r="80" ht="15" customHeight="1">
@@ -9847,28 +9873,28 @@
         </is>
       </c>
       <c r="F80" t="n">
-        <v>0.02496079999999999</v>
+        <v>0.02776219490510262</v>
       </c>
       <c r="G80" t="n">
-        <v>0.0124710397</v>
+        <v>0.02504936966483884</v>
       </c>
       <c r="J80" t="n">
-        <v>0.05083867081806245</v>
+        <v>0.03704681406044237</v>
       </c>
       <c r="K80" t="n">
-        <v>0.01252464563434287</v>
+        <v>0.02539481038207918</v>
       </c>
       <c r="L80" t="n">
-        <v>0.06350830327531193</v>
+        <v>0.06877503774115507</v>
       </c>
       <c r="M80" t="n">
-        <v>0.0123157790634621</v>
+        <v>0.02531569237818471</v>
       </c>
       <c r="N80" t="n">
-        <v>0.02496079999999999</v>
+        <v>0.0983352946822777</v>
       </c>
       <c r="O80" t="n">
-        <v>0.0124710397</v>
+        <v>0.02534641781659033</v>
       </c>
     </row>
     <row r="81" ht="15" customHeight="1">
@@ -9884,28 +9910,28 @@
         </is>
       </c>
       <c r="F81" t="n">
-        <v>0.02562774510820813</v>
+        <v>0.02831758128260223</v>
       </c>
       <c r="G81" t="n">
-        <v>0.01355247307055481</v>
+        <v>0.02671932764249476</v>
       </c>
       <c r="J81" t="n">
-        <v>0.05296079999999997</v>
+        <v>0.04009709271032365</v>
       </c>
       <c r="K81" t="n">
-        <v>0.01336660818458163</v>
+        <v>0.02708779774088446</v>
       </c>
       <c r="L81" t="n">
-        <v>0.06513649092282675</v>
+        <v>0.07409453890454115</v>
       </c>
       <c r="M81" t="n">
-        <v>0.01313683100102624</v>
+        <v>0.02700340520339702</v>
       </c>
       <c r="N81" t="n">
-        <v>0.02562774510820813</v>
+        <v>0.1050313666749615</v>
       </c>
       <c r="O81" t="n">
-        <v>0.01355247307055481</v>
+        <v>0.02703617900436302</v>
       </c>
     </row>
     <row r="82" ht="15" customHeight="1">
@@ -9918,28 +9944,28 @@
         <v/>
       </c>
       <c r="F82" t="n">
-        <v>0.02581597014931718</v>
+        <v>0.03083095311629852</v>
       </c>
       <c r="G82" t="n">
-        <v>0.01439950263746449</v>
+        <v>0.02838928562015068</v>
       </c>
       <c r="J82" t="n">
-        <v>0.05338678638320338</v>
+        <v>0.0421011000916353</v>
       </c>
       <c r="K82" t="n">
-        <v>0.01419459838558858</v>
+        <v>0.02878078509968974</v>
       </c>
       <c r="L82" t="n">
-        <v>0.06756426285748585</v>
+        <v>0.07858167385497528</v>
       </c>
       <c r="M82" t="n">
-        <v>0.01395788293859038</v>
+        <v>0.02869111802860934</v>
       </c>
       <c r="N82" t="n">
-        <v>0.02581597014931718</v>
+        <v>0.1106893009880145</v>
       </c>
       <c r="O82" t="n">
-        <v>0.01439950263746449</v>
+        <v>0.02872594019213571</v>
       </c>
     </row>
     <row r="83" ht="15" customHeight="1">
@@ -9949,28 +9975,28 @@
         </is>
       </c>
       <c r="F83" t="n">
-        <v>0.02673559768629903</v>
+        <v>0.03127308333445197</v>
       </c>
       <c r="G83" t="n">
-        <v>0.01524653220437416</v>
+        <v>0.03005924359780661</v>
       </c>
       <c r="J83" t="n">
-        <v>0.05330105850524142</v>
+        <v>0.04501029150331561</v>
       </c>
       <c r="K83" t="n">
-        <v>0.01502957476121144</v>
+        <v>0.03047377245849501</v>
       </c>
       <c r="L83" t="n">
-        <v>0.06872290168347195</v>
+        <v>0.08304578700788107</v>
       </c>
       <c r="M83" t="n">
-        <v>0.01477893487615452</v>
+        <v>0.03037883085382165</v>
       </c>
       <c r="N83" t="n">
-        <v>0.02673559768629903</v>
+        <v>0.1180708472758268</v>
       </c>
       <c r="O83" t="n">
-        <v>0.01524653220437416</v>
+        <v>0.0304157013799084</v>
       </c>
     </row>
     <row r="84" ht="15" customHeight="1">
@@ -9985,28 +10011,28 @@
         </is>
       </c>
       <c r="F84" t="n">
-        <v>0.02739685631146653</v>
+        <v>0.03261474486532302</v>
       </c>
       <c r="G84" t="n">
-        <v>0.01609356177128384</v>
+        <v>0.03172920157546253</v>
       </c>
       <c r="J84" t="n">
-        <v>0.05441621073937553</v>
+        <v>0.04717612224430286</v>
       </c>
       <c r="K84" t="n">
-        <v>0.0158645511368343</v>
+        <v>0.03216675981730029</v>
       </c>
       <c r="L84" t="n">
-        <v>0.07114369000496812</v>
+        <v>0.08689622277868209</v>
       </c>
       <c r="M84" t="n">
-        <v>0.01559998681371866</v>
+        <v>0.03206654367903396</v>
       </c>
       <c r="N84" t="n">
-        <v>0.02739685631146653</v>
+        <v>0.1234377551927884</v>
       </c>
       <c r="O84" t="n">
-        <v>0.01609356177128384</v>
+        <v>0.03210546256768108</v>
       </c>
     </row>
     <row r="85" ht="15" customHeight="1">
@@ -10025,28 +10051,28 @@
         <v/>
       </c>
       <c r="F85" t="n">
-        <v>0.02780997461713257</v>
+        <v>0.0308267106371722</v>
       </c>
       <c r="G85" t="n">
-        <v>0.01694059133819351</v>
+        <v>0.03339915955311845</v>
       </c>
       <c r="J85" t="n">
-        <v>0.05435151176374853</v>
+        <v>0.04945004761353546</v>
       </c>
       <c r="K85" t="n">
-        <v>0.01669952751245716</v>
+        <v>0.03385974717610557</v>
       </c>
       <c r="L85" t="n">
-        <v>0.07255791042615733</v>
+        <v>0.09054232558280167</v>
       </c>
       <c r="M85" t="n">
-        <v>0.0164210387512828</v>
+        <v>0.03375425650424628</v>
       </c>
       <c r="N85" t="n">
-        <v>0.02780997461713257</v>
+        <v>0.1299517743932893</v>
       </c>
       <c r="O85" t="n">
-        <v>0.01694059133819351</v>
+        <v>0.03379522375545378</v>
       </c>
     </row>
     <row r="86" ht="15" customHeight="1">
@@ -10067,28 +10093,28 @@
         <v/>
       </c>
       <c r="F86" t="n">
-        <v>0.02808518119560997</v>
+        <v>0.03287975357825994</v>
       </c>
       <c r="G86" t="n">
-        <v>0.01778762090510319</v>
+        <v>0.03506911753077437</v>
       </c>
       <c r="J86" t="n">
-        <v>0.05452623025650305</v>
+        <v>0.05158352290995165</v>
       </c>
       <c r="K86" t="n">
-        <v>0.01753450388808001</v>
+        <v>0.03555273453491085</v>
       </c>
       <c r="L86" t="n">
-        <v>0.07369684555122263</v>
+        <v>0.09459343983566343</v>
       </c>
       <c r="M86" t="n">
-        <v>0.01724209068884695</v>
+        <v>0.03544196932945859</v>
       </c>
       <c r="N86" t="n">
-        <v>0.02808518119560997</v>
+        <v>0.1353746545317195</v>
       </c>
       <c r="O86" t="n">
-        <v>0.01778762090510319</v>
+        <v>0.03548498494322646</v>
       </c>
     </row>
     <row r="87" ht="15" customHeight="1">
@@ -10098,28 +10124,28 @@
         </is>
       </c>
       <c r="F87" t="n">
-        <v>0.02833270463921157</v>
+        <v>0.03474464661684673</v>
       </c>
       <c r="G87" t="n">
-        <v>0.01863465047201287</v>
+        <v>0.0367390755084303</v>
       </c>
       <c r="J87" t="n">
-        <v>0.05505963489578164</v>
+        <v>0.05372800343248983</v>
       </c>
       <c r="K87" t="n">
-        <v>0.01836948026370287</v>
+        <v>0.03724572189371613</v>
       </c>
       <c r="L87" t="n">
-        <v>0.07509177798434691</v>
+        <v>0.09795890995269102</v>
       </c>
       <c r="M87" t="n">
-        <v>0.01806314262641109</v>
+        <v>0.03712968215467091</v>
       </c>
       <c r="N87" t="n">
-        <v>0.02833270463921157</v>
+        <v>0.1406681452624692</v>
       </c>
       <c r="O87" t="n">
-        <v>0.01863465047201287</v>
+        <v>0.03717474613099915</v>
       </c>
     </row>
     <row r="88" ht="15" customHeight="1">
@@ -10133,28 +10159,28 @@
       <c r="C88" s="139" t="n"/>
       <c r="D88" s="139" t="n"/>
       <c r="F88" t="n">
-        <v>0.02886277354025028</v>
+        <v>0.03739216268119304</v>
       </c>
       <c r="G88" t="n">
-        <v>0.01948168003892254</v>
+        <v>0.03840903348608622</v>
       </c>
       <c r="J88" t="n">
-        <v>0.05577099435972704</v>
+        <v>0.05583494448008826</v>
       </c>
       <c r="K88" t="n">
-        <v>0.01920445663932573</v>
+        <v>0.03893870925252141</v>
       </c>
       <c r="L88" t="n">
-        <v>0.07677399032971322</v>
+        <v>0.1018480803493079</v>
       </c>
       <c r="M88" t="n">
-        <v>0.01888419456397523</v>
+        <v>0.03881739497988321</v>
       </c>
       <c r="N88" t="n">
-        <v>0.02886277354025028</v>
+        <v>0.1443939962399283</v>
       </c>
       <c r="O88" t="n">
-        <v>0.01948168003892254</v>
+        <v>0.03886450731877183</v>
       </c>
     </row>
     <row r="89" ht="15" customHeight="1">
@@ -10167,4578 +10193,4578 @@
         <v/>
       </c>
       <c r="F89" t="n">
-        <v>0.0287856164910389</v>
+        <v>0.03690371617747273</v>
       </c>
       <c r="G89" t="n">
-        <v>0.02032870960583222</v>
+        <v>0.04007899146374214</v>
       </c>
       <c r="J89" t="n">
-        <v>0.05617957732648188</v>
+        <v>0.0570558013516853</v>
       </c>
       <c r="K89" t="n">
-        <v>0.02003943301494859</v>
+        <v>0.04063169661132669</v>
       </c>
       <c r="L89" t="n">
-        <v>0.07907476519150453</v>
+        <v>0.1035702954409374</v>
       </c>
       <c r="M89" t="n">
-        <v>0.01970524650153936</v>
+        <v>0.04050510780509553</v>
       </c>
       <c r="N89" t="n">
-        <v>0.0287856164910389</v>
+        <v>0.1498139571184868</v>
       </c>
       <c r="O89" t="n">
-        <v>0.02032870960583222</v>
+        <v>0.04055426850654453</v>
       </c>
     </row>
     <row r="90" ht="15" customHeight="1">
       <c r="F90" t="n">
-        <v>0.02921146208389035</v>
+        <v>0.03640014007315337</v>
       </c>
       <c r="G90" t="n">
-        <v>0.02117573917274189</v>
+        <v>0.04174894944139806</v>
       </c>
       <c r="J90" t="n">
-        <v>0.05670465247418893</v>
+        <v>0.05864202934621933</v>
       </c>
       <c r="K90" t="n">
-        <v>0.02087440939057144</v>
+        <v>0.04232468397013196</v>
       </c>
       <c r="L90" t="n">
-        <v>0.08072538517390376</v>
+        <v>0.1058384426258413</v>
       </c>
       <c r="M90" t="n">
-        <v>0.02052629843910351</v>
+        <v>0.04219282063030785</v>
       </c>
       <c r="N90" t="n">
-        <v>0.02921146208389035</v>
+        <v>0.150989777552535</v>
       </c>
       <c r="O90" t="n">
-        <v>0.02117573917274189</v>
+        <v>0.04224402969431722</v>
       </c>
     </row>
     <row r="91" ht="15" customHeight="1">
       <c r="F91" t="n">
-        <v>0.0295505389111174</v>
+        <v>0.03687823521331654</v>
       </c>
       <c r="G91" t="n">
-        <v>0.02202276873965157</v>
+        <v>0.04341890741905399</v>
       </c>
       <c r="J91" t="n">
-        <v>0.05696548848099064</v>
+        <v>0.05920631264402094</v>
       </c>
       <c r="K91" t="n">
-        <v>0.0217093857661943</v>
+        <v>0.04401767132893725</v>
       </c>
       <c r="L91" t="n">
-        <v>0.08564034946609472</v>
+        <v>0.1070961202725214</v>
       </c>
       <c r="M91" t="n">
-        <v>0.02172070693627707</v>
+        <v>0.04388053345552016</v>
       </c>
       <c r="N91" t="n">
-        <v>0.0295505389111174</v>
+        <v>0.1541123526975883</v>
       </c>
       <c r="O91" t="n">
-        <v>0.02202276873965157</v>
+        <v>0.04393379088208991</v>
       </c>
     </row>
     <row r="92" ht="15" customHeight="1">
       <c r="F92" t="n">
-        <v>0.03021307556503296</v>
+        <v>0.03733451928409268</v>
       </c>
       <c r="G92" t="n">
-        <v>0.02286979830656125</v>
+        <v>0.04508886539670991</v>
       </c>
       <c r="J92" t="n">
-        <v>0.05678135402502987</v>
+        <v>0.06031151033009373</v>
       </c>
       <c r="K92" t="n">
-        <v>0.02254436214181716</v>
+        <v>0.04571065868774252</v>
       </c>
       <c r="L92" t="n">
-        <v>0.08542049247001754</v>
+        <v>0.1085092256634474</v>
       </c>
       <c r="M92" t="n">
-        <v>0.02216840231423179</v>
+        <v>0.04556824628073247</v>
       </c>
       <c r="N92" t="n">
-        <v>0.03021307556503296</v>
+        <v>0.1561671486600344</v>
       </c>
       <c r="O92" t="n">
-        <v>0.02286979830656125</v>
+        <v>0.04562355206986259</v>
       </c>
     </row>
     <row r="93" ht="15" customHeight="1">
       <c r="F93" t="n">
-        <v>0.03040930063794987</v>
+        <v>0.03776550997161215</v>
       </c>
       <c r="G93" t="n">
-        <v>0.02371682787347092</v>
+        <v>0.04675882337436583</v>
       </c>
       <c r="J93" t="n">
-        <v>0.05717151778444918</v>
+        <v>0.06088903486496318</v>
       </c>
       <c r="K93" t="n">
-        <v>0.02337933851744002</v>
+        <v>0.0474036460465478</v>
       </c>
       <c r="L93" t="n">
-        <v>0.08961705097575134</v>
+        <v>0.109667576723462</v>
       </c>
       <c r="M93" t="n">
-        <v>0.02298945425179593</v>
+        <v>0.04725595910594479</v>
       </c>
       <c r="N93" t="n">
-        <v>0.03040930063794987</v>
+        <v>0.1582458719377242</v>
       </c>
       <c r="O93" t="n">
-        <v>0.02371682787347092</v>
+        <v>0.04731331325763528</v>
       </c>
     </row>
     <row r="94" ht="15" customHeight="1">
       <c r="F94" t="n">
-        <v>0.03074944272218098</v>
+        <v>0.03916772496200537</v>
       </c>
       <c r="G94" t="n">
-        <v>0.0245638574403806</v>
+        <v>0.04842878135202176</v>
       </c>
       <c r="J94" t="n">
-        <v>0.05845524843739114</v>
+        <v>0.06183315076022168</v>
       </c>
       <c r="K94" t="n">
-        <v>0.02421431489306287</v>
+        <v>0.04909663340535308</v>
       </c>
       <c r="L94" t="n">
-        <v>0.09262762860064677</v>
+        <v>0.1116609913774083</v>
       </c>
       <c r="M94" t="n">
-        <v>0.02381050618936007</v>
+        <v>0.0489436719311571</v>
       </c>
       <c r="N94" t="n">
-        <v>0.03074944272218098</v>
+        <v>0.1596337869049969</v>
       </c>
       <c r="O94" t="n">
-        <v>0.0245638574403806</v>
+        <v>0.04900307444540797</v>
       </c>
     </row>
     <row r="95" ht="15" customHeight="1">
       <c r="F95" t="n">
-        <v>0.03104373041003917</v>
+        <v>0.03853768194140274</v>
       </c>
       <c r="G95" t="n">
-        <v>0.02541088700729027</v>
+        <v>0.05009873932967768</v>
       </c>
       <c r="J95" t="n">
-        <v>0.05939180010517697</v>
+        <v>0.06213812252746163</v>
       </c>
       <c r="K95" t="n">
-        <v>0.02498284647584928</v>
+        <v>0.05078962076415836</v>
       </c>
       <c r="L95" t="n">
-        <v>0.09621741349826857</v>
+        <v>0.1117792875501291</v>
       </c>
       <c r="M95" t="n">
-        <v>0.02463155812692421</v>
+        <v>0.05063138475636942</v>
       </c>
       <c r="N95" t="n">
-        <v>0.03104373041003917</v>
+        <v>0.1611161579361916</v>
       </c>
       <c r="O95" t="n">
-        <v>0.02541088700729027</v>
+        <v>0.05069283563318066</v>
       </c>
     </row>
     <row r="96" ht="15" customHeight="1">
       <c r="F96" t="n">
-        <v>0.03210239229383723</v>
+        <v>0.03687189859593465</v>
       </c>
       <c r="G96" t="n">
-        <v>0.02625791657419995</v>
+        <v>0.0517686973073336</v>
       </c>
       <c r="J96" t="n">
-        <v>0.05983550045413483</v>
+        <v>0.06319821467827554</v>
       </c>
       <c r="K96" t="n">
-        <v>0.0258842676443086</v>
+        <v>0.05248260812296363</v>
       </c>
       <c r="L96" t="n">
-        <v>0.09845159382218094</v>
+        <v>0.1139122831664674</v>
       </c>
       <c r="M96" t="n">
-        <v>0.02545261006448835</v>
+        <v>0.05231909758158173</v>
       </c>
       <c r="N96" t="n">
-        <v>0.03210239229383723</v>
+        <v>0.1632782494056474</v>
       </c>
       <c r="O96" t="n">
-        <v>0.02625791657419995</v>
+        <v>0.05238259682095334</v>
       </c>
     </row>
     <row r="97" ht="15" customHeight="1">
       <c r="F97" t="n">
-        <v>0.03243565696588809</v>
+        <v>0.03916689261173149</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02710494614110962</v>
+        <v>0.05343865528498953</v>
       </c>
       <c r="J97" t="n">
-        <v>0.06145178181944461</v>
+        <v>0.06390769172425574</v>
       </c>
       <c r="K97" t="n">
-        <v>0.02671924401993145</v>
+        <v>0.05417559548176892</v>
       </c>
       <c r="L97" t="n">
-        <v>0.1025953577259485</v>
+        <v>0.1147497961512659</v>
       </c>
       <c r="M97" t="n">
-        <v>0.02627366200205249</v>
+        <v>0.05400681040679405</v>
       </c>
       <c r="N97" t="n">
-        <v>0.03243565696588809</v>
+        <v>0.1643053256877036</v>
       </c>
       <c r="O97" t="n">
-        <v>0.02710494614110962</v>
+        <v>0.05407235800872603</v>
       </c>
     </row>
     <row r="98" ht="15" customHeight="1">
       <c r="F98" t="n">
-        <v>0.03314325074425921</v>
+        <v>0.04141918167492364</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02759866108850085</v>
+        <v>0.05510861326264544</v>
       </c>
       <c r="J98" t="n">
-        <v>0.06354508152002597</v>
+        <v>0.06426081817699462</v>
       </c>
       <c r="K98" t="n">
-        <v>0.02755422039555431</v>
+        <v>0.05586858284057419</v>
       </c>
       <c r="L98" t="n">
-        <v>0.1077138933631355</v>
+        <v>0.1156816444293677</v>
       </c>
       <c r="M98" t="n">
-        <v>0.02709471393961663</v>
+        <v>0.05569452323200635</v>
       </c>
       <c r="N98" t="n">
-        <v>0.03314325074425921</v>
+        <v>0.1654826511566994</v>
       </c>
       <c r="O98" t="n">
-        <v>0.02759866108850085</v>
+        <v>0.05576211919649873</v>
       </c>
     </row>
     <row r="99" ht="15" customHeight="1">
       <c r="F99" t="n">
-        <v>0.03436461216790994</v>
+        <v>0.03962528347164153</v>
       </c>
       <c r="G99" t="n">
-        <v>0.02879900527492897</v>
+        <v>0.05677857124030137</v>
       </c>
       <c r="J99" t="n">
-        <v>0.06565835619390664</v>
+        <v>0.06475185854808473</v>
       </c>
       <c r="K99" t="n">
-        <v>0.02838919677117716</v>
+        <v>0.05756157019937948</v>
       </c>
       <c r="L99" t="n">
-        <v>0.1109723888873066</v>
+        <v>0.1158976459256156</v>
       </c>
       <c r="M99" t="n">
-        <v>0.02791576587718077</v>
+        <v>0.05738223605721867</v>
       </c>
       <c r="N99" t="n">
-        <v>0.03436461216790994</v>
+        <v>0.1670954901869736</v>
       </c>
       <c r="O99" t="n">
-        <v>0.02879900527492897</v>
+        <v>0.05745188038427142</v>
       </c>
     </row>
     <row r="100" ht="15" customHeight="1">
       <c r="F100" t="n">
-        <v>0.03589414438614562</v>
+        <v>0.03878171568801554</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02964603484183865</v>
+        <v>0.05844852921795729</v>
       </c>
       <c r="J100" t="n">
-        <v>0.06853456247911444</v>
+        <v>0.06527507734911835</v>
       </c>
       <c r="K100" t="n">
-        <v>0.02922417314680003</v>
+        <v>0.05925455755818475</v>
       </c>
       <c r="L100" t="n">
-        <v>0.1145360324520263</v>
+        <v>0.1174876185648524</v>
       </c>
       <c r="M100" t="n">
-        <v>0.02873681781474491</v>
+        <v>0.05906994888243098</v>
       </c>
       <c r="N100" t="n">
-        <v>0.03589414438614562</v>
+        <v>0.1688291071528656</v>
       </c>
       <c r="O100" t="n">
-        <v>0.02964603484183865</v>
+        <v>0.0591416415720441</v>
       </c>
     </row>
     <row r="101" ht="15" customHeight="1">
       <c r="F101" t="n">
-        <v>0.0372212270772616</v>
+        <v>0.04193408024725295</v>
       </c>
       <c r="G101" t="n">
-        <v>0.03049306440874833</v>
+        <v>0.06011848719561322</v>
       </c>
       <c r="J101" t="n">
-        <v>0.0717166570136768</v>
+        <v>0.06572473909168793</v>
       </c>
       <c r="K101" t="n">
-        <v>0.03005914952242288</v>
+        <v>0.06094754491699002</v>
       </c>
       <c r="L101" t="n">
-        <v>0.1204700122108589</v>
+        <v>0.1170413802719212</v>
       </c>
       <c r="M101" t="n">
-        <v>0.02955786975230905</v>
+        <v>0.0607576617076433</v>
       </c>
       <c r="N101" t="n">
-        <v>0.0372212270772616</v>
+        <v>0.1692687664287145</v>
       </c>
       <c r="O101" t="n">
-        <v>0.03049306440874833</v>
+        <v>0.06083140275981679</v>
       </c>
     </row>
     <row r="102" ht="15" customHeight="1">
       <c r="F102" t="n">
-        <v>0.03909723848221845</v>
+        <v>0.04093164212425351</v>
       </c>
       <c r="G102" t="n">
-        <v>0.03134009397565801</v>
+        <v>0.06178844517326914</v>
       </c>
       <c r="J102" t="n">
-        <v>0.07514759643562158</v>
+        <v>0.06569510828738594</v>
       </c>
       <c r="K102" t="n">
-        <v>0.03089412589804574</v>
+        <v>0.0626405322757953</v>
       </c>
       <c r="L102" t="n">
-        <v>0.1245395163173689</v>
+        <v>0.1183487489716648</v>
       </c>
       <c r="M102" t="n">
-        <v>0.03037892168987319</v>
+        <v>0.06244537453285561</v>
       </c>
       <c r="N102" t="n">
-        <v>0.03909723848221845</v>
+        <v>0.1691997323888595</v>
       </c>
       <c r="O102" t="n">
-        <v>0.03134009397565801</v>
+        <v>0.06252116394758948</v>
       </c>
     </row>
     <row r="103" ht="15" customHeight="1">
       <c r="F103" t="n">
-        <v>0.04177355684197658</v>
+        <v>0.03992650032935881</v>
       </c>
       <c r="G103" t="n">
-        <v>0.03218712354256768</v>
+        <v>0.06345840315092506</v>
       </c>
       <c r="J103" t="n">
-        <v>0.0792703373829764</v>
+        <v>0.06578044944780474</v>
       </c>
       <c r="K103" t="n">
-        <v>0.0317291022736686</v>
+        <v>0.06433351963460059</v>
       </c>
       <c r="L103" t="n">
-        <v>0.1288097329251208</v>
+        <v>0.1187836002103539</v>
       </c>
       <c r="M103" t="n">
-        <v>0.03119997362743733</v>
+        <v>0.06413308735806793</v>
       </c>
       <c r="N103" t="n">
-        <v>0.04177355684197658</v>
+        <v>0.1712806989321894</v>
       </c>
       <c r="O103" t="n">
-        <v>0.03218712354256768</v>
+        <v>0.06421092513536217</v>
       </c>
     </row>
     <row r="104" ht="15" customHeight="1">
       <c r="F104" t="n">
-        <v>0.04380156039749654</v>
+        <v>0.03989149573817284</v>
       </c>
       <c r="G104" t="n">
-        <v>0.03303415310947735</v>
+        <v>0.06512836112858099</v>
       </c>
       <c r="J104" t="n">
-        <v>0.08252783649376894</v>
+        <v>0.0662865014885184</v>
       </c>
       <c r="K104" t="n">
-        <v>0.03256407864929146</v>
+        <v>0.06602650699340587</v>
       </c>
       <c r="L104" t="n">
-        <v>0.1334458501876791</v>
+        <v>0.1178835898446606</v>
       </c>
       <c r="M104" t="n">
-        <v>0.03202102556500147</v>
+        <v>0.06582080018328025</v>
       </c>
       <c r="N104" t="n">
-        <v>0.04380156039749654</v>
+        <v>0.1708766418593941</v>
       </c>
       <c r="O104" t="n">
-        <v>0.03303415310947735</v>
+        <v>0.06590068632313487</v>
       </c>
     </row>
     <row r="105" ht="15" customHeight="1">
       <c r="F105" t="n">
-        <v>0.04653262738973886</v>
+        <v>0.04082969333365311</v>
       </c>
       <c r="G105" t="n">
-        <v>0.03388118267638703</v>
+        <v>0.0667983191062369</v>
       </c>
       <c r="J105" t="n">
-        <v>0.08656305040602691</v>
+        <v>0.06628007010045477</v>
       </c>
       <c r="K105" t="n">
-        <v>0.03339905502491431</v>
+        <v>0.06771949435221114</v>
       </c>
       <c r="L105" t="n">
-        <v>0.1367130562586081</v>
+        <v>0.1184398626826386</v>
       </c>
       <c r="M105" t="n">
-        <v>0.0328420775025656</v>
+        <v>0.06750851300849256</v>
       </c>
       <c r="N105" t="n">
-        <v>0.04653262738973886</v>
+        <v>0.1699391557054158</v>
       </c>
       <c r="O105" t="n">
-        <v>0.03388118267638703</v>
+        <v>0.06759044751090755</v>
       </c>
     </row>
     <row r="106" ht="15" customHeight="1">
       <c r="F106" t="n">
-        <v>0.04871813605966395</v>
+        <v>0.03774292839563323</v>
       </c>
       <c r="G106" t="n">
-        <v>0.0347282122432967</v>
+        <v>0.06846827708389283</v>
       </c>
       <c r="J106" t="n">
-        <v>0.09091893575777799</v>
+        <v>0.06603227963970561</v>
       </c>
       <c r="K106" t="n">
-        <v>0.03423403140053717</v>
+        <v>0.06941248171101642</v>
       </c>
       <c r="L106" t="n">
-        <v>0.1414765392914724</v>
+        <v>0.1181149383612754</v>
       </c>
       <c r="M106" t="n">
-        <v>0.03366312944012975</v>
+        <v>0.06919622583370487</v>
       </c>
       <c r="N106" t="n">
-        <v>0.04871813605966395</v>
+        <v>0.1702807512378188</v>
       </c>
       <c r="O106" t="n">
-        <v>0.0347282122432967</v>
+        <v>0.06928020869868023</v>
       </c>
     </row>
     <row r="107" ht="15" customHeight="1">
       <c r="F107" t="n">
-        <v>0.0513094646482324</v>
+        <v>0.04063303620394687</v>
       </c>
       <c r="G107" t="n">
-        <v>0.03557524181020638</v>
+        <v>0.07013823506154875</v>
       </c>
       <c r="J107" t="n">
-        <v>0.09503844918704984</v>
+        <v>0.06564041929728749</v>
       </c>
       <c r="K107" t="n">
-        <v>0.03506900777616002</v>
+        <v>0.07110546906982169</v>
       </c>
       <c r="L107" t="n">
-        <v>0.1458014874398363</v>
+        <v>0.1174141831278134</v>
       </c>
       <c r="M107" t="n">
-        <v>0.03448418137769389</v>
+        <v>0.07088393865891718</v>
       </c>
       <c r="N107" t="n">
-        <v>0.0513094646482324</v>
+        <v>0.1693112489182233</v>
       </c>
       <c r="O107" t="n">
-        <v>0.03557524181020638</v>
+        <v>0.07096996988645292</v>
       </c>
     </row>
     <row r="108" ht="15" customHeight="1">
       <c r="F108" t="n">
-        <v>0.05405799139640459</v>
+        <v>0.04050185203842767</v>
       </c>
       <c r="G108" t="n">
-        <v>0.03642227137711605</v>
+        <v>0.07180819303920467</v>
       </c>
       <c r="J108" t="n">
-        <v>0.09826454733187018</v>
+        <v>0.06560751184099355</v>
       </c>
       <c r="K108" t="n">
-        <v>0.03590398415178288</v>
+        <v>0.07279845642862698</v>
       </c>
       <c r="L108" t="n">
-        <v>0.1489530888572646</v>
+        <v>0.1170429632294955</v>
       </c>
       <c r="M108" t="n">
-        <v>0.03530523331525803</v>
+        <v>0.0725716514841295</v>
       </c>
       <c r="N108" t="n">
-        <v>0.05405799139640459</v>
+        <v>0.1702384148463046</v>
       </c>
       <c r="O108" t="n">
-        <v>0.03642227137711605</v>
+        <v>0.0726597310742256</v>
       </c>
     </row>
     <row r="109" ht="15" customHeight="1">
       <c r="F109" t="n">
-        <v>0.05591509454514111</v>
+        <v>0.03835121117890926</v>
       </c>
       <c r="G109" t="n">
-        <v>0.03726930094402573</v>
+        <v>0.0734781510168606</v>
       </c>
       <c r="J109" t="n">
-        <v>0.1016401868302667</v>
+        <v>0.06563658003861693</v>
       </c>
       <c r="K109" t="n">
-        <v>0.03673896052740575</v>
+        <v>0.07449144378743226</v>
       </c>
       <c r="L109" t="n">
-        <v>0.1523965316973215</v>
+        <v>0.1167066449135639</v>
       </c>
       <c r="M109" t="n">
-        <v>0.03612628525282217</v>
+        <v>0.07425936430934181</v>
       </c>
       <c r="N109" t="n">
-        <v>0.05591509454514111</v>
+        <v>0.1696700151217377</v>
       </c>
       <c r="O109" t="n">
-        <v>0.03726930094402573</v>
+        <v>0.0743494922619983</v>
       </c>
     </row>
     <row r="110" ht="15" customHeight="1">
       <c r="F110" t="n">
-        <v>0.05813215233540238</v>
+        <v>0.03718294890522532</v>
       </c>
       <c r="G110" t="n">
-        <v>0.03811633051093541</v>
+        <v>0.07514810899451652</v>
       </c>
       <c r="J110" t="n">
-        <v>0.105608324320267</v>
+        <v>0.0653306466579507</v>
       </c>
       <c r="K110" t="n">
-        <v>0.0375739369030286</v>
+        <v>0.07618443114623753</v>
       </c>
       <c r="L110" t="n">
-        <v>0.1569970041135713</v>
+        <v>0.1174105944272613</v>
       </c>
       <c r="M110" t="n">
-        <v>0.03694733719038631</v>
+        <v>0.07594707713455412</v>
       </c>
       <c r="N110" t="n">
-        <v>0.05813215233540238</v>
+        <v>0.169213815844198</v>
       </c>
       <c r="O110" t="n">
-        <v>0.03811633051093541</v>
+        <v>0.07603925344977099</v>
       </c>
     </row>
     <row r="111" ht="15" customHeight="1">
       <c r="F111" t="n">
-        <v>0.06056054300814899</v>
+        <v>0.03999890049720947</v>
       </c>
       <c r="G111" t="n">
-        <v>0.03896336007784509</v>
+        <v>0.07681806697217244</v>
       </c>
       <c r="J111" t="n">
-        <v>0.1088119164398988</v>
+        <v>0.06519273446678801</v>
       </c>
       <c r="K111" t="n">
-        <v>0.03840891327865146</v>
+        <v>0.07787741850504282</v>
       </c>
       <c r="L111" t="n">
-        <v>0.1586196942595788</v>
+        <v>0.1167601780178303</v>
       </c>
       <c r="M111" t="n">
-        <v>0.03776838912795046</v>
+        <v>0.07763478995976643</v>
       </c>
       <c r="N111" t="n">
-        <v>0.06056054300814899</v>
+        <v>0.1678775831133605</v>
       </c>
       <c r="O111" t="n">
-        <v>0.03896336007784509</v>
+        <v>0.07772901463754367</v>
       </c>
     </row>
     <row r="112" ht="15" customHeight="1">
       <c r="F112" t="n">
-        <v>0.06215164480434131</v>
+        <v>0.03980090123469535</v>
       </c>
       <c r="G112" t="n">
-        <v>0.03981038964475476</v>
+        <v>0.07848802494982836</v>
       </c>
       <c r="J112" t="n">
-        <v>0.1108939198271899</v>
+        <v>0.06462586623292189</v>
       </c>
       <c r="K112" t="n">
-        <v>0.03924388965427432</v>
+        <v>0.0795704058638481</v>
       </c>
       <c r="L112" t="n">
-        <v>0.1612297902889083</v>
+        <v>0.1159607619325134</v>
       </c>
       <c r="M112" t="n">
-        <v>0.0385894410655146</v>
+        <v>0.07932250278497875</v>
       </c>
       <c r="N112" t="n">
-        <v>0.06215164480434131</v>
+        <v>0.1670690830289004</v>
       </c>
       <c r="O112" t="n">
-        <v>0.03981038964475476</v>
+        <v>0.07941877582531637</v>
       </c>
     </row>
     <row r="113" ht="15" customHeight="1">
       <c r="F113" t="n">
-        <v>0.0637568359649399</v>
+        <v>0.03859078639751662</v>
       </c>
       <c r="G113" t="n">
-        <v>0.04065741921166444</v>
+        <v>0.08015798292748429</v>
       </c>
       <c r="J113" t="n">
-        <v>0.1133972911201678</v>
+        <v>0.06433306472414559</v>
       </c>
       <c r="K113" t="n">
-        <v>0.04007886602989717</v>
+        <v>0.08126339322265337</v>
       </c>
       <c r="L113" t="n">
-        <v>0.1641924803551243</v>
+        <v>0.1149177124185533</v>
       </c>
       <c r="M113" t="n">
-        <v>0.03941049300307873</v>
+        <v>0.08101021561019106</v>
       </c>
       <c r="N113" t="n">
-        <v>0.0637568359649399</v>
+        <v>0.1670960816904928</v>
       </c>
       <c r="O113" t="n">
-        <v>0.04065741921166444</v>
+        <v>0.08110853701308905</v>
       </c>
     </row>
     <row r="114" ht="15" customHeight="1">
       <c r="F114" t="n">
-        <v>0.06472749473090526</v>
+        <v>0.0393703912655069</v>
       </c>
       <c r="G114" t="n">
-        <v>0.04150444877857411</v>
+        <v>0.08182794090514021</v>
       </c>
       <c r="J114" t="n">
-        <v>0.1152649869568603</v>
+        <v>0.06441735270825212</v>
       </c>
       <c r="K114" t="n">
-        <v>0.04091384240552003</v>
+        <v>0.08295638058145864</v>
       </c>
       <c r="L114" t="n">
-        <v>0.1672729526117913</v>
+        <v>0.1153363957231923</v>
       </c>
       <c r="M114" t="n">
-        <v>0.04023154494064287</v>
+        <v>0.08269792843540338</v>
       </c>
       <c r="N114" t="n">
-        <v>0.06472749473090526</v>
+        <v>0.1660663451978129</v>
       </c>
       <c r="O114" t="n">
-        <v>0.04150444877857411</v>
+        <v>0.08279829820086175</v>
       </c>
     </row>
     <row r="115" ht="15" customHeight="1">
       <c r="F115" t="n">
-        <v>0.06571499934319787</v>
+        <v>0.03614155111849988</v>
       </c>
       <c r="G115" t="n">
-        <v>0.04235147834548379</v>
+        <v>0.08349789888279613</v>
       </c>
       <c r="J115" t="n">
-        <v>0.1171399639752951</v>
+        <v>0.0638817529530346</v>
       </c>
       <c r="K115" t="n">
-        <v>0.04174881878114289</v>
+        <v>0.08464936794026393</v>
       </c>
       <c r="L115" t="n">
-        <v>0.1684363952124736</v>
+        <v>0.1147221780936733</v>
       </c>
       <c r="M115" t="n">
-        <v>0.04105259687820701</v>
+        <v>0.08438564126061569</v>
       </c>
       <c r="N115" t="n">
-        <v>0.06571499934319787</v>
+        <v>0.164187639650536</v>
       </c>
       <c r="O115" t="n">
-        <v>0.04235147834548379</v>
+        <v>0.08448805938863443</v>
       </c>
     </row>
     <row r="116" ht="15" customHeight="1">
       <c r="F116" t="n">
-        <v>0.0662865014885184</v>
+        <v>0.03790610123632918</v>
       </c>
       <c r="G116" t="n">
-        <v>0.04319850791239346</v>
+        <v>0.08516785686045206</v>
       </c>
       <c r="J116" t="n">
-        <v>0.1187836002103539</v>
+        <v>0.06322928822628614</v>
       </c>
       <c r="K116" t="n">
-        <v>0.04258379515676575</v>
+        <v>0.08634235529906921</v>
       </c>
       <c r="L116" t="n">
-        <v>0.1697479963107357</v>
+        <v>0.1138804257772387</v>
       </c>
       <c r="M116" t="n">
-        <v>0.04187364881577115</v>
+        <v>0.08607335408582802</v>
       </c>
       <c r="N116" t="n">
-        <v>0.0662865014885184</v>
+        <v>0.1640677311483369</v>
       </c>
       <c r="O116" t="n">
-        <v>0.04319850791239346</v>
+        <v>0.08617782057640712</v>
       </c>
     </row>
     <row r="117" ht="15" customHeight="1">
       <c r="F117" t="n">
-        <v>0.06568319114273601</v>
+        <v>0.03866587689882843</v>
       </c>
       <c r="G117" t="n">
-        <v>0.04404553747930313</v>
+        <v>0.08683781483810797</v>
       </c>
       <c r="J117" t="n">
-        <v>0.1184835999918716</v>
+        <v>0.0634629812957999</v>
       </c>
       <c r="K117" t="n">
-        <v>0.04341877153238861</v>
+        <v>0.08803534265787449</v>
       </c>
       <c r="L117" t="n">
-        <v>0.1712806989321894</v>
+        <v>0.1126165050211309</v>
       </c>
       <c r="M117" t="n">
-        <v>0.04269470075333529</v>
+        <v>0.08776106691104033</v>
       </c>
       <c r="N117" t="n">
-        <v>0.06568319114273601</v>
+        <v>0.163614385790891</v>
       </c>
       <c r="O117" t="n">
-        <v>0.04404553747930313</v>
+        <v>0.08786758176417982</v>
       </c>
     </row>
     <row r="118" ht="15" customHeight="1">
       <c r="F118" t="n">
-        <v>0.06606853351317189</v>
+        <v>0.03742271338583131</v>
       </c>
       <c r="G118" t="n">
-        <v>0.04489256704621281</v>
+        <v>0.0885077728157639</v>
       </c>
       <c r="J118" t="n">
-        <v>0.1178775709460317</v>
+        <v>0.06258585492936895</v>
       </c>
       <c r="K118" t="n">
-        <v>0.04425374790801146</v>
+        <v>0.08972833001667976</v>
       </c>
       <c r="L118" t="n">
-        <v>0.170079915718615</v>
+        <v>0.1122357820725927</v>
       </c>
       <c r="M118" t="n">
-        <v>0.04351575269089943</v>
+        <v>0.08944877973625263</v>
       </c>
       <c r="N118" t="n">
-        <v>0.06606853351317189</v>
+        <v>0.1614353696778735</v>
       </c>
       <c r="O118" t="n">
-        <v>0.04489256704621281</v>
+        <v>0.0895573429519525</v>
       </c>
     </row>
     <row r="119" ht="15" customHeight="1">
       <c r="F119" t="n">
-        <v>0.06624247183664496</v>
+        <v>0.03617844597717143</v>
       </c>
       <c r="G119" t="n">
-        <v>0.04573959661312249</v>
+        <v>0.09017773079341983</v>
       </c>
       <c r="J119" t="n">
-        <v>0.1179597635851836</v>
+        <v>0.06250093189478644</v>
       </c>
       <c r="K119" t="n">
-        <v>0.04508872428363433</v>
+        <v>0.09142131737548505</v>
       </c>
       <c r="L119" t="n">
-        <v>0.1695176304901312</v>
+        <v>0.1111436231788666</v>
       </c>
       <c r="M119" t="n">
-        <v>0.04433680462846357</v>
+        <v>0.09113649256146494</v>
       </c>
       <c r="N119" t="n">
-        <v>0.06624247183664496</v>
+        <v>0.1602384489089594</v>
       </c>
       <c r="O119" t="n">
-        <v>0.04573959661312249</v>
+        <v>0.09124710413972519</v>
       </c>
     </row>
     <row r="120" ht="15" customHeight="1">
       <c r="F120" t="n">
-        <v>0.06580533703597878</v>
+        <v>0.03893490995268245</v>
       </c>
       <c r="G120" t="n">
-        <v>0.04658662618003216</v>
+        <v>0.09184768877107574</v>
       </c>
       <c r="J120" t="n">
-        <v>0.1179303805058504</v>
+        <v>0.06191123495984545</v>
       </c>
       <c r="K120" t="n">
-        <v>0.04592370065925718</v>
+        <v>0.09311430473429032</v>
       </c>
       <c r="L120" t="n">
-        <v>0.1699592706453591</v>
+        <v>0.1113453945871951</v>
       </c>
       <c r="M120" t="n">
-        <v>0.04515785656602771</v>
+        <v>0.09282420538667727</v>
       </c>
       <c r="N120" t="n">
-        <v>0.06580533703597878</v>
+        <v>0.159731389583824</v>
       </c>
       <c r="O120" t="n">
-        <v>0.04658662618003216</v>
+        <v>0.09293686532749788</v>
       </c>
     </row>
     <row r="121" ht="15" customHeight="1">
       <c r="F121" t="n">
-        <v>0.06605746003399691</v>
+        <v>0.03869394059219804</v>
       </c>
       <c r="G121" t="n">
-        <v>0.04743365574694184</v>
+        <v>0.09351764674873167</v>
       </c>
       <c r="J121" t="n">
-        <v>0.118189624304555</v>
+        <v>0.06141978689233908</v>
       </c>
       <c r="K121" t="n">
-        <v>0.04675867703488003</v>
+        <v>0.0948072920930956</v>
       </c>
       <c r="L121" t="n">
-        <v>0.1707098000020905</v>
+        <v>0.1097464625448208</v>
       </c>
       <c r="M121" t="n">
-        <v>0.04597890850359185</v>
+        <v>0.09451191821188958</v>
       </c>
       <c r="N121" t="n">
-        <v>0.06605746003399691</v>
+        <v>0.1586219578021423</v>
       </c>
       <c r="O121" t="n">
-        <v>0.04743365574694184</v>
+        <v>0.09462662651527055</v>
       </c>
     </row>
     <row r="122" ht="15" customHeight="1">
       <c r="F122" t="n">
-        <v>0.06559917175352294</v>
+        <v>0.03644027630113615</v>
       </c>
       <c r="G122" t="n">
-        <v>0.04828068531385152</v>
+        <v>0.09518760472638758</v>
       </c>
       <c r="J122" t="n">
-        <v>0.1178376975778205</v>
+        <v>0.0609296104600605</v>
       </c>
       <c r="K122" t="n">
-        <v>0.0475936534105029</v>
+        <v>0.09650027945190087</v>
       </c>
       <c r="L122" t="n">
-        <v>0.1695741823781174</v>
+        <v>0.1094521932989863</v>
       </c>
       <c r="M122" t="n">
-        <v>0.046799960441156</v>
+        <v>0.09619963103710188</v>
       </c>
       <c r="N122" t="n">
-        <v>0.06559917175352294</v>
+        <v>0.1583179196635896</v>
       </c>
       <c r="O122" t="n">
-        <v>0.04828068531385152</v>
+        <v>0.09631638770304325</v>
       </c>
     </row>
     <row r="123" ht="15" customHeight="1">
       <c r="F123" t="n">
-        <v>0.06573080311738035</v>
+        <v>0.0371506051103017</v>
       </c>
       <c r="G123" t="n">
-        <v>0.0491277148807612</v>
+        <v>0.09685756270404351</v>
       </c>
       <c r="J123" t="n">
-        <v>0.1176748029221702</v>
+        <v>0.06104372843080279</v>
       </c>
       <c r="K123" t="n">
-        <v>0.04842862978612575</v>
+        <v>0.09819326681070616</v>
       </c>
       <c r="L123" t="n">
-        <v>0.1691573815912319</v>
+        <v>0.1088589788878255</v>
       </c>
       <c r="M123" t="n">
-        <v>0.04762101237872014</v>
+        <v>0.09788734386231419</v>
       </c>
       <c r="N123" t="n">
-        <v>0.06573080311738035</v>
+        <v>0.1562233124781091</v>
       </c>
       <c r="O123" t="n">
-        <v>0.0491277148807612</v>
+        <v>0.09800614889081594</v>
       </c>
     </row>
     <row r="124" ht="15" customHeight="1">
       <c r="F124" t="n">
-        <v>0.06555268504839278</v>
+        <v>0.03783052249102881</v>
       </c>
       <c r="G124" t="n">
-        <v>0.04997474444767086</v>
+        <v>0.09852752068169944</v>
       </c>
       <c r="J124" t="n">
-        <v>0.117401142934127</v>
+        <v>0.06043373232598016</v>
       </c>
       <c r="K124" t="n">
-        <v>0.04926360616174861</v>
+        <v>0.09988625416951144</v>
       </c>
       <c r="L124" t="n">
-        <v>0.1695643614592261</v>
+        <v>0.1075790419607048</v>
       </c>
       <c r="M124" t="n">
-        <v>0.04844206431628428</v>
+        <v>0.09957505668752653</v>
       </c>
       <c r="N124" t="n">
-        <v>0.06555268504839278</v>
+        <v>0.1549235758840777</v>
       </c>
       <c r="O124" t="n">
-        <v>0.04997474444767086</v>
+        <v>0.09969591007858862</v>
       </c>
     </row>
     <row r="125" ht="15" customHeight="1">
       <c r="F125" t="n">
-        <v>0.06586514846938375</v>
+        <v>0.03348600800439609</v>
       </c>
       <c r="G125" t="n">
-        <v>0.05082177401458054</v>
+        <v>0.1001974786593554</v>
       </c>
       <c r="J125" t="n">
-        <v>0.1174169202102139</v>
+        <v>0.05996548366505049</v>
       </c>
       <c r="K125" t="n">
-        <v>0.05009858253737147</v>
+        <v>0.1015792415283167</v>
       </c>
       <c r="L125" t="n">
-        <v>0.1681000857998918</v>
+        <v>0.1065026688473803</v>
       </c>
       <c r="M125" t="n">
-        <v>0.04926311625384842</v>
+        <v>0.1012627695127388</v>
       </c>
       <c r="N125" t="n">
-        <v>0.06586514846938375</v>
+        <v>0.1550801506524765</v>
       </c>
       <c r="O125" t="n">
-        <v>0.05082177401458054</v>
+        <v>0.1013856712663613</v>
       </c>
     </row>
     <row r="126" ht="15" customHeight="1">
       <c r="F126" t="n">
-        <v>0.06516852430317686</v>
+        <v>0.03612304121148215</v>
       </c>
       <c r="G126" t="n">
-        <v>0.05166880358149022</v>
+        <v>0.1018674366370113</v>
       </c>
       <c r="J126" t="n">
-        <v>0.1182223373469542</v>
+        <v>0.05914863532286969</v>
       </c>
       <c r="K126" t="n">
-        <v>0.05093355891299432</v>
+        <v>0.103272228887122</v>
       </c>
       <c r="L126" t="n">
-        <v>0.1676695184310213</v>
+        <v>0.1061473434228238</v>
       </c>
       <c r="M126" t="n">
-        <v>0.05008416819141256</v>
+        <v>0.1029504823379511</v>
       </c>
       <c r="N126" t="n">
-        <v>0.06516852430317686</v>
+        <v>0.1532183396643694</v>
       </c>
       <c r="O126" t="n">
-        <v>0.05166880358149022</v>
+        <v>0.103075432454134</v>
       </c>
     </row>
     <row r="127" ht="15" customHeight="1">
       <c r="F127" t="n">
-        <v>0.06526314347259561</v>
+        <v>0.03574760167336558</v>
       </c>
       <c r="G127" t="n">
-        <v>0.05251583314839989</v>
+        <v>0.1035373946146672</v>
       </c>
       <c r="J127" t="n">
-        <v>0.1171175969408709</v>
+        <v>0.05869303583823489</v>
       </c>
       <c r="K127" t="n">
-        <v>0.05176853528861719</v>
+        <v>0.1049652162459273</v>
       </c>
       <c r="L127" t="n">
-        <v>0.1672776231704062</v>
+        <v>0.1046305495620071</v>
       </c>
       <c r="M127" t="n">
-        <v>0.0509052201289767</v>
+        <v>0.1046381951631635</v>
       </c>
       <c r="N127" t="n">
-        <v>0.06526314347259561</v>
+        <v>0.1521634458008209</v>
       </c>
       <c r="O127" t="n">
-        <v>0.05251583314839989</v>
+        <v>0.1047651936419067</v>
       </c>
     </row>
     <row r="128" ht="15" customHeight="1">
       <c r="F128" t="n">
-        <v>0.06524933690046365</v>
+        <v>0.033365668951125</v>
       </c>
       <c r="G128" t="n">
-        <v>0.05336286271530957</v>
+        <v>0.1052073525923231</v>
       </c>
       <c r="J128" t="n">
-        <v>0.1181029015884871</v>
+        <v>0.05850853374994337</v>
       </c>
       <c r="K128" t="n">
-        <v>0.05260351166424004</v>
+        <v>0.1066582036047325</v>
       </c>
       <c r="L128" t="n">
-        <v>0.166329363835839</v>
+        <v>0.1043697711399021</v>
       </c>
       <c r="M128" t="n">
-        <v>0.05172627206654084</v>
+        <v>0.1063259079883758</v>
       </c>
       <c r="N128" t="n">
-        <v>0.06524933690046365</v>
+        <v>0.1497407719428948</v>
       </c>
       <c r="O128" t="n">
-        <v>0.05336286271530957</v>
+        <v>0.1064549548296794</v>
       </c>
     </row>
     <row r="129" ht="15" customHeight="1">
       <c r="F129" t="n">
-        <v>0.06482743550960447</v>
+        <v>0.031983222605839</v>
       </c>
       <c r="G129" t="n">
-        <v>0.05420989228221924</v>
+        <v>0.1068773105699791</v>
       </c>
       <c r="J129" t="n">
-        <v>0.1179784538863258</v>
+        <v>0.05750497759679225</v>
       </c>
       <c r="K129" t="n">
-        <v>0.0534384880398629</v>
+        <v>0.1083511909635378</v>
       </c>
       <c r="L129" t="n">
-        <v>0.1650297042451113</v>
+        <v>0.1031824920314806</v>
       </c>
       <c r="M129" t="n">
-        <v>0.05254732400410498</v>
+        <v>0.1080136208135881</v>
       </c>
       <c r="N129" t="n">
-        <v>0.06482743550960447</v>
+        <v>0.1491756209716554</v>
       </c>
       <c r="O129" t="n">
-        <v>0.05420989228221924</v>
+        <v>0.1081447160174521</v>
       </c>
     </row>
     <row r="130" ht="15" customHeight="1">
       <c r="F130" t="n">
-        <v>0.06489777022284161</v>
+        <v>0.03260624219858621</v>
       </c>
       <c r="G130" t="n">
-        <v>0.05505692184912892</v>
+        <v>0.108547268547635</v>
       </c>
       <c r="J130" t="n">
-        <v>0.1172444564309101</v>
+        <v>0.05709221591757872</v>
       </c>
       <c r="K130" t="n">
-        <v>0.05427346441548576</v>
+        <v>0.1100441783223431</v>
       </c>
       <c r="L130" t="n">
-        <v>0.1651836082160153</v>
+        <v>0.1013861961117145</v>
       </c>
       <c r="M130" t="n">
-        <v>0.05336837594166912</v>
+        <v>0.1097013336388004</v>
       </c>
       <c r="N130" t="n">
-        <v>0.06489777022284161</v>
+        <v>0.1468932957681667</v>
       </c>
       <c r="O130" t="n">
-        <v>0.05505692184912892</v>
+        <v>0.1098344772052248</v>
       </c>
     </row>
     <row r="131" ht="15" customHeight="1">
       <c r="F131" t="n">
-        <v>0.06456067196299876</v>
+        <v>0.03124070729044516</v>
       </c>
       <c r="G131" t="n">
-        <v>0.0559039514160386</v>
+        <v>0.1102172265252909</v>
       </c>
       <c r="J131" t="n">
-        <v>0.1175011118187632</v>
+        <v>0.05658009725110001</v>
       </c>
       <c r="K131" t="n">
-        <v>0.05510844079110861</v>
+        <v>0.1117371656811484</v>
       </c>
       <c r="L131" t="n">
-        <v>0.162996039566343</v>
+        <v>0.1002983672555756</v>
       </c>
       <c r="M131" t="n">
-        <v>0.05418942787923325</v>
+        <v>0.1113890464640127</v>
       </c>
       <c r="N131" t="n">
-        <v>0.06456067196299876</v>
+        <v>0.1450190992134929</v>
       </c>
       <c r="O131" t="n">
-        <v>0.0559039514160386</v>
+        <v>0.1115242383929975</v>
       </c>
     </row>
     <row r="132" ht="15" customHeight="1">
       <c r="F132" t="n">
-        <v>0.06441647165289936</v>
+        <v>0.03489257377151073</v>
       </c>
       <c r="G132" t="n">
-        <v>0.05675098098294827</v>
+        <v>0.1118871845029468</v>
       </c>
       <c r="J132" t="n">
-        <v>0.116648622646408</v>
+        <v>0.05587847013615328</v>
       </c>
       <c r="K132" t="n">
-        <v>0.05594341716673147</v>
+        <v>0.1134301530399537</v>
       </c>
       <c r="L132" t="n">
-        <v>0.1626719621138863</v>
+        <v>0.09933648933803574</v>
       </c>
       <c r="M132" t="n">
-        <v>0.05501047981679739</v>
+        <v>0.113076759289225</v>
       </c>
       <c r="N132" t="n">
-        <v>0.06441647165289936</v>
+        <v>0.1443783341886982</v>
       </c>
       <c r="O132" t="n">
-        <v>0.05675098098294827</v>
+        <v>0.1132139995807701</v>
       </c>
     </row>
     <row r="133" ht="15" customHeight="1">
       <c r="F133" t="n">
-        <v>0.06486550021536698</v>
+        <v>0.03353423758468313</v>
       </c>
       <c r="G133" t="n">
-        <v>0.05759801054985795</v>
+        <v>0.1135571424806027</v>
       </c>
       <c r="J133" t="n">
-        <v>0.1162871915103678</v>
+        <v>0.05499718311153572</v>
       </c>
       <c r="K133" t="n">
-        <v>0.05677839354235432</v>
+        <v>0.115123140398759</v>
       </c>
       <c r="L133" t="n">
-        <v>0.1608163396764375</v>
+        <v>0.09921804623406671</v>
       </c>
       <c r="M133" t="n">
-        <v>0.05583153175436154</v>
+        <v>0.1147644721144373</v>
       </c>
       <c r="N133" t="n">
-        <v>0.06486550021536698</v>
+        <v>0.1425963035748465</v>
       </c>
       <c r="O133" t="n">
-        <v>0.05759801054985795</v>
+        <v>0.1149037607685428</v>
       </c>
     </row>
     <row r="134" ht="15" customHeight="1">
       <c r="F134" t="n">
-        <v>0.06450808857322525</v>
+        <v>0.03314324263154288</v>
       </c>
       <c r="G134" t="n">
-        <v>0.05844504011676763</v>
+        <v>0.1152271004582587</v>
       </c>
       <c r="J134" t="n">
-        <v>0.1162170210071655</v>
+        <v>0.05474328642029021</v>
       </c>
       <c r="K134" t="n">
-        <v>0.05761336991797719</v>
+        <v>0.1168161277575642</v>
       </c>
       <c r="L134" t="n">
-        <v>0.1606341360717883</v>
+        <v>0.09772274093578032</v>
       </c>
       <c r="M134" t="n">
-        <v>0.05665258369192568</v>
+        <v>0.1164521849396497</v>
       </c>
       <c r="N134" t="n">
-        <v>0.06450808857322525</v>
+        <v>0.1414673755306075</v>
       </c>
       <c r="O134" t="n">
-        <v>0.05844504011676763</v>
+        <v>0.1165935219563155</v>
       </c>
     </row>
     <row r="135" ht="15" customHeight="1">
       <c r="F135" t="n">
-        <v>0.06454456764929768</v>
+        <v>0.0327281486555257</v>
       </c>
       <c r="G135" t="n">
-        <v>0.05929206968367731</v>
+        <v>0.1168970584359146</v>
       </c>
       <c r="J135" t="n">
-        <v>0.1160383137333242</v>
+        <v>0.05445669605020355</v>
       </c>
       <c r="K135" t="n">
-        <v>0.05844834629360005</v>
+        <v>0.1185091151163695</v>
       </c>
       <c r="L135" t="n">
-        <v>0.1592303151177308</v>
+        <v>0.0962357989662414</v>
       </c>
       <c r="M135" t="n">
-        <v>0.05747363562948982</v>
+        <v>0.118139897764862</v>
       </c>
       <c r="N135" t="n">
-        <v>0.06454456764929768</v>
+        <v>0.1392193492147741</v>
       </c>
       <c r="O135" t="n">
-        <v>0.05929206968367731</v>
+        <v>0.1182832831440882</v>
       </c>
     </row>
     <row r="136" ht="15" customHeight="1">
       <c r="F136" t="n">
-        <v>0.06407526836640788</v>
+        <v>0.02929751540006735</v>
       </c>
       <c r="G136" t="n">
-        <v>0.06013909925058698</v>
+        <v>0.1185670164135705</v>
       </c>
       <c r="J136" t="n">
-        <v>0.1168512722853672</v>
+        <v>0.05372012114538681</v>
       </c>
       <c r="K136" t="n">
-        <v>0.05928332266922291</v>
+        <v>0.1202021024751748</v>
       </c>
       <c r="L136" t="n">
-        <v>0.1595098406320572</v>
+        <v>0.09486993363243318</v>
       </c>
       <c r="M136" t="n">
-        <v>0.05829468756705396</v>
+        <v>0.1198276105900743</v>
       </c>
       <c r="N136" t="n">
-        <v>0.06407526836640788</v>
+        <v>0.1385515783617833</v>
       </c>
       <c r="O136" t="n">
-        <v>0.06013909925058698</v>
+        <v>0.1199730443318609</v>
       </c>
     </row>
     <row r="137" ht="15" customHeight="1">
       <c r="F137" t="n">
-        <v>0.06420052164737934</v>
+        <v>0.02885990260860356</v>
       </c>
       <c r="G137" t="n">
-        <v>0.06098612881749665</v>
+        <v>0.1202369743912264</v>
       </c>
       <c r="J137" t="n">
-        <v>0.1165560992598172</v>
+        <v>0.05264765989201321</v>
       </c>
       <c r="K137" t="n">
-        <v>0.06011829904484576</v>
+        <v>0.12189508983398</v>
       </c>
       <c r="L137" t="n">
-        <v>0.1575776764325592</v>
+        <v>0.09385017310649979</v>
       </c>
       <c r="M137" t="n">
-        <v>0.0591157395046181</v>
+        <v>0.1215153234152866</v>
       </c>
       <c r="N137" t="n">
-        <v>0.06420052164737934</v>
+        <v>0.1364002840532907</v>
       </c>
       <c r="O137" t="n">
-        <v>0.06098612881749665</v>
+        <v>0.1216628055196336</v>
       </c>
     </row>
     <row r="138" ht="15" customHeight="1">
       <c r="F138" t="n">
-        <v>0.06362065841503566</v>
+        <v>0.03142387002457007</v>
       </c>
       <c r="G138" t="n">
-        <v>0.06183315838440633</v>
+        <v>0.1219069323688824</v>
       </c>
       <c r="J138" t="n">
-        <v>0.1153529972531977</v>
+        <v>0.05225341047625616</v>
       </c>
       <c r="K138" t="n">
-        <v>0.06095327542046862</v>
+        <v>0.1235880771927853</v>
       </c>
       <c r="L138" t="n">
-        <v>0.1565387863370291</v>
+        <v>0.09310154556058542</v>
       </c>
       <c r="M138" t="n">
-        <v>0.05993679144218224</v>
+        <v>0.1232030362404989</v>
       </c>
       <c r="N138" t="n">
-        <v>0.06362065841503566</v>
+        <v>0.1339016873709523</v>
       </c>
       <c r="O138" t="n">
-        <v>0.06183315838440633</v>
+        <v>0.1233525667074063</v>
       </c>
     </row>
     <row r="139" ht="15" customHeight="1">
       <c r="F139" t="n">
-        <v>0.06373600959220042</v>
+        <v>0.02999797739140263</v>
       </c>
       <c r="G139" t="n">
-        <v>0.06268018795131601</v>
+        <v>0.1235768903465383</v>
       </c>
       <c r="J139" t="n">
-        <v>0.1156421688620315</v>
+        <v>0.05155147108428888</v>
       </c>
       <c r="K139" t="n">
-        <v>0.06178825179609147</v>
+        <v>0.1252810645515906</v>
       </c>
       <c r="L139" t="n">
-        <v>0.1561981341632587</v>
+        <v>0.09214907916683396</v>
       </c>
       <c r="M139" t="n">
-        <v>0.06075784337974638</v>
+        <v>0.1248907490657112</v>
       </c>
       <c r="N139" t="n">
-        <v>0.06373600959220042</v>
+        <v>0.1316920093964237</v>
       </c>
       <c r="O139" t="n">
-        <v>0.06268018795131601</v>
+        <v>0.125042327895179</v>
       </c>
     </row>
     <row r="140" ht="15" customHeight="1">
       <c r="F140" t="n">
-        <v>0.06304690610169715</v>
+        <v>0.03159078445253698</v>
       </c>
       <c r="G140" t="n">
-        <v>0.06352721751822567</v>
+        <v>0.1252468483241942</v>
       </c>
       <c r="J140" t="n">
-        <v>0.1156238166828417</v>
+        <v>0.05095593990228482</v>
       </c>
       <c r="K140" t="n">
-        <v>0.06262322817171433</v>
+        <v>0.1269740519103959</v>
       </c>
       <c r="L140" t="n">
-        <v>0.1544606837290401</v>
+        <v>0.08991780209738981</v>
       </c>
       <c r="M140" t="n">
-        <v>0.06157889531731051</v>
+        <v>0.1265784618909235</v>
       </c>
       <c r="N140" t="n">
-        <v>0.06304690610169715</v>
+        <v>0.1307074712113608</v>
       </c>
       <c r="O140" t="n">
-        <v>0.06352721751822567</v>
+        <v>0.1267320890829517</v>
       </c>
     </row>
     <row r="141" ht="15" customHeight="1">
       <c r="F141" t="n">
-        <v>0.06305367886634942</v>
+        <v>0.02821085095140885</v>
       </c>
       <c r="G141" t="n">
-        <v>0.06437424708513535</v>
+        <v>0.1269168063018501</v>
       </c>
       <c r="J141" t="n">
-        <v>0.1154981433121515</v>
+        <v>0.04998091511641721</v>
       </c>
       <c r="K141" t="n">
-        <v>0.06345820454733719</v>
+        <v>0.1286670392692012</v>
       </c>
       <c r="L141" t="n">
-        <v>0.1531313988521653</v>
+        <v>0.08973274252439678</v>
       </c>
       <c r="M141" t="n">
-        <v>0.06239994725487465</v>
+        <v>0.1282661747161359</v>
       </c>
       <c r="N141" t="n">
-        <v>0.06305367886634942</v>
+        <v>0.1283842938974193</v>
       </c>
       <c r="O141" t="n">
-        <v>0.06437424708513535</v>
+        <v>0.1284218502707243</v>
       </c>
     </row>
     <row r="142" ht="15" customHeight="1">
       <c r="F142" t="n">
-        <v>0.06295665880898081</v>
+        <v>0.02886673663145398</v>
       </c>
       <c r="G142" t="n">
-        <v>0.06522127665204502</v>
+        <v>0.128586764279506</v>
       </c>
       <c r="J142" t="n">
-        <v>0.1149653513464839</v>
+        <v>0.04944049491285936</v>
       </c>
       <c r="K142" t="n">
-        <v>0.06429318092296006</v>
+        <v>0.1303600266280064</v>
       </c>
       <c r="L142" t="n">
-        <v>0.1520152433504263</v>
+        <v>0.08801892861999921</v>
       </c>
       <c r="M142" t="n">
-        <v>0.0632209991924388</v>
+        <v>0.1299538875413482</v>
       </c>
       <c r="N142" t="n">
-        <v>0.06295665880898081</v>
+        <v>0.1275586985362552</v>
       </c>
       <c r="O142" t="n">
-        <v>0.06522127665204502</v>
+        <v>0.130111611458497</v>
       </c>
     </row>
     <row r="143" ht="15" customHeight="1">
       <c r="F143" t="n">
-        <v>0.06255617685241489</v>
+        <v>0.0285670012361081</v>
       </c>
       <c r="G143" t="n">
-        <v>0.06606830621895469</v>
+        <v>0.130256722257162</v>
       </c>
       <c r="J143" t="n">
-        <v>0.1153256433823621</v>
+        <v>0.04904877747778462</v>
       </c>
       <c r="K143" t="n">
-        <v>0.06512815729858291</v>
+        <v>0.1320530139868117</v>
       </c>
       <c r="L143" t="n">
-        <v>0.1512171810416152</v>
+        <v>0.08670138855634102</v>
       </c>
       <c r="M143" t="n">
-        <v>0.06404205113000294</v>
+        <v>0.1316416003665605</v>
       </c>
       <c r="N143" t="n">
-        <v>0.06255617685241489</v>
+        <v>0.1250669062095242</v>
       </c>
       <c r="O143" t="n">
-        <v>0.06606830621895469</v>
+        <v>0.1318013726462697</v>
       </c>
     </row>
     <row r="144" ht="15" customHeight="1">
       <c r="F144" t="n">
-        <v>0.06285256391947518</v>
+        <v>0.03032020450880697</v>
       </c>
       <c r="G144" t="n">
-        <v>0.06691533578586438</v>
+        <v>0.1319266802348179</v>
       </c>
       <c r="J144" t="n">
-        <v>0.114579222016309</v>
+        <v>0.04831986099736625</v>
       </c>
       <c r="K144" t="n">
-        <v>0.06596313367420577</v>
+        <v>0.133746001345617</v>
       </c>
       <c r="L144" t="n">
-        <v>0.1498421757435239</v>
+        <v>0.08610515050556655</v>
       </c>
       <c r="M144" t="n">
-        <v>0.06486310306756708</v>
+        <v>0.1333293131917728</v>
       </c>
       <c r="N144" t="n">
-        <v>0.06285256391947518</v>
+        <v>0.123645137998882</v>
       </c>
       <c r="O144" t="n">
-        <v>0.06691533578586438</v>
+        <v>0.1334911338340424</v>
       </c>
     </row>
     <row r="145" ht="15" customHeight="1">
       <c r="F145" t="n">
-        <v>0.06224615093298526</v>
+        <v>0.02813490619298634</v>
       </c>
       <c r="G145" t="n">
-        <v>0.06776236535277405</v>
+        <v>0.1335966382124738</v>
       </c>
       <c r="J145" t="n">
-        <v>0.1140262898448479</v>
+        <v>0.04796784365777763</v>
       </c>
       <c r="K145" t="n">
-        <v>0.06679811004982862</v>
+        <v>0.1354389887044223</v>
       </c>
       <c r="L145" t="n">
-        <v>0.1500951912739444</v>
+        <v>0.08605524263981978</v>
       </c>
       <c r="M145" t="n">
-        <v>0.06568415500513121</v>
+        <v>0.1350170260169851</v>
       </c>
       <c r="N145" t="n">
-        <v>0.06224615093298526</v>
+        <v>0.1229296149859845</v>
       </c>
       <c r="O145" t="n">
-        <v>0.06776236535277405</v>
+        <v>0.1351808950218151</v>
       </c>
     </row>
     <row r="146" ht="15" customHeight="1">
       <c r="F146" t="n">
-        <v>0.06213726881576871</v>
+        <v>0.0270196660320819</v>
       </c>
       <c r="G146" t="n">
-        <v>0.06860939491968372</v>
+        <v>0.1352665961901297</v>
       </c>
       <c r="J146" t="n">
-        <v>0.1144670494645016</v>
+        <v>0.04760682364519205</v>
       </c>
       <c r="K146" t="n">
-        <v>0.06763308642545147</v>
+        <v>0.1371319760632276</v>
       </c>
       <c r="L146" t="n">
-        <v>0.1488811914506689</v>
+        <v>0.08537669313124474</v>
       </c>
       <c r="M146" t="n">
-        <v>0.06650520694269536</v>
+        <v>0.1367047388421974</v>
       </c>
       <c r="N146" t="n">
-        <v>0.06213726881576871</v>
+        <v>0.1219565582524875</v>
       </c>
       <c r="O146" t="n">
-        <v>0.06860939491968372</v>
+        <v>0.1368706562095878</v>
       </c>
     </row>
     <row r="147" ht="15" customHeight="1">
       <c r="F147" t="n">
-        <v>0.06212624849064909</v>
+        <v>0.02998289301722845</v>
       </c>
       <c r="G147" t="n">
-        <v>0.06945642448659341</v>
+        <v>0.1369365541677857</v>
       </c>
       <c r="J147" t="n">
-        <v>0.1133017034717934</v>
+        <v>0.0472508991457828</v>
       </c>
       <c r="K147" t="n">
-        <v>0.06846806280107434</v>
+        <v>0.1388249634220328</v>
       </c>
       <c r="L147" t="n">
-        <v>0.1485051400914892</v>
+        <v>0.08409453015198565</v>
       </c>
       <c r="M147" t="n">
-        <v>0.0673262588802595</v>
+        <v>0.1383924516674097</v>
       </c>
       <c r="N147" t="n">
-        <v>0.06212624849064909</v>
+        <v>0.1212621888800469</v>
       </c>
       <c r="O147" t="n">
-        <v>0.06945642448659341</v>
+        <v>0.1385604173973605</v>
       </c>
     </row>
     <row r="148" ht="15" customHeight="1">
       <c r="F148" t="n">
-        <v>0.0616134208804499</v>
+        <v>0.02698988847080672</v>
       </c>
       <c r="G148" t="n">
-        <v>0.07030345405350308</v>
+        <v>0.1386065121454416</v>
       </c>
       <c r="J148" t="n">
-        <v>0.1140304544632464</v>
+        <v>0.04681416834572326</v>
       </c>
       <c r="K148" t="n">
-        <v>0.0693030391766972</v>
+        <v>0.1405179507808381</v>
       </c>
       <c r="L148" t="n">
-        <v>0.1468720010141973</v>
+        <v>0.08403378187418653</v>
       </c>
       <c r="M148" t="n">
-        <v>0.06814731081782364</v>
+        <v>0.140080164492622</v>
       </c>
       <c r="N148" t="n">
-        <v>0.0616134208804499</v>
+        <v>0.1217827279503183</v>
       </c>
       <c r="O148" t="n">
-        <v>0.07030345405350308</v>
+        <v>0.1402501785851331</v>
       </c>
     </row>
     <row r="149" ht="15" customHeight="1">
       <c r="F149" t="n">
-        <v>0.06179911690799479</v>
+        <v>0.02600884748838737</v>
       </c>
       <c r="G149" t="n">
-        <v>0.07115048362041276</v>
+        <v>0.1402764701230975</v>
       </c>
       <c r="J149" t="n">
-        <v>0.1130535050353836</v>
+        <v>0.04739711034169279</v>
       </c>
       <c r="K149" t="n">
-        <v>0.07013801555232005</v>
+        <v>0.1422109381396434</v>
       </c>
       <c r="L149" t="n">
-        <v>0.1467867380365855</v>
+        <v>0.08454275429886138</v>
       </c>
       <c r="M149" t="n">
-        <v>0.06896836275538779</v>
+        <v>0.1417678773178344</v>
       </c>
       <c r="N149" t="n">
-        <v>0.06179911690799479</v>
+        <v>0.1223781951084244</v>
       </c>
       <c r="O149" t="n">
-        <v>0.07115048362041276</v>
+        <v>0.1419399397729058</v>
       </c>
     </row>
     <row r="150" ht="15" customHeight="1">
       <c r="F150" t="n">
-        <v>0.0609836674961073</v>
+        <v>0.02703914110314079</v>
       </c>
       <c r="G150" t="n">
-        <v>0.07199751318732243</v>
+        <v>0.1419464281007534</v>
       </c>
       <c r="J150" t="n">
-        <v>0.112471057784728</v>
+        <v>0.04691651383948871</v>
       </c>
       <c r="K150" t="n">
-        <v>0.07097299192794292</v>
+        <v>0.1439039254984487</v>
       </c>
       <c r="L150" t="n">
-        <v>0.1453478833600004</v>
+        <v>0.08468973656690959</v>
       </c>
       <c r="M150" t="n">
-        <v>0.06978941469295193</v>
+        <v>0.1434555901430467</v>
       </c>
       <c r="N150" t="n">
-        <v>0.0609836674961073</v>
+        <v>0.1211391566692749</v>
       </c>
       <c r="O150" t="n">
-        <v>0.07199751318732243</v>
+        <v>0.1436297009606785</v>
       </c>
     </row>
     <row r="151" ht="15" customHeight="1">
       <c r="F151" t="n">
-        <v>0.06076740356761097</v>
+        <v>0.02608014034823736</v>
       </c>
       <c r="G151" t="n">
-        <v>0.07284454275423211</v>
+        <v>0.1436163860784093</v>
       </c>
       <c r="J151" t="n">
-        <v>0.1127833153078028</v>
+        <v>0.04695491645639178</v>
       </c>
       <c r="K151" t="n">
-        <v>0.07180796830356577</v>
+        <v>0.145596912857254</v>
       </c>
       <c r="L151" t="n">
-        <v>0.1446249080537042</v>
+        <v>0.08476989770764964</v>
       </c>
       <c r="M151" t="n">
-        <v>0.07061046663051607</v>
+        <v>0.145143302968259</v>
       </c>
       <c r="N151" t="n">
-        <v>0.06076740356761097</v>
+        <v>0.1212484447024162</v>
       </c>
       <c r="O151" t="n">
-        <v>0.07284454275423211</v>
+        <v>0.1453194621484512</v>
       </c>
     </row>
     <row r="152" ht="15" customHeight="1">
       <c r="F152" t="n">
-        <v>0.06065065604532931</v>
+        <v>0.02713121625684747</v>
       </c>
       <c r="G152" t="n">
-        <v>0.07369157232114179</v>
+        <v>0.1452863440560653</v>
       </c>
       <c r="J152" t="n">
-        <v>0.1128904802011311</v>
+        <v>0.04751128226281755</v>
       </c>
       <c r="K152" t="n">
-        <v>0.07264294467918864</v>
+        <v>0.1472899002160592</v>
       </c>
       <c r="L152" t="n">
-        <v>0.1437126190723496</v>
+        <v>0.08508139866010933</v>
       </c>
       <c r="M152" t="n">
-        <v>0.07143151856808021</v>
+        <v>0.1468310157934713</v>
       </c>
       <c r="N152" t="n">
-        <v>0.06065065604532931</v>
+        <v>0.1218033976959624</v>
       </c>
       <c r="O152" t="n">
-        <v>0.07369157232114179</v>
+        <v>0.1470092233362239</v>
       </c>
     </row>
     <row r="153" ht="15" customHeight="1">
       <c r="F153" t="n">
-        <v>0.06063375585208601</v>
+        <v>0.0271917398621415</v>
       </c>
       <c r="G153" t="n">
-        <v>0.07453860188805146</v>
+        <v>0.1469563020337212</v>
       </c>
       <c r="J153" t="n">
-        <v>0.1115927550612359</v>
+        <v>0.04748457532918153</v>
       </c>
       <c r="K153" t="n">
-        <v>0.07347792105481149</v>
+        <v>0.1489828875748645</v>
       </c>
       <c r="L153" t="n">
-        <v>0.1433103710949651</v>
+        <v>0.08512240036331642</v>
       </c>
       <c r="M153" t="n">
-        <v>0.07225257050564435</v>
+        <v>0.1485187286186836</v>
       </c>
       <c r="N153" t="n">
-        <v>0.06063375585208601</v>
+        <v>0.1228013541380275</v>
       </c>
       <c r="O153" t="n">
-        <v>0.07453860188805146</v>
+        <v>0.1486989845239966</v>
       </c>
     </row>
     <row r="154" ht="15" customHeight="1">
       <c r="F154" t="n">
-        <v>0.06031703391070452</v>
+        <v>0.02726108219728982</v>
       </c>
       <c r="G154" t="n">
-        <v>0.07538563145496113</v>
+        <v>0.1486262600113771</v>
       </c>
       <c r="J154" t="n">
-        <v>0.1113903424846404</v>
+        <v>0.04767375972589914</v>
       </c>
       <c r="K154" t="n">
-        <v>0.07431289743043434</v>
+        <v>0.1506758749336698</v>
       </c>
       <c r="L154" t="n">
-        <v>0.1420175188005791</v>
+        <v>0.08549106375629872</v>
       </c>
       <c r="M154" t="n">
-        <v>0.07307362244320849</v>
+        <v>0.1502064414438959</v>
       </c>
       <c r="N154" t="n">
-        <v>0.06031703391070452</v>
+        <v>0.1232396525167258</v>
       </c>
       <c r="O154" t="n">
-        <v>0.07538563145496113</v>
+        <v>0.1503887457117693</v>
       </c>
     </row>
     <row r="155" ht="15" customHeight="1">
       <c r="F155" t="n">
-        <v>0.06050082114400844</v>
+        <v>0.03033861429546283</v>
       </c>
       <c r="G155" t="n">
-        <v>0.07623266102187082</v>
+        <v>0.150296217989033</v>
       </c>
       <c r="J155" t="n">
-        <v>0.1118834450678675</v>
+        <v>0.047477799523386</v>
       </c>
       <c r="K155" t="n">
-        <v>0.0751478738060572</v>
+        <v>0.1523688622924751</v>
       </c>
       <c r="L155" t="n">
-        <v>0.1423334168682202</v>
+        <v>0.08488554977808405</v>
       </c>
       <c r="M155" t="n">
-        <v>0.07389467438077263</v>
+        <v>0.1518941542691082</v>
       </c>
       <c r="N155" t="n">
-        <v>0.06050082114400844</v>
+        <v>0.1223156313201712</v>
       </c>
       <c r="O155" t="n">
-        <v>0.07623266102187082</v>
+        <v>0.152078506899542</v>
       </c>
     </row>
     <row r="156" ht="15" customHeight="1">
       <c r="F156" t="n">
-        <v>0.06018544847482137</v>
+        <v>0.02842370718983092</v>
       </c>
       <c r="G156" t="n">
-        <v>0.07707969058878049</v>
+        <v>0.151966175966689</v>
       </c>
       <c r="J156" t="n">
-        <v>0.1106722654074405</v>
+        <v>0.04769565879205752</v>
       </c>
       <c r="K156" t="n">
-        <v>0.07598285018168005</v>
+        <v>0.1540618496512804</v>
       </c>
       <c r="L156" t="n">
-        <v>0.1419574199769167</v>
+        <v>0.08570401936770033</v>
       </c>
       <c r="M156" t="n">
-        <v>0.07471572631833677</v>
+        <v>0.1535818670943206</v>
       </c>
       <c r="N156" t="n">
-        <v>0.06018544847482137</v>
+        <v>0.122826629036478</v>
       </c>
       <c r="O156" t="n">
-        <v>0.07707969058878049</v>
+        <v>0.1537682680873147</v>
       </c>
     </row>
     <row r="157" ht="15" customHeight="1">
       <c r="F157" t="n">
-        <v>0.05946987220698287</v>
+        <v>0.03051573191356444</v>
       </c>
       <c r="G157" t="n">
-        <v>0.07792672015569017</v>
+        <v>0.1536361339443449</v>
       </c>
       <c r="J157" t="n">
-        <v>0.1112570060998823</v>
+        <v>0.04762630160232924</v>
       </c>
       <c r="K157" t="n">
-        <v>0.07681782655730292</v>
+        <v>0.1557548370100856</v>
       </c>
       <c r="L157" t="n">
-        <v>0.1396888828056969</v>
+        <v>0.08574463346417521</v>
       </c>
       <c r="M157" t="n">
-        <v>0.07553677825590091</v>
+        <v>0.1552695799195329</v>
       </c>
       <c r="N157" t="n">
-        <v>0.05946987220698287</v>
+        <v>0.1233699841537602</v>
       </c>
       <c r="O157" t="n">
-        <v>0.07792672015569017</v>
+        <v>0.1554580292750873</v>
       </c>
     </row>
     <row r="158" ht="15" customHeight="1">
       <c r="F158" t="n">
-        <v>0.05973598219935185</v>
+        <v>0.0296140594998338</v>
       </c>
       <c r="G158" t="n">
-        <v>0.07877374972259985</v>
+        <v>0.1553060919220008</v>
       </c>
       <c r="J158" t="n">
-        <v>0.110437869741716</v>
+        <v>0.04816869202461672</v>
       </c>
       <c r="K158" t="n">
-        <v>0.07765280293292579</v>
+        <v>0.1574478243688909</v>
       </c>
       <c r="L158" t="n">
-        <v>0.1403271600335893</v>
+        <v>0.08600555300653662</v>
       </c>
       <c r="M158" t="n">
-        <v>0.07635783019346505</v>
+        <v>0.1569572927447452</v>
       </c>
       <c r="N158" t="n">
-        <v>0.05973598219935185</v>
+        <v>0.1241430351601319</v>
       </c>
       <c r="O158" t="n">
-        <v>0.07877374972259985</v>
+        <v>0.15714779046286</v>
       </c>
     </row>
     <row r="159" ht="15" customHeight="1">
       <c r="F159" t="n">
-        <v>0.05917906494353566</v>
+        <v>0.02872260853541891</v>
       </c>
       <c r="G159" t="n">
-        <v>0.07962077928950952</v>
+        <v>0.1569760498996567</v>
       </c>
       <c r="J159" t="n">
-        <v>0.1099150589294648</v>
+        <v>0.04792179412933538</v>
       </c>
       <c r="K159" t="n">
-        <v>0.07848777930854864</v>
+        <v>0.1591408117276962</v>
       </c>
       <c r="L159" t="n">
-        <v>0.1394716063396225</v>
+        <v>0.08578493893381239</v>
       </c>
       <c r="M159" t="n">
-        <v>0.07717888213102919</v>
+        <v>0.1586450055699575</v>
       </c>
       <c r="N159" t="n">
-        <v>0.05917906494353566</v>
+        <v>0.1246431205437073</v>
       </c>
       <c r="O159" t="n">
-        <v>0.07962077928950952</v>
+        <v>0.1588375516506327</v>
       </c>
     </row>
     <row r="160" ht="15" customHeight="1">
       <c r="F160" t="n">
-        <v>0.05870040742704534</v>
+        <v>0.02791202962168265</v>
       </c>
       <c r="G160" t="n">
-        <v>0.0804678088564192</v>
+        <v>0.1586460078773126</v>
       </c>
       <c r="J160" t="n">
-        <v>0.1103887762596518</v>
+        <v>0.04848457198690075</v>
       </c>
       <c r="K160" t="n">
-        <v>0.07932275568417149</v>
+        <v>0.1608337990865015</v>
       </c>
       <c r="L160" t="n">
-        <v>0.1384215764028248</v>
+        <v>0.08638618353750954</v>
       </c>
       <c r="M160" t="n">
-        <v>0.07799993406859333</v>
+        <v>0.1603327183951698</v>
       </c>
       <c r="N160" t="n">
-        <v>0.05870040742704534</v>
+        <v>0.124268297316814</v>
       </c>
       <c r="O160" t="n">
-        <v>0.0804678088564192</v>
+        <v>0.1605273128384054</v>
       </c>
     </row>
     <row r="161" ht="15" customHeight="1">
       <c r="F161" t="n">
-        <v>0.05900129663739188</v>
+        <v>0.02919215331162037</v>
       </c>
       <c r="G161" t="n">
-        <v>0.08131483842332887</v>
+        <v>0.1603159658549686</v>
       </c>
       <c r="J161" t="n">
-        <v>0.1098592243287999</v>
+        <v>0.04871852392889071</v>
       </c>
       <c r="K161" t="n">
-        <v>0.08015773205979435</v>
+        <v>0.1625267864453067</v>
       </c>
       <c r="L161" t="n">
-        <v>0.1383764249022246</v>
+        <v>0.08639932589845339</v>
       </c>
       <c r="M161" t="n">
-        <v>0.07882098600615746</v>
+        <v>0.1620204312203821</v>
       </c>
       <c r="N161" t="n">
-        <v>0.05900129663739188</v>
+        <v>0.1253549113481793</v>
       </c>
       <c r="O161" t="n">
-        <v>0.08131483842332887</v>
+        <v>0.1622170740261781</v>
       </c>
     </row>
     <row r="162" ht="15" customHeight="1">
       <c r="F162" t="n">
-        <v>0.05858301956208632</v>
+        <v>0.02954399261471151</v>
       </c>
       <c r="G162" t="n">
-        <v>0.08216186799023854</v>
+        <v>0.1619859238326245</v>
       </c>
       <c r="J162" t="n">
-        <v>0.1093266057334323</v>
+        <v>0.04881097893977358</v>
       </c>
       <c r="K162" t="n">
-        <v>0.08099270843541721</v>
+        <v>0.164219773804112</v>
       </c>
       <c r="L162" t="n">
-        <v>0.1378355065168503</v>
+        <v>0.08758011056550763</v>
       </c>
       <c r="M162" t="n">
-        <v>0.0796420379437216</v>
+        <v>0.1637081440455944</v>
       </c>
       <c r="N162" t="n">
-        <v>0.05858301956208632</v>
+        <v>0.1261384228371277</v>
       </c>
       <c r="O162" t="n">
-        <v>0.08216186799023854</v>
+        <v>0.1639068352139508</v>
       </c>
     </row>
     <row r="163" ht="15" customHeight="1">
       <c r="F163" t="n">
-        <v>0.05774686318863963</v>
+        <v>0.03094856054043549</v>
       </c>
       <c r="G163" t="n">
-        <v>0.08300889755714821</v>
+        <v>0.1636558818102804</v>
       </c>
       <c r="J163" t="n">
-        <v>0.109391123070072</v>
+        <v>0.04923248819412064</v>
       </c>
       <c r="K163" t="n">
-        <v>0.08182768481104007</v>
+        <v>0.1659127611629173</v>
       </c>
       <c r="L163" t="n">
-        <v>0.1363981759257304</v>
+        <v>0.08817302072665389</v>
       </c>
       <c r="M163" t="n">
-        <v>0.08046308988128574</v>
+        <v>0.1653958568708068</v>
       </c>
       <c r="N163" t="n">
-        <v>0.05774686318863963</v>
+        <v>0.1278384871636123</v>
       </c>
       <c r="O163" t="n">
-        <v>0.08300889755714821</v>
+        <v>0.1655965964017235</v>
       </c>
     </row>
     <row r="164" ht="15" customHeight="1">
       <c r="F164" t="n">
-        <v>0.0578941145045629</v>
+        <v>0.02938687009827172</v>
       </c>
       <c r="G164" t="n">
-        <v>0.08385592712405789</v>
+        <v>0.1653258397879363</v>
       </c>
       <c r="J164" t="n">
-        <v>0.1083529789352423</v>
+        <v>0.05015177947808126</v>
       </c>
       <c r="K164" t="n">
-        <v>0.08266266118666292</v>
+        <v>0.1676057485217226</v>
       </c>
       <c r="L164" t="n">
-        <v>0.1354637878078933</v>
+        <v>0.08942253956987384</v>
       </c>
       <c r="M164" t="n">
-        <v>0.08128414181884988</v>
+        <v>0.1670835696960191</v>
       </c>
       <c r="N164" t="n">
-        <v>0.0578941145045629</v>
+        <v>0.1286747597075861</v>
       </c>
       <c r="O164" t="n">
-        <v>0.08385592712405789</v>
+        <v>0.1672863575894962</v>
       </c>
     </row>
     <row r="165" ht="15" customHeight="1">
       <c r="F165" t="n">
-        <v>0.05712606049736711</v>
+        <v>0.0328399342976997</v>
       </c>
       <c r="G165" t="n">
-        <v>0.08470295669096757</v>
+        <v>0.1669957977655923</v>
       </c>
       <c r="J165" t="n">
-        <v>0.1082123759254661</v>
+        <v>0.05063758057780461</v>
       </c>
       <c r="K165" t="n">
-        <v>0.08349763756228577</v>
+        <v>0.1692987358805279</v>
       </c>
       <c r="L165" t="n">
-        <v>0.1362316968423673</v>
+        <v>0.09087315028314907</v>
       </c>
       <c r="M165" t="n">
-        <v>0.08210519375641402</v>
+        <v>0.1687712825212314</v>
       </c>
       <c r="N165" t="n">
-        <v>0.05712606049736711</v>
+        <v>0.1314668958490024</v>
       </c>
       <c r="O165" t="n">
-        <v>0.08470295669096757</v>
+        <v>0.1689761187772689</v>
       </c>
     </row>
     <row r="166" ht="15" customHeight="1">
       <c r="F166" t="n">
-        <v>0.05724398815456329</v>
+        <v>0.03028876614819881</v>
       </c>
       <c r="G166" t="n">
-        <v>0.08554998625787724</v>
+        <v>0.1686657557432482</v>
       </c>
       <c r="J166" t="n">
-        <v>0.1072530883856827</v>
+        <v>0.05105861927944001</v>
       </c>
       <c r="K166" t="n">
-        <v>0.08433261393790864</v>
+        <v>0.1709917232393331</v>
       </c>
       <c r="L166" t="n">
-        <v>0.1344012577081811</v>
+        <v>0.09206933605446133</v>
       </c>
       <c r="M166" t="n">
-        <v>0.08292624569397816</v>
+        <v>0.1704589953464437</v>
       </c>
       <c r="N166" t="n">
-        <v>0.05724398815456329</v>
+        <v>0.1328345509678143</v>
       </c>
       <c r="O166" t="n">
-        <v>0.08554998625787724</v>
+        <v>0.1706658799650416</v>
       </c>
     </row>
     <row r="167" ht="15" customHeight="1">
       <c r="F167" t="n">
-        <v>0.05644918446366247</v>
+        <v>0.03371437865924853</v>
       </c>
       <c r="G167" t="n">
-        <v>0.08639701582478691</v>
+        <v>0.1703357137209041</v>
       </c>
       <c r="J167" t="n">
-        <v>0.1073433627551004</v>
+        <v>0.05218362336913669</v>
       </c>
       <c r="K167" t="n">
-        <v>0.08516759031353149</v>
+        <v>0.1726847105981384</v>
       </c>
       <c r="L167" t="n">
-        <v>0.1341718250843628</v>
+        <v>0.09415558007179226</v>
       </c>
       <c r="M167" t="n">
-        <v>0.0837472976315423</v>
+        <v>0.172146708171656</v>
       </c>
       <c r="N167" t="n">
-        <v>0.05644918446366247</v>
+        <v>0.1355973804439747</v>
       </c>
       <c r="O167" t="n">
-        <v>0.08639701582478691</v>
+        <v>0.1723556411528142</v>
       </c>
     </row>
     <row r="168" ht="15" customHeight="1">
       <c r="F168" t="n">
-        <v>0.05594293641217564</v>
+        <v>0.03009778484032824</v>
       </c>
       <c r="G168" t="n">
-        <v>0.0872440453916966</v>
+        <v>0.17200567169856</v>
       </c>
       <c r="J168" t="n">
-        <v>0.1063851589392237</v>
+        <v>0.05278132063304398</v>
       </c>
       <c r="K168" t="n">
-        <v>0.08600256668915436</v>
+        <v>0.1743776979569437</v>
       </c>
       <c r="L168" t="n">
-        <v>0.1338427536499411</v>
+        <v>0.09547636552312339</v>
       </c>
       <c r="M168" t="n">
-        <v>0.08456834956910644</v>
+        <v>0.1738344209968683</v>
       </c>
       <c r="N168" t="n">
-        <v>0.05594293641217564</v>
+        <v>0.136975039657437</v>
       </c>
       <c r="O168" t="n">
-        <v>0.0872440453916966</v>
+        <v>0.1740454023405869</v>
       </c>
     </row>
     <row r="169" ht="15" customHeight="1">
       <c r="F169" t="n">
-        <v>0.05582653098761382</v>
+        <v>0.03042768262492274</v>
       </c>
       <c r="G169" t="n">
-        <v>0.08809107495860627</v>
+        <v>0.1736756296762159</v>
       </c>
       <c r="J169" t="n">
-        <v>0.1066814336013229</v>
+        <v>0.05362043885731106</v>
       </c>
       <c r="K169" t="n">
-        <v>0.08683754306477721</v>
+        <v>0.176070685315749</v>
       </c>
       <c r="L169" t="n">
-        <v>0.1322133980839443</v>
+        <v>0.09647617559643651</v>
       </c>
       <c r="M169" t="n">
-        <v>0.08538940150667058</v>
+        <v>0.1755221338220807</v>
       </c>
       <c r="N169" t="n">
-        <v>0.05582653098761382</v>
+        <v>0.1384871839881541</v>
       </c>
       <c r="O169" t="n">
-        <v>0.08809107495860627</v>
+        <v>0.1757351635283596</v>
       </c>
     </row>
     <row r="170" ht="15" customHeight="1">
       <c r="F170" t="n">
-        <v>0.05560125517748808</v>
+        <v>0.03074137041002561</v>
       </c>
       <c r="G170" t="n">
-        <v>0.08893810452551594</v>
+        <v>0.1753455876538719</v>
       </c>
       <c r="J170" t="n">
-        <v>0.1059351434046688</v>
+        <v>0.05427148471278766</v>
       </c>
       <c r="K170" t="n">
-        <v>0.08767251944040007</v>
+        <v>0.1777636726745543</v>
       </c>
       <c r="L170" t="n">
-        <v>0.1330831130654008</v>
+        <v>0.09682131727443283</v>
       </c>
       <c r="M170" t="n">
-        <v>0.08621045344423472</v>
+        <v>0.1772098466472929</v>
       </c>
       <c r="N170" t="n">
-        <v>0.05560125517748808</v>
+        <v>0.1400715461178813</v>
       </c>
       <c r="O170" t="n">
-        <v>0.08893810452551594</v>
+        <v>0.1774249247161323</v>
       </c>
     </row>
     <row r="171" ht="15" customHeight="1">
       <c r="F171" t="n">
-        <v>0.05476839596930937</v>
+        <v>0.03304728242288979</v>
       </c>
       <c r="G171" t="n">
-        <v>0.08978513409242563</v>
+        <v>0.1770155456315278</v>
       </c>
       <c r="J171" t="n">
-        <v>0.1047492450125316</v>
+        <v>0.05427796619747201</v>
       </c>
       <c r="K171" t="n">
-        <v>0.08850749581602292</v>
+        <v>0.1794566600333595</v>
       </c>
       <c r="L171" t="n">
-        <v>0.1318512532733391</v>
+        <v>0.09791918957491058</v>
       </c>
       <c r="M171" t="n">
-        <v>0.08703150538179887</v>
+        <v>0.1788975594725053</v>
       </c>
       <c r="N171" t="n">
-        <v>0.05476839596930937</v>
+        <v>0.1415716529966038</v>
       </c>
       <c r="O171" t="n">
-        <v>0.08978513409242563</v>
+        <v>0.179114685903905</v>
       </c>
     </row>
     <row r="172" ht="15" customHeight="1">
       <c r="F172" t="n">
-        <v>0.05462924035058882</v>
+        <v>0.03234602098800129</v>
       </c>
       <c r="G172" t="n">
-        <v>0.0906321636593353</v>
+        <v>0.1786855036091837</v>
       </c>
       <c r="J172" t="n">
-        <v>0.105226695088182</v>
+        <v>0.05517153848541158</v>
       </c>
       <c r="K172" t="n">
-        <v>0.08934247219164577</v>
+        <v>0.1811496473921648</v>
       </c>
       <c r="L172" t="n">
-        <v>0.1303171733867875</v>
+        <v>0.09839458474406276</v>
       </c>
       <c r="M172" t="n">
-        <v>0.08785255731936301</v>
+        <v>0.1805852722977176</v>
       </c>
       <c r="N172" t="n">
-        <v>0.05462924035058882</v>
+        <v>0.1427389827844671</v>
       </c>
       <c r="O172" t="n">
-        <v>0.0906321636593353</v>
+        <v>0.1808044470916777</v>
       </c>
     </row>
     <row r="173" ht="15" customHeight="1">
       <c r="F173" t="n">
-        <v>0.05428507530883732</v>
+        <v>0.0336381884298462</v>
       </c>
       <c r="G173" t="n">
-        <v>0.09147919322624498</v>
+        <v>0.1803554615868397</v>
       </c>
       <c r="J173" t="n">
-        <v>0.1038704502948904</v>
+        <v>0.05545319362535232</v>
       </c>
       <c r="K173" t="n">
-        <v>0.09017744856726866</v>
+        <v>0.1828426347509701</v>
       </c>
       <c r="L173" t="n">
-        <v>0.1294802280847746</v>
+        <v>0.09914926394226026</v>
       </c>
       <c r="M173" t="n">
-        <v>0.08867360925692715</v>
+        <v>0.1822729851229299</v>
       </c>
       <c r="N173" t="n">
-        <v>0.05428507530883732</v>
+        <v>0.1441760842546392</v>
       </c>
       <c r="O173" t="n">
-        <v>0.09147919322624498</v>
+        <v>0.1824942082794504</v>
       </c>
     </row>
     <row r="174" ht="15" customHeight="1">
       <c r="F174" t="n">
-        <v>0.05323718783156593</v>
+        <v>0.03292438707291051</v>
       </c>
       <c r="G174" t="n">
-        <v>0.09232622279315465</v>
+        <v>0.1820254195644956</v>
       </c>
       <c r="J174" t="n">
-        <v>0.1037834672959275</v>
+        <v>0.05592392366604014</v>
       </c>
       <c r="K174" t="n">
-        <v>0.09101242494289151</v>
+        <v>0.1845356221097754</v>
       </c>
       <c r="L174" t="n">
-        <v>0.1296397720463286</v>
+        <v>0.09998498832987374</v>
       </c>
       <c r="M174" t="n">
-        <v>0.08949466119449129</v>
+        <v>0.1839606979481422</v>
       </c>
       <c r="N174" t="n">
-        <v>0.05323718783156593</v>
+        <v>0.1452855061802876</v>
       </c>
       <c r="O174" t="n">
-        <v>0.09232622279315465</v>
+        <v>0.1841839694672231</v>
       </c>
     </row>
     <row r="175" ht="15" customHeight="1">
       <c r="F175" t="n">
-        <v>0.0528868649062857</v>
+        <v>0.03320521924168032</v>
       </c>
       <c r="G175" t="n">
-        <v>0.09317325236006432</v>
+        <v>0.1836953775421515</v>
       </c>
       <c r="J175" t="n">
-        <v>0.1026687027545637</v>
+        <v>0.05618472065622108</v>
       </c>
       <c r="K175" t="n">
-        <v>0.09184740131851436</v>
+        <v>0.1862286094685806</v>
       </c>
       <c r="L175" t="n">
-        <v>0.1282951599504782</v>
+        <v>0.101003519067274</v>
       </c>
       <c r="M175" t="n">
-        <v>0.09031571313205543</v>
+        <v>0.1856484107733545</v>
       </c>
       <c r="N175" t="n">
-        <v>0.0528868649062857</v>
+        <v>0.1457697973345802</v>
       </c>
       <c r="O175" t="n">
-        <v>0.09317325236006432</v>
+        <v>0.1858737306549958</v>
       </c>
     </row>
     <row r="176" ht="15" customHeight="1">
       <c r="F176" t="n">
-        <v>0.05243539352050765</v>
+        <v>0.03248128726064169</v>
       </c>
       <c r="G176" t="n">
-        <v>0.09402028192697401</v>
+        <v>0.1853653355198074</v>
       </c>
       <c r="J176" t="n">
-        <v>0.1024291133340695</v>
+        <v>0.05673657664464103</v>
       </c>
       <c r="K176" t="n">
-        <v>0.09268237769413722</v>
+        <v>0.1879215968273859</v>
       </c>
       <c r="L176" t="n">
-        <v>0.1281457464762516</v>
+        <v>0.101506617314832</v>
       </c>
       <c r="M176" t="n">
-        <v>0.09113676506961957</v>
+        <v>0.1873361235985669</v>
       </c>
       <c r="N176" t="n">
-        <v>0.05243539352050765</v>
+        <v>0.1476315064906851</v>
       </c>
       <c r="O176" t="n">
-        <v>0.09402028192697401</v>
+        <v>0.1875634918427684</v>
       </c>
     </row>
     <row r="177" ht="15" customHeight="1">
       <c r="F177" t="n">
-        <v>0.05198406066174278</v>
+        <v>0.0357531934542806</v>
       </c>
       <c r="G177" t="n">
-        <v>0.09486731149388368</v>
+        <v>0.1870352934974633</v>
       </c>
       <c r="J177" t="n">
-        <v>0.1013676556977154</v>
+        <v>0.05728048368004589</v>
       </c>
       <c r="K177" t="n">
-        <v>0.09351735406976007</v>
+        <v>0.1896145841861912</v>
       </c>
       <c r="L177" t="n">
-        <v>0.1276908863026772</v>
+        <v>0.1032960442329185</v>
       </c>
       <c r="M177" t="n">
-        <v>0.09195781700718371</v>
+        <v>0.1890238364237792</v>
       </c>
       <c r="N177" t="n">
-        <v>0.05198406066174278</v>
+        <v>0.1479731824217697</v>
       </c>
       <c r="O177" t="n">
-        <v>0.09486731149388368</v>
+        <v>0.1892532530305411</v>
       </c>
     </row>
     <row r="178" ht="15" customHeight="1">
       <c r="F178" t="n">
-        <v>0.05183415331750209</v>
+        <v>0.03402154014708311</v>
       </c>
       <c r="G178" t="n">
-        <v>0.09571434106079335</v>
+        <v>0.1887052514751193</v>
       </c>
       <c r="J178" t="n">
-        <v>0.1002872865087721</v>
+        <v>0.05781743381118169</v>
       </c>
       <c r="K178" t="n">
-        <v>0.09435233044538294</v>
+        <v>0.1913075715449965</v>
       </c>
       <c r="L178" t="n">
-        <v>0.1271299341087837</v>
+        <v>0.1040735609819042</v>
       </c>
       <c r="M178" t="n">
-        <v>0.09277886894474785</v>
+        <v>0.1907115492489915</v>
       </c>
       <c r="N178" t="n">
-        <v>0.05183415331750209</v>
+        <v>0.149097373901002</v>
       </c>
       <c r="O178" t="n">
-        <v>0.09571434106079335</v>
+        <v>0.1909430142183138</v>
       </c>
     </row>
     <row r="179" ht="15" customHeight="1">
       <c r="F179" t="n">
-        <v>0.05118695847529665</v>
+        <v>0.03628692966353532</v>
       </c>
       <c r="G179" t="n">
-        <v>0.09656137062770304</v>
+        <v>0.1903752094527752</v>
       </c>
       <c r="J179" t="n">
-        <v>0.09999096243050976</v>
+        <v>0.05794841908679434</v>
       </c>
       <c r="K179" t="n">
-        <v>0.09518730682100579</v>
+        <v>0.1930005589038017</v>
       </c>
       <c r="L179" t="n">
-        <v>0.1268622445735993</v>
+        <v>0.1047409287221601</v>
       </c>
       <c r="M179" t="n">
-        <v>0.09359992088231199</v>
+        <v>0.1923992620742038</v>
       </c>
       <c r="N179" t="n">
-        <v>0.05118695847529665</v>
+        <v>0.1502066297015499</v>
       </c>
       <c r="O179" t="n">
-        <v>0.09656137062770304</v>
+        <v>0.1926327754060865</v>
       </c>
     </row>
     <row r="180" ht="15" customHeight="1">
       <c r="F180" t="n">
-        <v>0.05084376312263743</v>
+        <v>0.03655235886432301</v>
       </c>
       <c r="G180" t="n">
-        <v>0.09740840019461271</v>
+        <v>0.1920451674304311</v>
       </c>
       <c r="J180" t="n">
-        <v>0.09928164012619922</v>
+        <v>0.05837443155562975</v>
       </c>
       <c r="K180" t="n">
-        <v>0.09602228319662864</v>
+        <v>0.194693546262607</v>
       </c>
       <c r="L180" t="n">
-        <v>0.1263871723761525</v>
+        <v>0.1056999086140568</v>
       </c>
       <c r="M180" t="n">
-        <v>0.09442097281987613</v>
+        <v>0.1940869748994161</v>
       </c>
       <c r="N180" t="n">
-        <v>0.05084376312263743</v>
+        <v>0.150903498596581</v>
       </c>
       <c r="O180" t="n">
-        <v>0.09740840019461271</v>
+        <v>0.1943225365938592</v>
       </c>
     </row>
     <row r="181" ht="15" customHeight="1">
       <c r="F181" t="n">
-        <v>0.05050585424703548</v>
+        <v>0.03383313359009772</v>
       </c>
       <c r="G181" t="n">
-        <v>0.09825542976152239</v>
+        <v>0.193715125408087</v>
       </c>
       <c r="J181" t="n">
-        <v>0.09766227625911084</v>
+        <v>0.05879820457415087</v>
       </c>
       <c r="K181" t="n">
-        <v>0.0968572595722515</v>
+        <v>0.1963865336214123</v>
       </c>
       <c r="L181" t="n">
-        <v>0.1257040721954716</v>
+        <v>0.1058629671869979</v>
       </c>
       <c r="M181" t="n">
-        <v>0.09524202475744027</v>
+        <v>0.1957746877246284</v>
       </c>
       <c r="N181" t="n">
-        <v>0.05050585424703548</v>
+        <v>0.1521009984545124</v>
       </c>
       <c r="O181" t="n">
-        <v>0.09825542976152239</v>
+        <v>0.1960122977816319</v>
       </c>
     </row>
     <row r="182" ht="15" customHeight="1">
       <c r="F182" t="n">
-        <v>0.0497745188360018</v>
+        <v>0.03612336729837047</v>
       </c>
       <c r="G182" t="n">
-        <v>0.09910245932843206</v>
+        <v>0.195385083385743</v>
       </c>
       <c r="J182" t="n">
-        <v>0.09693582749251523</v>
+        <v>0.05924474897982814</v>
       </c>
       <c r="K182" t="n">
-        <v>0.09769223594787436</v>
+        <v>0.1980795209802176</v>
       </c>
       <c r="L182" t="n">
-        <v>0.1249122987105851</v>
+        <v>0.1068716498867819</v>
       </c>
       <c r="M182" t="n">
-        <v>0.09606307669500441</v>
+        <v>0.1974624005498407</v>
       </c>
       <c r="N182" t="n">
-        <v>0.0497745188360018</v>
+        <v>0.1529626870026926</v>
       </c>
       <c r="O182" t="n">
-        <v>0.09910245932843206</v>
+        <v>0.1977020589694046</v>
       </c>
     </row>
     <row r="183" ht="15" customHeight="1">
       <c r="F183" t="n">
-        <v>0.04925104387704747</v>
+        <v>0.03441271311680773</v>
       </c>
       <c r="G183" t="n">
-        <v>0.09994948889534172</v>
+        <v>0.1970550413633989</v>
       </c>
       <c r="J183" t="n">
-        <v>0.09680525048968275</v>
+        <v>0.06010885966235228</v>
       </c>
       <c r="K183" t="n">
-        <v>0.09852721232349722</v>
+        <v>0.1997725083390229</v>
       </c>
       <c r="L183" t="n">
-        <v>0.1232112066005216</v>
+        <v>0.1080038619120757</v>
       </c>
       <c r="M183" t="n">
-        <v>0.09688412863256855</v>
+        <v>0.1991501133750531</v>
       </c>
       <c r="N183" t="n">
-        <v>0.04925104387704747</v>
+        <v>0.1552627383671884</v>
       </c>
       <c r="O183" t="n">
-        <v>0.09994948889534172</v>
+        <v>0.1993918201571772</v>
       </c>
     </row>
     <row r="184" ht="15" customHeight="1">
       <c r="F184" t="n">
-        <v>0.04883671635768343</v>
+        <v>0.03669082417307599</v>
       </c>
       <c r="G184" t="n">
-        <v>0.1007965184622514</v>
+        <v>0.1987249993410548</v>
       </c>
       <c r="J184" t="n">
-        <v>0.09557350191388408</v>
+        <v>0.06017349497397244</v>
       </c>
       <c r="K184" t="n">
-        <v>0.09936218869912009</v>
+        <v>0.2014654956978282</v>
       </c>
       <c r="L184" t="n">
-        <v>0.1233001505443093</v>
+        <v>0.1085293496339169</v>
       </c>
       <c r="M184" t="n">
-        <v>0.09770518057013269</v>
+        <v>0.2008378262002654</v>
       </c>
       <c r="N184" t="n">
-        <v>0.04883671635768343</v>
+        <v>0.1558573691203202</v>
       </c>
       <c r="O184" t="n">
-        <v>0.1007965184622514</v>
+        <v>0.2010815813449499</v>
       </c>
     </row>
     <row r="185" ht="15" customHeight="1">
       <c r="F185" t="n">
-        <v>0.04853282326542067</v>
+        <v>0.03494735359484173</v>
       </c>
       <c r="G185" t="n">
-        <v>0.1016435480291611</v>
+        <v>0.2003949573187107</v>
       </c>
       <c r="J185" t="n">
-        <v>0.09454353842838964</v>
+        <v>0.06112161326693778</v>
       </c>
       <c r="K185" t="n">
-        <v>0.1001971650747429</v>
+        <v>0.2031584830566334</v>
       </c>
       <c r="L185" t="n">
-        <v>0.1221784852209766</v>
+        <v>0.1095178594233435</v>
       </c>
       <c r="M185" t="n">
-        <v>0.09852623250769683</v>
+        <v>0.2025255390254777</v>
       </c>
       <c r="N185" t="n">
-        <v>0.04853282326542067</v>
+        <v>0.1569027958344083</v>
       </c>
       <c r="O185" t="n">
-        <v>0.1016435480291611</v>
+        <v>0.2027713425327226</v>
       </c>
     </row>
     <row r="186" ht="15" customHeight="1">
       <c r="F186" t="n">
-        <v>0.04854065158777034</v>
+        <v>0.0381719545097714</v>
       </c>
       <c r="G186" t="n">
-        <v>0.1024905775960708</v>
+        <v>0.2020649152963666</v>
       </c>
       <c r="J186" t="n">
-        <v>0.09371831669647002</v>
+        <v>0.06093617289349744</v>
       </c>
       <c r="K186" t="n">
-        <v>0.1010321414503658</v>
+        <v>0.2048514704154387</v>
       </c>
       <c r="L186" t="n">
-        <v>0.1209455653095521</v>
+        <v>0.1099391376513932</v>
       </c>
       <c r="M186" t="n">
-        <v>0.09934728444526097</v>
+        <v>0.20421325185069</v>
       </c>
       <c r="N186" t="n">
-        <v>0.04854065158777034</v>
+        <v>0.1584552350817732</v>
       </c>
       <c r="O186" t="n">
-        <v>0.1024905775960708</v>
+        <v>0.2044611037204953</v>
       </c>
     </row>
     <row r="187" ht="15" customHeight="1">
       <c r="F187" t="n">
-        <v>0.04816148831224339</v>
+        <v>0.03735428004553147</v>
       </c>
       <c r="G187" t="n">
-        <v>0.1033376071629804</v>
+        <v>0.2037348732740226</v>
       </c>
       <c r="J187" t="n">
-        <v>0.0927007933813957</v>
+        <v>0.06180013220590051</v>
       </c>
       <c r="K187" t="n">
-        <v>0.1018671178259886</v>
+        <v>0.206544457774244</v>
       </c>
       <c r="L187" t="n">
-        <v>0.1211007454890641</v>
+        <v>0.1104629306891038</v>
       </c>
       <c r="M187" t="n">
-        <v>0.1001683363828251</v>
+        <v>0.2059009646759023</v>
       </c>
       <c r="N187" t="n">
-        <v>0.04816148831224339</v>
+        <v>0.1596709034347353</v>
       </c>
       <c r="O187" t="n">
-        <v>0.1033376071629804</v>
+        <v>0.206150864908268</v>
       </c>
     </row>
     <row r="188" ht="15" customHeight="1">
       <c r="F188" t="n">
-        <v>0.04779662042635081</v>
+        <v>0.03548434952947256</v>
       </c>
       <c r="G188" t="n">
-        <v>0.1041846367298901</v>
+        <v>0.2054048312516785</v>
       </c>
       <c r="J188" t="n">
-        <v>0.09159392514643716</v>
+        <v>0.06179644955639611</v>
       </c>
       <c r="K188" t="n">
-        <v>0.1027020942016115</v>
+        <v>0.2082374451330493</v>
       </c>
       <c r="L188" t="n">
-        <v>0.1194433804385412</v>
+        <v>0.1115589849075131</v>
       </c>
       <c r="M188" t="n">
-        <v>0.1009893883203893</v>
+        <v>0.2075886775011146</v>
       </c>
       <c r="N188" t="n">
-        <v>0.04779662042635081</v>
+        <v>0.1597060174656149</v>
       </c>
       <c r="O188" t="n">
-        <v>0.1041846367298901</v>
+        <v>0.2078406260960407</v>
       </c>
     </row>
     <row r="189" ht="15" customHeight="1">
       <c r="F189" t="n">
-        <v>0.04704733491760367</v>
+        <v>0.03858977825342534</v>
       </c>
       <c r="G189" t="n">
-        <v>0.1050316662967998</v>
+        <v>0.2070747892293344</v>
       </c>
       <c r="J189" t="n">
-        <v>0.09170066865486498</v>
+        <v>0.06200835833657388</v>
       </c>
       <c r="K189" t="n">
-        <v>0.1035370705772344</v>
+        <v>0.2099304324918545</v>
       </c>
       <c r="L189" t="n">
-        <v>0.1187728248370115</v>
+        <v>0.1110054648157315</v>
       </c>
       <c r="M189" t="n">
-        <v>0.1018104402579534</v>
+        <v>0.2092763903263269</v>
       </c>
       <c r="N189" t="n">
-        <v>0.04704733491760367</v>
+        <v>0.1598228168502226</v>
       </c>
       <c r="O189" t="n">
-        <v>0.1050316662967998</v>
+        <v>0.2095303872838134</v>
       </c>
     </row>
     <row r="190" ht="15" customHeight="1">
       <c r="F190" t="n">
-        <v>0.04661491877351297</v>
+        <v>0.0376928632373026</v>
       </c>
       <c r="G190" t="n">
-        <v>0.1058786958637095</v>
+        <v>0.2087447472069903</v>
       </c>
       <c r="J190" t="n">
-        <v>0.09092398056994949</v>
+        <v>0.06207741294660783</v>
       </c>
       <c r="K190" t="n">
-        <v>0.1043720469528572</v>
+        <v>0.2116234198506598</v>
       </c>
       <c r="L190" t="n">
-        <v>0.1192884333635037</v>
+        <v>0.1122058939810694</v>
       </c>
       <c r="M190" t="n">
-        <v>0.1026314921955175</v>
+        <v>0.2109641031515392</v>
       </c>
       <c r="N190" t="n">
-        <v>0.04661491877351297</v>
+        <v>0.1613574284987815</v>
       </c>
       <c r="O190" t="n">
-        <v>0.1058786958637095</v>
+        <v>0.2112201484715861</v>
       </c>
     </row>
     <row r="191" ht="15" customHeight="1">
       <c r="F191" t="n">
-        <v>0.04670065898158969</v>
+        <v>0.03679356640321405</v>
       </c>
       <c r="G191" t="n">
-        <v>0.1067257254306191</v>
+        <v>0.2104147051846463</v>
       </c>
       <c r="J191" t="n">
-        <v>0.08946681755496144</v>
+        <v>0.06264266111501153</v>
       </c>
       <c r="K191" t="n">
-        <v>0.1052070233284801</v>
+        <v>0.2133164072094651</v>
       </c>
       <c r="L191" t="n">
-        <v>0.1180895606970462</v>
+        <v>0.111499518794023</v>
       </c>
       <c r="M191" t="n">
-        <v>0.1034525441330817</v>
+        <v>0.2126518159767515</v>
       </c>
       <c r="N191" t="n">
-        <v>0.04670065898158969</v>
+        <v>0.1617822191951432</v>
       </c>
       <c r="O191" t="n">
-        <v>0.1067257254306191</v>
+        <v>0.2129099096593588</v>
       </c>
     </row>
     <row r="192" ht="15" customHeight="1">
       <c r="F192" t="n">
-        <v>0.04650584252934493</v>
+        <v>0.03889184967326935</v>
       </c>
       <c r="G192" t="n">
-        <v>0.1075727549975288</v>
+        <v>0.2120846631623022</v>
       </c>
       <c r="J192" t="n">
-        <v>0.08933194616520923</v>
+        <v>0.06260404012621516</v>
       </c>
       <c r="K192" t="n">
-        <v>0.1060419997041029</v>
+        <v>0.2150093945682704</v>
       </c>
       <c r="L192" t="n">
-        <v>0.1160755615166673</v>
+        <v>0.1125862279171438</v>
       </c>
       <c r="M192" t="n">
-        <v>0.1042735960706458</v>
+        <v>0.2143395288019639</v>
       </c>
       <c r="N192" t="n">
-        <v>0.04650584252934493</v>
+        <v>0.1621970278103694</v>
       </c>
       <c r="O192" t="n">
-        <v>0.1075727549975288</v>
+        <v>0.2145996708471315</v>
       </c>
     </row>
     <row r="193" ht="15" customHeight="1">
       <c r="F193" t="n">
-        <v>0.04613175640428964</v>
+        <v>0.03798767496957826</v>
       </c>
       <c r="G193" t="n">
-        <v>0.1084197845644385</v>
+        <v>0.2137546211399581</v>
       </c>
       <c r="J193" t="n">
-        <v>0.0878962713790627</v>
+        <v>0.06286148726464906</v>
       </c>
       <c r="K193" t="n">
-        <v>0.1068769760797258</v>
+        <v>0.2167023819270757</v>
       </c>
       <c r="L193" t="n">
-        <v>0.1160457905013954</v>
+        <v>0.1119659100129833</v>
       </c>
       <c r="M193" t="n">
-        <v>0.10509464800821</v>
+        <v>0.2160272416271762</v>
       </c>
       <c r="N193" t="n">
-        <v>0.04613175640428964</v>
+        <v>0.1616016932155215</v>
       </c>
       <c r="O193" t="n">
-        <v>0.1084197845644385</v>
+        <v>0.2162894320349041</v>
       </c>
     </row>
     <row r="194" ht="15" customHeight="1">
       <c r="F194" t="n">
-        <v>0.04577968759393487</v>
+        <v>0.03608100421425045</v>
       </c>
       <c r="G194" t="n">
-        <v>0.1092668141313482</v>
+        <v>0.215424579117614</v>
       </c>
       <c r="J194" t="n">
-        <v>0.08714351198288833</v>
+        <v>0.06321493981474342</v>
       </c>
       <c r="K194" t="n">
-        <v>0.1077119524553487</v>
+        <v>0.2183953692858809</v>
       </c>
       <c r="L194" t="n">
-        <v>0.1149996023302591</v>
+        <v>0.1133384537440932</v>
       </c>
       <c r="M194" t="n">
-        <v>0.1059156999457741</v>
+        <v>0.2177149544523885</v>
       </c>
       <c r="N194" t="n">
-        <v>0.04577968759393487</v>
+        <v>0.1627960542816612</v>
       </c>
       <c r="O194" t="n">
-        <v>0.1092668141313482</v>
+        <v>0.2179791932226768</v>
       </c>
     </row>
     <row r="195" ht="15" customHeight="1">
       <c r="F195" t="n">
-        <v>0.04525092308579169</v>
+        <v>0.03817179932939566</v>
       </c>
       <c r="G195" t="n">
-        <v>0.1101138436982578</v>
+        <v>0.2170945370952699</v>
       </c>
       <c r="J195" t="n">
-        <v>0.08647540006992727</v>
+        <v>0.06326433506092853</v>
       </c>
       <c r="K195" t="n">
-        <v>0.1085469288309715</v>
+        <v>0.2200883566446862</v>
       </c>
       <c r="L195" t="n">
-        <v>0.1138279501626521</v>
+        <v>0.1126037477730251</v>
       </c>
       <c r="M195" t="n">
-        <v>0.1067367518833382</v>
+        <v>0.2194026672776008</v>
       </c>
       <c r="N195" t="n">
-        <v>0.04525092308579169</v>
+        <v>0.1624799498798496</v>
       </c>
       <c r="O195" t="n">
-        <v>0.1101138436982578</v>
+        <v>0.2196689544104495</v>
       </c>
     </row>
     <row r="196" ht="15" customHeight="1">
       <c r="F196" t="n">
-        <v>0.04524674986737094</v>
+        <v>0.03926002223712358</v>
       </c>
       <c r="G196" t="n">
-        <v>0.1109608732651675</v>
+        <v>0.2187644950729259</v>
       </c>
       <c r="J196" t="n">
-        <v>0.08659366773342042</v>
+        <v>0.06350961028763462</v>
       </c>
       <c r="K196" t="n">
-        <v>0.1093819052065944</v>
+        <v>0.2217813440034915</v>
       </c>
       <c r="L196" t="n">
-        <v>0.114092975435903</v>
+        <v>0.1129616807623304</v>
       </c>
       <c r="M196" t="n">
-        <v>0.1075578038209024</v>
+        <v>0.2210903801028131</v>
       </c>
       <c r="N196" t="n">
-        <v>0.04524674986737094</v>
+        <v>0.1626532188811486</v>
       </c>
       <c r="O196" t="n">
-        <v>0.1109608732651675</v>
+        <v>0.2213587155982222</v>
       </c>
     </row>
     <row r="197" ht="15" customHeight="1">
       <c r="F197" t="n">
-        <v>0.04496845492618388</v>
+        <v>0.0383456348595439</v>
       </c>
       <c r="G197" t="n">
-        <v>0.1118079028320772</v>
+        <v>0.2204344530505818</v>
       </c>
       <c r="J197" t="n">
-        <v>0.08570004706660894</v>
+        <v>0.06365070277929193</v>
       </c>
       <c r="K197" t="n">
-        <v>0.1102168815822172</v>
+        <v>0.2234743313622968</v>
       </c>
       <c r="L197" t="n">
-        <v>0.1122964401541876</v>
+        <v>0.113812141374561</v>
       </c>
       <c r="M197" t="n">
-        <v>0.1083788557584665</v>
+        <v>0.2227780929280254</v>
       </c>
       <c r="N197" t="n">
-        <v>0.04496845492618388</v>
+        <v>0.1645157001566195</v>
       </c>
       <c r="O197" t="n">
-        <v>0.1118079028320772</v>
+        <v>0.2230484767859949</v>
       </c>
     </row>
     <row r="198" ht="15" customHeight="1">
       <c r="F198" t="n">
-        <v>0.0451144976744897</v>
+        <v>0.03842859911876632</v>
       </c>
       <c r="G198" t="n">
-        <v>0.1126549323989869</v>
+        <v>0.2221044110282377</v>
       </c>
       <c r="J198" t="n">
-        <v>0.08449627016273364</v>
+        <v>0.06358754982033075</v>
       </c>
       <c r="K198" t="n">
-        <v>0.1110518579578401</v>
+        <v>0.225167318721102</v>
       </c>
       <c r="L198" t="n">
-        <v>0.1110456800704789</v>
+        <v>0.1140550182722682</v>
       </c>
       <c r="M198" t="n">
-        <v>0.1091999076960306</v>
+        <v>0.2244658057532377</v>
       </c>
       <c r="N198" t="n">
-        <v>0.0451144976744897</v>
+        <v>0.1642672325773238</v>
       </c>
       <c r="O198" t="n">
-        <v>0.1126549323989869</v>
+        <v>0.2247382379737676</v>
       </c>
     </row>
     <row r="199" ht="15" customHeight="1">
       <c r="F199" t="n">
-        <v>0.0449725163218873</v>
+        <v>0.03850887693690057</v>
       </c>
       <c r="G199" t="n">
-        <v>0.1135019619658965</v>
+        <v>0.2237743690058936</v>
       </c>
       <c r="J199" t="n">
-        <v>0.08418406911503568</v>
+        <v>0.0639200886951813</v>
       </c>
       <c r="K199" t="n">
-        <v>0.1118868343334629</v>
+        <v>0.2268603060799073</v>
       </c>
       <c r="L199" t="n">
-        <v>0.1101480309377497</v>
+        <v>0.1144902001180038</v>
       </c>
       <c r="M199" t="n">
-        <v>0.1100209596335948</v>
+        <v>0.2261535185784501</v>
       </c>
       <c r="N199" t="n">
-        <v>0.0449725163218873</v>
+        <v>0.164807655014323</v>
       </c>
       <c r="O199" t="n">
-        <v>0.1135019619658965</v>
+        <v>0.2264279991615403</v>
       </c>
     </row>
     <row r="200" ht="15" customHeight="1">
       <c r="F200" t="n">
-        <v>0.04494018088836292</v>
+        <v>0.03958643023605633</v>
       </c>
       <c r="G200" t="n">
-        <v>0.1143489915328062</v>
+        <v>0.2254443269835496</v>
       </c>
       <c r="J200" t="n">
-        <v>0.08236517601675591</v>
+        <v>0.06354825668827384</v>
       </c>
       <c r="K200" t="n">
-        <v>0.1127218107090858</v>
+        <v>0.2285532934387126</v>
       </c>
       <c r="L200" t="n">
-        <v>0.1083108285089729</v>
+        <v>0.1146175755743191</v>
       </c>
       <c r="M200" t="n">
-        <v>0.1108420115711589</v>
+        <v>0.2278412314036624</v>
       </c>
       <c r="N200" t="n">
-        <v>0.04494018088836292</v>
+        <v>0.1651368063386786</v>
       </c>
       <c r="O200" t="n">
-        <v>0.1143489915328062</v>
+        <v>0.2281177603493129</v>
       </c>
     </row>
     <row r="201" ht="15" customHeight="1">
       <c r="F201" t="n">
-        <v>0.04471665231581613</v>
+        <v>0.03966122093834334</v>
       </c>
       <c r="G201" t="n">
-        <v>0.1151960210997159</v>
+        <v>0.2271142849612055</v>
       </c>
       <c r="J201" t="n">
-        <v>0.08174132296113557</v>
+        <v>0.06387199108403864</v>
       </c>
       <c r="K201" t="n">
-        <v>0.1135567870847086</v>
+        <v>0.2302462807975179</v>
       </c>
       <c r="L201" t="n">
-        <v>0.1086414085371215</v>
+        <v>0.115037033303766</v>
       </c>
       <c r="M201" t="n">
-        <v>0.1116630635087231</v>
+        <v>0.2295289442288747</v>
       </c>
       <c r="N201" t="n">
-        <v>0.04471665231581613</v>
+        <v>0.1654545254214521</v>
       </c>
       <c r="O201" t="n">
-        <v>0.1151960210997159</v>
+        <v>0.2298075215370857</v>
       </c>
     </row>
     <row r="202" ht="15" customHeight="1">
       <c r="F202" t="n">
-        <v>0.04440109154614678</v>
+        <v>0.04073321096587126</v>
       </c>
       <c r="G202" t="n">
-        <v>0.1160430506666256</v>
+        <v>0.2287842429388614</v>
       </c>
       <c r="J202" t="n">
-        <v>0.0810142420414155</v>
+        <v>0.06419122916690594</v>
       </c>
       <c r="K202" t="n">
-        <v>0.1143917634603315</v>
+        <v>0.2319392681563232</v>
       </c>
       <c r="L202" t="n">
-        <v>0.107147106775168</v>
+        <v>0.114948461968896</v>
       </c>
       <c r="M202" t="n">
-        <v>0.1124841154462872</v>
+        <v>0.231216657054087</v>
       </c>
       <c r="N202" t="n">
-        <v>0.04440109154614678</v>
+        <v>0.1651606511337051</v>
       </c>
       <c r="O202" t="n">
-        <v>0.1160430506666256</v>
+        <v>0.2314972827248583</v>
       </c>
     </row>
     <row r="203" ht="15" customHeight="1">
       <c r="F203" t="n">
-        <v>0.0442926595212544</v>
+        <v>0.03780236224074984</v>
       </c>
       <c r="G203" t="n">
-        <v>0.1168900802335353</v>
+        <v>0.2304542009165173</v>
       </c>
       <c r="J203" t="n">
-        <v>0.0803856653508368</v>
+        <v>0.06390590822130597</v>
       </c>
       <c r="K203" t="n">
-        <v>0.1152267398359544</v>
+        <v>0.2336322555151285</v>
       </c>
       <c r="L203" t="n">
-        <v>0.1047352589760856</v>
+        <v>0.1154517502322607</v>
       </c>
       <c r="M203" t="n">
-        <v>0.1133051673838514</v>
+        <v>0.2329043698792993</v>
       </c>
       <c r="N203" t="n">
-        <v>0.0442926595212544</v>
+        <v>0.166355022346499</v>
       </c>
       <c r="O203" t="n">
-        <v>0.1168900802335353</v>
+        <v>0.233187043912631</v>
       </c>
     </row>
     <row r="204" ht="15" customHeight="1">
       <c r="F204" t="n">
-        <v>0.04439051718303878</v>
+        <v>0.03886863668508873</v>
       </c>
       <c r="G204" t="n">
-        <v>0.1177371098004449</v>
+        <v>0.2321241588941732</v>
       </c>
       <c r="J204" t="n">
-        <v>0.0790573249826404</v>
+        <v>0.06431596553166898</v>
       </c>
       <c r="K204" t="n">
-        <v>0.1160617162115772</v>
+        <v>0.2353252428739337</v>
       </c>
       <c r="L204" t="n">
-        <v>0.104213200892847</v>
+        <v>0.1149467867564116</v>
       </c>
       <c r="M204" t="n">
-        <v>0.1141262193214155</v>
+        <v>0.2345920827045116</v>
       </c>
       <c r="N204" t="n">
-        <v>0.04439051718303878</v>
+        <v>0.1660374779308952</v>
       </c>
       <c r="O204" t="n">
-        <v>0.1177371098004449</v>
+        <v>0.2348768051004037</v>
       </c>
     </row>
     <row r="205" ht="15" customHeight="1">
       <c r="F205" t="n">
-        <v>0.04389382547339961</v>
+        <v>0.03993199622099769</v>
       </c>
       <c r="G205" t="n">
-        <v>0.1185841393673546</v>
+        <v>0.2337941168718292</v>
       </c>
       <c r="J205" t="n">
-        <v>0.0781309530300674</v>
+        <v>0.06442133838242527</v>
       </c>
       <c r="K205" t="n">
-        <v>0.1168966925872001</v>
+        <v>0.237018230232739</v>
       </c>
       <c r="L205" t="n">
-        <v>0.1037882682784252</v>
+        <v>0.1153334602039002</v>
       </c>
       <c r="M205" t="n">
-        <v>0.1149472712589796</v>
+        <v>0.2362797955297239</v>
       </c>
       <c r="N205" t="n">
-        <v>0.04389382547339961</v>
+        <v>0.1660078567579553</v>
       </c>
       <c r="O205" t="n">
-        <v>0.1185841393673546</v>
+        <v>0.2365665662881764</v>
       </c>
     </row>
     <row r="206" ht="15" customHeight="1">
       <c r="F206" t="n">
-        <v>0.04430174533423652</v>
+        <v>0.0399924027705864</v>
       </c>
       <c r="G206" t="n">
-        <v>0.1194311689342643</v>
+        <v>0.2354640748494851</v>
       </c>
       <c r="J206" t="n">
-        <v>0.0775082815863587</v>
+        <v>0.06462196405800506</v>
       </c>
       <c r="K206" t="n">
-        <v>0.1177316689628229</v>
+        <v>0.2387112175915443</v>
       </c>
       <c r="L206" t="n">
-        <v>0.101667796885793</v>
+        <v>0.1153116592372784</v>
       </c>
       <c r="M206" t="n">
-        <v>0.1157683231965438</v>
+        <v>0.2379675083549363</v>
       </c>
       <c r="N206" t="n">
-        <v>0.04430174533423652</v>
+        <v>0.1668659976987408</v>
       </c>
       <c r="O206" t="n">
-        <v>0.1194311689342643</v>
+        <v>0.2382563274759491</v>
       </c>
     </row>
     <row r="207" ht="15" customHeight="1">
       <c r="F207" t="n">
-        <v>0.04421343770744925</v>
+        <v>0.04104981825596457</v>
       </c>
       <c r="G207" t="n">
-        <v>0.120278198501174</v>
+        <v>0.237134032827141</v>
       </c>
       <c r="J207" t="n">
-        <v>0.07719104274475547</v>
+        <v>0.06471777984283862</v>
       </c>
       <c r="K207" t="n">
-        <v>0.1185666453384458</v>
+        <v>0.2404042049503495</v>
       </c>
       <c r="L207" t="n">
-        <v>0.09995912246792316</v>
+        <v>0.1161812725190975</v>
       </c>
       <c r="M207" t="n">
-        <v>0.1165893751341079</v>
+        <v>0.2396552211801486</v>
       </c>
       <c r="N207" t="n">
-        <v>0.04421343770744925</v>
+        <v>0.1664117396243133</v>
       </c>
       <c r="O207" t="n">
-        <v>0.120278198501174</v>
+        <v>0.2399460886637218</v>
       </c>
     </row>
     <row r="208" ht="15" customHeight="1">
       <c r="F208" t="n">
-        <v>0.04382806353493741</v>
+        <v>0.04110420459924188</v>
       </c>
       <c r="G208" t="n">
-        <v>0.1211252280680836</v>
+        <v>0.238803990804797</v>
       </c>
       <c r="J208" t="n">
-        <v>0.07648096859849857</v>
+        <v>0.06490872302135615</v>
       </c>
       <c r="K208" t="n">
-        <v>0.1194016217140687</v>
+        <v>0.2420971923091548</v>
       </c>
       <c r="L208" t="n">
-        <v>0.09916958077778881</v>
+        <v>0.1160421887119091</v>
       </c>
       <c r="M208" t="n">
-        <v>0.1174104270716721</v>
+        <v>0.2413429340053609</v>
       </c>
       <c r="N208" t="n">
-        <v>0.04382806353493741</v>
+        <v>0.1677449214057341</v>
       </c>
       <c r="O208" t="n">
-        <v>0.1211252280680836</v>
+        <v>0.2416358498514945</v>
       </c>
     </row>
     <row r="209" ht="15" customHeight="1">
       <c r="F209" t="n">
-        <v>0.04354478375860081</v>
+        <v>0.04115552372252806</v>
       </c>
       <c r="G209" t="n">
-        <v>0.1219722576349933</v>
+        <v>0.2404739487824529</v>
       </c>
       <c r="J209" t="n">
-        <v>0.0749797912408291</v>
+        <v>0.06469473087798795</v>
       </c>
       <c r="K209" t="n">
-        <v>0.1202365980896915</v>
+        <v>0.2437901796679601</v>
       </c>
       <c r="L209" t="n">
-        <v>0.09900650756836249</v>
+        <v>0.1160942964782651</v>
       </c>
       <c r="M209" t="n">
-        <v>0.1182314790092362</v>
+        <v>0.2430306468305732</v>
       </c>
       <c r="N209" t="n">
-        <v>0.04354478375860081</v>
+        <v>0.1666653819140647</v>
       </c>
       <c r="O209" t="n">
-        <v>0.1219722576349933</v>
+        <v>0.2433256110392672</v>
       </c>
     </row>
     <row r="210" ht="15" customHeight="1">
       <c r="F210" t="n">
-        <v>0.04386275932033902</v>
+        <v>0.04020373754793281</v>
       </c>
       <c r="G210" t="n">
-        <v>0.122819287201903</v>
+        <v>0.2421439067601088</v>
       </c>
       <c r="J210" t="n">
-        <v>0.07518924276498806</v>
+        <v>0.06487574069716424</v>
       </c>
       <c r="K210" t="n">
-        <v>0.1210715744653144</v>
+        <v>0.2454831670267654</v>
       </c>
       <c r="L210" t="n">
-        <v>0.09667723859261723</v>
+        <v>0.1163374844807167</v>
       </c>
       <c r="M210" t="n">
-        <v>0.1190525309468003</v>
+        <v>0.2447183596557855</v>
       </c>
       <c r="N210" t="n">
-        <v>0.04386275932033902</v>
+        <v>0.1674729600203669</v>
       </c>
       <c r="O210" t="n">
-        <v>0.122819287201903</v>
+        <v>0.2450153722270398</v>
       </c>
     </row>
     <row r="211" ht="15" customHeight="1">
       <c r="F211" t="n">
-        <v>0.0439811511620518</v>
+        <v>0.03924880799756585</v>
       </c>
       <c r="G211" t="n">
-        <v>0.1236663167688127</v>
+        <v>0.2438138647377647</v>
       </c>
       <c r="J211" t="n">
-        <v>0.07371105526421645</v>
+        <v>0.06475168976331534</v>
       </c>
       <c r="K211" t="n">
-        <v>0.1219065508409372</v>
+        <v>0.2471761543855707</v>
       </c>
       <c r="L211" t="n">
-        <v>0.09638910960352592</v>
+        <v>0.1157716413818158</v>
       </c>
       <c r="M211" t="n">
-        <v>0.1198735828843645</v>
+        <v>0.2464060724809978</v>
       </c>
       <c r="N211" t="n">
-        <v>0.0439811511620518</v>
+        <v>0.1670674945957017</v>
       </c>
       <c r="O211" t="n">
-        <v>0.1236663167688127</v>
+        <v>0.2467051334148126</v>
       </c>
     </row>
     <row r="212" ht="15" customHeight="1">
       <c r="F212" t="n">
-        <v>0.0434991202256388</v>
+        <v>0.04029069699353685</v>
       </c>
       <c r="G212" t="n">
-        <v>0.1245133463357223</v>
+        <v>0.2454838227154206</v>
       </c>
       <c r="J212" t="n">
-        <v>0.07344696083175523</v>
+        <v>0.06492251536087144</v>
       </c>
       <c r="K212" t="n">
-        <v>0.1227415272165601</v>
+        <v>0.248869141744376</v>
       </c>
       <c r="L212" t="n">
-        <v>0.0953494563540615</v>
+        <v>0.1162966558441138</v>
       </c>
       <c r="M212" t="n">
-        <v>0.1206946348219286</v>
+        <v>0.2480937853062101</v>
       </c>
       <c r="N212" t="n">
-        <v>0.0434991202256388</v>
+        <v>0.167148824511131</v>
       </c>
       <c r="O212" t="n">
-        <v>0.1245133463357223</v>
+        <v>0.2483948946025852</v>
       </c>
     </row>
     <row r="213" ht="15" customHeight="1">
       <c r="F213" t="n">
-        <v>0.04371582745299978</v>
+        <v>0.04132936645795554</v>
       </c>
       <c r="G213" t="n">
-        <v>0.125360375902632</v>
+        <v>0.2471537806930766</v>
       </c>
       <c r="J213" t="n">
-        <v>0.07259869156084547</v>
+        <v>0.06488815477426275</v>
       </c>
       <c r="K213" t="n">
-        <v>0.1235765035921829</v>
+        <v>0.2505621291031812</v>
       </c>
       <c r="L213" t="n">
-        <v>0.09356561459719664</v>
+        <v>0.1162124165301622</v>
       </c>
       <c r="M213" t="n">
-        <v>0.1215156867594928</v>
+        <v>0.2497814981314224</v>
       </c>
       <c r="N213" t="n">
-        <v>0.04371582745299978</v>
+        <v>0.1685167886377161</v>
       </c>
       <c r="O213" t="n">
-        <v>0.125360375902632</v>
+        <v>0.2500846557903579</v>
       </c>
     </row>
     <row r="214" ht="15" customHeight="1">
       <c r="F214" t="n">
-        <v>0.04353043378603431</v>
+        <v>0.03936477831293161</v>
       </c>
       <c r="G214" t="n">
-        <v>0.1262074054695417</v>
+        <v>0.2488237386707325</v>
       </c>
       <c r="J214" t="n">
-        <v>0.07186797954472812</v>
+        <v>0.06494854528791964</v>
       </c>
       <c r="K214" t="n">
-        <v>0.1244114799678058</v>
+        <v>0.2522551164619865</v>
       </c>
       <c r="L214" t="n">
-        <v>0.09384492008590434</v>
+        <v>0.1160188121025129</v>
       </c>
       <c r="M214" t="n">
-        <v>0.1223367386970569</v>
+        <v>0.2514692109566348</v>
       </c>
       <c r="N214" t="n">
-        <v>0.04353043378603431</v>
+        <v>0.1683712258465186</v>
       </c>
       <c r="O214" t="n">
-        <v>0.1262074054695417</v>
+        <v>0.2517744169781306</v>
       </c>
     </row>
     <row r="215" ht="15" customHeight="1">
       <c r="F215" t="n">
-        <v>0.04324210016664216</v>
+        <v>0.03839689448057479</v>
       </c>
       <c r="G215" t="n">
-        <v>0.1270544350364513</v>
+        <v>0.2504936966483884</v>
       </c>
       <c r="J215" t="n">
-        <v>0.07095655687664437</v>
+        <v>0.06480362418627232</v>
       </c>
       <c r="K215" t="n">
-        <v>0.1252464563434287</v>
+        <v>0.2539481038207918</v>
       </c>
       <c r="L215" t="n">
-        <v>0.09169470857315742</v>
+        <v>0.1165157312237173</v>
       </c>
       <c r="M215" t="n">
-        <v>0.123157790634621</v>
+        <v>0.2531569237818471</v>
       </c>
       <c r="N215" t="n">
-        <v>0.04324210016664216</v>
+        <v>0.1674119750086001</v>
       </c>
       <c r="O215" t="n">
-        <v>0.1270544350364513</v>
+        <v>0.2534641781659033</v>
       </c>
     </row>
     <row r="216" ht="15" customHeight="1">
       <c r="F216" t="n">
-        <v>0.043549987536723</v>
+        <v>0.03842567688299474</v>
       </c>
       <c r="G216" t="n">
-        <v>0.127901464603361</v>
+        <v>0.2521636546260443</v>
       </c>
       <c r="J216" t="n">
-        <v>0.06966615564983497</v>
+        <v>0.06485332875375098</v>
       </c>
       <c r="K216" t="n">
-        <v>0.1260814327190515</v>
+        <v>0.2556410911795971</v>
       </c>
       <c r="L216" t="n">
-        <v>0.09162231581192881</v>
+        <v>0.1170030625563269</v>
       </c>
       <c r="M216" t="n">
-        <v>0.1239788425721852</v>
+        <v>0.2548446366070594</v>
       </c>
       <c r="N216" t="n">
-        <v>0.043549987536723</v>
+        <v>0.1676388749950217</v>
       </c>
       <c r="O216" t="n">
-        <v>0.127901464603361</v>
+        <v>0.255153939353676</v>
       </c>
     </row>
     <row r="217" ht="15" customHeight="1">
       <c r="F217" t="n">
-        <v>0.04345325683817648</v>
+        <v>0.0384510874423012</v>
       </c>
       <c r="G217" t="n">
-        <v>0.1287484941702707</v>
+        <v>0.2538336126037002</v>
       </c>
       <c r="J217" t="n">
-        <v>0.06939850795754116</v>
+        <v>0.06509759627478588</v>
       </c>
       <c r="K217" t="n">
-        <v>0.1269164090946744</v>
+        <v>0.2573340785384023</v>
       </c>
       <c r="L217" t="n">
-        <v>0.09031362821754929</v>
+        <v>0.1169806947628935</v>
       </c>
       <c r="M217" t="n">
-        <v>0.1247998945097493</v>
+        <v>0.2565323494322717</v>
       </c>
       <c r="N217" t="n">
-        <v>0.04345325683817648</v>
+        <v>0.1689517646768452</v>
       </c>
       <c r="O217" t="n">
-        <v>0.1287484941702707</v>
+        <v>0.2568437005414487</v>
       </c>
     </row>
     <row r="218" ht="15" customHeight="1">
       <c r="F218" t="n">
-        <v>0.04305106901290238</v>
+        <v>0.03747308808060389</v>
       </c>
       <c r="G218" t="n">
-        <v>0.1295955237371804</v>
+        <v>0.2555035705813562</v>
       </c>
       <c r="J218" t="n">
-        <v>0.06855534589300383</v>
+        <v>0.06493636403380736</v>
       </c>
       <c r="K218" t="n">
-        <v>0.1277513854702972</v>
+        <v>0.2590270658972076</v>
       </c>
       <c r="L218" t="n">
-        <v>0.0907103958038929</v>
+        <v>0.1165485165059684</v>
       </c>
       <c r="M218" t="n">
-        <v>0.1256209464473134</v>
+        <v>0.258220062257484</v>
       </c>
       <c r="N218" t="n">
-        <v>0.04305106901290238</v>
+        <v>0.1678504829251321</v>
       </c>
       <c r="O218" t="n">
-        <v>0.1295955237371804</v>
+        <v>0.2585334617292214</v>
       </c>
     </row>
     <row r="219" ht="15" customHeight="1">
       <c r="F219" t="n">
-        <v>0.04314258500280031</v>
+        <v>0.04049164072001248</v>
       </c>
       <c r="G219" t="n">
-        <v>0.13044255330409</v>
+        <v>0.2571735285590121</v>
       </c>
       <c r="J219" t="n">
-        <v>0.06783840154946397</v>
+        <v>0.06546956931524563</v>
       </c>
       <c r="K219" t="n">
-        <v>0.1285863618459201</v>
+        <v>0.2607200532560129</v>
       </c>
       <c r="L219" t="n">
-        <v>0.08880924981989835</v>
+        <v>0.1175064164481035</v>
       </c>
       <c r="M219" t="n">
-        <v>0.1264419983848776</v>
+        <v>0.2599077750826964</v>
       </c>
       <c r="N219" t="n">
-        <v>0.04314258500280031</v>
+        <v>0.1689348686109439</v>
       </c>
       <c r="O219" t="n">
-        <v>0.13044255330409</v>
+        <v>0.2602232229169941</v>
       </c>
     </row>
     <row r="220" ht="15" customHeight="1">
       <c r="F220" t="n">
-        <v>0.04272696574976999</v>
+        <v>0.03850670728263668</v>
       </c>
       <c r="G220" t="n">
-        <v>0.1312895828709997</v>
+        <v>0.258843486536668</v>
       </c>
       <c r="J220" t="n">
-        <v>0.06714940702016275</v>
+        <v>0.06499714940353089</v>
       </c>
       <c r="K220" t="n">
-        <v>0.1294213382215429</v>
+        <v>0.2624130406148182</v>
       </c>
       <c r="L220" t="n">
-        <v>0.08811068142176465</v>
+        <v>0.1166542832518502</v>
       </c>
       <c r="M220" t="n">
-        <v>0.1272630503224417</v>
+        <v>0.2615954879079087</v>
       </c>
       <c r="N220" t="n">
-        <v>0.04272696574976999</v>
+        <v>0.1682047606053418</v>
       </c>
       <c r="O220" t="n">
-        <v>0.1312895828709997</v>
+        <v>0.2619129841047667</v>
       </c>
     </row>
     <row r="221" ht="15" customHeight="1">
       <c r="F221" t="n">
-        <v>0.04240337219571107</v>
+        <v>0.03951824969058619</v>
       </c>
       <c r="G221" t="n">
-        <v>0.1321366124379094</v>
+        <v>0.260513444514324</v>
       </c>
       <c r="J221" t="n">
-        <v>0.06679009439834094</v>
+        <v>0.06501904158309345</v>
       </c>
       <c r="K221" t="n">
-        <v>0.1302563145971658</v>
+        <v>0.2641060279736235</v>
       </c>
       <c r="L221" t="n">
-        <v>0.08731518176569064</v>
+        <v>0.1165920055797602</v>
       </c>
       <c r="M221" t="n">
-        <v>0.1280841022600059</v>
+        <v>0.263283200733121</v>
       </c>
       <c r="N221" t="n">
-        <v>0.04240337219571107</v>
+        <v>0.1684599977793877</v>
       </c>
       <c r="O221" t="n">
-        <v>0.1321366124379094</v>
+        <v>0.2636027452925395</v>
       </c>
     </row>
     <row r="222" ht="15" customHeight="1">
       <c r="F222" t="n">
-        <v>0.04247096528252327</v>
+        <v>0.03952622986597074</v>
       </c>
       <c r="G222" t="n">
-        <v>0.1329836420048191</v>
+        <v>0.2621834024919799</v>
       </c>
       <c r="J222" t="n">
-        <v>0.06696219577723977</v>
+        <v>0.06563518313836346</v>
       </c>
       <c r="K222" t="n">
-        <v>0.1310912909727887</v>
+        <v>0.2657990153324287</v>
       </c>
       <c r="L222" t="n">
-        <v>0.0866232420078753</v>
+        <v>0.116519472094385</v>
       </c>
       <c r="M222" t="n">
-        <v>0.12890515419757</v>
+        <v>0.2649709135583333</v>
       </c>
       <c r="N222" t="n">
-        <v>0.04247096528252327</v>
+        <v>0.1693004190041429</v>
       </c>
       <c r="O222" t="n">
-        <v>0.1329836420048191</v>
+        <v>0.2652925064803121</v>
       </c>
     </row>
     <row r="223" ht="15" customHeight="1">
       <c r="F223" t="n">
-        <v>0.04253143331363286</v>
+        <v>0.0375306097309</v>
       </c>
       <c r="G223" t="n">
-        <v>0.1338306715717288</v>
+        <v>0.2638533604696358</v>
       </c>
       <c r="J223" t="n">
-        <v>0.06576716954753076</v>
+        <v>0.06534551135377133</v>
       </c>
       <c r="K223" t="n">
-        <v>0.1319262673484115</v>
+        <v>0.267492002691234</v>
       </c>
       <c r="L223" t="n">
-        <v>0.08623535330451748</v>
+        <v>0.1171365714582762</v>
       </c>
       <c r="M223" t="n">
-        <v>0.1297262061351342</v>
+        <v>0.2666586263835456</v>
       </c>
       <c r="N223" t="n">
-        <v>0.04253143331363286</v>
+        <v>0.1688258631506689</v>
       </c>
       <c r="O223" t="n">
-        <v>0.1338306715717288</v>
+        <v>0.2669822676680848</v>
       </c>
     </row>
     <row r="224" ht="15" customHeight="1">
       <c r="F224" t="n">
-        <v>0.04258711162424249</v>
+        <v>0.04052644788504228</v>
       </c>
       <c r="G224" t="n">
-        <v>0.1346777011386384</v>
+        <v>0.2655233184472917</v>
       </c>
       <c r="J224" t="n">
-        <v>0.06528646492190288</v>
+        <v>0.06524996351374722</v>
       </c>
       <c r="K224" t="n">
-        <v>0.1327612437240344</v>
+        <v>0.2691849900500393</v>
       </c>
       <c r="L224" t="n">
-        <v>0.08675200681181611</v>
+        <v>0.1167431923339854</v>
       </c>
       <c r="M224" t="n">
-        <v>0.1305472580726983</v>
+        <v>0.2683463392087579</v>
       </c>
       <c r="N224" t="n">
-        <v>0.04258711162424249</v>
+        <v>0.1686361690900273</v>
       </c>
       <c r="O224" t="n">
-        <v>0.1346777011386384</v>
+        <v>0.2686720288558575</v>
       </c>
     </row>
     <row r="225" ht="15" customHeight="1">
       <c r="F225" t="n">
-        <v>0.04223803972443334</v>
+        <v>0.03843826910861542</v>
       </c>
       <c r="G225" t="n">
-        <v>0.1355247307055481</v>
+        <v>0.2671932764249476</v>
       </c>
       <c r="J225" t="n">
-        <v>0.06530822766413724</v>
+        <v>0.06559867993776348</v>
       </c>
       <c r="K225" t="n">
-        <v>0.1335962200996572</v>
+        <v>0.2708779774088446</v>
       </c>
       <c r="L225" t="n">
-        <v>0.08457369368596995</v>
+        <v>0.1172192228798884</v>
       </c>
       <c r="M225" t="n">
-        <v>0.1313683100102624</v>
+        <v>0.2700340520339702</v>
       </c>
       <c r="N225" t="n">
-        <v>0.04223803972443334</v>
+        <v>0.1678761229316927</v>
       </c>
       <c r="O225" t="n">
-        <v>0.1355247307055481</v>
+        <v>0.2703617900436302</v>
       </c>
     </row>
     <row r="226" ht="15" customHeight="1">
       <c r="F226" t="n">
-        <v>0.0417842570257284</v>
+        <v>0.03824950416853418</v>
       </c>
       <c r="G226" t="n">
-        <v>0.1363717602724578</v>
+        <v>0.2688632344026035</v>
       </c>
       <c r="J226" t="n">
-        <v>0.06423277932226573</v>
+        <v>0.06527941360821939</v>
       </c>
       <c r="K226" t="n">
-        <v>0.1344311964752801</v>
+        <v>0.2725709647676499</v>
       </c>
       <c r="L226" t="n">
-        <v>0.08440090508317805</v>
+        <v>0.1163926266716471</v>
       </c>
       <c r="M226" t="n">
-        <v>0.1321893619478266</v>
+        <v>0.2717217648591825</v>
       </c>
       <c r="N226" t="n">
-        <v>0.0417842570257284</v>
+        <v>0.1681797250438238</v>
       </c>
       <c r="O226" t="n">
-        <v>0.1363717602724578</v>
+        <v>0.2720515512314028</v>
       </c>
     </row>
     <row r="227" ht="15" customHeight="1">
       <c r="F227" t="n">
-        <v>0.04202580293965068</v>
+        <v>0.03997202359511801</v>
       </c>
       <c r="G227" t="n">
-        <v>0.1372187898393674</v>
+        <v>0.2705331923802595</v>
       </c>
       <c r="J227" t="n">
-        <v>0.06466044144432065</v>
+        <v>0.06450591112088595</v>
       </c>
       <c r="K227" t="n">
-        <v>0.1352661728509029</v>
+        <v>0.2742639521264552</v>
       </c>
       <c r="L227" t="n">
-        <v>0.08463413215963933</v>
+        <v>0.1163954849725384</v>
       </c>
       <c r="M227" t="n">
-        <v>0.1330104138853907</v>
+        <v>0.2734094776843948</v>
       </c>
       <c r="N227" t="n">
-        <v>0.04202580293965068</v>
+        <v>0.1662899511356961</v>
       </c>
       <c r="O227" t="n">
-        <v>0.1372187898393674</v>
+        <v>0.2737413124191755</v>
       </c>
     </row>
     <row r="228" ht="15" customHeight="1">
       <c r="F228" t="n">
-        <v>0.04146271687772306</v>
+        <v>0.0386176979186863</v>
       </c>
       <c r="G228" t="n">
-        <v>0.1380658194062771</v>
+        <v>0.2722031503579154</v>
       </c>
       <c r="J228" t="n">
-        <v>0.06379153557833406</v>
+        <v>0.06419772363961244</v>
       </c>
       <c r="K228" t="n">
-        <v>0.1361011492265258</v>
+        <v>0.2759569394852604</v>
       </c>
       <c r="L228" t="n">
-        <v>0.08407386607155259</v>
+        <v>0.11456250649533</v>
       </c>
       <c r="M228" t="n">
-        <v>0.1338314658229549</v>
+        <v>0.2750971905096072</v>
       </c>
       <c r="N228" t="n">
-        <v>0.04146271687772306</v>
+        <v>0.1657570320876188</v>
       </c>
       <c r="O228" t="n">
-        <v>0.1380658194062771</v>
+        <v>0.2754310736069482</v>
       </c>
     </row>
     <row r="229" ht="15" customHeight="1">
       <c r="F229" t="n">
-        <v>0.04139503825146855</v>
+        <v>0.0361983976695585</v>
       </c>
       <c r="G229" t="n">
-        <v>0.1389128489731868</v>
+        <v>0.2738731083355713</v>
       </c>
       <c r="J229" t="n">
-        <v>0.06352638327233817</v>
+        <v>0.06347440232824798</v>
       </c>
       <c r="K229" t="n">
-        <v>0.1369361256021487</v>
+        <v>0.2776499268440657</v>
       </c>
       <c r="L229" t="n">
-        <v>0.08322059797511677</v>
+        <v>0.1137283999527895</v>
       </c>
       <c r="M229" t="n">
-        <v>0.134652517760519</v>
+        <v>0.2767849033348195</v>
       </c>
       <c r="N229" t="n">
-        <v>0.04139503825146855</v>
+        <v>0.163731198779901</v>
       </c>
       <c r="O229" t="n">
-        <v>0.1389128489731868</v>
+        <v>0.2771208347947209</v>
       </c>
     </row>
     <row r="230" ht="15" customHeight="1">
       <c r="F230" t="n">
-        <v>0.04102280647241018</v>
+        <v>0.03972599337805399</v>
       </c>
       <c r="G230" t="n">
-        <v>0.1397598785400965</v>
+        <v>0.2755430663132272</v>
       </c>
       <c r="J230" t="n">
-        <v>0.06336530607436508</v>
+        <v>0.06295549835064186</v>
       </c>
       <c r="K230" t="n">
-        <v>0.1377711019777715</v>
+        <v>0.2793429142028709</v>
       </c>
       <c r="L230" t="n">
-        <v>0.08277481902653083</v>
+        <v>0.1124278740576848</v>
       </c>
       <c r="M230" t="n">
-        <v>0.1354735696980832</v>
+        <v>0.2784726161600318</v>
       </c>
       <c r="N230" t="n">
-        <v>0.04102280647241018</v>
+        <v>0.1627626820928518</v>
       </c>
       <c r="O230" t="n">
-        <v>0.1397598785400965</v>
+        <v>0.2788105959824936</v>
       </c>
     </row>
     <row r="231" ht="15" customHeight="1">
       <c r="F231" t="n">
-        <v>0.04104606095207085</v>
+        <v>0.0352123555744922</v>
       </c>
       <c r="G231" t="n">
-        <v>0.1406069081070062</v>
+        <v>0.2772130242908832</v>
       </c>
       <c r="J231" t="n">
-        <v>0.06210862553244689</v>
+        <v>0.06186056287064311</v>
       </c>
       <c r="K231" t="n">
-        <v>0.1386060783533944</v>
+        <v>0.2810359015616763</v>
       </c>
       <c r="L231" t="n">
-        <v>0.08073702038199354</v>
+        <v>0.1107956375227834</v>
       </c>
       <c r="M231" t="n">
-        <v>0.1362946216356473</v>
+        <v>0.2801603289852441</v>
       </c>
       <c r="N231" t="n">
-        <v>0.04104606095207085</v>
+        <v>0.1610017129067803</v>
       </c>
       <c r="O231" t="n">
-        <v>0.1406069081070062</v>
+        <v>0.2805003571702663</v>
       </c>
     </row>
     <row r="232" ht="15" customHeight="1">
       <c r="F232" t="n">
-        <v>0.04116484110197351</v>
+        <v>0.03666935478919255</v>
       </c>
       <c r="G232" t="n">
-        <v>0.1414539376739158</v>
+        <v>0.2788829822685391</v>
       </c>
       <c r="J232" t="n">
-        <v>0.06195666319461574</v>
+        <v>0.06100914705210099</v>
       </c>
       <c r="K232" t="n">
-        <v>0.1394410547290172</v>
+        <v>0.2827288889204815</v>
       </c>
       <c r="L232" t="n">
-        <v>0.08090769319770391</v>
+        <v>0.109666399060853</v>
       </c>
       <c r="M232" t="n">
-        <v>0.1371156735732114</v>
+        <v>0.2818480418104564</v>
       </c>
       <c r="N232" t="n">
-        <v>0.04116484110197351</v>
+        <v>0.1573985221019955</v>
       </c>
       <c r="O232" t="n">
-        <v>0.1414539376739158</v>
+        <v>0.282190118358039</v>
       </c>
     </row>
     <row r="233" ht="15" customHeight="1">
       <c r="F233" t="n">
-        <v>0.04077918633364112</v>
+        <v>0.03710886155247445</v>
       </c>
       <c r="G233" t="n">
-        <v>0.1423009672408255</v>
+        <v>0.280552940246195</v>
       </c>
       <c r="J233" t="n">
-        <v>0.06090974060890381</v>
+        <v>0.0604208020588647</v>
       </c>
       <c r="K233" t="n">
-        <v>0.1402760311046401</v>
+        <v>0.2844218762792868</v>
       </c>
       <c r="L233" t="n">
-        <v>0.08018732862986083</v>
+        <v>0.1076748673846615</v>
       </c>
       <c r="M233" t="n">
-        <v>0.1379367255107756</v>
+        <v>0.2835357546356687</v>
       </c>
       <c r="N233" t="n">
-        <v>0.04077918633364112</v>
+        <v>0.1556033405588066</v>
       </c>
       <c r="O233" t="n">
-        <v>0.1423009672408255</v>
+        <v>0.2838798795458117</v>
       </c>
     </row>
     <row r="234" ht="15" customHeight="1">
       <c r="F234" t="n">
-        <v>0.04048913605859671</v>
+        <v>0.03354274639465731</v>
       </c>
       <c r="G234" t="n">
-        <v>0.1431479968077352</v>
+        <v>0.2822228982238509</v>
       </c>
       <c r="J234" t="n">
-        <v>0.06136817932334321</v>
+        <v>0.05951507905478333</v>
       </c>
       <c r="K234" t="n">
-        <v>0.141111007480263</v>
+        <v>0.2861148636380921</v>
       </c>
       <c r="L234" t="n">
-        <v>0.0792764178346631</v>
+        <v>0.1058557512069763</v>
       </c>
       <c r="M234" t="n">
-        <v>0.1387577774483397</v>
+        <v>0.2852234674608811</v>
       </c>
       <c r="N234" t="n">
-        <v>0.04048913605859671</v>
+        <v>0.1527663991575227</v>
       </c>
       <c r="O234" t="n">
-        <v>0.1431479968077352</v>
+        <v>0.2855696407335844</v>
       </c>
     </row>
     <row r="235" ht="15" customHeight="1">
       <c r="F235" t="n">
-        <v>0.04019472968836323</v>
+        <v>0.03598287984606055</v>
       </c>
       <c r="G235" t="n">
-        <v>0.1439950263746449</v>
+        <v>0.2838928562015068</v>
       </c>
       <c r="J235" t="n">
-        <v>0.06043230088596607</v>
+        <v>0.05861152920370614</v>
       </c>
       <c r="K235" t="n">
-        <v>0.1419459838558858</v>
+        <v>0.2878078509968973</v>
       </c>
       <c r="L235" t="n">
-        <v>0.07947545196830985</v>
+        <v>0.1046437592405652</v>
       </c>
       <c r="M235" t="n">
-        <v>0.1395788293859039</v>
+        <v>0.2869111802860934</v>
       </c>
       <c r="N235" t="n">
-        <v>0.04019472968836323</v>
+        <v>0.1514379287784529</v>
       </c>
       <c r="O235" t="n">
-        <v>0.1439950263746449</v>
+        <v>0.2872594019213571</v>
       </c>
     </row>
     <row r="236" ht="15" customHeight="1">
       <c r="F236" t="n">
-        <v>0.04019600663446359</v>
+        <v>0.0344411324370036</v>
       </c>
       <c r="G236" t="n">
-        <v>0.1448420559415546</v>
+        <v>0.2855628141791627</v>
       </c>
       <c r="J236" t="n">
-        <v>0.06010242684480455</v>
+        <v>0.0578297036694823</v>
       </c>
       <c r="K236" t="n">
-        <v>0.1427809602315087</v>
+        <v>0.2895008383557027</v>
       </c>
       <c r="L236" t="n">
-        <v>0.07808492218699964</v>
+        <v>0.1026736001981959</v>
       </c>
       <c r="M236" t="n">
-        <v>0.140399881323468</v>
+        <v>0.2885988931113057</v>
       </c>
       <c r="N236" t="n">
-        <v>0.04019600663446359</v>
+        <v>0.1480681603019061</v>
       </c>
       <c r="O236" t="n">
-        <v>0.1448420559415546</v>
+        <v>0.2889491631091298</v>
       </c>
     </row>
     <row r="237" ht="15" customHeight="1">
       <c r="F237" t="n">
-        <v>0.03979300630842079</v>
+        <v>0.03392937469780584</v>
       </c>
       <c r="G237" t="n">
-        <v>0.1456890855084642</v>
+        <v>0.2872327721568187</v>
       </c>
       <c r="J237" t="n">
-        <v>0.05927887874789073</v>
+        <v>0.05698915361596098</v>
       </c>
       <c r="K237" t="n">
-        <v>0.1436159366071315</v>
+        <v>0.2911938257145079</v>
       </c>
       <c r="L237" t="n">
-        <v>0.07690531964693159</v>
+        <v>0.1020799827926362</v>
       </c>
       <c r="M237" t="n">
-        <v>0.1412209332610321</v>
+        <v>0.290286605936518</v>
       </c>
       <c r="N237" t="n">
-        <v>0.03979300630842079</v>
+        <v>0.1469073246081918</v>
       </c>
       <c r="O237" t="n">
-        <v>0.1456890855084642</v>
+        <v>0.2906389242969024</v>
       </c>
     </row>
     <row r="238" ht="15" customHeight="1">
       <c r="F238" t="n">
-        <v>0.03958576812175783</v>
+        <v>0.03345947715878671</v>
       </c>
       <c r="G238" t="n">
-        <v>0.1465361150753739</v>
+        <v>0.2889027301344747</v>
       </c>
       <c r="J238" t="n">
-        <v>0.05936197814325683</v>
+        <v>0.05570943020699136</v>
       </c>
       <c r="K238" t="n">
-        <v>0.1444509129827544</v>
+        <v>0.2928868130733132</v>
       </c>
       <c r="L238" t="n">
-        <v>0.07703713550430463</v>
+        <v>0.1005976157366536</v>
       </c>
       <c r="M238" t="n">
-        <v>0.1420419851985963</v>
+        <v>0.2919743187617303</v>
       </c>
       <c r="N238" t="n">
-        <v>0.03958576812175783</v>
+        <v>0.1444056525776187</v>
       </c>
       <c r="O238" t="n">
-        <v>0.1465361150753739</v>
+        <v>0.2923286854846752</v>
       </c>
     </row>
     <row r="239" ht="15" customHeight="1">
       <c r="F239" t="n">
-        <v>0.03947433148599765</v>
+        <v>0.03301517249987532</v>
       </c>
       <c r="G239" t="n">
-        <v>0.1473831446422836</v>
+        <v>0.2905726881121306</v>
       </c>
       <c r="J239" t="n">
-        <v>0.05915204657893491</v>
+        <v>0.05559199503474475</v>
       </c>
       <c r="K239" t="n">
-        <v>0.1452858893583773</v>
+        <v>0.2945798004321185</v>
       </c>
       <c r="L239" t="n">
-        <v>0.07708086091531752</v>
+        <v>0.09921989014466903</v>
       </c>
       <c r="M239" t="n">
-        <v>0.1428630371361604</v>
+        <v>0.2936620315869427</v>
       </c>
       <c r="N239" t="n">
-        <v>0.03947433148599765</v>
+        <v>0.1434589743996345</v>
       </c>
       <c r="O239" t="n">
-        <v>0.1473831446422836</v>
+        <v>0.2940184466724478</v>
       </c>
     </row>
     <row r="240" ht="15" customHeight="1">
       <c r="F240" t="n">
-        <v>0.03955873581266321</v>
+        <v>0.03156917516903088</v>
       </c>
       <c r="G240" t="n">
-        <v>0.1482301742091932</v>
+        <v>0.2922426460897865</v>
       </c>
       <c r="J240" t="n">
-        <v>0.05894940560295714</v>
+        <v>0.05477820454670311</v>
       </c>
       <c r="K240" t="n">
-        <v>0.1461208657340001</v>
+        <v>0.2962727877909238</v>
       </c>
       <c r="L240" t="n">
-        <v>0.07603698703616929</v>
+        <v>0.09814440096413707</v>
       </c>
       <c r="M240" t="n">
-        <v>0.1436840890737245</v>
+        <v>0.2953497444121549</v>
       </c>
       <c r="N240" t="n">
-        <v>0.03955873581266321</v>
+        <v>0.1402177569675678</v>
       </c>
       <c r="O240" t="n">
-        <v>0.1482301742091932</v>
+        <v>0.2957082078602205</v>
       </c>
     </row>
     <row r="241" ht="15" customHeight="1">
       <c r="F241" t="n">
-        <v>0.03913902051327743</v>
+        <v>0.03112143466714477</v>
       </c>
       <c r="G241" t="n">
-        <v>0.1490772037761029</v>
+        <v>0.2939126040674424</v>
       </c>
       <c r="J241" t="n">
-        <v>0.05805437676335562</v>
+        <v>0.05386159717278342</v>
       </c>
       <c r="K241" t="n">
-        <v>0.146955842109623</v>
+        <v>0.2979657751497291</v>
       </c>
       <c r="L241" t="n">
-        <v>0.07480600502305879</v>
+        <v>0.09656388923750181</v>
       </c>
       <c r="M241" t="n">
-        <v>0.1445051410112887</v>
+        <v>0.2970374572373672</v>
       </c>
       <c r="N241" t="n">
-        <v>0.03913902051327743</v>
+        <v>0.138669283117705</v>
       </c>
       <c r="O241" t="n">
-        <v>0.1490772037761029</v>
+        <v>0.2973979690479932</v>
       </c>
     </row>
     <row r="242" ht="15" customHeight="1">
       <c r="F242" t="n">
-        <v>0.03921522499936338</v>
+        <v>0.03367192287249046</v>
       </c>
       <c r="G242" t="n">
-        <v>0.1499242333430126</v>
+        <v>0.2955825620450983</v>
       </c>
       <c r="J242" t="n">
-        <v>0.0579672816081625</v>
+        <v>0.05294212659555357</v>
       </c>
       <c r="K242" t="n">
-        <v>0.1477908184852458</v>
+        <v>0.2996587625085343</v>
       </c>
       <c r="L242" t="n">
-        <v>0.07458840603218492</v>
+        <v>0.09477827273853573</v>
       </c>
       <c r="M242" t="n">
-        <v>0.1453261929488528</v>
+        <v>0.2987251700625795</v>
       </c>
       <c r="N242" t="n">
-        <v>0.03921522499936338</v>
+        <v>0.1374134338512276</v>
       </c>
       <c r="O242" t="n">
-        <v>0.1499242333430126</v>
+        <v>0.2990877302357659</v>
       </c>
     </row>
     <row r="243" ht="15" customHeight="1">
       <c r="F243" t="n">
-        <v>0.03858738868244389</v>
+        <v>0.03022061166334145</v>
       </c>
       <c r="G243" t="n">
-        <v>0.1507712629099223</v>
+        <v>0.2972525200227542</v>
       </c>
       <c r="J243" t="n">
-        <v>0.05738844168541002</v>
+        <v>0.05271974649758131</v>
       </c>
       <c r="K243" t="n">
-        <v>0.1486257948608687</v>
+        <v>0.3013517498673396</v>
       </c>
       <c r="L243" t="n">
-        <v>0.07438468121974656</v>
+        <v>0.09378746924101106</v>
       </c>
       <c r="M243" t="n">
-        <v>0.146147244886417</v>
+        <v>0.3004128828877919</v>
       </c>
       <c r="N243" t="n">
-        <v>0.03858738868244389</v>
+        <v>0.1357500901693176</v>
       </c>
       <c r="O243" t="n">
-        <v>0.1507712629099223</v>
+        <v>0.3007774914235385</v>
       </c>
     </row>
     <row r="244" ht="15" customHeight="1">
       <c r="F244" t="n">
-        <v>0.03815555097404209</v>
+        <v>0.03076747291797116</v>
       </c>
       <c r="G244" t="n">
-        <v>0.151618292476832</v>
+        <v>0.2989224780004102</v>
       </c>
       <c r="J244" t="n">
-        <v>0.05661817854313012</v>
+        <v>0.05169441056143449</v>
       </c>
       <c r="K244" t="n">
-        <v>0.1494607712364916</v>
+        <v>0.3030447372261449</v>
       </c>
       <c r="L244" t="n">
-        <v>0.0741953217419426</v>
+        <v>0.0919913965187002</v>
       </c>
       <c r="M244" t="n">
-        <v>0.1469682968239811</v>
+        <v>0.3021005957130042</v>
       </c>
       <c r="N244" t="n">
-        <v>0.03815555097404209</v>
+        <v>0.1326791330731568</v>
       </c>
       <c r="O244" t="n">
-        <v>0.151618292476832</v>
+        <v>0.3024672526113113</v>
       </c>
     </row>
     <row r="245" ht="15" customHeight="1">
       <c r="F245" t="n">
-        <v>0.03821975128568082</v>
+        <v>0.02931247851465309</v>
       </c>
       <c r="G245" t="n">
-        <v>0.1524653220437416</v>
+        <v>0.3005924359780661</v>
       </c>
       <c r="J245" t="n">
-        <v>0.0571568137293551</v>
+        <v>0.05096607246968098</v>
       </c>
       <c r="K245" t="n">
-        <v>0.1502957476121144</v>
+        <v>0.3047377245849501</v>
       </c>
       <c r="L245" t="n">
-        <v>0.07332081875497204</v>
+        <v>0.0911899723453754</v>
       </c>
       <c r="M245" t="n">
-        <v>0.1477893487615453</v>
+        <v>0.3037883085382165</v>
       </c>
       <c r="N245" t="n">
-        <v>0.03821975128568082</v>
+        <v>0.132000443563927</v>
       </c>
       <c r="O245" t="n">
-        <v>0.1524653220437416</v>
+        <v>0.3041570137990839</v>
       </c>
     </row>
     <row r="246" ht="15" customHeight="1">
       <c r="F246" t="n">
-        <v>0.03798002902888313</v>
+        <v>0.02785560033166072</v>
       </c>
       <c r="G246" t="n">
-        <v>0.1533123516106513</v>
+        <v>0.302262393955722</v>
       </c>
       <c r="J246" t="n">
-        <v>0.05610466879211701</v>
+        <v>0.04993468590488849</v>
       </c>
       <c r="K246" t="n">
-        <v>0.1511307239877373</v>
+        <v>0.3064307119437554</v>
       </c>
       <c r="L246" t="n">
-        <v>0.07276166341503365</v>
+        <v>0.08988311449480907</v>
       </c>
       <c r="M246" t="n">
-        <v>0.1486104006991094</v>
+        <v>0.3054760213634288</v>
       </c>
       <c r="N246" t="n">
-        <v>0.03798002902888313</v>
+        <v>0.1288139026428101</v>
       </c>
       <c r="O246" t="n">
-        <v>0.1533123516106513</v>
+        <v>0.3058467749868566</v>
       </c>
     </row>
     <row r="247" ht="15" customHeight="1">
       <c r="F247" t="n">
-        <v>0.03783642361517194</v>
+        <v>0.02839681024726752</v>
       </c>
       <c r="G247" t="n">
-        <v>0.154159381177561</v>
+        <v>0.3039323519333779</v>
       </c>
       <c r="J247" t="n">
-        <v>0.05576206527944805</v>
+        <v>0.04970020454962486</v>
       </c>
       <c r="K247" t="n">
-        <v>0.1519657003633601</v>
+        <v>0.3081236993025607</v>
       </c>
       <c r="L247" t="n">
-        <v>0.07281834687832633</v>
+        <v>0.08837074074077339</v>
       </c>
       <c r="M247" t="n">
-        <v>0.1494314526366735</v>
+        <v>0.3071637341886411</v>
       </c>
       <c r="N247" t="n">
-        <v>0.03783642361517194</v>
+        <v>0.1278193913109876</v>
       </c>
       <c r="O247" t="n">
-        <v>0.154159381177561</v>
+        <v>0.3075365361746293</v>
       </c>
     </row>
     <row r="248" ht="15" customHeight="1">
       <c r="F248" t="n">
-        <v>0.03718897445607018</v>
+        <v>0.02993608013974693</v>
       </c>
       <c r="G248" t="n">
-        <v>0.1550064107444707</v>
+        <v>0.3056023099110339</v>
       </c>
       <c r="J248" t="n">
-        <v>0.0561293247393802</v>
+        <v>0.04856258208645796</v>
       </c>
       <c r="K248" t="n">
-        <v>0.152800676738983</v>
+        <v>0.309816686661366</v>
       </c>
       <c r="L248" t="n">
-        <v>0.07299136030104914</v>
+        <v>0.08715276885704099</v>
       </c>
       <c r="M248" t="n">
-        <v>0.1502525045742377</v>
+        <v>0.3088514470138534</v>
       </c>
       <c r="N248" t="n">
-        <v>0.03718897445607018</v>
+        <v>0.1261167905696417</v>
       </c>
       <c r="O248" t="n">
-        <v>0.1550064107444707</v>
+        <v>0.309226297362402</v>
       </c>
     </row>
     <row r="249" ht="15" customHeight="1">
       <c r="F249" t="n">
-        <v>0.03753772096310086</v>
+        <v>0.02947338188737246</v>
       </c>
       <c r="G249" t="n">
-        <v>0.1558534403113803</v>
+        <v>0.3072722678886898</v>
       </c>
       <c r="J249" t="n">
-        <v>0.05550676871994581</v>
+        <v>0.04792177219795556</v>
       </c>
       <c r="K249" t="n">
-        <v>0.1536356531146058</v>
+        <v>0.3115096740201713</v>
       </c>
       <c r="L249" t="n">
-        <v>0.0709811948394008</v>
+        <v>0.08572911661738392</v>
       </c>
       <c r="M249" t="n">
-        <v>0.1510735565118018</v>
+        <v>0.3105391598390657</v>
       </c>
       <c r="N249" t="n">
-        <v>0.03753772096310086</v>
+        <v>0.123705981419954</v>
       </c>
       <c r="O249" t="n">
-        <v>0.1558534403113803</v>
+        <v>0.3109160585501747</v>
       </c>
     </row>
     <row r="250" ht="15" customHeight="1">
       <c r="F250" t="n">
-        <v>0.03688270254778693</v>
+        <v>0.02600868736841759</v>
       </c>
       <c r="G250" t="n">
-        <v>0.15670046987829</v>
+        <v>0.3089422258663457</v>
       </c>
       <c r="J250" t="n">
-        <v>0.05479471876917696</v>
+        <v>0.04717772856668549</v>
       </c>
       <c r="K250" t="n">
-        <v>0.1544706294902287</v>
+        <v>0.3132026613789765</v>
       </c>
       <c r="L250" t="n">
-        <v>0.07098834164958034</v>
+        <v>0.08429970179557456</v>
       </c>
       <c r="M250" t="n">
-        <v>0.1518946084493659</v>
+        <v>0.3122268726642781</v>
       </c>
       <c r="N250" t="n">
-        <v>0.03688270254778693</v>
+        <v>0.1225868448631063</v>
       </c>
       <c r="O250" t="n">
-        <v>0.15670046987829</v>
+        <v>0.3126058197379474</v>
       </c>
     </row>
     <row r="251" ht="15" customHeight="1">
       <c r="F251" t="n">
-        <v>0.03692395862165142</v>
+        <v>0.02854196846115577</v>
       </c>
       <c r="G251" t="n">
-        <v>0.1575474994451997</v>
+        <v>0.3106121838440016</v>
       </c>
       <c r="J251" t="n">
-        <v>0.05519349643510568</v>
+        <v>0.04643040487521559</v>
       </c>
       <c r="K251" t="n">
-        <v>0.1553056058658516</v>
+        <v>0.3148956487377818</v>
       </c>
       <c r="L251" t="n">
-        <v>0.07031329188778651</v>
+        <v>0.08316444216538543</v>
       </c>
       <c r="M251" t="n">
-        <v>0.1527156603869301</v>
+        <v>0.3139145854894904</v>
       </c>
       <c r="N251" t="n">
-        <v>0.03692395862165142</v>
+        <v>0.1194592619002805</v>
       </c>
       <c r="O251" t="n">
-        <v>0.1575474994451997</v>
+        <v>0.3142955809257201</v>
       </c>
     </row>
     <row r="252" ht="15" customHeight="1">
       <c r="F252" t="n">
-        <v>0.03626152859621719</v>
+        <v>0.02907319704386048</v>
       </c>
       <c r="G252" t="n">
-        <v>0.1583945290121094</v>
+        <v>0.3122821418216575</v>
       </c>
       <c r="J252" t="n">
-        <v>0.05390342326576414</v>
+        <v>0.04577975480611367</v>
       </c>
       <c r="K252" t="n">
-        <v>0.1561405822414744</v>
+        <v>0.3165886360965871</v>
       </c>
       <c r="L252" t="n">
-        <v>0.07025653671021842</v>
+        <v>0.0815232555005887</v>
       </c>
       <c r="M252" t="n">
-        <v>0.1535367123244942</v>
+        <v>0.3156022983147027</v>
       </c>
       <c r="N252" t="n">
-        <v>0.03626152859621719</v>
+        <v>0.1189231135326583</v>
       </c>
       <c r="O252" t="n">
-        <v>0.1583945290121094</v>
+        <v>0.3159853421134928</v>
       </c>
     </row>
     <row r="253" ht="15" customHeight="1">
       <c r="F253" t="n">
-        <v>0.03589545188300734</v>
+        <v>0.02660234499480517</v>
       </c>
       <c r="G253" t="n">
-        <v>0.159241558579019</v>
+        <v>0.3139520997993134</v>
       </c>
       <c r="J253" t="n">
-        <v>0.05382482080918444</v>
+        <v>0.04482573204194747</v>
       </c>
       <c r="K253" t="n">
-        <v>0.1569755586170973</v>
+        <v>0.3182816234553924</v>
       </c>
       <c r="L253" t="n">
-        <v>0.07001856727307482</v>
+        <v>0.0802760595749567</v>
       </c>
       <c r="M253" t="n">
-        <v>0.1543577642620584</v>
+        <v>0.317290011139915</v>
       </c>
       <c r="N253" t="n">
-        <v>0.03589545188300734</v>
+        <v>0.1167782807614216</v>
       </c>
       <c r="O253" t="n">
-        <v>0.159241558579019</v>
+        <v>0.3176751033012655</v>
       </c>
     </row>
     <row r="254" ht="15" customHeight="1">
       <c r="F254" t="n">
-        <v>0.03592576789354467</v>
+        <v>0.02512938419226335</v>
       </c>
       <c r="G254" t="n">
-        <v>0.1600885881459287</v>
+        <v>0.3156220577769694</v>
       </c>
       <c r="J254" t="n">
-        <v>0.0543580106133989</v>
+        <v>0.04396829026528497</v>
       </c>
       <c r="K254" t="n">
-        <v>0.1578105349927201</v>
+        <v>0.3199746108141976</v>
       </c>
       <c r="L254" t="n">
-        <v>0.06969987473255462</v>
+        <v>0.07932277216226186</v>
       </c>
       <c r="M254" t="n">
-        <v>0.1551788161996225</v>
+        <v>0.3189777239651274</v>
       </c>
       <c r="N254" t="n">
-        <v>0.03592576789354467</v>
+        <v>0.1147246445877522</v>
       </c>
       <c r="O254" t="n">
-        <v>0.1600885881459287</v>
+        <v>0.3193648644890382</v>
       </c>
     </row>
     <row r="255" ht="15" customHeight="1">
       <c r="F255" t="n">
-        <v>0.03585251603935226</v>
+        <v>0.02365428651450847</v>
       </c>
       <c r="G255" t="n">
-        <v>0.1609356177128384</v>
+        <v>0.3172920157546253</v>
       </c>
       <c r="J255" t="n">
-        <v>0.05320331422643948</v>
+        <v>0.04350738315869375</v>
       </c>
       <c r="K255" t="n">
-        <v>0.158645511368343</v>
+        <v>0.3216675981730029</v>
       </c>
       <c r="L255" t="n">
-        <v>0.06930095024485677</v>
+        <v>0.07826331103627648</v>
       </c>
       <c r="M255" t="n">
-        <v>0.1559998681371867</v>
+        <v>0.3206654367903397</v>
       </c>
       <c r="N255" t="n">
-        <v>0.03585251603935226</v>
+        <v>0.1121620860128321</v>
       </c>
       <c r="O255" t="n">
-        <v>0.1609356177128384</v>
+        <v>0.3210546256768108</v>
       </c>
     </row>
     <row r="256" ht="15" customHeight="1">
       <c r="F256" t="n">
-        <v>0.03507573573195306</v>
+        <v>0.027177023839814</v>
       </c>
       <c r="G256" t="n">
-        <v>0.1617826472797481</v>
+        <v>0.3189619737322812</v>
       </c>
       <c r="J256" t="n">
-        <v>0.05286105319633838</v>
+        <v>0.04264296440474184</v>
       </c>
       <c r="K256" t="n">
-        <v>0.1594804877439658</v>
+        <v>0.3233605855318082</v>
       </c>
       <c r="L256" t="n">
-        <v>0.07002228496618013</v>
+        <v>0.07699759397077283</v>
       </c>
       <c r="M256" t="n">
-        <v>0.1568209200747508</v>
+        <v>0.3223531496155519</v>
       </c>
       <c r="N256" t="n">
-        <v>0.03507573573195306</v>
+        <v>0.1099904860378426</v>
       </c>
       <c r="O256" t="n">
-        <v>0.1617826472797481</v>
+        <v>0.3227443868645836</v>
       </c>
     </row>
     <row r="257" ht="15" customHeight="1">
       <c r="F257" t="n">
-        <v>0.03489546638287001</v>
+        <v>0.02669756804645344</v>
       </c>
       <c r="G257" t="n">
-        <v>0.1626296768466577</v>
+        <v>0.3206319317099371</v>
       </c>
       <c r="J257" t="n">
-        <v>0.05333154907112769</v>
+        <v>0.04207498768599695</v>
       </c>
       <c r="K257" t="n">
-        <v>0.1603154641195887</v>
+        <v>0.3250535728906135</v>
       </c>
       <c r="L257" t="n">
-        <v>0.06926437005272357</v>
+        <v>0.07512553873952332</v>
       </c>
       <c r="M257" t="n">
-        <v>0.1576419720123149</v>
+        <v>0.3240408624407642</v>
       </c>
       <c r="N257" t="n">
-        <v>0.03489546638287001</v>
+        <v>0.108609725663966</v>
       </c>
       <c r="O257" t="n">
-        <v>0.1626296768466577</v>
+        <v>0.3244341480523562</v>
       </c>
     </row>
     <row r="258" ht="15" customHeight="1">
       <c r="F258" t="n">
-        <v>0.03481174740362609</v>
+        <v>0.02521589101270023</v>
       </c>
       <c r="G258" t="n">
-        <v>0.1634767064135674</v>
+        <v>0.3223018896875931</v>
       </c>
       <c r="J258" t="n">
-        <v>0.05241512339883964</v>
+        <v>0.04140340668502694</v>
       </c>
       <c r="K258" t="n">
-        <v>0.1611504404952116</v>
+        <v>0.3267465602494188</v>
       </c>
       <c r="L258" t="n">
-        <v>0.06842769666068615</v>
+        <v>0.07324706311630019</v>
       </c>
       <c r="M258" t="n">
-        <v>0.1584630239498791</v>
+        <v>0.3257285752659766</v>
       </c>
       <c r="N258" t="n">
-        <v>0.03481174740362609</v>
+        <v>0.107219685892384</v>
       </c>
       <c r="O258" t="n">
-        <v>0.1634767064135674</v>
+        <v>0.3261239092401289</v>
       </c>
     </row>
     <row r="259" ht="15" customHeight="1">
       <c r="F259" t="n">
-        <v>0.03462461820574429</v>
+        <v>0.02173196461682786</v>
       </c>
       <c r="G259" t="n">
-        <v>0.1643237359804771</v>
+        <v>0.323971847665249</v>
       </c>
       <c r="J259" t="n">
-        <v>0.05321209772750629</v>
+        <v>0.04072817508439962</v>
       </c>
       <c r="K259" t="n">
-        <v>0.1619854168708344</v>
+        <v>0.328439547608224</v>
       </c>
       <c r="L259" t="n">
-        <v>0.06911275594626659</v>
+        <v>0.0721620848748758</v>
       </c>
       <c r="M259" t="n">
-        <v>0.1592840758874432</v>
+        <v>0.3274162880911889</v>
       </c>
       <c r="N259" t="n">
-        <v>0.03462461820574429</v>
+        <v>0.1049202477242782</v>
       </c>
       <c r="O259" t="n">
-        <v>0.1643237359804771</v>
+        <v>0.3278136704279016</v>
       </c>
     </row>
     <row r="260" ht="15" customHeight="1">
       <c r="F260" t="n">
-        <v>0.03403411820074755</v>
+        <v>0.02224576073710981</v>
       </c>
       <c r="G260" t="n">
-        <v>0.1651707655473867</v>
+        <v>0.3256418056429049</v>
       </c>
       <c r="J260" t="n">
-        <v>0.05252279360515977</v>
+        <v>0.03934924656668275</v>
       </c>
       <c r="K260" t="n">
-        <v>0.1628203932464573</v>
+        <v>0.3301325349670293</v>
       </c>
       <c r="L260" t="n">
-        <v>0.06822003906566387</v>
+        <v>0.07137052178902265</v>
       </c>
       <c r="M260" t="n">
-        <v>0.1601051278250074</v>
+        <v>0.3291040009164012</v>
       </c>
       <c r="N260" t="n">
-        <v>0.03403411820074755</v>
+        <v>0.1020112921608308</v>
       </c>
       <c r="O260" t="n">
-        <v>0.1651707655473867</v>
+        <v>0.3295034316156742</v>
       </c>
     </row>
     <row r="261" ht="15" customHeight="1">
       <c r="F261" t="n">
-        <v>0.03414028680015883</v>
+        <v>0.02375725125181953</v>
       </c>
       <c r="G261" t="n">
-        <v>0.1660177951142964</v>
+        <v>0.3273117636205609</v>
       </c>
       <c r="J261" t="n">
-        <v>0.05224753257983222</v>
+        <v>0.0386665748144442</v>
       </c>
       <c r="K261" t="n">
-        <v>0.1636553696220801</v>
+        <v>0.3318255223258346</v>
       </c>
       <c r="L261" t="n">
-        <v>0.06905003717507691</v>
+        <v>0.06917229163251287</v>
       </c>
       <c r="M261" t="n">
-        <v>0.1609261797625715</v>
+        <v>0.3307917137416135</v>
       </c>
       <c r="N261" t="n">
-        <v>0.03414028680015883</v>
+        <v>0.1002927002032231</v>
       </c>
       <c r="O261" t="n">
-        <v>0.1660177951142964</v>
+        <v>0.331193192803447</v>
       </c>
     </row>
     <row r="262" ht="15" customHeight="1">
       <c r="F262" t="n">
-        <v>0.0336431634155011</v>
+        <v>0.02226640803923051</v>
       </c>
       <c r="G262" t="n">
-        <v>0.1668648246812061</v>
+        <v>0.3289817215982168</v>
       </c>
       <c r="J262" t="n">
-        <v>0.05188663619955577</v>
+        <v>0.03818011351025176</v>
       </c>
       <c r="K262" t="n">
-        <v>0.164490345997703</v>
+        <v>0.3335185096846399</v>
       </c>
       <c r="L262" t="n">
-        <v>0.06850324143070446</v>
+        <v>0.06806731217911888</v>
       </c>
       <c r="M262" t="n">
-        <v>0.1617472317001356</v>
+        <v>0.3324794265668258</v>
       </c>
       <c r="N262" t="n">
-        <v>0.0336431634155011</v>
+        <v>0.09856435285263732</v>
       </c>
       <c r="O262" t="n">
-        <v>0.1668648246812061</v>
+        <v>0.3328829539912196</v>
       </c>
     </row>
     <row r="263" ht="15" customHeight="1">
       <c r="F263" t="n">
-        <v>0.03334278745829734</v>
+        <v>0.02177320297761622</v>
       </c>
       <c r="G263" t="n">
-        <v>0.1677118542481158</v>
+        <v>0.3306516795758727</v>
       </c>
       <c r="J263" t="n">
-        <v>0.05154042601236258</v>
+        <v>0.03738981633667331</v>
       </c>
       <c r="K263" t="n">
-        <v>0.1653253223733258</v>
+        <v>0.3352114970434452</v>
       </c>
       <c r="L263" t="n">
-        <v>0.06748014298874566</v>
+        <v>0.06695550120261295</v>
       </c>
       <c r="M263" t="n">
-        <v>0.1625682836376998</v>
+        <v>0.3341671393920381</v>
       </c>
       <c r="N263" t="n">
-        <v>0.03334278745829734</v>
+        <v>0.09662613111025509</v>
       </c>
       <c r="O263" t="n">
-        <v>0.1677118542481158</v>
+        <v>0.3345727151789923</v>
       </c>
     </row>
     <row r="264" ht="15" customHeight="1">
       <c r="F264" t="n">
-        <v>0.03323919834007048</v>
+        <v>0.02027760794525013</v>
       </c>
       <c r="G264" t="n">
-        <v>0.1685588838150255</v>
+        <v>0.3323216375535286</v>
       </c>
       <c r="J264" t="n">
-        <v>0.05180922356628481</v>
+        <v>0.03629563697627659</v>
       </c>
       <c r="K264" t="n">
-        <v>0.1661602987489487</v>
+        <v>0.3369044844022505</v>
       </c>
       <c r="L264" t="n">
-        <v>0.06868123300539919</v>
+        <v>0.06573677647676751</v>
       </c>
       <c r="M264" t="n">
-        <v>0.1633893355752639</v>
+        <v>0.3358548522172504</v>
       </c>
       <c r="N264" t="n">
-        <v>0.03323919834007048</v>
+        <v>0.09357791597725834</v>
       </c>
       <c r="O264" t="n">
-        <v>0.1685588838150255</v>
+        <v>0.336262476366765</v>
       </c>
     </row>
     <row r="265" ht="15" customHeight="1"/>

--- a/prot/ООО Регионстрой/Трехосные_КД_ПП/1330.xlsx
+++ b/prot/ООО Регионстрой/Трехосные_КД_ПП/1330.xlsx
@@ -4884,7 +4884,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:BF264"/>
+  <dimension ref="A1:BF464"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A3" zoomScale="70" zoomScaleNormal="40" zoomScaleSheetLayoutView="85" workbookViewId="0">
       <selection activeCell="J22" sqref="J22"/>
@@ -8491,14 +8491,8 @@
     </row>
     <row r="47" ht="16.5" customHeight="1">
       <c r="A47" s="144" t="n"/>
-      <c r="B47" s="144" t="inlineStr">
-        <is>
-          <t>K0, д.е.</t>
-        </is>
-      </c>
-      <c r="C47" s="144" t="n">
-        <v>0.7920883091822406</v>
-      </c>
+      <c r="B47" s="144" t="n"/>
+      <c r="C47" s="144" t="n"/>
       <c r="D47" s="144" t="n"/>
       <c r="E47" s="144" t="n"/>
       <c r="F47" s="144" t="n"/>
@@ -8555,14 +8549,8 @@
     </row>
     <row r="48" ht="16.5" customHeight="1">
       <c r="A48" s="144" t="n"/>
-      <c r="B48" s="144" t="inlineStr">
-        <is>
-          <t>q_zg, МПа</t>
-        </is>
-      </c>
-      <c r="C48" s="144" t="n">
-        <v>0.07765570416157953</v>
-      </c>
+      <c r="B48" s="144" t="n"/>
+      <c r="C48" s="144" t="n"/>
       <c r="D48" s="144" t="n"/>
       <c r="E48" s="144" t="n"/>
       <c r="F48" s="144" t="n"/>
@@ -8712,20 +8700,12 @@
         <f>B70/A70</f>
         <v/>
       </c>
-      <c r="F50" s="144" t="inlineStr">
-        <is>
-          <t>Точки модуля (полное напр.), МПа</t>
-        </is>
-      </c>
+      <c r="F50" s="144" t="n"/>
       <c r="G50" s="144" t="n"/>
       <c r="H50" s="144" t="n"/>
       <c r="I50" s="144" t="n"/>
-      <c r="J50" s="144" t="n">
-        <v>0.07765570416157953</v>
-      </c>
-      <c r="K50" s="144" t="n">
-        <v>0.1242491266585273</v>
-      </c>
+      <c r="J50" s="144" t="n"/>
+      <c r="K50" s="144" t="n"/>
       <c r="L50" s="144" t="n"/>
       <c r="N50" s="148">
         <f>J50</f>
@@ -8802,17 +8782,11 @@
         <f>A65/B65</f>
         <v/>
       </c>
-      <c r="F51" s="144" t="inlineStr">
-        <is>
-          <t>qf (полное напр.), МПа</t>
-        </is>
-      </c>
+      <c r="F51" s="144" t="n"/>
       <c r="G51" s="144" t="n"/>
       <c r="H51" s="144" t="n"/>
       <c r="I51" s="144" t="n"/>
-      <c r="J51" s="144" t="n">
-        <v>0.1190062401236265</v>
-      </c>
+      <c r="J51" s="144" t="n"/>
       <c r="K51" s="144" t="n"/>
       <c r="L51" s="144" t="n"/>
       <c r="M51" s="1" t="n"/>
@@ -9258,10 +9232,10 @@
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>0.02096704012362648</v>
+        <v>0.03314325074425921</v>
       </c>
       <c r="B65" t="n">
-        <v>0.01745942903627812</v>
+        <v>0.02759866108850085</v>
       </c>
       <c r="C65" s="151">
         <f>MATCH(A65,F65:F1000,1)-A67</f>
@@ -9318,29 +9292,29 @@
         </is>
       </c>
       <c r="F66" s="170" t="n">
-        <v>-4.413349345511186e-05</v>
+        <v>0.001567841255570135</v>
       </c>
       <c r="G66" s="171" t="n">
-        <v>0.001669957977655923</v>
+        <v>0.0006825117281666752</v>
       </c>
       <c r="H66" s="171" t="n"/>
       <c r="J66" s="170" t="n">
-        <v>0.003163826177615653</v>
+        <v>0.001567841255570135</v>
       </c>
       <c r="K66" s="171" t="n">
-        <v>0.001692987358805279</v>
+        <v>0.0006825117281666752</v>
       </c>
       <c r="L66" s="172" t="n">
-        <v>0.007356514059804142</v>
+        <v>0.005416436512989897</v>
       </c>
       <c r="M66" s="170" t="n">
-        <v>0.001687712825212314</v>
+        <v>0.00107952011035508</v>
       </c>
       <c r="N66" s="171" t="n">
-        <v>0.01206458463583782</v>
+        <v>0.007318700126379141</v>
       </c>
       <c r="O66" s="172" t="n">
-        <v>0.001689761187772689</v>
+        <v>0.001081172249195681</v>
       </c>
       <c r="Q66" s="151" t="inlineStr">
         <is>
@@ -9358,29 +9332,29 @@
         <v>2</v>
       </c>
       <c r="F67" s="170" t="n">
-        <v>0.006581488091143006</v>
+        <v>0.003133776999068319</v>
       </c>
       <c r="G67" s="171" t="n">
-        <v>0.003339915955311845</v>
+        <v>0.00136502345633335</v>
       </c>
       <c r="H67" s="171" t="n"/>
       <c r="J67" s="170" t="n">
-        <v>0.006774327154687607</v>
+        <v>0.003133776999068319</v>
       </c>
       <c r="K67" s="171" t="n">
-        <v>0.003385974717610557</v>
+        <v>0.00136502345633335</v>
       </c>
       <c r="L67" s="172" t="n">
-        <v>0.01577153668235814</v>
+        <v>0.01032897755551651</v>
       </c>
       <c r="M67" s="170" t="n">
-        <v>0.003375425650424628</v>
+        <v>0.002159040220710159</v>
       </c>
       <c r="N67" s="171" t="n">
-        <v>0.02236070000328888</v>
+        <v>0.01408772466043334</v>
       </c>
       <c r="O67" s="172" t="n">
-        <v>0.003379522375545377</v>
+        <v>0.002162344498391363</v>
       </c>
       <c r="Q67" s="151" t="inlineStr">
         <is>
@@ -9400,29 +9374,29 @@
         </is>
       </c>
       <c r="F68" s="170" t="n">
-        <v>0.01164835562423693</v>
+        <v>0.004684314244536483</v>
       </c>
       <c r="G68" s="171" t="n">
-        <v>0.005819809678759374</v>
+        <v>0.002047535184500026</v>
       </c>
       <c r="H68" s="171" t="n"/>
       <c r="J68" s="170" t="n">
-        <v>0.01073993953481231</v>
+        <v>0.004684314244536483</v>
       </c>
       <c r="K68" s="171" t="n">
-        <v>0.005078962076415836</v>
+        <v>0.002047535184500026</v>
       </c>
       <c r="L68" s="172" t="n">
-        <v>0.02209197711069794</v>
+        <v>0.01519891524623057</v>
       </c>
       <c r="M68" s="170" t="n">
-        <v>0.005063138475636941</v>
+        <v>0.003238560331065239</v>
       </c>
       <c r="N68" s="171" t="n">
-        <v>0.03380323720138478</v>
+        <v>0.02172870058448045</v>
       </c>
       <c r="O68" s="172" t="n">
-        <v>0.005069283563318066</v>
+        <v>0.003243516747587044</v>
       </c>
       <c r="Q68" s="151" t="inlineStr">
         <is>
@@ -9447,29 +9421,29 @@
         </is>
       </c>
       <c r="F69" s="170" t="n">
-        <v>0.01263265813690444</v>
+        <v>0.006205960006016586</v>
       </c>
       <c r="G69" s="171" t="n">
-        <v>0.006679831910623691</v>
+        <v>0.002730046912666701</v>
       </c>
       <c r="H69" s="171" t="n"/>
       <c r="J69" s="170" t="n">
-        <v>0.01470587999999999</v>
+        <v>0.006205960006016586</v>
       </c>
       <c r="K69" s="171" t="n">
-        <v>0.007347425294999994</v>
+        <v>0.002730046912666701</v>
       </c>
       <c r="L69" s="172" t="n">
-        <v>0.02970587999999999</v>
+        <v>0.02048754170378272</v>
       </c>
       <c r="M69" s="170" t="n">
-        <v>0.006997547899999995</v>
+        <v>0.004318080441420318</v>
       </c>
       <c r="N69" s="171" t="n">
-        <v>0.04470587999999998</v>
+        <v>0.03006325488083861</v>
       </c>
       <c r="O69" s="172" t="n">
-        <v>0.007133422616504848</v>
+        <v>0.004324688996782726</v>
       </c>
       <c r="Q69" s="151" t="inlineStr">
         <is>
@@ -9484,62 +9458,62 @@
     </row>
     <row r="70" ht="15" customHeight="1">
       <c r="A70" t="n">
-        <v>0.005819809678759374</v>
+        <v>0.007347425294999994</v>
       </c>
       <c r="B70" t="n">
-        <v>0.01164835562423693</v>
+        <v>0.01470587999999999</v>
       </c>
       <c r="F70" s="170" t="n">
-        <v>0.01029782206689971</v>
+        <v>0.007685221297550615</v>
       </c>
       <c r="G70" s="171" t="n">
-        <v>0.008349789888279613</v>
+        <v>0.003412558640833376</v>
       </c>
       <c r="H70" s="171" t="n"/>
       <c r="J70" s="170" t="n">
-        <v>0.01602169183091956</v>
+        <v>0.007685221297550615</v>
       </c>
       <c r="K70" s="171" t="n">
-        <v>0.008464936794026393</v>
+        <v>0.003412558640833376</v>
       </c>
       <c r="L70" s="172" t="n">
-        <v>0.0334036560804544</v>
+        <v>0.02445614904682369</v>
       </c>
       <c r="M70" s="170" t="n">
-        <v>0.00843856412606157</v>
+        <v>0.005397600551775398</v>
       </c>
       <c r="N70" s="171" t="n">
-        <v>0.04890481874756369</v>
+        <v>0.03491301453182571</v>
       </c>
       <c r="O70" s="172" t="n">
-        <v>0.008448805938863444</v>
+        <v>0.005405861245978408</v>
       </c>
     </row>
     <row r="71">
       <c r="F71" s="170" t="n">
-        <v>0.01570583566245097</v>
+        <v>0.0091086051331805</v>
       </c>
       <c r="G71" s="171" t="n">
-        <v>0.01001974786593554</v>
+        <v>0.004095070369000052</v>
       </c>
       <c r="H71" s="171" t="n"/>
       <c r="J71" s="170" t="n">
-        <v>0.01853905420240788</v>
+        <v>0.0091086051331805</v>
       </c>
       <c r="K71" s="171" t="n">
-        <v>0.01015792415283167</v>
+        <v>0.004095070369000052</v>
       </c>
       <c r="L71" s="172" t="n">
-        <v>0.03705929002009589</v>
+        <v>0.02970587999999999</v>
       </c>
       <c r="M71" s="170" t="n">
-        <v>0.01012627695127388</v>
+        <v>0.006803171569444441</v>
       </c>
       <c r="N71" s="171" t="n">
-        <v>0.0548722273898275</v>
+        <v>0.04129960651975972</v>
       </c>
       <c r="O71" s="172" t="n">
-        <v>0.01013856712663613</v>
+        <v>0.006487033495174089</v>
       </c>
     </row>
     <row r="72">
@@ -9554,29 +9528,29 @@
         </is>
       </c>
       <c r="F72" s="170" t="n">
-        <v>0.01393752248580549</v>
+        <v>0.01046261852694819</v>
       </c>
       <c r="G72" s="171" t="n">
-        <v>0.01168970584359146</v>
+        <v>0.004777582097166727</v>
       </c>
       <c r="H72" s="171" t="n"/>
       <c r="J72" s="170" t="n">
-        <v>0.02107530915940725</v>
+        <v>0.01046261852694819</v>
       </c>
       <c r="K72" s="171" t="n">
-        <v>0.01185091151163695</v>
+        <v>0.004777582097166727</v>
       </c>
       <c r="L72" s="172" t="n">
-        <v>0.04146728820830675</v>
+        <v>0.03082215384706119</v>
       </c>
       <c r="M72" s="170" t="n">
-        <v>0.0118139897764862</v>
+        <v>0.007556640772485557</v>
       </c>
       <c r="N72" s="171" t="n">
-        <v>0.06014119894341424</v>
+        <v>0.04470587999999998</v>
       </c>
       <c r="O72" s="172" t="n">
-        <v>0.01182832831440882</v>
+        <v>0.007203358132352936</v>
       </c>
     </row>
     <row r="73">
@@ -9600,29 +9574,29 @@
         <v/>
       </c>
       <c r="F73" s="170" t="n">
-        <v>0.01507370609921062</v>
+        <v>0.01173376849289562</v>
       </c>
       <c r="G73" s="171" t="n">
-        <v>0.01335966382124738</v>
+        <v>0.005460093825333402</v>
       </c>
       <c r="H73" s="171" t="n"/>
       <c r="J73" s="170" t="n">
-        <v>0.02267352854821945</v>
+        <v>0.01173376849289562</v>
       </c>
       <c r="K73" s="171" t="n">
-        <v>0.01354389887044223</v>
+        <v>0.005460093825333402</v>
       </c>
       <c r="L73" s="172" t="n">
-        <v>0.04395424724589875</v>
+        <v>0.03348720430975954</v>
       </c>
       <c r="M73" s="170" t="n">
-        <v>0.01350170260169851</v>
+        <v>0.008636160882840636</v>
       </c>
       <c r="N73" s="171" t="n">
-        <v>0.06510807752263142</v>
+        <v>0.048824352910882</v>
       </c>
       <c r="O73" s="172" t="n">
-        <v>0.01351808950218151</v>
+        <v>0.008649377993565452</v>
       </c>
     </row>
     <row r="74">
@@ -9637,29 +9611,29 @@
         </is>
       </c>
       <c r="F74" s="170" t="n">
-        <v>0.01919521006491365</v>
+        <v>0.0129085620450648</v>
       </c>
       <c r="G74" s="171" t="n">
-        <v>0.0150296217989033</v>
+        <v>0.006142605553500077</v>
       </c>
       <c r="H74" s="171" t="n"/>
       <c r="J74" s="170" t="n">
-        <v>0.02507678421514629</v>
+        <v>0.0129085620450648</v>
       </c>
       <c r="K74" s="171" t="n">
-        <v>0.01523688622924751</v>
+        <v>0.006142605553500077</v>
       </c>
       <c r="L74" s="172" t="n">
-        <v>0.04784676373368354</v>
+        <v>0.03621765343120573</v>
       </c>
       <c r="M74" s="170" t="n">
-        <v>0.01518941542691082</v>
+        <v>0.009715680993195716</v>
       </c>
       <c r="N74" s="171" t="n">
-        <v>0.06946920724178618</v>
+        <v>0.05210678825540244</v>
       </c>
       <c r="O74" s="172" t="n">
-        <v>0.0152078506899542</v>
+        <v>0.009730550242761135</v>
       </c>
     </row>
     <row r="75">
@@ -9681,29 +9655,29 @@
         </is>
       </c>
       <c r="F75" s="170" t="n">
-        <v>0.02096704012362648</v>
+        <v>0.01397350619749764</v>
       </c>
       <c r="G75" s="171" t="n">
-        <v>0.01745942903627812</v>
+        <v>0.006825117281666752</v>
       </c>
       <c r="H75" s="171" t="n"/>
       <c r="J75" s="170" t="n">
-        <v>0.02712814800648954</v>
+        <v>0.01397350619749764</v>
       </c>
       <c r="K75" s="171" t="n">
-        <v>0.01692987358805279</v>
+        <v>0.006825117281666752</v>
       </c>
       <c r="L75" s="172" t="n">
-        <v>0.05027143427247294</v>
+        <v>0.03854566681852389</v>
       </c>
       <c r="M75" s="170" t="n">
-        <v>0.01687712825212314</v>
+        <v>0.0107952011035508</v>
       </c>
       <c r="N75" s="171" t="n">
-        <v>0.07202093221518602</v>
+        <v>0.05658291862666504</v>
       </c>
       <c r="O75" s="172" t="n">
-        <v>0.01689761187772689</v>
+        <v>0.01081172249195682</v>
       </c>
     </row>
     <row r="76">
@@ -9723,29 +9697,29 @@
         <v>0</v>
       </c>
       <c r="F76" s="170" t="n">
-        <v>0.02070504539186151</v>
+        <v>0.01470587999999999</v>
       </c>
       <c r="G76" s="171" t="n">
-        <v>0.01836953775421515</v>
+        <v>0.007347425294999994</v>
       </c>
       <c r="H76" s="171" t="n"/>
       <c r="J76" s="170" t="n">
-        <v>0.02857069176855102</v>
+        <v>0.01470587999999999</v>
       </c>
       <c r="K76" s="171" t="n">
-        <v>0.01862286094685807</v>
+        <v>0.007347425294999994</v>
       </c>
       <c r="L76" s="172" t="n">
-        <v>0.05395485546307871</v>
+        <v>0.0401034100788385</v>
       </c>
       <c r="M76" s="170" t="n">
-        <v>0.01856484107733545</v>
+        <v>0.01187472121390588</v>
       </c>
       <c r="N76" s="171" t="n">
-        <v>0.07775959655713804</v>
+        <v>0.05829994402768002</v>
       </c>
       <c r="O76" s="172" t="n">
-        <v>0.01858737306549958</v>
+        <v>0.0118928947411525</v>
       </c>
     </row>
     <row r="77" ht="15" customHeight="1">
@@ -9760,28 +9734,28 @@
         </is>
       </c>
       <c r="F77" t="n">
-        <v>0.02013621922717913</v>
+        <v>0.01580787598549226</v>
       </c>
       <c r="G77" t="n">
-        <v>0.02003949573187107</v>
+        <v>0.008190140738000104</v>
       </c>
       <c r="J77" t="n">
-        <v>0.03104748734763248</v>
+        <v>0.01580787598549226</v>
       </c>
       <c r="K77" t="n">
-        <v>0.02031584830566334</v>
+        <v>0.008190140738000104</v>
       </c>
       <c r="L77" t="n">
-        <v>0.05939180010517697</v>
+        <v>0.04222304881927369</v>
       </c>
       <c r="M77" t="n">
-        <v>0.02099264369999999</v>
+        <v>0.01295424132426095</v>
       </c>
       <c r="N77" t="n">
-        <v>0.08188154438194967</v>
+        <v>0.06170506446145774</v>
       </c>
       <c r="O77" t="n">
-        <v>0.02027713425327226</v>
+        <v>0.01297406699034818</v>
       </c>
     </row>
     <row r="78" ht="15" customHeight="1">
@@ -9800,28 +9774,28 @@
         <v/>
       </c>
       <c r="F78" t="n">
-        <v>0.02164228680565151</v>
+        <v>0.01667420814951387</v>
       </c>
       <c r="G78" t="n">
-        <v>0.02170945370952699</v>
+        <v>0.008872652466166777</v>
       </c>
       <c r="J78" t="n">
-        <v>0.03314325074425921</v>
+        <v>0.01667420814951387</v>
       </c>
       <c r="K78" t="n">
-        <v>0.02204227588499999</v>
+        <v>0.008872652466166777</v>
       </c>
       <c r="L78" t="n">
-        <v>0.0614015591138331</v>
+        <v>0.04413674864695369</v>
       </c>
       <c r="M78" t="n">
-        <v>0.02194026672776008</v>
+        <v>0.01403376143461603</v>
       </c>
       <c r="N78" t="n">
-        <v>0.08564034946609472</v>
+        <v>0.06454547993100884</v>
       </c>
       <c r="O78" t="n">
-        <v>0.02140026784951455</v>
+        <v>0.01405523923954386</v>
       </c>
     </row>
     <row r="79" ht="15" customHeight="1">
@@ -9842,28 +9816,28 @@
         <v/>
       </c>
       <c r="F79" t="n">
-        <v>0.02519402105553921</v>
+        <v>0.01751763246212036</v>
       </c>
       <c r="G79" t="n">
-        <v>0.02337941168718292</v>
+        <v>0.009555164194333454</v>
       </c>
       <c r="J79" t="n">
-        <v>0.03529880884305302</v>
+        <v>0.01751763246212036</v>
       </c>
       <c r="K79" t="n">
-        <v>0.0237018230232739</v>
+        <v>0.009555164194333454</v>
       </c>
       <c r="L79" t="n">
-        <v>0.06521382594939357</v>
+        <v>0.04597667516900289</v>
       </c>
       <c r="M79" t="n">
-        <v>0.02362797955297239</v>
+        <v>0.01511328154497111</v>
       </c>
       <c r="N79" t="n">
-        <v>0.09183933535557309</v>
+        <v>0.06586839043934345</v>
       </c>
       <c r="O79" t="n">
-        <v>0.02365665662881764</v>
+        <v>0.01513641148873954</v>
       </c>
     </row>
     <row r="80" ht="15" customHeight="1">
@@ -9873,28 +9847,28 @@
         </is>
       </c>
       <c r="F80" t="n">
-        <v>0.02776219490510262</v>
+        <v>0.01833862485955194</v>
       </c>
       <c r="G80" t="n">
-        <v>0.02504936966483884</v>
+        <v>0.01023767592250013</v>
       </c>
       <c r="J80" t="n">
-        <v>0.03704681406044237</v>
+        <v>0.01833862485955194</v>
       </c>
       <c r="K80" t="n">
-        <v>0.02539481038207918</v>
+        <v>0.01023767592250013</v>
       </c>
       <c r="L80" t="n">
-        <v>0.06877503774115507</v>
+        <v>0.04737499399254544</v>
       </c>
       <c r="M80" t="n">
-        <v>0.02531569237818471</v>
+        <v>0.01619280165532619</v>
       </c>
       <c r="N80" t="n">
-        <v>0.0983352946822777</v>
+        <v>0.06822099598947223</v>
       </c>
       <c r="O80" t="n">
-        <v>0.02534641781659033</v>
+        <v>0.01621758373793522</v>
       </c>
     </row>
     <row r="81" ht="15" customHeight="1">
@@ -9910,28 +9884,28 @@
         </is>
       </c>
       <c r="F81" t="n">
-        <v>0.02831758128260223</v>
+        <v>0.01913766127804881</v>
       </c>
       <c r="G81" t="n">
-        <v>0.02671932764249476</v>
+        <v>0.0109201876506668</v>
       </c>
       <c r="J81" t="n">
-        <v>0.04009709271032365</v>
+        <v>0.01913766127804881</v>
       </c>
       <c r="K81" t="n">
-        <v>0.02708779774088446</v>
+        <v>0.0109201876506668</v>
       </c>
       <c r="L81" t="n">
-        <v>0.07409453890454115</v>
+        <v>0.04886387072470572</v>
       </c>
       <c r="M81" t="n">
-        <v>0.02700340520339702</v>
+        <v>0.01727232176568127</v>
       </c>
       <c r="N81" t="n">
-        <v>0.1050313666749615</v>
+        <v>0.07145049658440544</v>
       </c>
       <c r="O81" t="n">
-        <v>0.02703617900436302</v>
+        <v>0.0172987559871309</v>
       </c>
     </row>
     <row r="82" ht="15" customHeight="1">
@@ -9944,28 +9918,28 @@
         <v/>
       </c>
       <c r="F82" t="n">
-        <v>0.03083095311629852</v>
+        <v>0.01991521765385121</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02838928562015068</v>
+        <v>0.01160269937883348</v>
       </c>
       <c r="J82" t="n">
-        <v>0.0421011000916353</v>
+        <v>0.01991521765385121</v>
       </c>
       <c r="K82" t="n">
-        <v>0.02878078509968974</v>
+        <v>0.01160269937883348</v>
       </c>
       <c r="L82" t="n">
-        <v>0.07858167385497528</v>
+        <v>0.05087547097260786</v>
       </c>
       <c r="M82" t="n">
-        <v>0.02869111802860934</v>
+        <v>0.01835184187603635</v>
       </c>
       <c r="N82" t="n">
-        <v>0.1106893009880145</v>
+        <v>0.07360409222715353</v>
       </c>
       <c r="O82" t="n">
-        <v>0.02872594019213571</v>
+        <v>0.01837992823632659</v>
       </c>
     </row>
     <row r="83" ht="15" customHeight="1">
@@ -9975,28 +9949,28 @@
         </is>
       </c>
       <c r="F83" t="n">
-        <v>0.03127308333445197</v>
+        <v>0.02067176992319929</v>
       </c>
       <c r="G83" t="n">
-        <v>0.03005924359780661</v>
+        <v>0.01228521110700015</v>
       </c>
       <c r="J83" t="n">
-        <v>0.04501029150331561</v>
+        <v>0.02067176992319929</v>
       </c>
       <c r="K83" t="n">
-        <v>0.03047377245849501</v>
+        <v>0.01228521110700015</v>
       </c>
       <c r="L83" t="n">
-        <v>0.08304578700788107</v>
+        <v>0.05304196034337622</v>
       </c>
       <c r="M83" t="n">
-        <v>0.03037883085382165</v>
+        <v>0.01943136198639143</v>
       </c>
       <c r="N83" t="n">
-        <v>0.1180708472758268</v>
+        <v>0.07572898292072688</v>
       </c>
       <c r="O83" t="n">
-        <v>0.0304157013799084</v>
+        <v>0.01946110048552227</v>
       </c>
     </row>
     <row r="84" ht="15" customHeight="1">
@@ -10011,28 +9985,28 @@
         </is>
       </c>
       <c r="F84" t="n">
-        <v>0.03261474486532302</v>
+        <v>0.0214077940223333</v>
       </c>
       <c r="G84" t="n">
-        <v>0.03172920157546253</v>
+        <v>0.01296772283516683</v>
       </c>
       <c r="J84" t="n">
-        <v>0.04717612224430286</v>
+        <v>0.0214077940223333</v>
       </c>
       <c r="K84" t="n">
-        <v>0.03216675981730029</v>
+        <v>0.01296772283516683</v>
       </c>
       <c r="L84" t="n">
-        <v>0.08689622277868209</v>
+        <v>0.05489550444413505</v>
       </c>
       <c r="M84" t="n">
-        <v>0.03206654367903396</v>
+        <v>0.02051088209674651</v>
       </c>
       <c r="N84" t="n">
-        <v>0.1234377551927884</v>
+        <v>0.07777236866813592</v>
       </c>
       <c r="O84" t="n">
-        <v>0.03210546256768108</v>
+        <v>0.02054227273471795</v>
       </c>
     </row>
     <row r="85" ht="15" customHeight="1">
@@ -10051,28 +10025,28 @@
         <v/>
       </c>
       <c r="F85" t="n">
-        <v>0.0308267106371722</v>
+        <v>0.02212376588749344</v>
       </c>
       <c r="G85" t="n">
-        <v>0.03339915955311845</v>
+        <v>0.0136502345633335</v>
       </c>
       <c r="J85" t="n">
-        <v>0.04945004761353546</v>
+        <v>0.02212376588749344</v>
       </c>
       <c r="K85" t="n">
-        <v>0.03385974717610557</v>
+        <v>0.0136502345633335</v>
       </c>
       <c r="L85" t="n">
-        <v>0.09054232558280167</v>
+        <v>0.05696826888200857</v>
       </c>
       <c r="M85" t="n">
-        <v>0.03375425650424628</v>
+        <v>0.02159040220710159</v>
       </c>
       <c r="N85" t="n">
-        <v>0.1299517743932893</v>
+        <v>0.08108144947239099</v>
       </c>
       <c r="O85" t="n">
-        <v>0.03379522375545378</v>
+        <v>0.02162344498391363</v>
       </c>
     </row>
     <row r="86" ht="15" customHeight="1">
@@ -10093,28 +10067,28 @@
         <v/>
       </c>
       <c r="F86" t="n">
-        <v>0.03287975357825994</v>
+        <v>0.02282016145491994</v>
       </c>
       <c r="G86" t="n">
-        <v>0.03506911753077437</v>
+        <v>0.01433274629150018</v>
       </c>
       <c r="J86" t="n">
-        <v>0.05158352290995165</v>
+        <v>0.02282016145491994</v>
       </c>
       <c r="K86" t="n">
-        <v>0.03555273453491085</v>
+        <v>0.01433274629150018</v>
       </c>
       <c r="L86" t="n">
-        <v>0.09459343983566343</v>
+        <v>0.05939180010517697</v>
       </c>
       <c r="M86" t="n">
-        <v>0.03544196932945859</v>
+        <v>0.02266961995030767</v>
       </c>
       <c r="N86" t="n">
-        <v>0.1353746545317195</v>
+        <v>0.08564034946609472</v>
       </c>
       <c r="O86" t="n">
-        <v>0.03548498494322646</v>
+        <v>0.02299839557958748</v>
       </c>
     </row>
     <row r="87" ht="15" customHeight="1">
@@ -10124,28 +10098,28 @@
         </is>
       </c>
       <c r="F87" t="n">
-        <v>0.03474464661684673</v>
+        <v>0.02349745666085294</v>
       </c>
       <c r="G87" t="n">
-        <v>0.0367390755084303</v>
+        <v>0.01501525801966686</v>
       </c>
       <c r="J87" t="n">
-        <v>0.05372800343248983</v>
+        <v>0.02349745666085294</v>
       </c>
       <c r="K87" t="n">
-        <v>0.03724572189371613</v>
+        <v>0.01501525801966686</v>
       </c>
       <c r="L87" t="n">
-        <v>0.09795890995269102</v>
+        <v>0.06062524453619456</v>
       </c>
       <c r="M87" t="n">
-        <v>0.03712968215467091</v>
+        <v>0.02374944242781175</v>
       </c>
       <c r="N87" t="n">
-        <v>0.1406681452624692</v>
+        <v>0.08650818089115964</v>
       </c>
       <c r="O87" t="n">
-        <v>0.03717474613099915</v>
+        <v>0.023785789482305</v>
       </c>
     </row>
     <row r="88" ht="15" customHeight="1">
@@ -10159,28 +10133,28 @@
       <c r="C88" s="139" t="n"/>
       <c r="D88" s="139" t="n"/>
       <c r="F88" t="n">
-        <v>0.03739216268119304</v>
+        <v>0.02415612744153274</v>
       </c>
       <c r="G88" t="n">
-        <v>0.03840903348608622</v>
+        <v>0.01569776974783353</v>
       </c>
       <c r="J88" t="n">
-        <v>0.05583494448008826</v>
+        <v>0.02415612744153274</v>
       </c>
       <c r="K88" t="n">
-        <v>0.03893870925252141</v>
+        <v>0.01569776974783353</v>
       </c>
       <c r="L88" t="n">
-        <v>0.1018480803493079</v>
+        <v>0.06348320378323241</v>
       </c>
       <c r="M88" t="n">
-        <v>0.03881739497988321</v>
+        <v>0.02482896253816683</v>
       </c>
       <c r="N88" t="n">
-        <v>0.1443939962399283</v>
+        <v>0.09055779095211952</v>
       </c>
       <c r="O88" t="n">
-        <v>0.03886450731877183</v>
+        <v>0.02486696173150068</v>
       </c>
     </row>
     <row r="89" ht="15" customHeight="1">
@@ -10193,4780 +10167,7380 @@
         <v/>
       </c>
       <c r="F89" t="n">
-        <v>0.03690371617747273</v>
+        <v>0.02479664973319949</v>
       </c>
       <c r="G89" t="n">
-        <v>0.04007899146374214</v>
+        <v>0.01638028147600021</v>
       </c>
       <c r="J89" t="n">
-        <v>0.0570558013516853</v>
+        <v>0.02479664973319949</v>
       </c>
       <c r="K89" t="n">
-        <v>0.04063169661132669</v>
+        <v>0.01638028147600021</v>
       </c>
       <c r="L89" t="n">
-        <v>0.1035702954409374</v>
+        <v>0.06683727716953691</v>
       </c>
       <c r="M89" t="n">
-        <v>0.04050510780509553</v>
+        <v>0.02590848264852191</v>
       </c>
       <c r="N89" t="n">
-        <v>0.1498139571184868</v>
+        <v>0.09521368473349723</v>
       </c>
       <c r="O89" t="n">
-        <v>0.04055426850654453</v>
+        <v>0.02594813398069636</v>
       </c>
     </row>
     <row r="90" ht="15" customHeight="1">
       <c r="F90" t="n">
-        <v>0.03640014007315337</v>
+        <v>0.02541949947209338</v>
       </c>
       <c r="G90" t="n">
-        <v>0.04174894944139806</v>
+        <v>0.01706279320416688</v>
       </c>
       <c r="J90" t="n">
-        <v>0.05864202934621933</v>
+        <v>0.02541949947209338</v>
       </c>
       <c r="K90" t="n">
-        <v>0.04232468397013196</v>
+        <v>0.01706279320416688</v>
       </c>
       <c r="L90" t="n">
-        <v>0.1058384426258413</v>
+        <v>0.06995844485664049</v>
       </c>
       <c r="M90" t="n">
-        <v>0.04219282063030785</v>
+        <v>0.02698800275887699</v>
       </c>
       <c r="N90" t="n">
-        <v>0.150989777552535</v>
+        <v>0.09853302568829581</v>
       </c>
       <c r="O90" t="n">
-        <v>0.04224402969431722</v>
+        <v>0.02702930622989204</v>
       </c>
     </row>
     <row r="91" ht="15" customHeight="1">
       <c r="F91" t="n">
-        <v>0.03687823521331654</v>
+        <v>0.02602515259445469</v>
       </c>
       <c r="G91" t="n">
-        <v>0.04341890741905399</v>
+        <v>0.01774530493233355</v>
       </c>
       <c r="J91" t="n">
-        <v>0.05920631264402094</v>
+        <v>0.02602515259445469</v>
       </c>
       <c r="K91" t="n">
-        <v>0.04401767132893725</v>
+        <v>0.01774530493233355</v>
       </c>
       <c r="L91" t="n">
-        <v>0.1070961202725214</v>
+        <v>0.07251768700607558</v>
       </c>
       <c r="M91" t="n">
-        <v>0.04388053345552016</v>
+        <v>0.02806752286923207</v>
       </c>
       <c r="N91" t="n">
-        <v>0.1541123526975883</v>
+        <v>0.1021729772695184</v>
       </c>
       <c r="O91" t="n">
-        <v>0.04393379088208991</v>
+        <v>0.02811047847908772</v>
       </c>
     </row>
     <row r="92" ht="15" customHeight="1">
       <c r="F92" t="n">
-        <v>0.03733451928409268</v>
+        <v>0.02661408503652359</v>
       </c>
       <c r="G92" t="n">
-        <v>0.04508886539670991</v>
+        <v>0.01842781666050023</v>
       </c>
       <c r="J92" t="n">
-        <v>0.06031151033009373</v>
+        <v>0.02661408503652359</v>
       </c>
       <c r="K92" t="n">
-        <v>0.04571065868774252</v>
+        <v>0.01842781666050023</v>
       </c>
       <c r="L92" t="n">
-        <v>0.1085092256634474</v>
+        <v>0.07568598377937452</v>
       </c>
       <c r="M92" t="n">
-        <v>0.04556824628073247</v>
+        <v>0.02914704297958715</v>
       </c>
       <c r="N92" t="n">
-        <v>0.1561671486600344</v>
+        <v>0.107890702930168</v>
       </c>
       <c r="O92" t="n">
-        <v>0.04562355206986259</v>
+        <v>0.0291916507282834</v>
       </c>
     </row>
     <row r="93" ht="15" customHeight="1">
       <c r="F93" t="n">
-        <v>0.03776550997161215</v>
+        <v>0.02718677273454025</v>
       </c>
       <c r="G93" t="n">
-        <v>0.04675882337436583</v>
+        <v>0.01911032838866691</v>
       </c>
       <c r="J93" t="n">
-        <v>0.06088903486496318</v>
+        <v>0.02718677273454025</v>
       </c>
       <c r="K93" t="n">
-        <v>0.0474036460465478</v>
+        <v>0.01911032838866691</v>
       </c>
       <c r="L93" t="n">
-        <v>0.109667576723462</v>
+        <v>0.07933431533806978</v>
       </c>
       <c r="M93" t="n">
-        <v>0.04725595910594479</v>
+        <v>0.03022656308994223</v>
       </c>
       <c r="N93" t="n">
-        <v>0.1582458719377242</v>
+        <v>0.1124433661232477</v>
       </c>
       <c r="O93" t="n">
-        <v>0.04731331325763528</v>
+        <v>0.03027282297747909</v>
       </c>
     </row>
     <row r="94" ht="15" customHeight="1">
       <c r="F94" t="n">
-        <v>0.03916772496200537</v>
+        <v>0.02774369162474492</v>
       </c>
       <c r="G94" t="n">
-        <v>0.04842878135202176</v>
+        <v>0.01979284011683358</v>
       </c>
       <c r="J94" t="n">
-        <v>0.06183315076022168</v>
+        <v>0.02774369162474492</v>
       </c>
       <c r="K94" t="n">
-        <v>0.04909663340535308</v>
+        <v>0.01979284011683358</v>
       </c>
       <c r="L94" t="n">
-        <v>0.1116609913774083</v>
+        <v>0.08193366184369361</v>
       </c>
       <c r="M94" t="n">
-        <v>0.0489436719311571</v>
+        <v>0.0313060832002973</v>
       </c>
       <c r="N94" t="n">
-        <v>0.1596337869049969</v>
+        <v>0.1175881303017607</v>
       </c>
       <c r="O94" t="n">
-        <v>0.04900307444540797</v>
+        <v>0.03135399522667476</v>
       </c>
     </row>
     <row r="95" ht="15" customHeight="1">
       <c r="F95" t="n">
-        <v>0.03853768194140274</v>
+        <v>0.02828531764337784</v>
       </c>
       <c r="G95" t="n">
-        <v>0.05009873932967768</v>
+        <v>0.02047535184500026</v>
       </c>
       <c r="J95" t="n">
-        <v>0.06213812252746163</v>
+        <v>0.02828531764337784</v>
       </c>
       <c r="K95" t="n">
-        <v>0.05078962076415836</v>
+        <v>0.02047535184500026</v>
       </c>
       <c r="L95" t="n">
-        <v>0.1117792875501291</v>
+        <v>0.08545500345777857</v>
       </c>
       <c r="M95" t="n">
-        <v>0.05063138475636942</v>
+        <v>0.03238560331065238</v>
       </c>
       <c r="N95" t="n">
-        <v>0.1611161579361916</v>
+        <v>0.1214821589187098</v>
       </c>
       <c r="O95" t="n">
-        <v>0.05069283563318066</v>
+        <v>0.03243516747587045</v>
       </c>
     </row>
     <row r="96" ht="15" customHeight="1">
       <c r="F96" t="n">
-        <v>0.03687189859593465</v>
+        <v>0.02881212672667911</v>
       </c>
       <c r="G96" t="n">
-        <v>0.0517686973073336</v>
+        <v>0.02115786357316693</v>
       </c>
       <c r="J96" t="n">
-        <v>0.06319821467827554</v>
+        <v>0.02881212672667911</v>
       </c>
       <c r="K96" t="n">
-        <v>0.05248260812296363</v>
+        <v>0.02115786357316693</v>
       </c>
       <c r="L96" t="n">
-        <v>0.1139122831664674</v>
+        <v>0.08876932034185692</v>
       </c>
       <c r="M96" t="n">
-        <v>0.05231909758158173</v>
+        <v>0.03346512342100746</v>
       </c>
       <c r="N96" t="n">
-        <v>0.1632782494056474</v>
+        <v>0.1273826154270983</v>
       </c>
       <c r="O96" t="n">
-        <v>0.05238259682095334</v>
+        <v>0.03351633972506612</v>
       </c>
     </row>
     <row r="97" ht="15" customHeight="1">
       <c r="F97" t="n">
-        <v>0.03916689261173149</v>
+        <v>0.02932459481088907</v>
       </c>
       <c r="G97" t="n">
-        <v>0.05343865528498953</v>
+        <v>0.02184037530133361</v>
       </c>
       <c r="J97" t="n">
-        <v>0.06390769172425574</v>
+        <v>0.02932459481088907</v>
       </c>
       <c r="K97" t="n">
-        <v>0.05417559548176892</v>
+        <v>0.02184037530133361</v>
       </c>
       <c r="L97" t="n">
-        <v>0.1147497961512659</v>
+        <v>0.09214759265746114</v>
       </c>
       <c r="M97" t="n">
-        <v>0.05400681040679405</v>
+        <v>0.03454464353136254</v>
       </c>
       <c r="N97" t="n">
-        <v>0.1643053256877036</v>
+        <v>0.1321466632799293</v>
       </c>
       <c r="O97" t="n">
-        <v>0.05407235800872603</v>
+        <v>0.03459751197426181</v>
       </c>
     </row>
     <row r="98" ht="15" customHeight="1">
       <c r="F98" t="n">
-        <v>0.04141918167492364</v>
+        <v>0.02982319783224786</v>
       </c>
       <c r="G98" t="n">
-        <v>0.05510861326264544</v>
+        <v>0.02252288702950028</v>
       </c>
       <c r="J98" t="n">
-        <v>0.06426081817699462</v>
+        <v>0.02982319783224786</v>
       </c>
       <c r="K98" t="n">
-        <v>0.05586858284057419</v>
+        <v>0.02252288702950028</v>
       </c>
       <c r="L98" t="n">
-        <v>0.1156816444293677</v>
+        <v>0.09536080056612356</v>
       </c>
       <c r="M98" t="n">
-        <v>0.05569452323200635</v>
+        <v>0.03562416364171763</v>
       </c>
       <c r="N98" t="n">
-        <v>0.1654826511566994</v>
+        <v>0.1358314659302058</v>
       </c>
       <c r="O98" t="n">
-        <v>0.05576211919649873</v>
+        <v>0.03567868422345749</v>
       </c>
     </row>
     <row r="99" ht="15" customHeight="1">
       <c r="F99" t="n">
-        <v>0.03962528347164153</v>
+        <v>0.03030841172699565</v>
       </c>
       <c r="G99" t="n">
-        <v>0.05677857124030137</v>
+        <v>0.02320539875766696</v>
       </c>
       <c r="J99" t="n">
-        <v>0.06475185854808473</v>
+        <v>0.03030841172699565</v>
       </c>
       <c r="K99" t="n">
-        <v>0.05756157019937948</v>
+        <v>0.02320539875766696</v>
       </c>
       <c r="L99" t="n">
-        <v>0.1158976459256156</v>
+        <v>0.09827992422937665</v>
       </c>
       <c r="M99" t="n">
-        <v>0.05738223605721867</v>
+        <v>0.0367036837520727</v>
       </c>
       <c r="N99" t="n">
-        <v>0.1670954901869736</v>
+        <v>0.1405941868309308</v>
       </c>
       <c r="O99" t="n">
-        <v>0.05745188038427142</v>
+        <v>0.03675985647265317</v>
       </c>
     </row>
     <row r="100" ht="15" customHeight="1">
       <c r="F100" t="n">
-        <v>0.03878171568801554</v>
+        <v>0.03078071243137274</v>
       </c>
       <c r="G100" t="n">
-        <v>0.05844852921795729</v>
+        <v>0.02388791048583363</v>
       </c>
       <c r="J100" t="n">
-        <v>0.06527507734911835</v>
+        <v>0.03078071243137274</v>
       </c>
       <c r="K100" t="n">
-        <v>0.05925455755818475</v>
+        <v>0.02388791048583363</v>
       </c>
       <c r="L100" t="n">
-        <v>0.1174876185648524</v>
+        <v>0.1011759438087526</v>
       </c>
       <c r="M100" t="n">
-        <v>0.05906994888243098</v>
+        <v>0.03778320386242778</v>
       </c>
       <c r="N100" t="n">
-        <v>0.1688291071528656</v>
+        <v>0.1447919894351077</v>
       </c>
       <c r="O100" t="n">
-        <v>0.0591416415720441</v>
+        <v>0.03784102872184886</v>
       </c>
     </row>
     <row r="101" ht="15" customHeight="1">
       <c r="F101" t="n">
-        <v>0.04193408024725295</v>
+        <v>0.03124057588161928</v>
       </c>
       <c r="G101" t="n">
-        <v>0.06011848719561322</v>
+        <v>0.02457042221400031</v>
       </c>
       <c r="J101" t="n">
-        <v>0.06572473909168793</v>
+        <v>0.03124057588161928</v>
       </c>
       <c r="K101" t="n">
-        <v>0.06094754491699002</v>
+        <v>0.02457042221400031</v>
       </c>
       <c r="L101" t="n">
-        <v>0.1170413802719212</v>
+        <v>0.104219839465784</v>
       </c>
       <c r="M101" t="n">
-        <v>0.0607576617076433</v>
+        <v>0.03886272397278286</v>
       </c>
       <c r="N101" t="n">
-        <v>0.1692687664287145</v>
+        <v>0.1490820371957391</v>
       </c>
       <c r="O101" t="n">
-        <v>0.06083140275981679</v>
+        <v>0.03892220097104454</v>
       </c>
     </row>
     <row r="102" ht="15" customHeight="1">
       <c r="F102" t="n">
-        <v>0.04093164212425351</v>
+        <v>0.03168847801397547</v>
       </c>
       <c r="G102" t="n">
-        <v>0.06178844517326914</v>
+        <v>0.02525293394216698</v>
       </c>
       <c r="J102" t="n">
-        <v>0.06569510828738594</v>
+        <v>0.03168847801397547</v>
       </c>
       <c r="K102" t="n">
-        <v>0.0626405322757953</v>
+        <v>0.02525293394216698</v>
       </c>
       <c r="L102" t="n">
-        <v>0.1183487489716648</v>
+        <v>0.1074825913620032</v>
       </c>
       <c r="M102" t="n">
-        <v>0.06244537453285561</v>
+        <v>0.03994224408313794</v>
       </c>
       <c r="N102" t="n">
-        <v>0.1691997323888595</v>
+        <v>0.1529214935658286</v>
       </c>
       <c r="O102" t="n">
-        <v>0.06252116394758948</v>
+        <v>0.04000337322024022</v>
       </c>
     </row>
     <row r="103" ht="15" customHeight="1">
       <c r="F103" t="n">
-        <v>0.03992650032935881</v>
+        <v>0.03212489476468157</v>
       </c>
       <c r="G103" t="n">
-        <v>0.06345840315092506</v>
+        <v>0.02593544567033366</v>
       </c>
       <c r="J103" t="n">
-        <v>0.06578044944780474</v>
+        <v>0.03212489476468157</v>
       </c>
       <c r="K103" t="n">
-        <v>0.06433351963460059</v>
+        <v>0.02593544567033366</v>
       </c>
       <c r="L103" t="n">
-        <v>0.1187836002103539</v>
+        <v>0.1099351796589425</v>
       </c>
       <c r="M103" t="n">
-        <v>0.06413308735806793</v>
+        <v>0.04102176419349302</v>
       </c>
       <c r="N103" t="n">
-        <v>0.1712806989321894</v>
+        <v>0.1564675219983788</v>
       </c>
       <c r="O103" t="n">
-        <v>0.06421092513536217</v>
+        <v>0.0410845454694359</v>
       </c>
     </row>
     <row r="104" ht="15" customHeight="1">
       <c r="F104" t="n">
-        <v>0.03989149573817284</v>
+        <v>0.03255030206997774</v>
       </c>
       <c r="G104" t="n">
-        <v>0.06512836112858099</v>
+        <v>0.02661795739850033</v>
       </c>
       <c r="J104" t="n">
-        <v>0.0662865014885184</v>
+        <v>0.03255030206997774</v>
       </c>
       <c r="K104" t="n">
-        <v>0.06602650699340587</v>
+        <v>0.02661795739850033</v>
       </c>
       <c r="L104" t="n">
-        <v>0.1178835898446606</v>
+        <v>0.1112485845181345</v>
       </c>
       <c r="M104" t="n">
-        <v>0.06582080018328025</v>
+        <v>0.0421012843038481</v>
       </c>
       <c r="N104" t="n">
-        <v>0.1708766418593941</v>
+        <v>0.159677285946393</v>
       </c>
       <c r="O104" t="n">
-        <v>0.06590068632313487</v>
+        <v>0.04216571771863158</v>
       </c>
     </row>
     <row r="105" ht="15" customHeight="1">
       <c r="F105" t="n">
-        <v>0.04082969333365311</v>
+        <v>0.03314325074425921</v>
       </c>
       <c r="G105" t="n">
-        <v>0.0667983191062369</v>
+        <v>0.02759866108850085</v>
       </c>
       <c r="J105" t="n">
-        <v>0.06628007010045477</v>
+        <v>0.03314325074425921</v>
       </c>
       <c r="K105" t="n">
-        <v>0.06771949435221114</v>
+        <v>0.02759866108850085</v>
       </c>
       <c r="L105" t="n">
-        <v>0.1184398626826386</v>
+        <v>0.1129937861011113</v>
       </c>
       <c r="M105" t="n">
-        <v>0.06750851300849256</v>
+        <v>0.04318080441420318</v>
       </c>
       <c r="N105" t="n">
-        <v>0.1699391557054158</v>
+        <v>0.1622079488628743</v>
       </c>
       <c r="O105" t="n">
-        <v>0.06759044751090755</v>
+        <v>0.04324688996782727</v>
       </c>
     </row>
     <row r="106" ht="15" customHeight="1">
       <c r="F106" t="n">
-        <v>0.03774292839563323</v>
+        <v>0.03337142433437511</v>
       </c>
       <c r="G106" t="n">
-        <v>0.06846827708389283</v>
+        <v>0.02798298085483368</v>
       </c>
       <c r="J106" t="n">
-        <v>0.06603227963970561</v>
+        <v>0.03337142433437511</v>
       </c>
       <c r="K106" t="n">
-        <v>0.06941248171101642</v>
+        <v>0.02798298085483368</v>
       </c>
       <c r="L106" t="n">
-        <v>0.1181149383612754</v>
+        <v>0.1147417645694055</v>
       </c>
       <c r="M106" t="n">
-        <v>0.06919622583370487</v>
+        <v>0.04426032452455826</v>
       </c>
       <c r="N106" t="n">
-        <v>0.1702807512378188</v>
+        <v>0.1657166742008257</v>
       </c>
       <c r="O106" t="n">
-        <v>0.06928020869868023</v>
+        <v>0.04432806221702294</v>
       </c>
     </row>
     <row r="107" ht="15" customHeight="1">
       <c r="F107" t="n">
-        <v>0.04063303620394687</v>
+        <v>0.03377599638970603</v>
       </c>
       <c r="G107" t="n">
-        <v>0.07013823506154875</v>
+        <v>0.02866549258300036</v>
       </c>
       <c r="J107" t="n">
-        <v>0.06564041929728749</v>
+        <v>0.03377599638970603</v>
       </c>
       <c r="K107" t="n">
-        <v>0.07110546906982169</v>
+        <v>0.02866549258300036</v>
       </c>
       <c r="L107" t="n">
-        <v>0.1174141831278134</v>
+        <v>0.1169635000845494</v>
       </c>
       <c r="M107" t="n">
-        <v>0.07088393865891718</v>
+        <v>0.04533984463491334</v>
       </c>
       <c r="N107" t="n">
-        <v>0.1693112489182233</v>
+        <v>0.1679606254132504</v>
       </c>
       <c r="O107" t="n">
-        <v>0.07096996988645292</v>
+        <v>0.04540923446621863</v>
       </c>
     </row>
     <row r="108" ht="15" customHeight="1">
       <c r="F108" t="n">
-        <v>0.04050185203842767</v>
+        <v>0.03417959636160588</v>
       </c>
       <c r="G108" t="n">
-        <v>0.07180819303920467</v>
+        <v>0.02934800431116703</v>
       </c>
       <c r="J108" t="n">
-        <v>0.06560751184099355</v>
+        <v>0.03417959636160588</v>
       </c>
       <c r="K108" t="n">
-        <v>0.07279845642862698</v>
+        <v>0.02934800431116703</v>
       </c>
       <c r="L108" t="n">
-        <v>0.1170429632294955</v>
+        <v>0.1177299728080755</v>
       </c>
       <c r="M108" t="n">
-        <v>0.0725716514841295</v>
+        <v>0.04641936474526842</v>
       </c>
       <c r="N108" t="n">
-        <v>0.1702384148463046</v>
+        <v>0.1697969659531513</v>
       </c>
       <c r="O108" t="n">
-        <v>0.0726597310742256</v>
+        <v>0.04649040671541431</v>
       </c>
     </row>
     <row r="109" ht="15" customHeight="1">
       <c r="F109" t="n">
-        <v>0.03835121117890926</v>
+        <v>0.03458204552070225</v>
       </c>
       <c r="G109" t="n">
-        <v>0.0734781510168606</v>
+        <v>0.03003051603933371</v>
       </c>
       <c r="J109" t="n">
-        <v>0.06563658003861693</v>
+        <v>0.03458204552070225</v>
       </c>
       <c r="K109" t="n">
-        <v>0.07449144378743226</v>
+        <v>0.03003051603933371</v>
       </c>
       <c r="L109" t="n">
-        <v>0.1167066449135639</v>
+        <v>0.1187836002103539</v>
       </c>
       <c r="M109" t="n">
-        <v>0.07425936430934181</v>
+        <v>0.0474988848556235</v>
       </c>
       <c r="N109" t="n">
-        <v>0.1696700151217377</v>
+        <v>0.1712806989321894</v>
       </c>
       <c r="O109" t="n">
-        <v>0.0743494922619983</v>
+        <v>0.04757157896460999</v>
       </c>
     </row>
     <row r="110" ht="15" customHeight="1">
       <c r="F110" t="n">
-        <v>0.03718294890522532</v>
+        <v>0.03498316513762272</v>
       </c>
       <c r="G110" t="n">
-        <v>0.07514810899451652</v>
+        <v>0.03071302776750038</v>
       </c>
       <c r="J110" t="n">
-        <v>0.0653306466579507</v>
+        <v>0.03498316513762272</v>
       </c>
       <c r="K110" t="n">
-        <v>0.07618443114623753</v>
+        <v>0.03071302776750038</v>
       </c>
       <c r="L110" t="n">
-        <v>0.1174105944272613</v>
+        <v>0.1181833637823583</v>
       </c>
       <c r="M110" t="n">
-        <v>0.07594707713455412</v>
+        <v>0.04857840496597858</v>
       </c>
       <c r="N110" t="n">
-        <v>0.169213815844198</v>
+        <v>0.1703754688273943</v>
       </c>
       <c r="O110" t="n">
-        <v>0.07603925344977099</v>
+        <v>0.04865275121380567</v>
       </c>
     </row>
     <row r="111" ht="15" customHeight="1">
       <c r="F111" t="n">
-        <v>0.03999890049720947</v>
+        <v>0.03538277648299483</v>
       </c>
       <c r="G111" t="n">
-        <v>0.07681806697217244</v>
+        <v>0.03139553949566706</v>
       </c>
       <c r="J111" t="n">
-        <v>0.06519273446678801</v>
+        <v>0.03538277648299483</v>
       </c>
       <c r="K111" t="n">
-        <v>0.07787741850504282</v>
+        <v>0.03139553949566706</v>
       </c>
       <c r="L111" t="n">
-        <v>0.1167601780178303</v>
+        <v>0.1176590456506445</v>
       </c>
       <c r="M111" t="n">
-        <v>0.07763478995976643</v>
+        <v>0.04965792507633365</v>
       </c>
       <c r="N111" t="n">
-        <v>0.1678775831133605</v>
+        <v>0.1704482517403659</v>
       </c>
       <c r="O111" t="n">
-        <v>0.07772901463754367</v>
+        <v>0.04973392346300135</v>
       </c>
     </row>
     <row r="112" ht="15" customHeight="1">
       <c r="F112" t="n">
-        <v>0.03980090123469535</v>
+        <v>0.03578070082744621</v>
       </c>
       <c r="G112" t="n">
-        <v>0.07848802494982836</v>
+        <v>0.03207805122383373</v>
       </c>
       <c r="J112" t="n">
-        <v>0.06462586623292189</v>
+        <v>0.03578070082744621</v>
       </c>
       <c r="K112" t="n">
-        <v>0.0795704058638481</v>
+        <v>0.03207805122383373</v>
       </c>
       <c r="L112" t="n">
-        <v>0.1159607619325134</v>
+        <v>0.1178964563037989</v>
       </c>
       <c r="M112" t="n">
-        <v>0.07932250278497875</v>
+        <v>0.05073744518668874</v>
       </c>
       <c r="N112" t="n">
-        <v>0.1670690830289004</v>
+        <v>0.1708347717065485</v>
       </c>
       <c r="O112" t="n">
-        <v>0.07941877582531637</v>
+        <v>0.05081509571219704</v>
       </c>
     </row>
     <row r="113" ht="15" customHeight="1">
       <c r="F113" t="n">
-        <v>0.03859078639751662</v>
+        <v>0.03617675944160433</v>
       </c>
       <c r="G113" t="n">
-        <v>0.08015798292748429</v>
+        <v>0.03276056295200042</v>
       </c>
       <c r="J113" t="n">
-        <v>0.06433306472414559</v>
+        <v>0.03617675944160433</v>
       </c>
       <c r="K113" t="n">
-        <v>0.08126339322265337</v>
+        <v>0.03276056295200042</v>
       </c>
       <c r="L113" t="n">
-        <v>0.1149177124185533</v>
+        <v>0.1174979764533849</v>
       </c>
       <c r="M113" t="n">
-        <v>0.08101021561019106</v>
+        <v>0.05181696529704382</v>
       </c>
       <c r="N113" t="n">
-        <v>0.1670960816904928</v>
+        <v>0.1693456866262716</v>
       </c>
       <c r="O113" t="n">
-        <v>0.08110853701308905</v>
+        <v>0.05189626796139271</v>
       </c>
     </row>
     <row r="114" ht="15" customHeight="1">
       <c r="F114" t="n">
-        <v>0.0393703912655069</v>
+        <v>0.03657077359609688</v>
       </c>
       <c r="G114" t="n">
-        <v>0.08182794090514021</v>
+        <v>0.03344307468016709</v>
       </c>
       <c r="J114" t="n">
-        <v>0.06441735270825212</v>
+        <v>0.03657077359609688</v>
       </c>
       <c r="K114" t="n">
-        <v>0.08295638058145864</v>
+        <v>0.03344307468016709</v>
       </c>
       <c r="L114" t="n">
-        <v>0.1153363957231923</v>
+        <v>0.1176659868109657</v>
       </c>
       <c r="M114" t="n">
-        <v>0.08269792843540338</v>
+        <v>0.05289648540739891</v>
       </c>
       <c r="N114" t="n">
-        <v>0.1660663451978129</v>
+        <v>0.1695871385037357</v>
       </c>
       <c r="O114" t="n">
-        <v>0.08279829820086175</v>
+        <v>0.05297744021058839</v>
       </c>
     </row>
     <row r="115" ht="15" customHeight="1">
       <c r="F115" t="n">
-        <v>0.03614155111849988</v>
+        <v>0.03696256456155138</v>
       </c>
       <c r="G115" t="n">
-        <v>0.08349789888279613</v>
+        <v>0.03412558640833376</v>
       </c>
       <c r="J115" t="n">
-        <v>0.0638817529530346</v>
+        <v>0.03696256456155138</v>
       </c>
       <c r="K115" t="n">
-        <v>0.08464936794026393</v>
+        <v>0.03412558640833376</v>
       </c>
       <c r="L115" t="n">
-        <v>0.1147221780936733</v>
+        <v>0.1181028680881049</v>
       </c>
       <c r="M115" t="n">
-        <v>0.08438564126061569</v>
+        <v>0.05397600551775397</v>
       </c>
       <c r="N115" t="n">
-        <v>0.164187639650536</v>
+        <v>0.1694652693431411</v>
       </c>
       <c r="O115" t="n">
-        <v>0.08448805938863443</v>
+        <v>0.05405861245978408</v>
       </c>
     </row>
     <row r="116" ht="15" customHeight="1">
       <c r="F116" t="n">
-        <v>0.03790610123632918</v>
+        <v>0.03735195360859535</v>
       </c>
       <c r="G116" t="n">
-        <v>0.08516785686045206</v>
+        <v>0.03480809813650044</v>
       </c>
       <c r="J116" t="n">
-        <v>0.06322928822628614</v>
+        <v>0.03735195360859535</v>
       </c>
       <c r="K116" t="n">
-        <v>0.08634235529906921</v>
+        <v>0.03480809813650044</v>
       </c>
       <c r="L116" t="n">
-        <v>0.1138804257772387</v>
+        <v>0.1176110009963653</v>
       </c>
       <c r="M116" t="n">
-        <v>0.08607335408582802</v>
+        <v>0.05505552562810906</v>
       </c>
       <c r="N116" t="n">
-        <v>0.1640677311483369</v>
+        <v>0.1694862211486881</v>
       </c>
       <c r="O116" t="n">
-        <v>0.08617782057640712</v>
+        <v>0.05513978470897976</v>
       </c>
     </row>
     <row r="117" ht="15" customHeight="1">
       <c r="F117" t="n">
-        <v>0.03866587689882843</v>
+        <v>0.03773876200785643</v>
       </c>
       <c r="G117" t="n">
-        <v>0.08683781483810797</v>
+        <v>0.03549060986466711</v>
       </c>
       <c r="J117" t="n">
-        <v>0.0634629812957999</v>
+        <v>0.03773876200785643</v>
       </c>
       <c r="K117" t="n">
-        <v>0.08803534265787449</v>
+        <v>0.03549060986466711</v>
       </c>
       <c r="L117" t="n">
-        <v>0.1126165050211309</v>
+        <v>0.1173927662473106</v>
       </c>
       <c r="M117" t="n">
-        <v>0.08776106691104033</v>
+        <v>0.05613504573846414</v>
       </c>
       <c r="N117" t="n">
-        <v>0.163614385790891</v>
+        <v>0.1681561359245771</v>
       </c>
       <c r="O117" t="n">
-        <v>0.08786758176417982</v>
+        <v>0.05622095695817544</v>
       </c>
     </row>
     <row r="118" ht="15" customHeight="1">
       <c r="F118" t="n">
-        <v>0.03742271338583131</v>
+        <v>0.03812281102996219</v>
       </c>
       <c r="G118" t="n">
-        <v>0.0885077728157639</v>
+        <v>0.03617312159283379</v>
       </c>
       <c r="J118" t="n">
-        <v>0.06258585492936895</v>
+        <v>0.03812281102996219</v>
       </c>
       <c r="K118" t="n">
-        <v>0.08972833001667976</v>
+        <v>0.03617312159283379</v>
       </c>
       <c r="L118" t="n">
-        <v>0.1122357820725927</v>
+        <v>0.1172505445525039</v>
       </c>
       <c r="M118" t="n">
-        <v>0.08944877973625263</v>
+        <v>0.05721456584881922</v>
       </c>
       <c r="N118" t="n">
-        <v>0.1614353696778735</v>
+        <v>0.1685811556750084</v>
       </c>
       <c r="O118" t="n">
-        <v>0.0895573429519525</v>
+        <v>0.05730212920737113</v>
       </c>
     </row>
     <row r="119" ht="15" customHeight="1">
       <c r="F119" t="n">
-        <v>0.03617844597717143</v>
+        <v>0.03850392194554018</v>
       </c>
       <c r="G119" t="n">
-        <v>0.09017773079341983</v>
+        <v>0.03685563332100046</v>
       </c>
       <c r="J119" t="n">
-        <v>0.06250093189478644</v>
+        <v>0.03850392194554018</v>
       </c>
       <c r="K119" t="n">
-        <v>0.09142131737548505</v>
+        <v>0.03685563332100046</v>
       </c>
       <c r="L119" t="n">
-        <v>0.1111436231788666</v>
+        <v>0.1170867166235085</v>
       </c>
       <c r="M119" t="n">
-        <v>0.09113649256146494</v>
+        <v>0.05829408595917429</v>
       </c>
       <c r="N119" t="n">
-        <v>0.1602384489089594</v>
+        <v>0.1682674224041822</v>
       </c>
       <c r="O119" t="n">
-        <v>0.09124710413972519</v>
+        <v>0.0583833014565668</v>
       </c>
     </row>
     <row r="120" ht="15" customHeight="1">
       <c r="F120" t="n">
-        <v>0.03893490995268245</v>
+        <v>0.03888191602521794</v>
       </c>
       <c r="G120" t="n">
-        <v>0.09184768877107574</v>
+        <v>0.03753814504916714</v>
       </c>
       <c r="J120" t="n">
-        <v>0.06191123495984545</v>
+        <v>0.03888191602521794</v>
       </c>
       <c r="K120" t="n">
-        <v>0.09311430473429032</v>
+        <v>0.03753814504916714</v>
       </c>
       <c r="L120" t="n">
-        <v>0.1113453945871951</v>
+        <v>0.1168036631718878</v>
       </c>
       <c r="M120" t="n">
-        <v>0.09282420538667727</v>
+        <v>0.05937360606952937</v>
       </c>
       <c r="N120" t="n">
-        <v>0.159731389583824</v>
+        <v>0.1673210781162993</v>
       </c>
       <c r="O120" t="n">
-        <v>0.09293686532749788</v>
+        <v>0.05946447370576249</v>
       </c>
     </row>
     <row r="121" ht="15" customHeight="1">
       <c r="F121" t="n">
-        <v>0.03869394059219804</v>
+        <v>0.03925661453962313</v>
       </c>
       <c r="G121" t="n">
-        <v>0.09351764674873167</v>
+        <v>0.03822065677733381</v>
       </c>
       <c r="J121" t="n">
-        <v>0.06141978689233908</v>
+        <v>0.03925661453962313</v>
       </c>
       <c r="K121" t="n">
-        <v>0.0948072920930956</v>
+        <v>0.03822065677733381</v>
       </c>
       <c r="L121" t="n">
-        <v>0.1097464625448208</v>
+        <v>0.1167037649092051</v>
       </c>
       <c r="M121" t="n">
-        <v>0.09451191821188958</v>
+        <v>0.06045312617988446</v>
       </c>
       <c r="N121" t="n">
-        <v>0.1586219578021423</v>
+        <v>0.1663482648155596</v>
       </c>
       <c r="O121" t="n">
-        <v>0.09462662651527055</v>
+        <v>0.06054564595495817</v>
       </c>
     </row>
     <row r="122" ht="15" customHeight="1">
       <c r="F122" t="n">
-        <v>0.03644027630113615</v>
+        <v>0.03962783875938326</v>
       </c>
       <c r="G122" t="n">
-        <v>0.09518760472638758</v>
+        <v>0.03890316850550048</v>
       </c>
       <c r="J122" t="n">
-        <v>0.0609296104600605</v>
+        <v>0.03962783875938326</v>
       </c>
       <c r="K122" t="n">
-        <v>0.09650027945190087</v>
+        <v>0.03890316850550048</v>
       </c>
       <c r="L122" t="n">
-        <v>0.1094521932989863</v>
+        <v>0.1163894025470236</v>
       </c>
       <c r="M122" t="n">
-        <v>0.09619963103710188</v>
+        <v>0.06153264629023954</v>
       </c>
       <c r="N122" t="n">
-        <v>0.1583179196635896</v>
+        <v>0.1663551245061636</v>
       </c>
       <c r="O122" t="n">
-        <v>0.09631638770304325</v>
+        <v>0.06162681820415385</v>
       </c>
     </row>
     <row r="123" ht="15" customHeight="1">
       <c r="F123" t="n">
-        <v>0.0371506051103017</v>
+        <v>0.03999540995512589</v>
       </c>
       <c r="G123" t="n">
-        <v>0.09685756270404351</v>
+        <v>0.03958568023366717</v>
       </c>
       <c r="J123" t="n">
-        <v>0.06104372843080279</v>
+        <v>0.03999540995512589</v>
       </c>
       <c r="K123" t="n">
-        <v>0.09819326681070616</v>
+        <v>0.03958568023366717</v>
       </c>
       <c r="L123" t="n">
-        <v>0.1088589788878255</v>
+        <v>0.1161629567969066</v>
       </c>
       <c r="M123" t="n">
-        <v>0.09788734386231419</v>
+        <v>0.06261216640059461</v>
       </c>
       <c r="N123" t="n">
-        <v>0.1562233124781091</v>
+        <v>0.1660477991923117</v>
       </c>
       <c r="O123" t="n">
-        <v>0.09800614889081594</v>
+        <v>0.06270799045334953</v>
       </c>
     </row>
     <row r="124" ht="15" customHeight="1">
       <c r="F124" t="n">
-        <v>0.03783052249102881</v>
+        <v>0.04035914939747863</v>
       </c>
       <c r="G124" t="n">
-        <v>0.09852752068169944</v>
+        <v>0.04026819196183384</v>
       </c>
       <c r="J124" t="n">
-        <v>0.06043373232598016</v>
+        <v>0.04035914939747863</v>
       </c>
       <c r="K124" t="n">
-        <v>0.09988625416951144</v>
+        <v>0.04026819196183384</v>
       </c>
       <c r="L124" t="n">
-        <v>0.1075790419607048</v>
+        <v>0.1154268083704174</v>
       </c>
       <c r="M124" t="n">
-        <v>0.09957505668752653</v>
+        <v>0.0636916865109497</v>
       </c>
       <c r="N124" t="n">
-        <v>0.1549235758840777</v>
+        <v>0.1652324308782042</v>
       </c>
       <c r="O124" t="n">
-        <v>0.09969591007858862</v>
+        <v>0.06378916270254521</v>
       </c>
     </row>
     <row r="125" ht="15" customHeight="1">
       <c r="F125" t="n">
-        <v>0.03348600800439609</v>
+        <v>0.04071887835706901</v>
       </c>
       <c r="G125" t="n">
-        <v>0.1001974786593554</v>
+        <v>0.04095070369000051</v>
       </c>
       <c r="J125" t="n">
-        <v>0.05996548366505049</v>
+        <v>0.04071887835706901</v>
       </c>
       <c r="K125" t="n">
-        <v>0.1015792415283167</v>
+        <v>0.04095070369000051</v>
       </c>
       <c r="L125" t="n">
-        <v>0.1065026688473803</v>
+        <v>0.1149833379791195</v>
       </c>
       <c r="M125" t="n">
-        <v>0.1012627695127388</v>
+        <v>0.06477120662130477</v>
       </c>
       <c r="N125" t="n">
-        <v>0.1550801506524765</v>
+        <v>0.1636151615680415</v>
       </c>
       <c r="O125" t="n">
-        <v>0.1013856712663613</v>
+        <v>0.0648703349517409</v>
       </c>
     </row>
     <row r="126" ht="15" customHeight="1">
       <c r="F126" t="n">
-        <v>0.03612304121148215</v>
+        <v>0.04107441810452465</v>
       </c>
       <c r="G126" t="n">
-        <v>0.1018674366370113</v>
+        <v>0.04163321541816719</v>
       </c>
       <c r="J126" t="n">
-        <v>0.05914863532286969</v>
+        <v>0.04107441810452465</v>
       </c>
       <c r="K126" t="n">
-        <v>0.103272228887122</v>
+        <v>0.04163321541816719</v>
       </c>
       <c r="L126" t="n">
-        <v>0.1061473434228238</v>
+        <v>0.1145349263345759</v>
       </c>
       <c r="M126" t="n">
-        <v>0.1029504823379511</v>
+        <v>0.06585072673165986</v>
       </c>
       <c r="N126" t="n">
-        <v>0.1532183396643694</v>
+        <v>0.1627021332660238</v>
       </c>
       <c r="O126" t="n">
-        <v>0.103075432454134</v>
+        <v>0.06595150720093657</v>
       </c>
     </row>
     <row r="127" ht="15" customHeight="1">
       <c r="F127" t="n">
-        <v>0.03574760167336558</v>
+        <v>0.04142558991047311</v>
       </c>
       <c r="G127" t="n">
-        <v>0.1035373946146672</v>
+        <v>0.04231572714633386</v>
       </c>
       <c r="J127" t="n">
-        <v>0.05869303583823489</v>
+        <v>0.04142558991047311</v>
       </c>
       <c r="K127" t="n">
-        <v>0.1049652162459273</v>
+        <v>0.04231572714633386</v>
       </c>
       <c r="L127" t="n">
-        <v>0.1046305495620071</v>
+        <v>0.11418395414835</v>
       </c>
       <c r="M127" t="n">
-        <v>0.1046381951631635</v>
+        <v>0.06693024684201493</v>
       </c>
       <c r="N127" t="n">
-        <v>0.1521634458008209</v>
+        <v>0.1631994879763515</v>
       </c>
       <c r="O127" t="n">
-        <v>0.1047651936419067</v>
+        <v>0.06703267945013225</v>
       </c>
     </row>
     <row r="128" ht="15" customHeight="1">
       <c r="F128" t="n">
-        <v>0.033365668951125</v>
+        <v>0.04177221504554192</v>
       </c>
       <c r="G128" t="n">
-        <v>0.1052073525923231</v>
+        <v>0.04299823887450054</v>
       </c>
       <c r="J128" t="n">
-        <v>0.05850853374994337</v>
+        <v>0.04177221504554192</v>
       </c>
       <c r="K128" t="n">
-        <v>0.1066582036047325</v>
+        <v>0.04299823887450054</v>
       </c>
       <c r="L128" t="n">
-        <v>0.1043697711399021</v>
+        <v>0.1138328021320052</v>
       </c>
       <c r="M128" t="n">
-        <v>0.1063259079883758</v>
+        <v>0.06800976695237</v>
       </c>
       <c r="N128" t="n">
-        <v>0.1497407719428948</v>
+        <v>0.1620133677032251</v>
       </c>
       <c r="O128" t="n">
-        <v>0.1064549548296794</v>
+        <v>0.06811385169932793</v>
       </c>
     </row>
     <row r="129" ht="15" customHeight="1">
       <c r="F129" t="n">
-        <v>0.031983222605839</v>
+        <v>0.04211411478035872</v>
       </c>
       <c r="G129" t="n">
-        <v>0.1068773105699791</v>
+        <v>0.04368075060266721</v>
       </c>
       <c r="J129" t="n">
-        <v>0.05750497759679225</v>
+        <v>0.04211411478035872</v>
       </c>
       <c r="K129" t="n">
-        <v>0.1083511909635378</v>
+        <v>0.04368075060266721</v>
       </c>
       <c r="L129" t="n">
-        <v>0.1031824920314806</v>
+        <v>0.1134838509971047</v>
       </c>
       <c r="M129" t="n">
-        <v>0.1080136208135881</v>
+        <v>0.06908928706272509</v>
       </c>
       <c r="N129" t="n">
-        <v>0.1491756209716554</v>
+        <v>0.1615499144508448</v>
       </c>
       <c r="O129" t="n">
-        <v>0.1081447160174521</v>
+        <v>0.06919502394852362</v>
       </c>
     </row>
     <row r="130" ht="15" customHeight="1">
       <c r="F130" t="n">
-        <v>0.03260624219858621</v>
+        <v>0.04245111038555098</v>
       </c>
       <c r="G130" t="n">
-        <v>0.108547268547635</v>
+        <v>0.04436326233083389</v>
       </c>
       <c r="J130" t="n">
-        <v>0.05709221591757872</v>
+        <v>0.04245111038555098</v>
       </c>
       <c r="K130" t="n">
-        <v>0.1100441783223431</v>
+        <v>0.04436326233083389</v>
       </c>
       <c r="L130" t="n">
-        <v>0.1013861961117145</v>
+        <v>0.1131394814552119</v>
       </c>
       <c r="M130" t="n">
-        <v>0.1097013336388004</v>
+        <v>0.07016880717308017</v>
       </c>
       <c r="N130" t="n">
-        <v>0.1468932957681667</v>
+        <v>0.160415270223411</v>
       </c>
       <c r="O130" t="n">
-        <v>0.1098344772052248</v>
+        <v>0.0702761961977193</v>
       </c>
     </row>
     <row r="131" ht="15" customHeight="1">
       <c r="F131" t="n">
-        <v>0.03124070729044516</v>
+        <v>0.04278302313174638</v>
       </c>
       <c r="G131" t="n">
-        <v>0.1102172265252909</v>
+        <v>0.04504577405900057</v>
       </c>
       <c r="J131" t="n">
-        <v>0.05658009725110001</v>
+        <v>0.04278302313174638</v>
       </c>
       <c r="K131" t="n">
-        <v>0.1117371656811484</v>
+        <v>0.04504577405900057</v>
       </c>
       <c r="L131" t="n">
-        <v>0.1002983672555756</v>
+        <v>0.1127020742178899</v>
       </c>
       <c r="M131" t="n">
-        <v>0.1113890464640127</v>
+        <v>0.07124832728343526</v>
       </c>
       <c r="N131" t="n">
-        <v>0.1450190992134929</v>
+        <v>0.1613155770251239</v>
       </c>
       <c r="O131" t="n">
-        <v>0.1115242383929975</v>
+        <v>0.07135736844691498</v>
       </c>
     </row>
     <row r="132" ht="15" customHeight="1">
       <c r="F132" t="n">
-        <v>0.03489257377151073</v>
+        <v>0.04310967428957245</v>
       </c>
       <c r="G132" t="n">
-        <v>0.1118871845029468</v>
+        <v>0.04572828578716723</v>
       </c>
       <c r="J132" t="n">
-        <v>0.05587847013615328</v>
+        <v>0.04310967428957245</v>
       </c>
       <c r="K132" t="n">
-        <v>0.1134301530399537</v>
+        <v>0.04572828578716723</v>
       </c>
       <c r="L132" t="n">
-        <v>0.09933648933803574</v>
+        <v>0.1124740099967022</v>
       </c>
       <c r="M132" t="n">
-        <v>0.113076759289225</v>
+        <v>0.07232784739379032</v>
       </c>
       <c r="N132" t="n">
-        <v>0.1443783341886982</v>
+        <v>0.1604569768601841</v>
       </c>
       <c r="O132" t="n">
-        <v>0.1132139995807701</v>
+        <v>0.07243854069611066</v>
       </c>
     </row>
     <row r="133" ht="15" customHeight="1">
       <c r="F133" t="n">
-        <v>0.03353423758468313</v>
+        <v>0.04343088512965675</v>
       </c>
       <c r="G133" t="n">
-        <v>0.1135571424806027</v>
+        <v>0.04641079751533392</v>
       </c>
       <c r="J133" t="n">
-        <v>0.05499718311153572</v>
+        <v>0.04343088512965675</v>
       </c>
       <c r="K133" t="n">
-        <v>0.115123140398759</v>
+        <v>0.04641079751533392</v>
       </c>
       <c r="L133" t="n">
-        <v>0.09921804623406671</v>
+        <v>0.1125576695032119</v>
       </c>
       <c r="M133" t="n">
-        <v>0.1147644721144373</v>
+        <v>0.07340736750414541</v>
       </c>
       <c r="N133" t="n">
-        <v>0.1425963035748465</v>
+        <v>0.1599456117327918</v>
       </c>
       <c r="O133" t="n">
-        <v>0.1149037607685428</v>
+        <v>0.07351971294530635</v>
       </c>
     </row>
     <row r="134" ht="15" customHeight="1">
       <c r="F134" t="n">
-        <v>0.03314324263154288</v>
+        <v>0.04374647692262686</v>
       </c>
       <c r="G134" t="n">
-        <v>0.1152271004582587</v>
+        <v>0.04709330924350059</v>
       </c>
       <c r="J134" t="n">
-        <v>0.05474328642029021</v>
+        <v>0.04374647692262686</v>
       </c>
       <c r="K134" t="n">
-        <v>0.1168161277575642</v>
+        <v>0.04709330924350059</v>
       </c>
       <c r="L134" t="n">
-        <v>0.09772274093578032</v>
+        <v>0.1115554334489825</v>
       </c>
       <c r="M134" t="n">
-        <v>0.1164521849396497</v>
+        <v>0.07448688761450049</v>
       </c>
       <c r="N134" t="n">
-        <v>0.1414673755306075</v>
+        <v>0.1594876236471474</v>
       </c>
       <c r="O134" t="n">
-        <v>0.1165935219563155</v>
+        <v>0.07460088519450203</v>
       </c>
     </row>
     <row r="135" ht="15" customHeight="1">
       <c r="F135" t="n">
-        <v>0.0327281486555257</v>
+        <v>0.04405627093911034</v>
       </c>
       <c r="G135" t="n">
-        <v>0.1168970584359146</v>
+        <v>0.04777582097166726</v>
       </c>
       <c r="J135" t="n">
-        <v>0.05445669605020355</v>
+        <v>0.04405627093911034</v>
       </c>
       <c r="K135" t="n">
-        <v>0.1185091151163695</v>
+        <v>0.04777582097166726</v>
       </c>
       <c r="L135" t="n">
-        <v>0.0962357989662414</v>
+        <v>0.1119696825455772</v>
       </c>
       <c r="M135" t="n">
-        <v>0.118139897764862</v>
+        <v>0.07556640772485557</v>
       </c>
       <c r="N135" t="n">
-        <v>0.1392193492147741</v>
+        <v>0.1591891546074512</v>
       </c>
       <c r="O135" t="n">
-        <v>0.1182832831440882</v>
+        <v>0.07568205744369771</v>
       </c>
     </row>
     <row r="136" ht="15" customHeight="1">
       <c r="F136" t="n">
-        <v>0.02929751540006735</v>
+        <v>0.04436008844973481</v>
       </c>
       <c r="G136" t="n">
-        <v>0.1185670164135705</v>
+        <v>0.04845833269983394</v>
       </c>
       <c r="J136" t="n">
-        <v>0.05372012114538681</v>
+        <v>0.04436008844973481</v>
       </c>
       <c r="K136" t="n">
-        <v>0.1202021024751748</v>
+        <v>0.04845833269983394</v>
       </c>
       <c r="L136" t="n">
-        <v>0.09486993363243318</v>
+        <v>0.1111947836690405</v>
       </c>
       <c r="M136" t="n">
-        <v>0.1198276105900743</v>
+        <v>0.07664592783521064</v>
       </c>
       <c r="N136" t="n">
-        <v>0.1385515783617833</v>
+        <v>0.1582505986066291</v>
       </c>
       <c r="O136" t="n">
-        <v>0.1199730443318609</v>
+        <v>0.0767632296928934</v>
       </c>
     </row>
     <row r="137" ht="15" customHeight="1">
       <c r="F137" t="n">
-        <v>0.02885990260860356</v>
+        <v>0.04465775072512783</v>
       </c>
       <c r="G137" t="n">
-        <v>0.1202369743912264</v>
+        <v>0.04914084442800062</v>
       </c>
       <c r="J137" t="n">
-        <v>0.05264765989201321</v>
+        <v>0.04465775072512783</v>
       </c>
       <c r="K137" t="n">
-        <v>0.12189508983398</v>
+        <v>0.04914084442800062</v>
       </c>
       <c r="L137" t="n">
-        <v>0.09385017310649979</v>
+        <v>0.1109004852565768</v>
       </c>
       <c r="M137" t="n">
-        <v>0.1215153234152866</v>
+        <v>0.07772544794556573</v>
       </c>
       <c r="N137" t="n">
-        <v>0.1364002840532907</v>
+        <v>0.1587240079917013</v>
       </c>
       <c r="O137" t="n">
-        <v>0.1216628055196336</v>
+        <v>0.07784440194208908</v>
       </c>
     </row>
     <row r="138" ht="15" customHeight="1">
       <c r="F138" t="n">
-        <v>0.03142387002457007</v>
+        <v>0.04494907903591687</v>
       </c>
       <c r="G138" t="n">
-        <v>0.1219069323688824</v>
+        <v>0.04982335615616729</v>
       </c>
       <c r="J138" t="n">
-        <v>0.05225341047625616</v>
+        <v>0.04494907903591687</v>
       </c>
       <c r="K138" t="n">
-        <v>0.1235880771927853</v>
+        <v>0.04982335615616729</v>
       </c>
       <c r="L138" t="n">
-        <v>0.09310154556058542</v>
+        <v>0.110686396089732</v>
       </c>
       <c r="M138" t="n">
-        <v>0.1232030362404989</v>
+        <v>0.07880496805592081</v>
       </c>
       <c r="N138" t="n">
-        <v>0.1339016873709523</v>
+        <v>0.1593980237331063</v>
       </c>
       <c r="O138" t="n">
-        <v>0.1233525667074063</v>
+        <v>0.07892557419128476</v>
       </c>
     </row>
     <row r="139" ht="15" customHeight="1">
       <c r="F139" t="n">
-        <v>0.02999797739140263</v>
+        <v>0.04523389465272963</v>
       </c>
       <c r="G139" t="n">
-        <v>0.1235768903465383</v>
+        <v>0.05050586788433396</v>
       </c>
       <c r="J139" t="n">
-        <v>0.05155147108428888</v>
+        <v>0.04523389465272963</v>
       </c>
       <c r="K139" t="n">
-        <v>0.1252810645515906</v>
+        <v>0.05050586788433396</v>
       </c>
       <c r="L139" t="n">
-        <v>0.09214907916683396</v>
+        <v>0.1103557177326954</v>
       </c>
       <c r="M139" t="n">
-        <v>0.1248907490657112</v>
+        <v>0.07988448816627589</v>
       </c>
       <c r="N139" t="n">
-        <v>0.1316920093964237</v>
+        <v>0.1590735725573302</v>
       </c>
       <c r="O139" t="n">
-        <v>0.125042327895179</v>
+        <v>0.08000674644048045</v>
       </c>
     </row>
     <row r="140" ht="15" customHeight="1">
       <c r="F140" t="n">
-        <v>0.03159078445253698</v>
+        <v>0.04551201884619362</v>
       </c>
       <c r="G140" t="n">
-        <v>0.1252468483241942</v>
+        <v>0.05118837961250064</v>
       </c>
       <c r="J140" t="n">
-        <v>0.05095593990228482</v>
+        <v>0.04551201884619362</v>
       </c>
       <c r="K140" t="n">
-        <v>0.1269740519103959</v>
+        <v>0.05118837961250064</v>
       </c>
       <c r="L140" t="n">
-        <v>0.08991780209738981</v>
+        <v>0.1097116517496559</v>
       </c>
       <c r="M140" t="n">
-        <v>0.1265784618909235</v>
+        <v>0.08096400827663096</v>
       </c>
       <c r="N140" t="n">
-        <v>0.1307074712113608</v>
+        <v>0.1580515811908587</v>
       </c>
       <c r="O140" t="n">
-        <v>0.1267320890829517</v>
+        <v>0.08108791868967612</v>
       </c>
     </row>
     <row r="141" ht="15" customHeight="1">
       <c r="F141" t="n">
-        <v>0.02821085095140885</v>
+        <v>0.04578327288693641</v>
       </c>
       <c r="G141" t="n">
-        <v>0.1269168063018501</v>
+        <v>0.05187089134066732</v>
       </c>
       <c r="J141" t="n">
-        <v>0.04998091511641721</v>
+        <v>0.04578327288693641</v>
       </c>
       <c r="K141" t="n">
-        <v>0.1286670392692012</v>
+        <v>0.05187089134066732</v>
       </c>
       <c r="L141" t="n">
-        <v>0.08973274252439678</v>
+        <v>0.1096573997048027</v>
       </c>
       <c r="M141" t="n">
-        <v>0.1282661747161359</v>
+        <v>0.08204352838698604</v>
       </c>
       <c r="N141" t="n">
-        <v>0.1283842938974193</v>
+        <v>0.1581329763601779</v>
       </c>
       <c r="O141" t="n">
-        <v>0.1284218502707243</v>
+        <v>0.0821690909388718</v>
       </c>
     </row>
     <row r="142" ht="15" customHeight="1">
       <c r="F142" t="n">
-        <v>0.02886673663145398</v>
+        <v>0.04604747804558561</v>
       </c>
       <c r="G142" t="n">
-        <v>0.128586764279506</v>
+        <v>0.05255340306883399</v>
       </c>
       <c r="J142" t="n">
-        <v>0.04944049491285936</v>
+        <v>0.04604747804558561</v>
       </c>
       <c r="K142" t="n">
-        <v>0.1303600266280064</v>
+        <v>0.05255340306883399</v>
       </c>
       <c r="L142" t="n">
-        <v>0.08801892861999921</v>
+        <v>0.1096961631623249</v>
       </c>
       <c r="M142" t="n">
-        <v>0.1299538875413482</v>
+        <v>0.08312304849734113</v>
       </c>
       <c r="N142" t="n">
-        <v>0.1275586985362552</v>
+        <v>0.1572186847917736</v>
       </c>
       <c r="O142" t="n">
-        <v>0.130111611458497</v>
+        <v>0.08325026318806748</v>
       </c>
     </row>
     <row r="143" ht="15" customHeight="1">
       <c r="F143" t="n">
-        <v>0.0285670012361081</v>
+        <v>0.04630445559276876</v>
       </c>
       <c r="G143" t="n">
-        <v>0.130256722257162</v>
+        <v>0.05323591479700067</v>
       </c>
       <c r="J143" t="n">
-        <v>0.04904877747778462</v>
+        <v>0.04630445559276876</v>
       </c>
       <c r="K143" t="n">
-        <v>0.1320530139868117</v>
+        <v>0.05323591479700067</v>
       </c>
       <c r="L143" t="n">
-        <v>0.08670138855634102</v>
+        <v>0.1094311436864118</v>
       </c>
       <c r="M143" t="n">
-        <v>0.1316416003665605</v>
+        <v>0.0842025686076962</v>
       </c>
       <c r="N143" t="n">
-        <v>0.1250669062095242</v>
+        <v>0.1577096332121318</v>
       </c>
       <c r="O143" t="n">
-        <v>0.1318013726462697</v>
+        <v>0.08433143543726317</v>
       </c>
     </row>
     <row r="144" ht="15" customHeight="1">
       <c r="F144" t="n">
-        <v>0.03032020450880697</v>
+        <v>0.04655402679911345</v>
       </c>
       <c r="G144" t="n">
-        <v>0.1319266802348179</v>
+        <v>0.05391842652516734</v>
       </c>
       <c r="J144" t="n">
-        <v>0.04831986099736625</v>
+        <v>0.04655402679911345</v>
       </c>
       <c r="K144" t="n">
-        <v>0.133746001345617</v>
+        <v>0.05391842652516734</v>
       </c>
       <c r="L144" t="n">
-        <v>0.08610515050556655</v>
+        <v>0.1083655428412522</v>
       </c>
       <c r="M144" t="n">
-        <v>0.1333293131917728</v>
+        <v>0.08528208871805128</v>
       </c>
       <c r="N144" t="n">
-        <v>0.123645137998882</v>
+        <v>0.1564067483477384</v>
       </c>
       <c r="O144" t="n">
-        <v>0.1334911338340424</v>
+        <v>0.08541260768645885</v>
       </c>
     </row>
     <row r="145" ht="15" customHeight="1">
       <c r="F145" t="n">
-        <v>0.02813490619298634</v>
+        <v>0.04679601293524722</v>
       </c>
       <c r="G145" t="n">
-        <v>0.1335966382124738</v>
+        <v>0.05460093825333402</v>
       </c>
       <c r="J145" t="n">
-        <v>0.04796784365777763</v>
+        <v>0.04679601293524722</v>
       </c>
       <c r="K145" t="n">
-        <v>0.1354389887044223</v>
+        <v>0.05460093825333402</v>
       </c>
       <c r="L145" t="n">
-        <v>0.08605524263981978</v>
+        <v>0.1087025621910355</v>
       </c>
       <c r="M145" t="n">
-        <v>0.1350170260169851</v>
+        <v>0.08636160882840636</v>
       </c>
       <c r="N145" t="n">
-        <v>0.1229296149859845</v>
+        <v>0.1564109569250792</v>
       </c>
       <c r="O145" t="n">
-        <v>0.1351808950218151</v>
+        <v>0.08649377993565453</v>
       </c>
     </row>
     <row r="146" ht="15" customHeight="1">
       <c r="F146" t="n">
-        <v>0.0270196660320819</v>
+        <v>0.04703023527179769</v>
       </c>
       <c r="G146" t="n">
-        <v>0.1352665961901297</v>
+        <v>0.05528344998150068</v>
       </c>
       <c r="J146" t="n">
-        <v>0.04760682364519205</v>
+        <v>0.04703023527179769</v>
       </c>
       <c r="K146" t="n">
-        <v>0.1371319760632276</v>
+        <v>0.05528344998150068</v>
       </c>
       <c r="L146" t="n">
-        <v>0.08537669313124474</v>
+        <v>0.1083454032999507</v>
       </c>
       <c r="M146" t="n">
-        <v>0.1367047388421974</v>
+        <v>0.08744112893876144</v>
       </c>
       <c r="N146" t="n">
-        <v>0.1219565582524875</v>
+        <v>0.1563231856706403</v>
       </c>
       <c r="O146" t="n">
-        <v>0.1368706562095878</v>
+        <v>0.08757495218485022</v>
       </c>
     </row>
     <row r="147" ht="15" customHeight="1">
       <c r="F147" t="n">
-        <v>0.02998289301722845</v>
+        <v>0.04725651507939239</v>
       </c>
       <c r="G147" t="n">
-        <v>0.1369365541677857</v>
+        <v>0.05596596170966737</v>
       </c>
       <c r="J147" t="n">
-        <v>0.0472508991457828</v>
+        <v>0.04725651507939239</v>
       </c>
       <c r="K147" t="n">
-        <v>0.1388249634220328</v>
+        <v>0.05596596170966737</v>
       </c>
       <c r="L147" t="n">
-        <v>0.08409453015198565</v>
+        <v>0.1076972677321869</v>
       </c>
       <c r="M147" t="n">
-        <v>0.1383924516674097</v>
+        <v>0.08852064904911652</v>
       </c>
       <c r="N147" t="n">
-        <v>0.1212621888800469</v>
+        <v>0.1562443613109075</v>
       </c>
       <c r="O147" t="n">
-        <v>0.1385604173973605</v>
+        <v>0.08865612443404589</v>
       </c>
     </row>
     <row r="148" ht="15" customHeight="1">
       <c r="F148" t="n">
-        <v>0.02698988847080672</v>
+        <v>0.04747467362865888</v>
       </c>
       <c r="G148" t="n">
-        <v>0.1386065121454416</v>
+        <v>0.05664847343783404</v>
       </c>
       <c r="J148" t="n">
-        <v>0.04681416834572326</v>
+        <v>0.04747467362865888</v>
       </c>
       <c r="K148" t="n">
-        <v>0.1405179507808381</v>
+        <v>0.05664847343783404</v>
       </c>
       <c r="L148" t="n">
-        <v>0.08403378187418653</v>
+        <v>0.1071613570519332</v>
       </c>
       <c r="M148" t="n">
-        <v>0.140080164492622</v>
+        <v>0.08960016915947161</v>
       </c>
       <c r="N148" t="n">
-        <v>0.1217827279503183</v>
+        <v>0.1561754105723667</v>
       </c>
       <c r="O148" t="n">
-        <v>0.1402501785851331</v>
+        <v>0.08973729668324157</v>
       </c>
     </row>
     <row r="149" ht="15" customHeight="1">
       <c r="F149" t="n">
-        <v>0.02600884748838737</v>
+        <v>0.0476845321902248</v>
       </c>
       <c r="G149" t="n">
-        <v>0.1402764701230975</v>
+        <v>0.05733098516600071</v>
       </c>
       <c r="J149" t="n">
-        <v>0.04739711034169279</v>
+        <v>0.0476845321902248</v>
       </c>
       <c r="K149" t="n">
-        <v>0.1422109381396434</v>
+        <v>0.05733098516600071</v>
       </c>
       <c r="L149" t="n">
-        <v>0.08454275429886138</v>
+        <v>0.1069408728233789</v>
       </c>
       <c r="M149" t="n">
-        <v>0.1417678773178344</v>
+        <v>0.09067968926982668</v>
       </c>
       <c r="N149" t="n">
-        <v>0.1223781951084244</v>
+        <v>0.156717260181504</v>
       </c>
       <c r="O149" t="n">
-        <v>0.1419399397729058</v>
+        <v>0.09081846893243725</v>
       </c>
     </row>
     <row r="150" ht="15" customHeight="1">
       <c r="F150" t="n">
-        <v>0.02703914110314079</v>
+        <v>0.04788591203471763</v>
       </c>
       <c r="G150" t="n">
-        <v>0.1419464281007534</v>
+        <v>0.05801349689416739</v>
       </c>
       <c r="J150" t="n">
-        <v>0.04691651383948871</v>
+        <v>0.04788591203471763</v>
       </c>
       <c r="K150" t="n">
-        <v>0.1439039254984487</v>
+        <v>0.05801349689416739</v>
       </c>
       <c r="L150" t="n">
-        <v>0.08468973656690959</v>
+        <v>0.106539016610713</v>
       </c>
       <c r="M150" t="n">
-        <v>0.1434555901430467</v>
+        <v>0.09175920938018176</v>
       </c>
       <c r="N150" t="n">
-        <v>0.1211391566692749</v>
+        <v>0.1567708368648051</v>
       </c>
       <c r="O150" t="n">
-        <v>0.1436297009606785</v>
+        <v>0.09189964118163294</v>
       </c>
     </row>
     <row r="151" ht="15" customHeight="1">
       <c r="F151" t="n">
-        <v>0.02608014034823736</v>
+        <v>0.04807863443276507</v>
       </c>
       <c r="G151" t="n">
-        <v>0.1436163860784093</v>
+        <v>0.05869600862233406</v>
       </c>
       <c r="J151" t="n">
-        <v>0.04695491645639178</v>
+        <v>0.04807863443276507</v>
       </c>
       <c r="K151" t="n">
-        <v>0.145596912857254</v>
+        <v>0.05869600862233406</v>
       </c>
       <c r="L151" t="n">
-        <v>0.08476989770764964</v>
+        <v>0.1063589899781244</v>
       </c>
       <c r="M151" t="n">
-        <v>0.145143302968259</v>
+        <v>0.09283872949053684</v>
       </c>
       <c r="N151" t="n">
-        <v>0.1212484447024162</v>
+        <v>0.1562370673487561</v>
       </c>
       <c r="O151" t="n">
-        <v>0.1453194621484512</v>
+        <v>0.09298081343082862</v>
       </c>
     </row>
     <row r="152" ht="15" customHeight="1">
       <c r="F152" t="n">
-        <v>0.02713121625684747</v>
+        <v>0.04826252065499452</v>
       </c>
       <c r="G152" t="n">
-        <v>0.1452863440560653</v>
+        <v>0.05937852035050075</v>
       </c>
       <c r="J152" t="n">
-        <v>0.04751128226281755</v>
+        <v>0.04826252065499452</v>
       </c>
       <c r="K152" t="n">
-        <v>0.1472899002160592</v>
+        <v>0.05937852035050075</v>
       </c>
       <c r="L152" t="n">
-        <v>0.08508139866010933</v>
+        <v>0.1064039944898026</v>
       </c>
       <c r="M152" t="n">
-        <v>0.1468310157934713</v>
+        <v>0.09391824960089193</v>
       </c>
       <c r="N152" t="n">
-        <v>0.1218033976959624</v>
+        <v>0.1557168783598428</v>
       </c>
       <c r="O152" t="n">
-        <v>0.1470092233362239</v>
+        <v>0.0940619856800243</v>
       </c>
     </row>
     <row r="153" ht="15" customHeight="1">
       <c r="F153" t="n">
-        <v>0.0271917398621415</v>
+        <v>0.04843739197203371</v>
       </c>
       <c r="G153" t="n">
-        <v>0.1469563020337212</v>
+        <v>0.06006103207866742</v>
       </c>
       <c r="J153" t="n">
-        <v>0.04748457532918153</v>
+        <v>0.04843739197203371</v>
       </c>
       <c r="K153" t="n">
-        <v>0.1489828875748645</v>
+        <v>0.06006103207866742</v>
       </c>
       <c r="L153" t="n">
-        <v>0.08512240036331642</v>
+        <v>0.1054772317099365</v>
       </c>
       <c r="M153" t="n">
-        <v>0.1485187286186836</v>
+        <v>0.094997769711247</v>
       </c>
       <c r="N153" t="n">
-        <v>0.1228013541380275</v>
+        <v>0.1563111966245512</v>
       </c>
       <c r="O153" t="n">
-        <v>0.1486989845239966</v>
+        <v>0.09514315792921998</v>
       </c>
     </row>
     <row r="154" ht="15" customHeight="1">
       <c r="F154" t="n">
-        <v>0.02726108219728982</v>
+        <v>0.04860306965451013</v>
       </c>
       <c r="G154" t="n">
-        <v>0.1486262600113771</v>
+        <v>0.06074354380683409</v>
       </c>
       <c r="J154" t="n">
-        <v>0.04767375972589914</v>
+        <v>0.04860306965451013</v>
       </c>
       <c r="K154" t="n">
-        <v>0.1506758749336698</v>
+        <v>0.06074354380683409</v>
       </c>
       <c r="L154" t="n">
-        <v>0.08549106375629872</v>
+        <v>0.1055819032027153</v>
       </c>
       <c r="M154" t="n">
-        <v>0.1502064414438959</v>
+        <v>0.09607728982160207</v>
       </c>
       <c r="N154" t="n">
-        <v>0.1232396525167258</v>
+        <v>0.1565209488693671</v>
       </c>
       <c r="O154" t="n">
-        <v>0.1503887457117693</v>
+        <v>0.09622433017841565</v>
       </c>
     </row>
     <row r="155" ht="15" customHeight="1">
       <c r="F155" t="n">
-        <v>0.03033861429546283</v>
+        <v>0.0487593749730514</v>
       </c>
       <c r="G155" t="n">
-        <v>0.150296217989033</v>
+        <v>0.06142605553500077</v>
       </c>
       <c r="J155" t="n">
-        <v>0.047477799523386</v>
+        <v>0.0487593749730514</v>
       </c>
       <c r="K155" t="n">
-        <v>0.1523688622924751</v>
+        <v>0.06142605553500077</v>
       </c>
       <c r="L155" t="n">
-        <v>0.08488554977808405</v>
+        <v>0.1054212105323281</v>
       </c>
       <c r="M155" t="n">
-        <v>0.1518941542691082</v>
+        <v>0.09715680993195716</v>
       </c>
       <c r="N155" t="n">
-        <v>0.1223156313201712</v>
+        <v>0.1557470618207764</v>
       </c>
       <c r="O155" t="n">
-        <v>0.152078506899542</v>
+        <v>0.09730550242761134</v>
       </c>
     </row>
     <row r="156" ht="15" customHeight="1">
       <c r="F156" t="n">
-        <v>0.02842370718983092</v>
+        <v>0.04890612919828503</v>
       </c>
       <c r="G156" t="n">
-        <v>0.151966175966689</v>
+        <v>0.06210856726316744</v>
       </c>
       <c r="J156" t="n">
-        <v>0.04769565879205752</v>
+        <v>0.04890612919828503</v>
       </c>
       <c r="K156" t="n">
-        <v>0.1540618496512804</v>
+        <v>0.06210856726316744</v>
       </c>
       <c r="L156" t="n">
-        <v>0.08570401936770033</v>
+        <v>0.1058983552629639</v>
       </c>
       <c r="M156" t="n">
-        <v>0.1535818670943206</v>
+        <v>0.09823633004231225</v>
       </c>
       <c r="N156" t="n">
-        <v>0.122826629036478</v>
+        <v>0.1552904622052654</v>
       </c>
       <c r="O156" t="n">
-        <v>0.1537682680873147</v>
+        <v>0.09838667467680702</v>
       </c>
     </row>
     <row r="157" ht="15" customHeight="1">
       <c r="F157" t="n">
-        <v>0.03051573191356444</v>
+        <v>0.04904315360083862</v>
       </c>
       <c r="G157" t="n">
-        <v>0.1536361339443449</v>
+        <v>0.06279107899133413</v>
       </c>
       <c r="J157" t="n">
-        <v>0.04762630160232924</v>
+        <v>0.04904315360083862</v>
       </c>
       <c r="K157" t="n">
-        <v>0.1557548370100856</v>
+        <v>0.06279107899133413</v>
       </c>
       <c r="L157" t="n">
-        <v>0.08574463346417521</v>
+        <v>0.105516538958812</v>
       </c>
       <c r="M157" t="n">
-        <v>0.1552695799195329</v>
+        <v>0.09931585015266731</v>
       </c>
       <c r="N157" t="n">
-        <v>0.1233699841537602</v>
+        <v>0.1552520767493195</v>
       </c>
       <c r="O157" t="n">
-        <v>0.1554580292750873</v>
+        <v>0.0994678469260027</v>
       </c>
     </row>
     <row r="158" ht="15" customHeight="1">
       <c r="F158" t="n">
-        <v>0.0296140594998338</v>
+        <v>0.04917026945133977</v>
       </c>
       <c r="G158" t="n">
-        <v>0.1553060919220008</v>
+        <v>0.0634735907195008</v>
       </c>
       <c r="J158" t="n">
-        <v>0.04816869202461672</v>
+        <v>0.04917026945133977</v>
       </c>
       <c r="K158" t="n">
-        <v>0.1574478243688909</v>
+        <v>0.0634735907195008</v>
       </c>
       <c r="L158" t="n">
-        <v>0.08600555300653662</v>
+        <v>0.1049789631840615</v>
       </c>
       <c r="M158" t="n">
-        <v>0.1569572927447452</v>
+        <v>0.1003953702630224</v>
       </c>
       <c r="N158" t="n">
-        <v>0.1241430351601319</v>
+        <v>0.1553328321794249</v>
       </c>
       <c r="O158" t="n">
-        <v>0.15714779046286</v>
+        <v>0.1005490191751984</v>
       </c>
     </row>
     <row r="159" ht="15" customHeight="1">
       <c r="F159" t="n">
-        <v>0.02872260853541891</v>
+        <v>0.04928729802041597</v>
       </c>
       <c r="G159" t="n">
-        <v>0.1569760498996567</v>
+        <v>0.06415610244766747</v>
       </c>
       <c r="J159" t="n">
-        <v>0.04792179412933538</v>
+        <v>0.04928729802041597</v>
       </c>
       <c r="K159" t="n">
-        <v>0.1591408117276962</v>
+        <v>0.06415610244766747</v>
       </c>
       <c r="L159" t="n">
-        <v>0.08578493893381239</v>
+        <v>0.1056767959873202</v>
       </c>
       <c r="M159" t="n">
-        <v>0.1586450055699575</v>
+        <v>0.1014748903733775</v>
       </c>
       <c r="N159" t="n">
-        <v>0.1246431205437073</v>
+        <v>0.156034095323264</v>
       </c>
       <c r="O159" t="n">
-        <v>0.1588375516506327</v>
+        <v>0.1016301914243941</v>
       </c>
     </row>
     <row r="160" ht="15" customHeight="1">
       <c r="F160" t="n">
-        <v>0.02791202962168265</v>
+        <v>0.04939406057869493</v>
       </c>
       <c r="G160" t="n">
-        <v>0.1586460078773126</v>
+        <v>0.06483861417583414</v>
       </c>
       <c r="J160" t="n">
-        <v>0.04848457198690075</v>
+        <v>0.04939406057869493</v>
       </c>
       <c r="K160" t="n">
-        <v>0.1608337990865015</v>
+        <v>0.06483861417583414</v>
       </c>
       <c r="L160" t="n">
-        <v>0.08638618353750954</v>
+        <v>0.1057767959873202</v>
       </c>
       <c r="M160" t="n">
-        <v>0.1603327183951698</v>
+        <v>0.1025544104837326</v>
       </c>
       <c r="N160" t="n">
-        <v>0.124268297316814</v>
+        <v>0.1562581577999356</v>
       </c>
       <c r="O160" t="n">
-        <v>0.1605273128384054</v>
+        <v>0.1027113636735898</v>
       </c>
     </row>
     <row r="161" ht="15" customHeight="1">
       <c r="F161" t="n">
-        <v>0.02919215331162037</v>
+        <v>0.04949037839680408</v>
       </c>
       <c r="G161" t="n">
-        <v>0.1603159658549686</v>
+        <v>0.06552112590400083</v>
       </c>
       <c r="J161" t="n">
-        <v>0.04871852392889071</v>
+        <v>0.04949037839680408</v>
       </c>
       <c r="K161" t="n">
-        <v>0.1625267864453067</v>
+        <v>0.06552112590400083</v>
       </c>
       <c r="L161" t="n">
-        <v>0.08639932589845339</v>
+        <v>0.1055767959873202</v>
       </c>
       <c r="M161" t="n">
-        <v>0.1620204312203821</v>
+        <v>0.1036339305940876</v>
       </c>
       <c r="N161" t="n">
-        <v>0.1253549113481793</v>
+        <v>0.1555040462361499</v>
       </c>
       <c r="O161" t="n">
-        <v>0.1622170740261781</v>
+        <v>0.1037925359227854</v>
       </c>
     </row>
     <row r="162" ht="15" customHeight="1">
       <c r="F162" t="n">
-        <v>0.02954399261471151</v>
+        <v>0.04957607274537108</v>
       </c>
       <c r="G162" t="n">
-        <v>0.1619859238326245</v>
+        <v>0.06620363763216749</v>
       </c>
       <c r="J162" t="n">
-        <v>0.04881097893977358</v>
+        <v>0.04957607274537108</v>
       </c>
       <c r="K162" t="n">
-        <v>0.164219773804112</v>
+        <v>0.06620363763216749</v>
       </c>
       <c r="L162" t="n">
-        <v>0.08758011056550763</v>
+        <v>0.1049767959873202</v>
       </c>
       <c r="M162" t="n">
-        <v>0.1637081440455944</v>
+        <v>0.1047134507044427</v>
       </c>
       <c r="N162" t="n">
-        <v>0.1261384228371277</v>
+        <v>0.1565703813951737</v>
       </c>
       <c r="O162" t="n">
-        <v>0.1639068352139508</v>
+        <v>0.1048737081719811</v>
       </c>
     </row>
     <row r="163" ht="15" customHeight="1">
       <c r="F163" t="n">
-        <v>0.03094856054043549</v>
+        <v>0.04965096489502348</v>
       </c>
       <c r="G163" t="n">
-        <v>0.1636558818102804</v>
+        <v>0.06688614936033417</v>
       </c>
       <c r="J163" t="n">
-        <v>0.04923248819412064</v>
+        <v>0.04965096489502348</v>
       </c>
       <c r="K163" t="n">
-        <v>0.1659127611629173</v>
+        <v>0.06688614936033417</v>
       </c>
       <c r="L163" t="n">
-        <v>0.08817302072665389</v>
+        <v>0.1053767959873202</v>
       </c>
       <c r="M163" t="n">
-        <v>0.1653958568708068</v>
+        <v>0.1057929708147978</v>
       </c>
       <c r="N163" t="n">
-        <v>0.1278384871636123</v>
+        <v>0.1558557840402736</v>
       </c>
       <c r="O163" t="n">
-        <v>0.1655965964017235</v>
+        <v>0.1059548804211768</v>
       </c>
     </row>
     <row r="164" ht="15" customHeight="1">
       <c r="F164" t="n">
-        <v>0.02938687009827172</v>
+        <v>0.04971487611638879</v>
       </c>
       <c r="G164" t="n">
-        <v>0.1653258397879363</v>
+        <v>0.06756866108850085</v>
       </c>
       <c r="J164" t="n">
-        <v>0.05015177947808126</v>
+        <v>0.04971487611638879</v>
       </c>
       <c r="K164" t="n">
-        <v>0.1676057485217226</v>
+        <v>0.06756866108850085</v>
       </c>
       <c r="L164" t="n">
-        <v>0.08942253956987384</v>
+        <v>0.1051767959873202</v>
       </c>
       <c r="M164" t="n">
-        <v>0.1670835696960191</v>
+        <v>0.1068724909251529</v>
       </c>
       <c r="N164" t="n">
-        <v>0.1286747597075861</v>
+        <v>0.1565588749347166</v>
       </c>
       <c r="O164" t="n">
-        <v>0.1672863575894962</v>
+        <v>0.1070360526703725</v>
       </c>
     </row>
     <row r="165" ht="15" customHeight="1">
       <c r="F165" t="n">
-        <v>0.0328399342976997</v>
+        <v>0.04971487611638882</v>
       </c>
       <c r="G165" t="n">
-        <v>0.1669957977655923</v>
+        <v>0.06756866108850085</v>
       </c>
       <c r="J165" t="n">
-        <v>0.05063758057780461</v>
+        <v>0.04971487611638882</v>
       </c>
       <c r="K165" t="n">
-        <v>0.1692987358805279</v>
+        <v>0.06756866108850085</v>
       </c>
       <c r="L165" t="n">
-        <v>0.09087315028314907</v>
+        <v>0.1053767959873202</v>
       </c>
       <c r="M165" t="n">
-        <v>0.1687712825212314</v>
+        <v>0.1079520110355079</v>
       </c>
       <c r="N165" t="n">
-        <v>0.1314668958490024</v>
+        <v>0.1563782748417692</v>
       </c>
       <c r="O165" t="n">
-        <v>0.1689761187772689</v>
+        <v>0.1081172249195682</v>
       </c>
     </row>
     <row r="166" ht="15" customHeight="1">
       <c r="F166" t="n">
-        <v>0.03028876614819881</v>
+        <v>0.04863340204897974</v>
       </c>
       <c r="G166" t="n">
-        <v>0.1686657557432482</v>
+        <v>0.06756839256003683</v>
       </c>
       <c r="J166" t="n">
-        <v>0.05105861927944001</v>
+        <v>0.04863340204897974</v>
       </c>
       <c r="K166" t="n">
-        <v>0.1709917232393331</v>
+        <v>0.06756839256003683</v>
       </c>
       <c r="L166" t="n">
-        <v>0.09206933605446133</v>
+        <v>0.1046767959873202</v>
       </c>
       <c r="M166" t="n">
-        <v>0.1704589953464437</v>
+        <v>0.109031531145863</v>
       </c>
       <c r="N166" t="n">
-        <v>0.1328345509678143</v>
+        <v>0.1570126045246985</v>
       </c>
       <c r="O166" t="n">
-        <v>0.1706658799650416</v>
+        <v>0.1091983971687638</v>
       </c>
     </row>
     <row r="167" ht="15" customHeight="1">
       <c r="F167" t="n">
-        <v>0.03371437865924853</v>
+        <v>0.04756430244625755</v>
       </c>
       <c r="G167" t="n">
-        <v>0.1703357137209041</v>
+        <v>0.06756812403157282</v>
       </c>
       <c r="J167" t="n">
-        <v>0.05218362336913669</v>
+        <v>0.04756430244625755</v>
       </c>
       <c r="K167" t="n">
-        <v>0.1726847105981384</v>
+        <v>0.06756812403157282</v>
       </c>
       <c r="L167" t="n">
-        <v>0.09415558007179226</v>
+        <v>0.1046767959873202</v>
       </c>
       <c r="M167" t="n">
-        <v>0.172146708171656</v>
+        <v>0.1101110512562181</v>
       </c>
       <c r="N167" t="n">
-        <v>0.1355973804439747</v>
+        <v>0.156260484746771</v>
       </c>
       <c r="O167" t="n">
-        <v>0.1723556411528142</v>
+        <v>0.1102795694179595</v>
       </c>
     </row>
     <row r="168" ht="15" customHeight="1">
       <c r="F168" t="n">
-        <v>0.03009778484032824</v>
+        <v>0.04650897899467073</v>
       </c>
       <c r="G168" t="n">
-        <v>0.17200567169856</v>
+        <v>0.06756785550310879</v>
       </c>
       <c r="J168" t="n">
-        <v>0.05278132063304398</v>
+        <v>0.04650897899467073</v>
       </c>
       <c r="K168" t="n">
-        <v>0.1743776979569437</v>
+        <v>0.06756785550310879</v>
       </c>
       <c r="L168" t="n">
-        <v>0.09547636552312339</v>
+        <v>0.1048767959873202</v>
       </c>
       <c r="M168" t="n">
-        <v>0.1738344209968683</v>
+        <v>0.1111905713665732</v>
       </c>
       <c r="N168" t="n">
-        <v>0.136975039657437</v>
+        <v>0.1556205362712536</v>
       </c>
       <c r="O168" t="n">
-        <v>0.1740454023405869</v>
+        <v>0.1113607416671552</v>
       </c>
     </row>
     <row r="169" ht="15" customHeight="1">
       <c r="F169" t="n">
-        <v>0.03042768262492274</v>
+        <v>0.04546883338080553</v>
       </c>
       <c r="G169" t="n">
-        <v>0.1736756296762159</v>
+        <v>0.06756758697464478</v>
       </c>
       <c r="J169" t="n">
-        <v>0.05362043885731106</v>
+        <v>0.04546883338080553</v>
       </c>
       <c r="K169" t="n">
-        <v>0.176070685315749</v>
+        <v>0.06756758697464478</v>
       </c>
       <c r="L169" t="n">
-        <v>0.09647617559643651</v>
+        <v>0.1046767959873202</v>
       </c>
       <c r="M169" t="n">
-        <v>0.1755221338220807</v>
+        <v>0.1122700914769283</v>
       </c>
       <c r="N169" t="n">
-        <v>0.1384871839881541</v>
+        <v>0.1570913798614131</v>
       </c>
       <c r="O169" t="n">
-        <v>0.1757351635283596</v>
+        <v>0.1124419139163509</v>
       </c>
     </row>
     <row r="170" ht="15" customHeight="1">
       <c r="F170" t="n">
-        <v>0.03074137041002561</v>
+        <v>0.04444526729110986</v>
       </c>
       <c r="G170" t="n">
-        <v>0.1753455876538719</v>
+        <v>0.06756731844618076</v>
       </c>
       <c r="J170" t="n">
-        <v>0.05427148471278766</v>
+        <v>0.04444526729110986</v>
       </c>
       <c r="K170" t="n">
-        <v>0.1777636726745543</v>
+        <v>0.06756731844618076</v>
       </c>
       <c r="L170" t="n">
-        <v>0.09682131727443283</v>
+        <v>0.1056767959873202</v>
       </c>
       <c r="M170" t="n">
-        <v>0.1772098466472929</v>
+        <v>0.1133496115872834</v>
       </c>
       <c r="N170" t="n">
-        <v>0.1400715461178813</v>
+        <v>0.1560716362805162</v>
       </c>
       <c r="O170" t="n">
-        <v>0.1774249247161323</v>
+        <v>0.1135230861655466</v>
       </c>
     </row>
     <row r="171" ht="15" customHeight="1">
       <c r="F171" t="n">
-        <v>0.03304728242288979</v>
+        <v>0.043439682412078</v>
       </c>
       <c r="G171" t="n">
-        <v>0.1770155456315278</v>
+        <v>0.06756704991771674</v>
       </c>
       <c r="J171" t="n">
-        <v>0.05427796619747201</v>
+        <v>0.043439682412078</v>
       </c>
       <c r="K171" t="n">
-        <v>0.1794566600333595</v>
+        <v>0.06756704991771674</v>
       </c>
       <c r="L171" t="n">
-        <v>0.09791918957491058</v>
+        <v>0.1050767959873202</v>
       </c>
       <c r="M171" t="n">
-        <v>0.1788975594725053</v>
+        <v>0.1144291316976384</v>
       </c>
       <c r="N171" t="n">
-        <v>0.1415716529966038</v>
+        <v>0.1572599262918297</v>
       </c>
       <c r="O171" t="n">
-        <v>0.179114685903905</v>
+        <v>0.1146042584147423</v>
       </c>
     </row>
     <row r="172" ht="15" customHeight="1">
       <c r="F172" t="n">
-        <v>0.03234602098800129</v>
+        <v>0.04245348043016163</v>
       </c>
       <c r="G172" t="n">
-        <v>0.1786855036091837</v>
+        <v>0.06756678138925272</v>
       </c>
       <c r="J172" t="n">
-        <v>0.05517153848541158</v>
+        <v>0.04245348043016163</v>
       </c>
       <c r="K172" t="n">
-        <v>0.1811496473921648</v>
+        <v>0.06756678138925272</v>
       </c>
       <c r="L172" t="n">
-        <v>0.09839458474406276</v>
+        <v>0.1054767959873202</v>
       </c>
       <c r="M172" t="n">
-        <v>0.1805852722977176</v>
+        <v>0.1155086518079935</v>
       </c>
       <c r="N172" t="n">
-        <v>0.1427389827844671</v>
+        <v>0.1563548706586205</v>
       </c>
       <c r="O172" t="n">
-        <v>0.1808044470916777</v>
+        <v>0.1156854306639379</v>
       </c>
     </row>
     <row r="173" ht="15" customHeight="1">
       <c r="F173" t="n">
-        <v>0.0336381884298462</v>
+        <v>0.0414880630319409</v>
       </c>
       <c r="G173" t="n">
-        <v>0.1803554615868397</v>
+        <v>0.0675665128607887</v>
       </c>
       <c r="J173" t="n">
-        <v>0.05545319362535232</v>
+        <v>0.0414880630319409</v>
       </c>
       <c r="K173" t="n">
-        <v>0.1828426347509701</v>
+        <v>0.0675665128607887</v>
       </c>
       <c r="L173" t="n">
-        <v>0.09914926394226026</v>
+        <v>0.1055767959873202</v>
       </c>
       <c r="M173" t="n">
-        <v>0.1822729851229299</v>
+        <v>0.1165881719183486</v>
       </c>
       <c r="N173" t="n">
-        <v>0.1441760842546392</v>
+        <v>0.1568550901441552</v>
       </c>
       <c r="O173" t="n">
-        <v>0.1824942082794504</v>
+        <v>0.1167666029131336</v>
       </c>
     </row>
     <row r="174" ht="15" customHeight="1">
       <c r="F174" t="n">
-        <v>0.03292438707291051</v>
+        <v>0.04054483190386672</v>
       </c>
       <c r="G174" t="n">
-        <v>0.1820254195644956</v>
+        <v>0.06756624433232469</v>
       </c>
       <c r="J174" t="n">
-        <v>0.05592392366604014</v>
+        <v>0.04054483190386672</v>
       </c>
       <c r="K174" t="n">
-        <v>0.1845356221097754</v>
+        <v>0.06756624433232469</v>
       </c>
       <c r="L174" t="n">
-        <v>0.09998498832987374</v>
+        <v>0.1046767959873202</v>
       </c>
       <c r="M174" t="n">
-        <v>0.1839606979481422</v>
+        <v>0.1176676920287037</v>
       </c>
       <c r="N174" t="n">
-        <v>0.1452855061802876</v>
+        <v>0.1572592055117007</v>
       </c>
       <c r="O174" t="n">
-        <v>0.1841839694672231</v>
+        <v>0.1178477751623293</v>
       </c>
     </row>
     <row r="175" ht="15" customHeight="1">
       <c r="F175" t="n">
-        <v>0.03320521924168032</v>
+        <v>0.03962518873243327</v>
       </c>
       <c r="G175" t="n">
-        <v>0.1836953775421515</v>
+        <v>0.06756597580386067</v>
       </c>
       <c r="J175" t="n">
-        <v>0.05618472065622108</v>
+        <v>0.03962518873243327</v>
       </c>
       <c r="K175" t="n">
-        <v>0.1862286094685806</v>
+        <v>0.06756597580386067</v>
       </c>
       <c r="L175" t="n">
-        <v>0.101003519067274</v>
+        <v>0.1047767959873202</v>
       </c>
       <c r="M175" t="n">
-        <v>0.1856484107733545</v>
+        <v>0.1187472121390587</v>
       </c>
       <c r="N175" t="n">
-        <v>0.1457697973345802</v>
+        <v>0.1577658375245237</v>
       </c>
       <c r="O175" t="n">
-        <v>0.1858737306549958</v>
+        <v>0.118928947411525</v>
       </c>
     </row>
     <row r="176" ht="15" customHeight="1">
       <c r="F176" t="n">
-        <v>0.03248128726064169</v>
+        <v>0.0387305352040964</v>
       </c>
       <c r="G176" t="n">
-        <v>0.1853653355198074</v>
+        <v>0.06756570727539665</v>
       </c>
       <c r="J176" t="n">
-        <v>0.05673657664464103</v>
+        <v>0.0387305352040964</v>
       </c>
       <c r="K176" t="n">
-        <v>0.1879215968273859</v>
+        <v>0.06756570727539665</v>
       </c>
       <c r="L176" t="n">
-        <v>0.101506617314832</v>
+        <v>0.1050767959873202</v>
       </c>
       <c r="M176" t="n">
-        <v>0.1873361235985669</v>
+        <v>0.1198267322494138</v>
       </c>
       <c r="N176" t="n">
-        <v>0.1476315064906851</v>
+        <v>0.157773606945891</v>
       </c>
       <c r="O176" t="n">
-        <v>0.1875634918427684</v>
+        <v>0.1200101196607207</v>
       </c>
     </row>
     <row r="177" ht="15" customHeight="1">
       <c r="F177" t="n">
-        <v>0.0357531934542806</v>
+        <v>0.03786227300542826</v>
       </c>
       <c r="G177" t="n">
-        <v>0.1870352934974633</v>
+        <v>0.06756543874693263</v>
       </c>
       <c r="J177" t="n">
-        <v>0.05728048368004589</v>
+        <v>0.03786227300542826</v>
       </c>
       <c r="K177" t="n">
-        <v>0.1896145841861912</v>
+        <v>0.06756543874693263</v>
       </c>
       <c r="L177" t="n">
-        <v>0.1032960442329185</v>
+        <v>0.1049767959873202</v>
       </c>
       <c r="M177" t="n">
-        <v>0.1890238364237792</v>
+        <v>0.1209062523597689</v>
       </c>
       <c r="N177" t="n">
-        <v>0.1479731824217697</v>
+        <v>0.1589811345390694</v>
       </c>
       <c r="O177" t="n">
-        <v>0.1892532530305411</v>
+        <v>0.1210912919099163</v>
       </c>
     </row>
     <row r="178" ht="15" customHeight="1">
       <c r="F178" t="n">
-        <v>0.03402154014708311</v>
+        <v>0.0370218038228836</v>
       </c>
       <c r="G178" t="n">
-        <v>0.1887052514751193</v>
+        <v>0.06756517021846863</v>
       </c>
       <c r="J178" t="n">
-        <v>0.05781743381118169</v>
+        <v>0.0370218038228836</v>
       </c>
       <c r="K178" t="n">
-        <v>0.1913075715449965</v>
+        <v>0.06756517021846863</v>
       </c>
       <c r="L178" t="n">
-        <v>0.1040735609819042</v>
+        <v>0.1057767959873202</v>
       </c>
       <c r="M178" t="n">
-        <v>0.1907115492489915</v>
+        <v>0.121985772470124</v>
       </c>
       <c r="N178" t="n">
-        <v>0.149097373901002</v>
+        <v>0.1583870410673257</v>
       </c>
       <c r="O178" t="n">
-        <v>0.1909430142183138</v>
+        <v>0.122172464159112</v>
       </c>
     </row>
     <row r="179" ht="15" customHeight="1">
       <c r="F179" t="n">
-        <v>0.03628692966353532</v>
+        <v>0.03621052934295664</v>
       </c>
       <c r="G179" t="n">
-        <v>0.1903752094527752</v>
+        <v>0.06756490169000461</v>
       </c>
       <c r="J179" t="n">
-        <v>0.05794841908679434</v>
+        <v>0.03621052934295664</v>
       </c>
       <c r="K179" t="n">
-        <v>0.1930005589038017</v>
+        <v>0.06756490169000461</v>
       </c>
       <c r="L179" t="n">
-        <v>0.1047409287221601</v>
+        <v>0.1054767959873202</v>
       </c>
       <c r="M179" t="n">
-        <v>0.1923992620742038</v>
+        <v>0.1230652925804791</v>
       </c>
       <c r="N179" t="n">
-        <v>0.1502066297015499</v>
+        <v>0.1589899472939266</v>
       </c>
       <c r="O179" t="n">
-        <v>0.1926327754060865</v>
+        <v>0.1232536364083077</v>
       </c>
     </row>
     <row r="180" ht="15" customHeight="1">
       <c r="F180" t="n">
-        <v>0.03655235886432301</v>
+        <v>0.03542985125210833</v>
       </c>
       <c r="G180" t="n">
-        <v>0.1920451674304311</v>
+        <v>0.06756463316154059</v>
       </c>
       <c r="J180" t="n">
-        <v>0.05837443155562975</v>
+        <v>0.03542985125210833</v>
       </c>
       <c r="K180" t="n">
-        <v>0.194693546262607</v>
+        <v>0.06756463316154059</v>
       </c>
       <c r="L180" t="n">
-        <v>0.1056999086140568</v>
+        <v>0.1046767959873202</v>
       </c>
       <c r="M180" t="n">
-        <v>0.1940869748994161</v>
+        <v>0.1241448126908342</v>
       </c>
       <c r="N180" t="n">
-        <v>0.150903498596581</v>
+        <v>0.159088473982139</v>
       </c>
       <c r="O180" t="n">
-        <v>0.1943225365938592</v>
+        <v>0.1243348086575034</v>
       </c>
     </row>
     <row r="181" ht="15" customHeight="1">
       <c r="F181" t="n">
-        <v>0.03383313359009772</v>
+        <v>0.03468117123690083</v>
       </c>
       <c r="G181" t="n">
-        <v>0.193715125408087</v>
+        <v>0.06756436463307657</v>
       </c>
       <c r="J181" t="n">
-        <v>0.05879820457415087</v>
+        <v>0.03468117123690083</v>
       </c>
       <c r="K181" t="n">
-        <v>0.1963865336214123</v>
+        <v>0.06756436463307657</v>
       </c>
       <c r="L181" t="n">
-        <v>0.1058629671869979</v>
+        <v>0.1056767959873202</v>
       </c>
       <c r="M181" t="n">
-        <v>0.1957746877246284</v>
+        <v>0.1252243328011892</v>
       </c>
       <c r="N181" t="n">
-        <v>0.1521009984545124</v>
+        <v>0.1592812418952295</v>
       </c>
       <c r="O181" t="n">
-        <v>0.1960122977816319</v>
+        <v>0.1254159809066991</v>
       </c>
     </row>
     <row r="182" ht="15" customHeight="1">
       <c r="F182" t="n">
-        <v>0.03612336729837047</v>
+        <v>0.03396589098379381</v>
       </c>
       <c r="G182" t="n">
-        <v>0.195385083385743</v>
+        <v>0.06756409610461256</v>
       </c>
       <c r="J182" t="n">
-        <v>0.05924474897982814</v>
+        <v>0.03396589098379381</v>
       </c>
       <c r="K182" t="n">
-        <v>0.1980795209802176</v>
+        <v>0.06756409610461256</v>
       </c>
       <c r="L182" t="n">
-        <v>0.1068716498867819</v>
+        <v>0.1053767959873202</v>
       </c>
       <c r="M182" t="n">
-        <v>0.1974624005498407</v>
+        <v>0.1263038529115443</v>
       </c>
       <c r="N182" t="n">
-        <v>0.1529626870026926</v>
+        <v>0.158766871796465</v>
       </c>
       <c r="O182" t="n">
-        <v>0.1977020589694046</v>
+        <v>0.1264971531558947</v>
       </c>
     </row>
     <row r="183" ht="15" customHeight="1">
       <c r="F183" t="n">
-        <v>0.03441271311680773</v>
+        <v>0.03328541217928142</v>
       </c>
       <c r="G183" t="n">
-        <v>0.1970550413633989</v>
+        <v>0.06756382757614854</v>
       </c>
       <c r="J183" t="n">
-        <v>0.06010885966235228</v>
+        <v>0.03328541217928142</v>
       </c>
       <c r="K183" t="n">
-        <v>0.1997725083390229</v>
+        <v>0.06756382757614854</v>
       </c>
       <c r="L183" t="n">
-        <v>0.1080038619120757</v>
+        <v>0.1052767959873202</v>
       </c>
       <c r="M183" t="n">
-        <v>0.1991501133750531</v>
+        <v>0.1273833730218994</v>
       </c>
       <c r="N183" t="n">
-        <v>0.1552627383671884</v>
+        <v>0.1586439844491123</v>
       </c>
       <c r="O183" t="n">
-        <v>0.1993918201571772</v>
+        <v>0.1275783254050904</v>
       </c>
     </row>
     <row r="184" ht="15" customHeight="1">
       <c r="F184" t="n">
-        <v>0.03669082417307599</v>
+        <v>0.03264113650983068</v>
       </c>
       <c r="G184" t="n">
-        <v>0.1987249993410548</v>
+        <v>0.06756355904768452</v>
       </c>
       <c r="J184" t="n">
-        <v>0.06017349497397244</v>
+        <v>0.03264113650983068</v>
       </c>
       <c r="K184" t="n">
-        <v>0.2014654956978282</v>
+        <v>0.06756355904768452</v>
       </c>
       <c r="L184" t="n">
-        <v>0.1085293496339169</v>
+        <v>0.1046767959873202</v>
       </c>
       <c r="M184" t="n">
-        <v>0.2008378262002654</v>
+        <v>0.1284628931322545</v>
       </c>
       <c r="N184" t="n">
-        <v>0.1558573691203202</v>
+        <v>0.1602112006164381</v>
       </c>
       <c r="O184" t="n">
-        <v>0.2010815813449499</v>
+        <v>0.1286594976542861</v>
       </c>
     </row>
     <row r="185" ht="15" customHeight="1">
       <c r="F185" t="n">
-        <v>0.03494735359484173</v>
+        <v>0.03203446566199196</v>
       </c>
       <c r="G185" t="n">
-        <v>0.2003949573187107</v>
+        <v>0.0675632905192205</v>
       </c>
       <c r="J185" t="n">
-        <v>0.06112161326693778</v>
+        <v>0.03203446566199196</v>
       </c>
       <c r="K185" t="n">
-        <v>0.2031584830566334</v>
+        <v>0.0675632905192205</v>
       </c>
       <c r="L185" t="n">
-        <v>0.1095178594233435</v>
+        <v>0.1050767959873202</v>
       </c>
       <c r="M185" t="n">
-        <v>0.2025255390254777</v>
+        <v>0.1295424132426095</v>
       </c>
       <c r="N185" t="n">
-        <v>0.1569027958344083</v>
+        <v>0.1598671410617092</v>
       </c>
       <c r="O185" t="n">
-        <v>0.2027713425327226</v>
+        <v>0.1297406699034818</v>
       </c>
     </row>
     <row r="186" ht="15" customHeight="1">
       <c r="F186" t="n">
-        <v>0.0381719545097714</v>
+        <v>0.03146680132223058</v>
       </c>
       <c r="G186" t="n">
-        <v>0.2020649152963666</v>
+        <v>0.06756302199075648</v>
       </c>
       <c r="J186" t="n">
-        <v>0.06093617289349744</v>
+        <v>0.03146680132223058</v>
       </c>
       <c r="K186" t="n">
-        <v>0.2048514704154387</v>
+        <v>0.06756302199075648</v>
       </c>
       <c r="L186" t="n">
-        <v>0.1099391376513932</v>
+        <v>0.1051767959873202</v>
       </c>
       <c r="M186" t="n">
-        <v>0.20421325185069</v>
+        <v>0.1306219333529646</v>
       </c>
       <c r="N186" t="n">
-        <v>0.1584552350817732</v>
+        <v>0.1590104265481925</v>
       </c>
       <c r="O186" t="n">
-        <v>0.2044611037204953</v>
+        <v>0.1308218421526775</v>
       </c>
     </row>
     <row r="187" ht="15" customHeight="1">
       <c r="F187" t="n">
-        <v>0.03735428004553147</v>
+        <v>0.03093954517704085</v>
       </c>
       <c r="G187" t="n">
-        <v>0.2037348732740226</v>
+        <v>0.06756275346229247</v>
       </c>
       <c r="J187" t="n">
-        <v>0.06180013220590051</v>
+        <v>0.03093954517704085</v>
       </c>
       <c r="K187" t="n">
-        <v>0.206544457774244</v>
+        <v>0.06756275346229247</v>
       </c>
       <c r="L187" t="n">
-        <v>0.1104629306891038</v>
+        <v>0.1053767959873202</v>
       </c>
       <c r="M187" t="n">
-        <v>0.2059009646759023</v>
+        <v>0.1317014534633197</v>
       </c>
       <c r="N187" t="n">
-        <v>0.1596709034347353</v>
+        <v>0.1607396778391545</v>
       </c>
       <c r="O187" t="n">
-        <v>0.206150864908268</v>
+        <v>0.1319030144018731</v>
       </c>
     </row>
     <row r="188" ht="15" customHeight="1">
       <c r="F188" t="n">
-        <v>0.03548434952947256</v>
+        <v>0.03045409891289678</v>
       </c>
       <c r="G188" t="n">
-        <v>0.2054048312516785</v>
+        <v>0.06756248493382844</v>
       </c>
       <c r="J188" t="n">
-        <v>0.06179644955639611</v>
+        <v>0.03045409891289678</v>
       </c>
       <c r="K188" t="n">
-        <v>0.2082374451330493</v>
+        <v>0.06756248493382844</v>
       </c>
       <c r="L188" t="n">
-        <v>0.1115589849075131</v>
+        <v>0.1050767959873202</v>
       </c>
       <c r="M188" t="n">
-        <v>0.2075886775011146</v>
+        <v>0.1327809735736748</v>
       </c>
       <c r="N188" t="n">
-        <v>0.1597060174656149</v>
+        <v>0.1593535156978622</v>
       </c>
       <c r="O188" t="n">
-        <v>0.2078406260960407</v>
+        <v>0.1329841866510688</v>
       </c>
     </row>
     <row r="189" ht="15" customHeight="1">
       <c r="F189" t="n">
-        <v>0.03858977825342534</v>
+        <v>0.03001186421633488</v>
       </c>
       <c r="G189" t="n">
-        <v>0.2070747892293344</v>
+        <v>0.06756221640536443</v>
       </c>
       <c r="J189" t="n">
-        <v>0.06200835833657388</v>
+        <v>0.03001186421633488</v>
       </c>
       <c r="K189" t="n">
-        <v>0.2099304324918545</v>
+        <v>0.06756221640536443</v>
       </c>
       <c r="L189" t="n">
-        <v>0.1110054648157315</v>
+        <v>0.1049767959873202</v>
       </c>
       <c r="M189" t="n">
-        <v>0.2092763903263269</v>
+        <v>0.1338604936840299</v>
       </c>
       <c r="N189" t="n">
-        <v>0.1598228168502226</v>
+        <v>0.1596505608875823</v>
       </c>
       <c r="O189" t="n">
-        <v>0.2095303872838134</v>
+        <v>0.1340653589002645</v>
       </c>
     </row>
     <row r="190" ht="15" customHeight="1">
       <c r="F190" t="n">
-        <v>0.0376928632373026</v>
+        <v>0.02960863297597031</v>
       </c>
       <c r="G190" t="n">
-        <v>0.2087447472069903</v>
+        <v>0.06756194787690041</v>
       </c>
       <c r="J190" t="n">
-        <v>0.06207741294660783</v>
+        <v>0.02960863297597031</v>
       </c>
       <c r="K190" t="n">
-        <v>0.2116234198506598</v>
+        <v>0.06756194787690041</v>
       </c>
       <c r="L190" t="n">
-        <v>0.1122058939810694</v>
+        <v>0.1055767959873202</v>
       </c>
       <c r="M190" t="n">
-        <v>0.2109641031515392</v>
+        <v>0.1349400137943849</v>
       </c>
       <c r="N190" t="n">
-        <v>0.1613574284987815</v>
+        <v>0.1603294341715817</v>
       </c>
       <c r="O190" t="n">
-        <v>0.2112201484715861</v>
+        <v>0.1351465311494602</v>
       </c>
     </row>
     <row r="191" ht="15" customHeight="1">
       <c r="F191" t="n">
-        <v>0.03679356640321405</v>
+        <v>0.02921210543291049</v>
       </c>
       <c r="G191" t="n">
-        <v>0.2104147051846463</v>
+        <v>0.0675616793484364</v>
       </c>
       <c r="J191" t="n">
-        <v>0.06264266111501153</v>
+        <v>0.02921210543291049</v>
       </c>
       <c r="K191" t="n">
-        <v>0.2133164072094651</v>
+        <v>0.0675616793484364</v>
       </c>
       <c r="L191" t="n">
-        <v>0.111499518794023</v>
+        <v>0.1054767959873202</v>
       </c>
       <c r="M191" t="n">
-        <v>0.2126518159767515</v>
+        <v>0.13601953390474</v>
       </c>
       <c r="N191" t="n">
-        <v>0.1617822191951432</v>
+        <v>0.159688756313127</v>
       </c>
       <c r="O191" t="n">
-        <v>0.2129099096593588</v>
+        <v>0.1362277033986559</v>
       </c>
     </row>
     <row r="192" ht="15" customHeight="1">
       <c r="F192" t="n">
-        <v>0.03889184967326935</v>
+        <v>0.02881796446025352</v>
       </c>
       <c r="G192" t="n">
-        <v>0.2120846631623022</v>
+        <v>0.06756141081997237</v>
       </c>
       <c r="J192" t="n">
-        <v>0.06260404012621516</v>
+        <v>0.02881796446025352</v>
       </c>
       <c r="K192" t="n">
-        <v>0.2150093945682704</v>
+        <v>0.06756141081997237</v>
       </c>
       <c r="L192" t="n">
-        <v>0.1125862279171438</v>
+        <v>0.1054767959873202</v>
       </c>
       <c r="M192" t="n">
-        <v>0.2143395288019639</v>
+        <v>0.1370990540150951</v>
       </c>
       <c r="N192" t="n">
-        <v>0.1621970278103694</v>
+        <v>0.1606271480754851</v>
       </c>
       <c r="O192" t="n">
-        <v>0.2145996708471315</v>
+        <v>0.1373088756478516</v>
       </c>
     </row>
     <row r="193" ht="15" customHeight="1">
       <c r="F193" t="n">
-        <v>0.03798767496957826</v>
+        <v>0.02842749798919965</v>
       </c>
       <c r="G193" t="n">
-        <v>0.2137546211399581</v>
+        <v>0.06756114229150836</v>
       </c>
       <c r="J193" t="n">
-        <v>0.06286148726464906</v>
+        <v>0.02842749798919965</v>
       </c>
       <c r="K193" t="n">
-        <v>0.2167023819270757</v>
+        <v>0.06756114229150836</v>
       </c>
       <c r="L193" t="n">
-        <v>0.1119659100129833</v>
+        <v>0.1057767959873202</v>
       </c>
       <c r="M193" t="n">
-        <v>0.2160272416271762</v>
+        <v>0.1381785741254502</v>
       </c>
       <c r="N193" t="n">
-        <v>0.1616016932155215</v>
+        <v>0.1599432302219227</v>
       </c>
       <c r="O193" t="n">
-        <v>0.2162894320349041</v>
+        <v>0.1383900478970472</v>
       </c>
     </row>
     <row r="194" ht="15" customHeight="1">
       <c r="F194" t="n">
-        <v>0.03608100421425045</v>
+        <v>0.02804199395089756</v>
       </c>
       <c r="G194" t="n">
-        <v>0.215424579117614</v>
+        <v>0.06756087376304434</v>
       </c>
       <c r="J194" t="n">
-        <v>0.06321493981474342</v>
+        <v>0.02804199395089756</v>
       </c>
       <c r="K194" t="n">
-        <v>0.2183953692858809</v>
+        <v>0.06756087376304434</v>
       </c>
       <c r="L194" t="n">
-        <v>0.1133384537440932</v>
+        <v>0.1052662559804712</v>
       </c>
       <c r="M194" t="n">
-        <v>0.2177149544523885</v>
+        <v>0.1392580942358053</v>
       </c>
       <c r="N194" t="n">
-        <v>0.1627960542816612</v>
+        <v>0.1612224762507809</v>
       </c>
       <c r="O194" t="n">
-        <v>0.2179791932226768</v>
+        <v>0.1394712201462429</v>
       </c>
     </row>
     <row r="195" ht="15" customHeight="1">
       <c r="F195" t="n">
-        <v>0.03817179932939566</v>
+        <v>0.02766274027651312</v>
       </c>
       <c r="G195" t="n">
-        <v>0.2170945370952699</v>
+        <v>0.06756060523458034</v>
       </c>
       <c r="J195" t="n">
-        <v>0.06326433506092853</v>
+        <v>0.02766274027651312</v>
       </c>
       <c r="K195" t="n">
-        <v>0.2200883566446862</v>
+        <v>0.06756060523458034</v>
       </c>
       <c r="L195" t="n">
-        <v>0.1126037477730251</v>
+        <v>0.104831756653648</v>
       </c>
       <c r="M195" t="n">
-        <v>0.2194026672776008</v>
+        <v>0.1403376143461603</v>
       </c>
       <c r="N195" t="n">
-        <v>0.1624799498798496</v>
+        <v>0.1610402106223158</v>
       </c>
       <c r="O195" t="n">
-        <v>0.2196689544104495</v>
+        <v>0.1405523923954386</v>
       </c>
     </row>
     <row r="196" ht="15" customHeight="1">
       <c r="F196" t="n">
-        <v>0.03926002223712358</v>
+        <v>0.02729102489719627</v>
       </c>
       <c r="G196" t="n">
-        <v>0.2187644950729259</v>
+        <v>0.0675603367061163</v>
       </c>
       <c r="J196" t="n">
-        <v>0.06350961028763462</v>
+        <v>0.02729102489719627</v>
       </c>
       <c r="K196" t="n">
-        <v>0.2217813440034915</v>
+        <v>0.0675603367061163</v>
       </c>
       <c r="L196" t="n">
-        <v>0.1129616807623304</v>
+        <v>0.1045745598987389</v>
       </c>
       <c r="M196" t="n">
-        <v>0.2210903801028131</v>
+        <v>0.1414171344565154</v>
       </c>
       <c r="N196" t="n">
-        <v>0.1626532188811486</v>
+        <v>0.1593992439003722</v>
       </c>
       <c r="O196" t="n">
-        <v>0.2213587155982222</v>
+        <v>0.1416335646446343</v>
       </c>
     </row>
     <row r="197" ht="15" customHeight="1">
       <c r="F197" t="n">
-        <v>0.0383456348595439</v>
+        <v>0.02692813574414525</v>
       </c>
       <c r="G197" t="n">
-        <v>0.2204344530505818</v>
+        <v>0.0675600681776523</v>
       </c>
       <c r="J197" t="n">
-        <v>0.06365070277929193</v>
+        <v>0.02692813574414525</v>
       </c>
       <c r="K197" t="n">
-        <v>0.2234743313622968</v>
+        <v>0.0675600681776523</v>
       </c>
       <c r="L197" t="n">
-        <v>0.113812141374561</v>
+        <v>0.1054960069781</v>
       </c>
       <c r="M197" t="n">
-        <v>0.2227780929280254</v>
+        <v>0.1424966545668705</v>
       </c>
       <c r="N197" t="n">
-        <v>0.1645157001566195</v>
+        <v>0.1592031162939099</v>
       </c>
       <c r="O197" t="n">
-        <v>0.2230484767859949</v>
+        <v>0.14271473689383</v>
       </c>
     </row>
     <row r="198" ht="15" customHeight="1">
       <c r="F198" t="n">
-        <v>0.03842859911876632</v>
+        <v>0.02657536074850958</v>
       </c>
       <c r="G198" t="n">
-        <v>0.2221044110282377</v>
+        <v>0.06755979964918828</v>
       </c>
       <c r="J198" t="n">
-        <v>0.06358754982033075</v>
+        <v>0.02657536074850958</v>
       </c>
       <c r="K198" t="n">
-        <v>0.225167318721102</v>
+        <v>0.06755979964918828</v>
       </c>
       <c r="L198" t="n">
-        <v>0.1140550182722682</v>
+        <v>0.1052974391540875</v>
       </c>
       <c r="M198" t="n">
-        <v>0.2244658057532377</v>
+        <v>0.1435761746772256</v>
       </c>
       <c r="N198" t="n">
-        <v>0.1642672325773238</v>
+        <v>0.1588553680118883</v>
       </c>
       <c r="O198" t="n">
-        <v>0.2247382379737676</v>
+        <v>0.1437959091430256</v>
       </c>
     </row>
     <row r="199" ht="15" customHeight="1">
       <c r="F199" t="n">
-        <v>0.03850887693690057</v>
+        <v>0.02623398784145521</v>
       </c>
       <c r="G199" t="n">
-        <v>0.2237743690058936</v>
+        <v>0.06755953112072426</v>
       </c>
       <c r="J199" t="n">
-        <v>0.0639200886951813</v>
+        <v>0.02623398784145521</v>
       </c>
       <c r="K199" t="n">
-        <v>0.2268603060799073</v>
+        <v>0.06755953112072426</v>
       </c>
       <c r="L199" t="n">
-        <v>0.1144902001180038</v>
+        <v>0.1052801976890576</v>
       </c>
       <c r="M199" t="n">
-        <v>0.2261535185784501</v>
+        <v>0.1446556947875806</v>
       </c>
       <c r="N199" t="n">
-        <v>0.164807655014323</v>
+        <v>0.1588595392632669</v>
       </c>
       <c r="O199" t="n">
-        <v>0.2264279991615403</v>
+        <v>0.1448770813922213</v>
       </c>
     </row>
     <row r="200" ht="15" customHeight="1">
       <c r="F200" t="n">
-        <v>0.03958643023605633</v>
+        <v>0.02590530495413397</v>
       </c>
       <c r="G200" t="n">
-        <v>0.2254443269835496</v>
+        <v>0.06755926259226024</v>
       </c>
       <c r="J200" t="n">
-        <v>0.06354825668827384</v>
+        <v>0.02590530495413397</v>
       </c>
       <c r="K200" t="n">
-        <v>0.2285532934387126</v>
+        <v>0.06755926259226024</v>
       </c>
       <c r="L200" t="n">
-        <v>0.1146175755743191</v>
+        <v>0.1049456238453663</v>
       </c>
       <c r="M200" t="n">
-        <v>0.2278412314036624</v>
+        <v>0.1457352148979357</v>
       </c>
       <c r="N200" t="n">
-        <v>0.1651368063386786</v>
+        <v>0.1592191702570054</v>
       </c>
       <c r="O200" t="n">
-        <v>0.2281177603493129</v>
+        <v>0.145958253641417</v>
       </c>
     </row>
     <row r="201" ht="15" customHeight="1">
       <c r="F201" t="n">
-        <v>0.03966122093834334</v>
+        <v>0.02559060001774043</v>
       </c>
       <c r="G201" t="n">
-        <v>0.2271142849612055</v>
+        <v>0.06755899406379622</v>
       </c>
       <c r="J201" t="n">
-        <v>0.06387199108403864</v>
+        <v>0.02559060001774043</v>
       </c>
       <c r="K201" t="n">
-        <v>0.2302462807975179</v>
+        <v>0.06755899406379622</v>
       </c>
       <c r="L201" t="n">
-        <v>0.115037033303766</v>
+        <v>0.1048950588853699</v>
       </c>
       <c r="M201" t="n">
-        <v>0.2295289442288747</v>
+        <v>0.1468147350082908</v>
       </c>
       <c r="N201" t="n">
-        <v>0.1654545254214521</v>
+        <v>0.1581378012020633</v>
       </c>
       <c r="O201" t="n">
-        <v>0.2298075215370857</v>
+        <v>0.1470394258906127</v>
       </c>
     </row>
     <row r="202" ht="15" customHeight="1">
       <c r="F202" t="n">
-        <v>0.04073321096587126</v>
+        <v>0.02529116096342586</v>
       </c>
       <c r="G202" t="n">
-        <v>0.2287842429388614</v>
+        <v>0.06755872553533221</v>
       </c>
       <c r="J202" t="n">
-        <v>0.06419122916690594</v>
+        <v>0.02529116096342586</v>
       </c>
       <c r="K202" t="n">
-        <v>0.2319392681563232</v>
+        <v>0.06755872553533221</v>
       </c>
       <c r="L202" t="n">
-        <v>0.114948461968896</v>
+        <v>0.1049298440714246</v>
       </c>
       <c r="M202" t="n">
-        <v>0.231216657054087</v>
+        <v>0.1478942551186459</v>
       </c>
       <c r="N202" t="n">
-        <v>0.1651606511337051</v>
+        <v>0.1583189723074002</v>
       </c>
       <c r="O202" t="n">
-        <v>0.2314972827248583</v>
+        <v>0.1481205981398084</v>
       </c>
     </row>
     <row r="203" ht="15" customHeight="1">
       <c r="F203" t="n">
-        <v>0.03780236224074984</v>
+        <v>0.02500827572235616</v>
       </c>
       <c r="G203" t="n">
-        <v>0.2304542009165173</v>
+        <v>0.06755845700686819</v>
       </c>
       <c r="J203" t="n">
-        <v>0.06390590822130597</v>
+        <v>0.02500827572235616</v>
       </c>
       <c r="K203" t="n">
-        <v>0.2336322555151285</v>
+        <v>0.06755845700686819</v>
       </c>
       <c r="L203" t="n">
-        <v>0.1154517502322607</v>
+        <v>0.1043513206658863</v>
       </c>
       <c r="M203" t="n">
-        <v>0.2329043698792993</v>
+        <v>0.148973775229001</v>
       </c>
       <c r="N203" t="n">
-        <v>0.166355022346499</v>
+        <v>0.1576662237819755</v>
       </c>
       <c r="O203" t="n">
-        <v>0.233187043912631</v>
+        <v>0.1492017703890041</v>
       </c>
     </row>
     <row r="204" ht="15" customHeight="1">
       <c r="F204" t="n">
-        <v>0.03886863668508873</v>
+        <v>0.02474323222568608</v>
       </c>
       <c r="G204" t="n">
-        <v>0.2321241588941732</v>
+        <v>0.06755818847840417</v>
       </c>
       <c r="J204" t="n">
-        <v>0.06431596553166898</v>
+        <v>0.02474323222568608</v>
       </c>
       <c r="K204" t="n">
-        <v>0.2353252428739337</v>
+        <v>0.06755818847840417</v>
       </c>
       <c r="L204" t="n">
-        <v>0.1149467867564116</v>
+        <v>0.1045608299311115</v>
       </c>
       <c r="M204" t="n">
-        <v>0.2345920827045116</v>
+        <v>0.1500532953393561</v>
       </c>
       <c r="N204" t="n">
-        <v>0.1660374779308952</v>
+        <v>0.1581830958347489</v>
       </c>
       <c r="O204" t="n">
-        <v>0.2348768051004037</v>
+        <v>0.1502829426381997</v>
       </c>
     </row>
     <row r="205" ht="15" customHeight="1">
       <c r="F205" t="n">
-        <v>0.03993199622099769</v>
+        <v>0.02449731840460465</v>
       </c>
       <c r="G205" t="n">
-        <v>0.2337941168718292</v>
+        <v>0.06755791994994015</v>
       </c>
       <c r="J205" t="n">
-        <v>0.06442133838242527</v>
+        <v>0.02449731840460465</v>
       </c>
       <c r="K205" t="n">
-        <v>0.237018230232739</v>
+        <v>0.06755791994994015</v>
       </c>
       <c r="L205" t="n">
-        <v>0.1153334602039002</v>
+        <v>0.1035597131294561</v>
       </c>
       <c r="M205" t="n">
-        <v>0.2362797955297239</v>
+        <v>0.1511328154497111</v>
       </c>
       <c r="N205" t="n">
-        <v>0.1660078567579553</v>
+        <v>0.15617312867468</v>
       </c>
       <c r="O205" t="n">
-        <v>0.2365665662881764</v>
+        <v>0.1513641148873954</v>
       </c>
     </row>
     <row r="206" ht="15" customHeight="1">
       <c r="F206" t="n">
-        <v>0.0399924027705864</v>
+        <v>0.0242718221902658</v>
       </c>
       <c r="G206" t="n">
-        <v>0.2354640748494851</v>
+        <v>0.06755765142147614</v>
       </c>
       <c r="J206" t="n">
-        <v>0.06462196405800506</v>
+        <v>0.0242718221902658</v>
       </c>
       <c r="K206" t="n">
-        <v>0.2387112175915443</v>
+        <v>0.06755765142147614</v>
       </c>
       <c r="L206" t="n">
-        <v>0.1153116592372784</v>
+        <v>0.1030493115232763</v>
       </c>
       <c r="M206" t="n">
-        <v>0.2379675083549363</v>
+        <v>0.1522123355600662</v>
       </c>
       <c r="N206" t="n">
-        <v>0.1668659976987408</v>
+        <v>0.1562398625107281</v>
       </c>
       <c r="O206" t="n">
-        <v>0.2382563274759491</v>
+        <v>0.1524452871365911</v>
       </c>
     </row>
     <row r="207" ht="15" customHeight="1">
       <c r="F207" t="n">
-        <v>0.04104981825596457</v>
+        <v>0.02406803151383541</v>
       </c>
       <c r="G207" t="n">
-        <v>0.237134032827141</v>
+        <v>0.06755738289301212</v>
       </c>
       <c r="J207" t="n">
-        <v>0.06471777984283862</v>
+        <v>0.02406803151383541</v>
       </c>
       <c r="K207" t="n">
-        <v>0.2404042049503495</v>
+        <v>0.06755738289301212</v>
       </c>
       <c r="L207" t="n">
-        <v>0.1161812725190975</v>
+        <v>0.1031309663749284</v>
       </c>
       <c r="M207" t="n">
-        <v>0.2396552211801486</v>
+        <v>0.1532918556704213</v>
       </c>
       <c r="N207" t="n">
-        <v>0.1664117396243133</v>
+        <v>0.154986837551853</v>
       </c>
       <c r="O207" t="n">
-        <v>0.2399460886637218</v>
+        <v>0.1535264593857868</v>
       </c>
     </row>
     <row r="208" ht="15" customHeight="1">
       <c r="F208" t="n">
-        <v>0.04110420459924188</v>
+        <v>0.02388723430647204</v>
       </c>
       <c r="G208" t="n">
-        <v>0.238803990804797</v>
+        <v>0.0675571143645481</v>
       </c>
       <c r="J208" t="n">
-        <v>0.06490872302135615</v>
+        <v>0.02388723430647204</v>
       </c>
       <c r="K208" t="n">
-        <v>0.2420971923091548</v>
+        <v>0.0675571143645481</v>
       </c>
       <c r="L208" t="n">
-        <v>0.1160421887119091</v>
+        <v>0.1031060189467684</v>
       </c>
       <c r="M208" t="n">
-        <v>0.2413429340053609</v>
+        <v>0.1543713757807764</v>
       </c>
       <c r="N208" t="n">
-        <v>0.1677449214057341</v>
+        <v>0.1551175940070141</v>
       </c>
       <c r="O208" t="n">
-        <v>0.2416358498514945</v>
+        <v>0.1546076316349825</v>
       </c>
     </row>
     <row r="209" ht="15" customHeight="1">
       <c r="F209" t="n">
-        <v>0.04115552372252806</v>
+        <v>0.02373071849935733</v>
       </c>
       <c r="G209" t="n">
-        <v>0.2404739487824529</v>
+        <v>0.06755684583608408</v>
       </c>
       <c r="J209" t="n">
-        <v>0.06469473087798795</v>
+        <v>0.02373071849935733</v>
       </c>
       <c r="K209" t="n">
-        <v>0.2437901796679601</v>
+        <v>0.06755684583608408</v>
       </c>
       <c r="L209" t="n">
-        <v>0.1160942964782651</v>
+        <v>0.1034758105011525</v>
       </c>
       <c r="M209" t="n">
-        <v>0.2430306468305732</v>
+        <v>0.1554508958911315</v>
       </c>
       <c r="N209" t="n">
-        <v>0.1666653819140647</v>
+        <v>0.1548356720851712</v>
       </c>
       <c r="O209" t="n">
-        <v>0.2433256110392672</v>
+        <v>0.1556888038841782</v>
       </c>
     </row>
     <row r="210" ht="15" customHeight="1">
       <c r="F210" t="n">
-        <v>0.04020373754793281</v>
+        <v>0.02359977202364884</v>
       </c>
       <c r="G210" t="n">
-        <v>0.2421439067601088</v>
+        <v>0.06755657730762006</v>
       </c>
       <c r="J210" t="n">
-        <v>0.06487574069716424</v>
+        <v>0.02359977202364884</v>
       </c>
       <c r="K210" t="n">
-        <v>0.2454831670267654</v>
+        <v>0.06755657730762006</v>
       </c>
       <c r="L210" t="n">
-        <v>0.1163374844807167</v>
+        <v>0.1029416823004368</v>
       </c>
       <c r="M210" t="n">
-        <v>0.2447183596557855</v>
+        <v>0.1565304160014865</v>
       </c>
       <c r="N210" t="n">
-        <v>0.1674729600203669</v>
+        <v>0.1544446119952835</v>
       </c>
       <c r="O210" t="n">
-        <v>0.2450153722270398</v>
+        <v>0.1567699761333738</v>
       </c>
     </row>
     <row r="211" ht="15" customHeight="1">
       <c r="F211" t="n">
-        <v>0.03924880799756585</v>
+        <v>0.02349568281051241</v>
       </c>
       <c r="G211" t="n">
-        <v>0.2438138647377647</v>
+        <v>0.06755630877915605</v>
       </c>
       <c r="J211" t="n">
-        <v>0.06475168976331534</v>
+        <v>0.02349568281051241</v>
       </c>
       <c r="K211" t="n">
-        <v>0.2471761543855707</v>
+        <v>0.06755630877915605</v>
       </c>
       <c r="L211" t="n">
-        <v>0.1157716413818158</v>
+        <v>0.1020049756069776</v>
       </c>
       <c r="M211" t="n">
-        <v>0.2464060724809978</v>
+        <v>0.1576099361118416</v>
       </c>
       <c r="N211" t="n">
-        <v>0.1670674945957017</v>
+        <v>0.1536479539463108</v>
       </c>
       <c r="O211" t="n">
-        <v>0.2467051334148126</v>
+        <v>0.1578511483825695</v>
       </c>
     </row>
     <row r="212" ht="15" customHeight="1">
       <c r="F212" t="n">
-        <v>0.04029069699353685</v>
+        <v>0.02341973879111126</v>
       </c>
       <c r="G212" t="n">
-        <v>0.2454838227154206</v>
+        <v>0.06755604025069202</v>
       </c>
       <c r="J212" t="n">
-        <v>0.06492251536087144</v>
+        <v>0.02341973879111126</v>
       </c>
       <c r="K212" t="n">
-        <v>0.248869141744376</v>
+        <v>0.06755604025069202</v>
       </c>
       <c r="L212" t="n">
-        <v>0.1162966558441138</v>
+        <v>0.1022670316831309</v>
       </c>
       <c r="M212" t="n">
-        <v>0.2480937853062101</v>
+        <v>0.1586894562221967</v>
       </c>
       <c r="N212" t="n">
-        <v>0.167148824511131</v>
+        <v>0.1522492381472125</v>
       </c>
       <c r="O212" t="n">
-        <v>0.2483948946025852</v>
+        <v>0.1589323206317652</v>
       </c>
     </row>
     <row r="213" ht="15" customHeight="1">
       <c r="F213" t="n">
-        <v>0.04132936645795554</v>
+        <v>0.02337322789661794</v>
       </c>
       <c r="G213" t="n">
-        <v>0.2471537806930766</v>
+        <v>0.06755577172222801</v>
       </c>
       <c r="J213" t="n">
-        <v>0.06488815477426275</v>
+        <v>0.02337322789661794</v>
       </c>
       <c r="K213" t="n">
-        <v>0.2505621291031812</v>
+        <v>0.06755577172222801</v>
       </c>
       <c r="L213" t="n">
-        <v>0.1162124165301622</v>
+        <v>0.101929191791253</v>
       </c>
       <c r="M213" t="n">
-        <v>0.2497814981314224</v>
+        <v>0.1597689763325518</v>
       </c>
       <c r="N213" t="n">
-        <v>0.1685167886377161</v>
+        <v>0.1519520048069483</v>
       </c>
       <c r="O213" t="n">
-        <v>0.2500846557903579</v>
+        <v>0.1600134928809609</v>
       </c>
     </row>
     <row r="214" ht="15" customHeight="1">
       <c r="F214" t="n">
-        <v>0.03936477831293161</v>
+        <v>0.02335743805819442</v>
       </c>
       <c r="G214" t="n">
-        <v>0.2488237386707325</v>
+        <v>0.06755550319376399</v>
       </c>
       <c r="J214" t="n">
-        <v>0.06494854528791964</v>
+        <v>0.02335743805819442</v>
       </c>
       <c r="K214" t="n">
-        <v>0.2522551164619865</v>
+        <v>0.06755550319376399</v>
       </c>
       <c r="L214" t="n">
-        <v>0.1160188121025129</v>
+        <v>0.1012927971936999</v>
       </c>
       <c r="M214" t="n">
-        <v>0.2514692109566348</v>
+        <v>0.1608484964429069</v>
       </c>
       <c r="N214" t="n">
-        <v>0.1683712258465186</v>
+        <v>0.1516597941344776</v>
       </c>
       <c r="O214" t="n">
-        <v>0.2517744169781306</v>
+        <v>0.1610946651301566</v>
       </c>
     </row>
     <row r="215" ht="15" customHeight="1">
       <c r="F215" t="n">
-        <v>0.03839689448057479</v>
+        <v>0.02335743805819442</v>
       </c>
       <c r="G215" t="n">
-        <v>0.2504936966483884</v>
+        <v>0.06755550319376399</v>
       </c>
       <c r="J215" t="n">
-        <v>0.06480362418627232</v>
+        <v>0.02335743805819442</v>
       </c>
       <c r="K215" t="n">
-        <v>0.2539481038207918</v>
+        <v>0.06755550319376399</v>
       </c>
       <c r="L215" t="n">
-        <v>0.1165157312237173</v>
+        <v>0.101559189152828</v>
       </c>
       <c r="M215" t="n">
-        <v>0.2531569237818471</v>
+        <v>0.1619280165532619</v>
       </c>
       <c r="N215" t="n">
-        <v>0.1674119750086001</v>
+        <v>0.1509761463387601</v>
       </c>
       <c r="O215" t="n">
-        <v>0.2534641781659033</v>
+        <v>0.1621758373793522</v>
       </c>
     </row>
     <row r="216" ht="15" customHeight="1">
       <c r="F216" t="n">
-        <v>0.03842567688299474</v>
+        <v>0.02252863083994398</v>
       </c>
       <c r="G216" t="n">
-        <v>0.2521636546260443</v>
+        <v>0.06748067875959729</v>
       </c>
       <c r="J216" t="n">
-        <v>0.06485332875375098</v>
+        <v>0.02252863083994398</v>
       </c>
       <c r="K216" t="n">
-        <v>0.2556410911795971</v>
+        <v>0.06748067875959729</v>
       </c>
       <c r="L216" t="n">
-        <v>0.1170030625563269</v>
+        <v>0.1016297089309931</v>
       </c>
       <c r="M216" t="n">
-        <v>0.2548446366070594</v>
+        <v>0.163007536663617</v>
       </c>
       <c r="N216" t="n">
-        <v>0.1676388749950217</v>
+        <v>0.1505046016287553</v>
       </c>
       <c r="O216" t="n">
-        <v>0.255153939353676</v>
+        <v>0.1632570096285479</v>
       </c>
     </row>
     <row r="217" ht="15" customHeight="1">
       <c r="F217" t="n">
-        <v>0.0384510874423012</v>
+        <v>0.02170848993570935</v>
       </c>
       <c r="G217" t="n">
-        <v>0.2538336126037002</v>
+        <v>0.0674058543254306</v>
       </c>
       <c r="J217" t="n">
-        <v>0.06509759627478588</v>
+        <v>0.02170848993570935</v>
       </c>
       <c r="K217" t="n">
-        <v>0.2573340785384023</v>
+        <v>0.0674058543254306</v>
       </c>
       <c r="L217" t="n">
-        <v>0.1169806947628935</v>
+        <v>0.1016056977905517</v>
       </c>
       <c r="M217" t="n">
-        <v>0.2565323494322717</v>
+        <v>0.1640870567739721</v>
       </c>
       <c r="N217" t="n">
-        <v>0.1689517646768452</v>
+        <v>0.1507487002134227</v>
       </c>
       <c r="O217" t="n">
-        <v>0.2568437005414487</v>
+        <v>0.1643381818777436</v>
       </c>
     </row>
     <row r="218" ht="15" customHeight="1">
       <c r="F218" t="n">
-        <v>0.03747308808060389</v>
+        <v>0.02089841472448917</v>
       </c>
       <c r="G218" t="n">
-        <v>0.2555035705813562</v>
+        <v>0.0673310298912639</v>
       </c>
       <c r="J218" t="n">
-        <v>0.06493636403380736</v>
+        <v>0.02089841472448917</v>
       </c>
       <c r="K218" t="n">
-        <v>0.2590270658972076</v>
+        <v>0.0673310298912639</v>
       </c>
       <c r="L218" t="n">
-        <v>0.1165485165059684</v>
+        <v>0.1011884969938597</v>
       </c>
       <c r="M218" t="n">
-        <v>0.258220062257484</v>
+        <v>0.1651665768843272</v>
       </c>
       <c r="N218" t="n">
-        <v>0.1678504829251321</v>
+        <v>0.150211982301722</v>
       </c>
       <c r="O218" t="n">
-        <v>0.2585334617292214</v>
+        <v>0.1654193541269393</v>
       </c>
     </row>
     <row r="219" ht="15" customHeight="1">
       <c r="F219" t="n">
-        <v>0.04049164072001248</v>
+        <v>0.0200998045852821</v>
       </c>
       <c r="G219" t="n">
-        <v>0.2571735285590121</v>
+        <v>0.06725620545709719</v>
       </c>
       <c r="J219" t="n">
-        <v>0.06546956931524563</v>
+        <v>0.0200998045852821</v>
       </c>
       <c r="K219" t="n">
-        <v>0.2607200532560129</v>
+        <v>0.06725620545709719</v>
       </c>
       <c r="L219" t="n">
-        <v>0.1175064164481035</v>
+        <v>0.1007794478032734</v>
       </c>
       <c r="M219" t="n">
-        <v>0.2599077750826964</v>
+        <v>0.1662460969946823</v>
       </c>
       <c r="N219" t="n">
-        <v>0.1689348686109439</v>
+        <v>0.1490979881026125</v>
       </c>
       <c r="O219" t="n">
-        <v>0.2602232229169941</v>
+        <v>0.166500526376135</v>
       </c>
     </row>
     <row r="220" ht="15" customHeight="1">
       <c r="F220" t="n">
-        <v>0.03850670728263668</v>
+        <v>0.01931405889708677</v>
       </c>
       <c r="G220" t="n">
-        <v>0.258843486536668</v>
+        <v>0.06718138102293049</v>
       </c>
       <c r="J220" t="n">
-        <v>0.06499714940353089</v>
+        <v>0.01931405889708677</v>
       </c>
       <c r="K220" t="n">
-        <v>0.2624130406148182</v>
+        <v>0.06718138102293049</v>
       </c>
       <c r="L220" t="n">
-        <v>0.1166542832518502</v>
+        <v>0.1008798914811489</v>
       </c>
       <c r="M220" t="n">
-        <v>0.2615954879079087</v>
+        <v>0.1673256171050373</v>
       </c>
       <c r="N220" t="n">
-        <v>0.1682047606053418</v>
+        <v>0.148410257825054</v>
       </c>
       <c r="O220" t="n">
-        <v>0.2619129841047667</v>
+        <v>0.1675816986253306</v>
       </c>
     </row>
     <row r="221" ht="15" customHeight="1">
       <c r="F221" t="n">
-        <v>0.03951824969058619</v>
+        <v>0.0185425770389019</v>
       </c>
       <c r="G221" t="n">
-        <v>0.260513444514324</v>
+        <v>0.06710655658876379</v>
       </c>
       <c r="J221" t="n">
-        <v>0.06501904158309345</v>
+        <v>0.0185425770389019</v>
       </c>
       <c r="K221" t="n">
-        <v>0.2641060279736235</v>
+        <v>0.06710655658876379</v>
       </c>
       <c r="L221" t="n">
-        <v>0.1165920055797602</v>
+        <v>0.1000911692898424</v>
       </c>
       <c r="M221" t="n">
-        <v>0.263283200733121</v>
+        <v>0.1684051372153924</v>
       </c>
       <c r="N221" t="n">
-        <v>0.1684599977793877</v>
+        <v>0.147352331678006</v>
       </c>
       <c r="O221" t="n">
-        <v>0.2636027452925395</v>
+        <v>0.1686628708745263</v>
       </c>
     </row>
     <row r="222" ht="15" customHeight="1">
       <c r="F222" t="n">
-        <v>0.03952622986597074</v>
+        <v>0.01778675838972599</v>
       </c>
       <c r="G222" t="n">
-        <v>0.2621834024919799</v>
+        <v>0.06703173215459707</v>
       </c>
       <c r="J222" t="n">
-        <v>0.06563518313836346</v>
+        <v>0.01778675838972599</v>
       </c>
       <c r="K222" t="n">
-        <v>0.2657990153324287</v>
+        <v>0.06703173215459707</v>
       </c>
       <c r="L222" t="n">
-        <v>0.116519472094385</v>
+        <v>0.10061462249171</v>
       </c>
       <c r="M222" t="n">
-        <v>0.2649709135583333</v>
+        <v>0.1694846573257475</v>
       </c>
       <c r="N222" t="n">
-        <v>0.1693004190041429</v>
+        <v>0.147627749870428</v>
       </c>
       <c r="O222" t="n">
-        <v>0.2652925064803121</v>
+        <v>0.169744043123722</v>
       </c>
     </row>
     <row r="223" ht="15" customHeight="1">
       <c r="F223" t="n">
-        <v>0.0375306097309</v>
+        <v>0.01704800232855791</v>
       </c>
       <c r="G223" t="n">
-        <v>0.2638533604696358</v>
+        <v>0.06695690772043036</v>
       </c>
       <c r="J223" t="n">
-        <v>0.06534551135377133</v>
+        <v>0.01704800232855791</v>
       </c>
       <c r="K223" t="n">
-        <v>0.267492002691234</v>
+        <v>0.06695690772043036</v>
       </c>
       <c r="L223" t="n">
-        <v>0.1171365714582762</v>
+        <v>0.1002515923491079</v>
       </c>
       <c r="M223" t="n">
-        <v>0.2666586263835456</v>
+        <v>0.1705641774361026</v>
       </c>
       <c r="N223" t="n">
-        <v>0.1688258631506689</v>
+        <v>0.1473400526112795</v>
       </c>
       <c r="O223" t="n">
-        <v>0.2669822676680848</v>
+        <v>0.1708252153729177</v>
       </c>
     </row>
     <row r="224" ht="15" customHeight="1">
       <c r="F224" t="n">
-        <v>0.04052644788504228</v>
+        <v>0.01632770823439622</v>
       </c>
       <c r="G224" t="n">
-        <v>0.2655233184472917</v>
+        <v>0.06688208328626366</v>
       </c>
       <c r="J224" t="n">
-        <v>0.06524996351374722</v>
+        <v>0.01632770823439622</v>
       </c>
       <c r="K224" t="n">
-        <v>0.2691849900500393</v>
+        <v>0.06688208328626366</v>
       </c>
       <c r="L224" t="n">
-        <v>0.1167431923339854</v>
+        <v>0.09980342012439219</v>
       </c>
       <c r="M224" t="n">
-        <v>0.2683463392087579</v>
+        <v>0.1716436975464576</v>
       </c>
       <c r="N224" t="n">
-        <v>0.1686361690900273</v>
+        <v>0.1470927801095201</v>
       </c>
       <c r="O224" t="n">
-        <v>0.2686720288558575</v>
+        <v>0.1719063876221134</v>
       </c>
     </row>
     <row r="225" ht="15" customHeight="1">
       <c r="F225" t="n">
-        <v>0.03843826910861542</v>
+        <v>0.01562727548623959</v>
       </c>
       <c r="G225" t="n">
-        <v>0.2671932764249476</v>
+        <v>0.06680725885209697</v>
       </c>
       <c r="J225" t="n">
-        <v>0.06559867993776348</v>
+        <v>0.01562727548623959</v>
       </c>
       <c r="K225" t="n">
-        <v>0.2708779774088446</v>
+        <v>0.06680725885209697</v>
       </c>
       <c r="L225" t="n">
-        <v>0.1172192228798884</v>
+        <v>0.09976974629252283</v>
       </c>
       <c r="M225" t="n">
-        <v>0.2700340520339702</v>
+        <v>0.1727232176568127</v>
       </c>
       <c r="N225" t="n">
-        <v>0.1678761229316927</v>
+        <v>0.1471859468185119</v>
       </c>
       <c r="O225" t="n">
-        <v>0.2703617900436302</v>
+        <v>0.1729875598713091</v>
       </c>
     </row>
     <row r="226" ht="15" customHeight="1">
       <c r="F226" t="n">
-        <v>0.03824950416853418</v>
+        <v>0.01494810346308666</v>
       </c>
       <c r="G226" t="n">
-        <v>0.2688632344026035</v>
+        <v>0.06673243441793027</v>
       </c>
       <c r="J226" t="n">
-        <v>0.06527941360821939</v>
+        <v>0.01494810346308666</v>
       </c>
       <c r="K226" t="n">
-        <v>0.2725709647676499</v>
+        <v>0.06673243441793027</v>
       </c>
       <c r="L226" t="n">
-        <v>0.1163926266716471</v>
+        <v>0.09963924523137679</v>
       </c>
       <c r="M226" t="n">
-        <v>0.2717217648591825</v>
+        <v>0.1738027377671678</v>
       </c>
       <c r="N226" t="n">
-        <v>0.1681797250438238</v>
+        <v>0.1467887980277395</v>
       </c>
       <c r="O226" t="n">
-        <v>0.2720515512314028</v>
+        <v>0.1740687321205047</v>
       </c>
     </row>
     <row r="227" ht="15" customHeight="1">
       <c r="F227" t="n">
-        <v>0.03997202359511801</v>
+        <v>0.01429159154393607</v>
       </c>
       <c r="G227" t="n">
-        <v>0.2705331923802595</v>
+        <v>0.06665760998376356</v>
       </c>
       <c r="J227" t="n">
-        <v>0.06450591112088595</v>
+        <v>0.01429159154393607</v>
       </c>
       <c r="K227" t="n">
-        <v>0.2742639521264552</v>
+        <v>0.06665760998376356</v>
       </c>
       <c r="L227" t="n">
-        <v>0.1163954849725384</v>
+        <v>0.09940961844896984</v>
       </c>
       <c r="M227" t="n">
-        <v>0.2734094776843948</v>
+        <v>0.1748822578775229</v>
       </c>
       <c r="N227" t="n">
-        <v>0.1662899511356961</v>
+        <v>0.1450935254215663</v>
       </c>
       <c r="O227" t="n">
-        <v>0.2737413124191755</v>
+        <v>0.1751499043697004</v>
       </c>
     </row>
     <row r="228" ht="15" customHeight="1">
       <c r="F228" t="n">
-        <v>0.0386176979186863</v>
+        <v>0.01365913910778652</v>
       </c>
       <c r="G228" t="n">
-        <v>0.2722031503579154</v>
+        <v>0.06658278554959686</v>
       </c>
       <c r="J228" t="n">
-        <v>0.06419772363961244</v>
+        <v>0.01365913910778652</v>
       </c>
       <c r="K228" t="n">
-        <v>0.2759569394852604</v>
+        <v>0.06658278554959686</v>
       </c>
       <c r="L228" t="n">
-        <v>0.11456250649533</v>
+        <v>0.09948091399840159</v>
       </c>
       <c r="M228" t="n">
-        <v>0.2750971905096072</v>
+        <v>0.175961777987878</v>
       </c>
       <c r="N228" t="n">
-        <v>0.1657570320876188</v>
+        <v>0.1449003020448649</v>
       </c>
       <c r="O228" t="n">
-        <v>0.2754310736069482</v>
+        <v>0.1762310766188961</v>
       </c>
     </row>
     <row r="229" ht="15" customHeight="1">
       <c r="F229" t="n">
-        <v>0.0361983976695585</v>
+        <v>0.01305214553363662</v>
       </c>
       <c r="G229" t="n">
-        <v>0.2738731083355713</v>
+        <v>0.06650796111543016</v>
       </c>
       <c r="J229" t="n">
-        <v>0.06347440232824798</v>
+        <v>0.01305214553363662</v>
       </c>
       <c r="K229" t="n">
-        <v>0.2776499268440657</v>
+        <v>0.06650796111543016</v>
       </c>
       <c r="L229" t="n">
-        <v>0.1137283999527895</v>
+        <v>0.09895317993277158</v>
       </c>
       <c r="M229" t="n">
-        <v>0.2767849033348195</v>
+        <v>0.177041298098233</v>
       </c>
       <c r="N229" t="n">
-        <v>0.163731198779901</v>
+        <v>0.1461093009425077</v>
       </c>
       <c r="O229" t="n">
-        <v>0.2771208347947209</v>
+        <v>0.1773122488680918</v>
       </c>
     </row>
     <row r="230" ht="15" customHeight="1">
       <c r="F230" t="n">
-        <v>0.03972599337805399</v>
+        <v>0.01247201020048505</v>
       </c>
       <c r="G230" t="n">
-        <v>0.2755430663132272</v>
+        <v>0.06643313668126345</v>
       </c>
       <c r="J230" t="n">
-        <v>0.06295549835064186</v>
+        <v>0.01247201020048505</v>
       </c>
       <c r="K230" t="n">
-        <v>0.2793429142028709</v>
+        <v>0.06643313668126345</v>
       </c>
       <c r="L230" t="n">
-        <v>0.1124278740576848</v>
+        <v>0.09882646430517938</v>
       </c>
       <c r="M230" t="n">
-        <v>0.2784726161600318</v>
+        <v>0.1781208182085881</v>
       </c>
       <c r="N230" t="n">
-        <v>0.1627626820928518</v>
+        <v>0.1458206951593669</v>
       </c>
       <c r="O230" t="n">
-        <v>0.2788105959824936</v>
+        <v>0.1783934211172875</v>
       </c>
     </row>
     <row r="231" ht="15" customHeight="1">
       <c r="F231" t="n">
-        <v>0.0352123555744922</v>
+        <v>0.01192013248733048</v>
       </c>
       <c r="G231" t="n">
-        <v>0.2772130242908832</v>
+        <v>0.06635831224709675</v>
       </c>
       <c r="J231" t="n">
-        <v>0.06186056287064311</v>
+        <v>0.01192013248733048</v>
       </c>
       <c r="K231" t="n">
-        <v>0.2810359015616763</v>
+        <v>0.06635831224709675</v>
       </c>
       <c r="L231" t="n">
-        <v>0.1107956375227834</v>
+        <v>0.09870081516872448</v>
       </c>
       <c r="M231" t="n">
-        <v>0.2801603289852441</v>
+        <v>0.1792003383189432</v>
       </c>
       <c r="N231" t="n">
-        <v>0.1610017129067803</v>
+        <v>0.1452346577403151</v>
       </c>
       <c r="O231" t="n">
-        <v>0.2805003571702663</v>
+        <v>0.1794745933664831</v>
       </c>
     </row>
     <row r="232" ht="15" customHeight="1">
       <c r="F232" t="n">
-        <v>0.03666935478919255</v>
+        <v>0.01139791177317154</v>
       </c>
       <c r="G232" t="n">
-        <v>0.2788829822685391</v>
+        <v>0.06628348781293004</v>
       </c>
       <c r="J232" t="n">
-        <v>0.06100914705210099</v>
+        <v>0.01139791177317154</v>
       </c>
       <c r="K232" t="n">
-        <v>0.2827288889204815</v>
+        <v>0.06628348781293004</v>
       </c>
       <c r="L232" t="n">
-        <v>0.109666399060853</v>
+        <v>0.09837628057650638</v>
       </c>
       <c r="M232" t="n">
-        <v>0.2818480418104564</v>
+        <v>0.1802798584292983</v>
       </c>
       <c r="N232" t="n">
-        <v>0.1573985221019955</v>
+        <v>0.1446513617302248</v>
       </c>
       <c r="O232" t="n">
-        <v>0.282190118358039</v>
+        <v>0.1805557656156788</v>
       </c>
     </row>
     <row r="233" ht="15" customHeight="1">
       <c r="F233" t="n">
-        <v>0.03710886155247445</v>
+        <v>0.0109067474370069</v>
       </c>
       <c r="G233" t="n">
-        <v>0.280552940246195</v>
+        <v>0.06620866337876334</v>
       </c>
       <c r="J233" t="n">
-        <v>0.0604208020588647</v>
+        <v>0.0109067474370069</v>
       </c>
       <c r="K233" t="n">
-        <v>0.2844218762792868</v>
+        <v>0.06620866337876334</v>
       </c>
       <c r="L233" t="n">
-        <v>0.1076748673846615</v>
+        <v>0.09825290858162478</v>
       </c>
       <c r="M233" t="n">
-        <v>0.2835357546356687</v>
+        <v>0.1813593785396534</v>
       </c>
       <c r="N233" t="n">
-        <v>0.1556033405588066</v>
+        <v>0.1432709801739683</v>
       </c>
       <c r="O233" t="n">
-        <v>0.2838798795458117</v>
+        <v>0.1816369378648745</v>
       </c>
     </row>
     <row r="234" ht="15" customHeight="1">
       <c r="F234" t="n">
-        <v>0.03354274639465731</v>
+        <v>0.01044803885783513</v>
       </c>
       <c r="G234" t="n">
-        <v>0.2822228982238509</v>
+        <v>0.06613383894459664</v>
       </c>
       <c r="J234" t="n">
-        <v>0.05951507905478333</v>
+        <v>0.01044803885783513</v>
       </c>
       <c r="K234" t="n">
-        <v>0.2861148636380921</v>
+        <v>0.06613383894459664</v>
       </c>
       <c r="L234" t="n">
-        <v>0.1058557512069763</v>
+        <v>0.09793074723717915</v>
       </c>
       <c r="M234" t="n">
-        <v>0.2852234674608811</v>
+        <v>0.1824388986500084</v>
       </c>
       <c r="N234" t="n">
-        <v>0.1527663991575227</v>
+        <v>0.143593686116418</v>
       </c>
       <c r="O234" t="n">
-        <v>0.2855696407335844</v>
+        <v>0.1827181101140702</v>
       </c>
     </row>
     <row r="235" ht="15" customHeight="1">
       <c r="F235" t="n">
-        <v>0.03598287984606055</v>
+        <v>0.01002318541465505</v>
       </c>
       <c r="G235" t="n">
-        <v>0.2838928562015068</v>
+        <v>0.06605901451042993</v>
       </c>
       <c r="J235" t="n">
-        <v>0.05861152920370614</v>
+        <v>0.01002318541465505</v>
       </c>
       <c r="K235" t="n">
-        <v>0.2878078509968973</v>
+        <v>0.06605901451042993</v>
       </c>
       <c r="L235" t="n">
-        <v>0.1046437592405652</v>
+        <v>0.09880984459626901</v>
       </c>
       <c r="M235" t="n">
-        <v>0.2869111802860934</v>
+        <v>0.1835184187603635</v>
       </c>
       <c r="N235" t="n">
-        <v>0.1514379287784529</v>
+        <v>0.1442196526024464</v>
       </c>
       <c r="O235" t="n">
-        <v>0.2872594019213571</v>
+        <v>0.1837992823632659</v>
       </c>
     </row>
     <row r="236" ht="15" customHeight="1">
       <c r="F236" t="n">
-        <v>0.0344411324370036</v>
+        <v>0.009633586486465243</v>
       </c>
       <c r="G236" t="n">
-        <v>0.2855628141791627</v>
+        <v>0.06598419007626323</v>
       </c>
       <c r="J236" t="n">
-        <v>0.0578297036694823</v>
+        <v>0.009633586486465243</v>
       </c>
       <c r="K236" t="n">
-        <v>0.2895008383557027</v>
+        <v>0.06598419007626323</v>
       </c>
       <c r="L236" t="n">
-        <v>0.1026736001981959</v>
+        <v>0.09849024871199402</v>
       </c>
       <c r="M236" t="n">
-        <v>0.2885988931113057</v>
+        <v>0.1845979388707186</v>
       </c>
       <c r="N236" t="n">
-        <v>0.1480681603019061</v>
+        <v>0.1441490526769257</v>
       </c>
       <c r="O236" t="n">
-        <v>0.2889491631091298</v>
+        <v>0.1848804546124615</v>
       </c>
     </row>
     <row r="237" ht="15" customHeight="1">
       <c r="F237" t="n">
-        <v>0.03392937469780584</v>
+        <v>0.009280641452264357</v>
       </c>
       <c r="G237" t="n">
-        <v>0.2872327721568187</v>
+        <v>0.06590936564209653</v>
       </c>
       <c r="J237" t="n">
-        <v>0.05698915361596098</v>
+        <v>0.009280641452264357</v>
       </c>
       <c r="K237" t="n">
-        <v>0.2911938257145079</v>
+        <v>0.06590936564209653</v>
       </c>
       <c r="L237" t="n">
-        <v>0.1020799827926362</v>
+        <v>0.09787200763745357</v>
       </c>
       <c r="M237" t="n">
-        <v>0.290286605936518</v>
+        <v>0.1856774589810737</v>
       </c>
       <c r="N237" t="n">
-        <v>0.1469073246081918</v>
+        <v>0.1425820593847286</v>
       </c>
       <c r="O237" t="n">
-        <v>0.2906389242969024</v>
+        <v>0.1859616268616572</v>
       </c>
     </row>
     <row r="238" ht="15" customHeight="1">
       <c r="F238" t="n">
-        <v>0.03345947715878671</v>
+        <v>0.008965749691051045</v>
       </c>
       <c r="G238" t="n">
-        <v>0.2889027301344747</v>
+        <v>0.06583454120792982</v>
       </c>
       <c r="J238" t="n">
-        <v>0.05570943020699136</v>
+        <v>0.008965749691051045</v>
       </c>
       <c r="K238" t="n">
-        <v>0.2928868130733132</v>
+        <v>0.06583454120792982</v>
       </c>
       <c r="L238" t="n">
-        <v>0.1005976157366536</v>
+        <v>0.0978551694257474</v>
       </c>
       <c r="M238" t="n">
-        <v>0.2919743187617303</v>
+        <v>0.1867569790914288</v>
       </c>
       <c r="N238" t="n">
-        <v>0.1444056525776187</v>
+        <v>0.1432188457707275</v>
       </c>
       <c r="O238" t="n">
-        <v>0.2923286854846752</v>
+        <v>0.1870427991108529</v>
       </c>
     </row>
     <row r="239" ht="15" customHeight="1">
       <c r="F239" t="n">
-        <v>0.03301517249987532</v>
+        <v>0.008690310581823971</v>
       </c>
       <c r="G239" t="n">
-        <v>0.2905726881121306</v>
+        <v>0.06575971677376312</v>
       </c>
       <c r="J239" t="n">
-        <v>0.05559199503474475</v>
+        <v>0.008690310581823971</v>
       </c>
       <c r="K239" t="n">
-        <v>0.2945798004321185</v>
+        <v>0.06575971677376312</v>
       </c>
       <c r="L239" t="n">
-        <v>0.09921989014466903</v>
+        <v>0.09733978212997485</v>
       </c>
       <c r="M239" t="n">
-        <v>0.2936620315869427</v>
+        <v>0.1878364992017839</v>
       </c>
       <c r="N239" t="n">
-        <v>0.1434589743996345</v>
+        <v>0.1426595848797946</v>
       </c>
       <c r="O239" t="n">
-        <v>0.2940184466724478</v>
+        <v>0.1881239713600486</v>
       </c>
     </row>
     <row r="240" ht="15" customHeight="1">
       <c r="F240" t="n">
-        <v>0.03156917516903088</v>
+        <v>0.008450842932649388</v>
       </c>
       <c r="G240" t="n">
-        <v>0.2922426460897865</v>
+        <v>0.06568489233959642</v>
       </c>
       <c r="J240" t="n">
-        <v>0.05477820454670311</v>
+        <v>0.008450842932649388</v>
       </c>
       <c r="K240" t="n">
-        <v>0.2962727877909238</v>
+        <v>0.06568489233959642</v>
       </c>
       <c r="L240" t="n">
-        <v>0.09814440096413707</v>
+        <v>0.09822589380323554</v>
       </c>
       <c r="M240" t="n">
-        <v>0.2953497444121549</v>
+        <v>0.1889160193121389</v>
       </c>
       <c r="N240" t="n">
-        <v>0.1402177569675678</v>
+        <v>0.1417044497568025</v>
       </c>
       <c r="O240" t="n">
-        <v>0.2957082078602205</v>
+        <v>0.1892051436092443</v>
       </c>
     </row>
     <row r="241" ht="15" customHeight="1">
       <c r="F241" t="n">
-        <v>0.03112143466714477</v>
+        <v>0.00821915011193948</v>
       </c>
       <c r="G241" t="n">
-        <v>0.2939126040674424</v>
+        <v>0.06561006790542971</v>
       </c>
       <c r="J241" t="n">
-        <v>0.05386159717278342</v>
+        <v>0.00821915011193948</v>
       </c>
       <c r="K241" t="n">
-        <v>0.2979657751497291</v>
+        <v>0.06561006790542971</v>
       </c>
       <c r="L241" t="n">
-        <v>0.09656388923750181</v>
+        <v>0.0979135524986291</v>
       </c>
       <c r="M241" t="n">
-        <v>0.2970374572373672</v>
+        <v>0.189995539422494</v>
       </c>
       <c r="N241" t="n">
-        <v>0.138669283117705</v>
+        <v>0.1418536134466236</v>
       </c>
       <c r="O241" t="n">
-        <v>0.2973979690479932</v>
+        <v>0.19028631585844</v>
       </c>
     </row>
     <row r="242" ht="15" customHeight="1">
       <c r="F242" t="n">
-        <v>0.03367192287249046</v>
+        <v>0.007990952099447488</v>
       </c>
       <c r="G242" t="n">
-        <v>0.2955825620450983</v>
+        <v>0.06553524347126301</v>
       </c>
       <c r="J242" t="n">
-        <v>0.05294212659555357</v>
+        <v>0.007990952099447488</v>
       </c>
       <c r="K242" t="n">
-        <v>0.2996587625085343</v>
+        <v>0.06553524347126301</v>
       </c>
       <c r="L242" t="n">
-        <v>0.09477827273853573</v>
+        <v>0.09720280626925509</v>
       </c>
       <c r="M242" t="n">
-        <v>0.2987251700625795</v>
+        <v>0.1910750595328491</v>
       </c>
       <c r="N242" t="n">
-        <v>0.1374134338512276</v>
+        <v>0.1425072489941301</v>
       </c>
       <c r="O242" t="n">
-        <v>0.2990877302357659</v>
+        <v>0.1913674881076356</v>
       </c>
     </row>
     <row r="243" ht="15" customHeight="1">
       <c r="F243" t="n">
-        <v>0.03022061166334145</v>
+        <v>0.00776681471419334</v>
       </c>
       <c r="G243" t="n">
-        <v>0.2972525200227542</v>
+        <v>0.06546041903709632</v>
       </c>
       <c r="J243" t="n">
-        <v>0.05271974649758131</v>
+        <v>0.00776681471419334</v>
       </c>
       <c r="K243" t="n">
-        <v>0.3013517498673396</v>
+        <v>0.06546041903709632</v>
       </c>
       <c r="L243" t="n">
-        <v>0.09378746924101106</v>
+        <v>0.09789370316821289</v>
       </c>
       <c r="M243" t="n">
-        <v>0.3004128828877919</v>
+        <v>0.1921545796432041</v>
       </c>
       <c r="N243" t="n">
-        <v>0.1357500901693176</v>
+        <v>0.1409655294441947</v>
       </c>
       <c r="O243" t="n">
-        <v>0.3007774914235385</v>
+        <v>0.1924486603568313</v>
       </c>
     </row>
     <row r="244" ht="15" customHeight="1">
       <c r="F244" t="n">
-        <v>0.03076747291797116</v>
+        <v>0.007547303775196884</v>
       </c>
       <c r="G244" t="n">
-        <v>0.2989224780004102</v>
+        <v>0.06538559460292961</v>
       </c>
       <c r="J244" t="n">
-        <v>0.05169441056143449</v>
+        <v>0.007547303775196884</v>
       </c>
       <c r="K244" t="n">
-        <v>0.3030447372261449</v>
+        <v>0.06538559460292961</v>
       </c>
       <c r="L244" t="n">
-        <v>0.0919913965187002</v>
+        <v>0.09688629124860221</v>
       </c>
       <c r="M244" t="n">
-        <v>0.3021005957130042</v>
+        <v>0.1932340997535592</v>
       </c>
       <c r="N244" t="n">
-        <v>0.1326791330731568</v>
+        <v>0.1421286278416898</v>
       </c>
       <c r="O244" t="n">
-        <v>0.3024672526113113</v>
+        <v>0.193529832606027</v>
       </c>
     </row>
     <row r="245" ht="15" customHeight="1">
       <c r="F245" t="n">
-        <v>0.02931247851465309</v>
+        <v>0.007332985101477993</v>
       </c>
       <c r="G245" t="n">
-        <v>0.3005924359780661</v>
+        <v>0.06531077016876291</v>
       </c>
       <c r="J245" t="n">
-        <v>0.05096607246968098</v>
+        <v>0.007332985101477993</v>
       </c>
       <c r="K245" t="n">
-        <v>0.3047377245849501</v>
+        <v>0.06531077016876291</v>
       </c>
       <c r="L245" t="n">
-        <v>0.0911899723453754</v>
+        <v>0.09678061856352255</v>
       </c>
       <c r="M245" t="n">
-        <v>0.3037883085382165</v>
+        <v>0.1943136198639143</v>
       </c>
       <c r="N245" t="n">
-        <v>0.132000443563927</v>
+        <v>0.1401967172314876</v>
       </c>
       <c r="O245" t="n">
-        <v>0.3041570137990839</v>
+        <v>0.1946110048552227</v>
       </c>
     </row>
     <row r="246" ht="15" customHeight="1">
       <c r="F246" t="n">
-        <v>0.02785560033166072</v>
+        <v>0.00712442451205654</v>
       </c>
       <c r="G246" t="n">
-        <v>0.302262393955722</v>
+        <v>0.06523594573459619</v>
       </c>
       <c r="J246" t="n">
-        <v>0.04993468590488849</v>
+        <v>0.00712442451205654</v>
       </c>
       <c r="K246" t="n">
-        <v>0.3064307119437554</v>
+        <v>0.06523594573459619</v>
       </c>
       <c r="L246" t="n">
-        <v>0.08988311449480907</v>
+        <v>0.09757673316607346</v>
       </c>
       <c r="M246" t="n">
-        <v>0.3054760213634288</v>
+        <v>0.1953931399742694</v>
       </c>
       <c r="N246" t="n">
-        <v>0.1288139026428101</v>
+        <v>0.1404699706584607</v>
       </c>
       <c r="O246" t="n">
-        <v>0.3058467749868566</v>
+        <v>0.1956921771044184</v>
       </c>
     </row>
     <row r="247" ht="15" customHeight="1">
       <c r="F247" t="n">
-        <v>0.02839681024726752</v>
+        <v>0.006922187825952456</v>
       </c>
       <c r="G247" t="n">
-        <v>0.3039323519333779</v>
+        <v>0.06516112130042949</v>
       </c>
       <c r="J247" t="n">
-        <v>0.04970020454962486</v>
+        <v>0.006922187825952456</v>
       </c>
       <c r="K247" t="n">
-        <v>0.3081236993025607</v>
+        <v>0.06516112130042949</v>
       </c>
       <c r="L247" t="n">
-        <v>0.08837074074077339</v>
+        <v>0.09757468310935447</v>
       </c>
       <c r="M247" t="n">
-        <v>0.3071637341886411</v>
+        <v>0.1964726600846245</v>
       </c>
       <c r="N247" t="n">
-        <v>0.1278193913109876</v>
+        <v>0.1405485611674815</v>
       </c>
       <c r="O247" t="n">
-        <v>0.3075365361746293</v>
+        <v>0.196773349353614</v>
       </c>
     </row>
     <row r="248" ht="15" customHeight="1">
       <c r="F248" t="n">
-        <v>0.02993608013974693</v>
+        <v>0.006726840862185585</v>
       </c>
       <c r="G248" t="n">
-        <v>0.3056023099110339</v>
+        <v>0.06508629686626279</v>
       </c>
       <c r="J248" t="n">
-        <v>0.04856258208645796</v>
+        <v>0.006726840862185585</v>
       </c>
       <c r="K248" t="n">
-        <v>0.309816686661366</v>
+        <v>0.06508629686626279</v>
       </c>
       <c r="L248" t="n">
-        <v>0.08715276885704099</v>
+        <v>0.09657451644646514</v>
       </c>
       <c r="M248" t="n">
-        <v>0.3088514470138534</v>
+        <v>0.1975521801949796</v>
       </c>
       <c r="N248" t="n">
-        <v>0.1261167905696417</v>
+        <v>0.1397326618034223</v>
       </c>
       <c r="O248" t="n">
-        <v>0.309226297362402</v>
+        <v>0.1978545216028097</v>
       </c>
     </row>
     <row r="249" ht="15" customHeight="1">
       <c r="F249" t="n">
-        <v>0.02947338188737246</v>
+        <v>0.006538949439775829</v>
       </c>
       <c r="G249" t="n">
-        <v>0.3072722678886898</v>
+        <v>0.06501147243209608</v>
       </c>
       <c r="J249" t="n">
-        <v>0.04792177219795556</v>
+        <v>0.006538949439775829</v>
       </c>
       <c r="K249" t="n">
-        <v>0.3115096740201713</v>
+        <v>0.06501147243209608</v>
       </c>
       <c r="L249" t="n">
-        <v>0.08572911661738392</v>
+        <v>0.09737628123050507</v>
       </c>
       <c r="M249" t="n">
-        <v>0.3105391598390657</v>
+        <v>0.1986317003053346</v>
       </c>
       <c r="N249" t="n">
-        <v>0.123705981419954</v>
+        <v>0.1395224456111557</v>
       </c>
       <c r="O249" t="n">
-        <v>0.3109160585501747</v>
+        <v>0.1989356938520054</v>
       </c>
     </row>
     <row r="250" ht="15" customHeight="1">
       <c r="F250" t="n">
-        <v>0.02600868736841759</v>
+        <v>0.006359079377743035</v>
       </c>
       <c r="G250" t="n">
-        <v>0.3089422258663457</v>
+        <v>0.06493664799792938</v>
       </c>
       <c r="J250" t="n">
-        <v>0.04717772856668549</v>
+        <v>0.006359079377743035</v>
       </c>
       <c r="K250" t="n">
-        <v>0.3132026613789765</v>
+        <v>0.06493664799792938</v>
       </c>
       <c r="L250" t="n">
-        <v>0.08429970179557456</v>
+        <v>0.09728002551457371</v>
       </c>
       <c r="M250" t="n">
-        <v>0.3122268726642781</v>
+        <v>0.1997112204156897</v>
       </c>
       <c r="N250" t="n">
-        <v>0.1225868448631063</v>
+        <v>0.140418085635554</v>
       </c>
       <c r="O250" t="n">
-        <v>0.3126058197379474</v>
+        <v>0.2000168661012011</v>
       </c>
     </row>
     <row r="251" ht="15" customHeight="1">
       <c r="F251" t="n">
-        <v>0.02854196846115577</v>
+        <v>0.006187796495107117</v>
       </c>
       <c r="G251" t="n">
-        <v>0.3106121838440016</v>
+        <v>0.06486182356376269</v>
       </c>
       <c r="J251" t="n">
-        <v>0.04643040487521559</v>
+        <v>0.006187796495107117</v>
       </c>
       <c r="K251" t="n">
-        <v>0.3148956487377818</v>
+        <v>0.06486182356376269</v>
       </c>
       <c r="L251" t="n">
-        <v>0.08316444216538543</v>
+        <v>0.0960857973517707</v>
       </c>
       <c r="M251" t="n">
-        <v>0.3139145854894904</v>
+        <v>0.2007907405260448</v>
       </c>
       <c r="N251" t="n">
-        <v>0.1194592619002805</v>
+        <v>0.1399197549214896</v>
       </c>
       <c r="O251" t="n">
-        <v>0.3142955809257201</v>
+        <v>0.2010980383503968</v>
       </c>
     </row>
     <row r="252" ht="15" customHeight="1">
       <c r="F252" t="n">
-        <v>0.02907319704386048</v>
+        <v>0.006025666610887923</v>
       </c>
       <c r="G252" t="n">
-        <v>0.3122821418216575</v>
+        <v>0.06478699912959598</v>
       </c>
       <c r="J252" t="n">
-        <v>0.04577975480611367</v>
+        <v>0.006025666610887923</v>
       </c>
       <c r="K252" t="n">
-        <v>0.3165886360965871</v>
+        <v>0.06478699912959598</v>
       </c>
       <c r="L252" t="n">
-        <v>0.0815232555005887</v>
+        <v>0.09699364479519551</v>
       </c>
       <c r="M252" t="n">
-        <v>0.3156022983147027</v>
+        <v>0.2018702606363999</v>
       </c>
       <c r="N252" t="n">
-        <v>0.1189231135326583</v>
+        <v>0.1389276265138349</v>
       </c>
       <c r="O252" t="n">
-        <v>0.3159853421134928</v>
+        <v>0.2021792105995925</v>
       </c>
     </row>
     <row r="253" ht="15" customHeight="1">
       <c r="F253" t="n">
-        <v>0.02660234499480517</v>
+        <v>0.005873255544105366</v>
       </c>
       <c r="G253" t="n">
-        <v>0.3139520997993134</v>
+        <v>0.06471217469542928</v>
       </c>
       <c r="J253" t="n">
-        <v>0.04482573204194747</v>
+        <v>0.005873255544105366</v>
       </c>
       <c r="K253" t="n">
-        <v>0.3182816234553924</v>
+        <v>0.06471217469542928</v>
       </c>
       <c r="L253" t="n">
-        <v>0.0802760595749567</v>
+        <v>0.09610361589794775</v>
       </c>
       <c r="M253" t="n">
-        <v>0.317290011139915</v>
+        <v>0.202949780746755</v>
       </c>
       <c r="N253" t="n">
-        <v>0.1167782807614216</v>
+        <v>0.1402418734574625</v>
       </c>
       <c r="O253" t="n">
-        <v>0.3176751033012655</v>
+        <v>0.2032603828487881</v>
       </c>
     </row>
     <row r="254" ht="15" customHeight="1">
       <c r="F254" t="n">
-        <v>0.02512938419226335</v>
+        <v>0.005731129113779307</v>
       </c>
       <c r="G254" t="n">
-        <v>0.3156220577769694</v>
+        <v>0.06463735026126258</v>
       </c>
       <c r="J254" t="n">
-        <v>0.04396829026528497</v>
+        <v>0.005731129113779307</v>
       </c>
       <c r="K254" t="n">
-        <v>0.3199746108141976</v>
+        <v>0.06463735026126258</v>
       </c>
       <c r="L254" t="n">
-        <v>0.07932277216226186</v>
+        <v>0.09631575871312698</v>
       </c>
       <c r="M254" t="n">
-        <v>0.3189777239651274</v>
+        <v>0.20402930085711</v>
       </c>
       <c r="N254" t="n">
-        <v>0.1147246445877522</v>
+        <v>0.1394626687972446</v>
       </c>
       <c r="O254" t="n">
-        <v>0.3193648644890382</v>
+        <v>0.2043415550979838</v>
       </c>
     </row>
     <row r="255" ht="15" customHeight="1">
       <c r="F255" t="n">
-        <v>0.02365428651450847</v>
+        <v>0.00559985313892962</v>
       </c>
       <c r="G255" t="n">
-        <v>0.3172920157546253</v>
+        <v>0.06456252582709587</v>
       </c>
       <c r="J255" t="n">
-        <v>0.04350738315869375</v>
+        <v>0.00559985313892962</v>
       </c>
       <c r="K255" t="n">
-        <v>0.3216675981730029</v>
+        <v>0.06456252582709587</v>
       </c>
       <c r="L255" t="n">
-        <v>0.07826331103627648</v>
+        <v>0.09663012129383264</v>
       </c>
       <c r="M255" t="n">
-        <v>0.3206654367903397</v>
+        <v>0.2051088209674651</v>
       </c>
       <c r="N255" t="n">
-        <v>0.1121620860128321</v>
+        <v>0.1389901855780538</v>
       </c>
       <c r="O255" t="n">
-        <v>0.3210546256768108</v>
+        <v>0.2054227273471795</v>
       </c>
     </row>
     <row r="256" ht="15" customHeight="1">
       <c r="F256" t="n">
-        <v>0.027177023839814</v>
+        <v>0.005479993438576206</v>
       </c>
       <c r="G256" t="n">
-        <v>0.3189619737322812</v>
+        <v>0.06448770139292917</v>
       </c>
       <c r="J256" t="n">
-        <v>0.04264296440474184</v>
+        <v>0.005479993438576206</v>
       </c>
       <c r="K256" t="n">
-        <v>0.3233605855318082</v>
+        <v>0.06448770139292917</v>
       </c>
       <c r="L256" t="n">
-        <v>0.07699759397077283</v>
+        <v>0.09604675169316446</v>
       </c>
       <c r="M256" t="n">
-        <v>0.3223531496155519</v>
+        <v>0.2061883410778202</v>
       </c>
       <c r="N256" t="n">
-        <v>0.1099904860378426</v>
+        <v>0.1390245968447624</v>
       </c>
       <c r="O256" t="n">
-        <v>0.3227443868645836</v>
+        <v>0.2065038995963752</v>
       </c>
     </row>
     <row r="257" ht="15" customHeight="1">
       <c r="F257" t="n">
-        <v>0.02669756804645344</v>
+        <v>0.005372115831738938</v>
       </c>
       <c r="G257" t="n">
-        <v>0.3206319317099371</v>
+        <v>0.06441287695876247</v>
       </c>
       <c r="J257" t="n">
-        <v>0.04207498768599695</v>
+        <v>0.005372115831738938</v>
       </c>
       <c r="K257" t="n">
-        <v>0.3250535728906135</v>
+        <v>0.06441287695876247</v>
       </c>
       <c r="L257" t="n">
-        <v>0.07512553873952332</v>
+        <v>0.0962656979642218</v>
       </c>
       <c r="M257" t="n">
-        <v>0.3240408624407642</v>
+        <v>0.2072678611881753</v>
       </c>
       <c r="N257" t="n">
-        <v>0.108609725663966</v>
+        <v>0.1394660756422428</v>
       </c>
       <c r="O257" t="n">
-        <v>0.3244341480523562</v>
+        <v>0.2075850718455708</v>
       </c>
     </row>
     <row r="258" ht="15" customHeight="1">
       <c r="F258" t="n">
-        <v>0.02521589101270023</v>
+        <v>0.005276786137437678</v>
       </c>
       <c r="G258" t="n">
-        <v>0.3223018896875931</v>
+        <v>0.06433805252459575</v>
       </c>
       <c r="J258" t="n">
-        <v>0.04140340668502694</v>
+        <v>0.005276786137437678</v>
       </c>
       <c r="K258" t="n">
-        <v>0.3267465602494188</v>
+        <v>0.06433805252459575</v>
       </c>
       <c r="L258" t="n">
-        <v>0.07324706311630019</v>
+        <v>0.09578700816010427</v>
       </c>
       <c r="M258" t="n">
-        <v>0.3257285752659766</v>
+        <v>0.2083473812985303</v>
       </c>
       <c r="N258" t="n">
-        <v>0.107219685892384</v>
+        <v>0.1385147950153675</v>
       </c>
       <c r="O258" t="n">
-        <v>0.3261239092401289</v>
+        <v>0.2086662440947666</v>
       </c>
     </row>
     <row r="259" ht="15" customHeight="1">
       <c r="F259" t="n">
-        <v>0.02173196461682786</v>
+        <v>0.00519457017469234</v>
       </c>
       <c r="G259" t="n">
-        <v>0.323971847665249</v>
+        <v>0.06426322809042906</v>
       </c>
       <c r="J259" t="n">
-        <v>0.04072817508439962</v>
+        <v>0.00519457017469234</v>
       </c>
       <c r="K259" t="n">
-        <v>0.328439547608224</v>
+        <v>0.06426322809042906</v>
       </c>
       <c r="L259" t="n">
-        <v>0.0721620848748758</v>
+        <v>0.09591073033391151</v>
       </c>
       <c r="M259" t="n">
-        <v>0.3274162880911889</v>
+        <v>0.2094269014088854</v>
       </c>
       <c r="N259" t="n">
-        <v>0.1049202477242782</v>
+        <v>0.1375709280090089</v>
       </c>
       <c r="O259" t="n">
-        <v>0.3278136704279016</v>
+        <v>0.2097474163439622</v>
       </c>
     </row>
     <row r="260" ht="15" customHeight="1">
       <c r="F260" t="n">
-        <v>0.02224576073710981</v>
+        <v>0.005126033762522783</v>
       </c>
       <c r="G260" t="n">
-        <v>0.3256418056429049</v>
+        <v>0.06418840365626236</v>
       </c>
       <c r="J260" t="n">
-        <v>0.03934924656668275</v>
+        <v>0.005126033762522783</v>
       </c>
       <c r="K260" t="n">
-        <v>0.3301325349670293</v>
+        <v>0.06418840365626236</v>
       </c>
       <c r="L260" t="n">
-        <v>0.07137052178902265</v>
+        <v>0.09643691253874309</v>
       </c>
       <c r="M260" t="n">
-        <v>0.3291040009164012</v>
+        <v>0.2105064215192405</v>
       </c>
       <c r="N260" t="n">
-        <v>0.1020112921608308</v>
+        <v>0.1388346476680393</v>
       </c>
       <c r="O260" t="n">
-        <v>0.3295034316156742</v>
+        <v>0.2108285885931579</v>
       </c>
     </row>
     <row r="261" ht="15" customHeight="1">
       <c r="F261" t="n">
-        <v>0.02375725125181953</v>
+        <v>0.005071742719948882</v>
       </c>
       <c r="G261" t="n">
-        <v>0.3273117636205609</v>
+        <v>0.06411357922209565</v>
       </c>
       <c r="J261" t="n">
-        <v>0.0386665748144442</v>
+        <v>0.005071742719948882</v>
       </c>
       <c r="K261" t="n">
-        <v>0.3318255223258346</v>
+        <v>0.06411357922209565</v>
       </c>
       <c r="L261" t="n">
-        <v>0.06917229163251287</v>
+        <v>0.09616560282769837</v>
       </c>
       <c r="M261" t="n">
-        <v>0.3307917137416135</v>
+        <v>0.2115859416295956</v>
       </c>
       <c r="N261" t="n">
-        <v>0.1002927002032231</v>
+        <v>0.1384061270373313</v>
       </c>
       <c r="O261" t="n">
-        <v>0.331193192803447</v>
+        <v>0.2119097608423536</v>
       </c>
     </row>
     <row r="262" ht="15" customHeight="1">
       <c r="F262" t="n">
-        <v>0.02226640803923051</v>
+        <v>0.005032262865990539</v>
       </c>
       <c r="G262" t="n">
-        <v>0.3289817215982168</v>
+        <v>0.06403875478792895</v>
       </c>
       <c r="J262" t="n">
-        <v>0.03818011351025176</v>
+        <v>0.005032262865990539</v>
       </c>
       <c r="K262" t="n">
-        <v>0.3335185096846399</v>
+        <v>0.06403875478792895</v>
       </c>
       <c r="L262" t="n">
-        <v>0.06806731217911888</v>
+        <v>0.09599684925387697</v>
       </c>
       <c r="M262" t="n">
-        <v>0.3324794265668258</v>
+        <v>0.2126654617399507</v>
       </c>
       <c r="N262" t="n">
-        <v>0.09856435285263732</v>
+        <v>0.1377855391617572</v>
       </c>
       <c r="O262" t="n">
-        <v>0.3328829539912196</v>
+        <v>0.2129909330915493</v>
       </c>
     </row>
     <row r="263" ht="15" customHeight="1">
       <c r="F263" t="n">
-        <v>0.02177320297761622</v>
+        <v>0.005008160019667612</v>
       </c>
       <c r="G263" t="n">
-        <v>0.3306516795758727</v>
+        <v>0.06396393035376224</v>
       </c>
       <c r="J263" t="n">
-        <v>0.03738981633667331</v>
+        <v>0.005008160019667612</v>
       </c>
       <c r="K263" t="n">
-        <v>0.3352114970434452</v>
+        <v>0.06396393035376224</v>
       </c>
       <c r="L263" t="n">
-        <v>0.06695550120261295</v>
+        <v>0.09563069987037853</v>
       </c>
       <c r="M263" t="n">
-        <v>0.3341671393920381</v>
+        <v>0.2137449818503057</v>
       </c>
       <c r="N263" t="n">
-        <v>0.09662613111025509</v>
+        <v>0.1386730570861895</v>
       </c>
       <c r="O263" t="n">
-        <v>0.3345727151789923</v>
+        <v>0.214072105340745</v>
       </c>
     </row>
     <row r="264" ht="15" customHeight="1">
       <c r="F264" t="n">
-        <v>0.02027760794525013</v>
+        <v>0.005000000000000004</v>
       </c>
       <c r="G264" t="n">
-        <v>0.3323216375535286</v>
+        <v>0.06388910591959554</v>
       </c>
       <c r="J264" t="n">
-        <v>0.03629563697627659</v>
+        <v>0.005000000000000004</v>
       </c>
       <c r="K264" t="n">
-        <v>0.3369044844022505</v>
+        <v>0.06388910591959554</v>
       </c>
       <c r="L264" t="n">
-        <v>0.06573677647676751</v>
+        <v>0.09576720273030254</v>
       </c>
       <c r="M264" t="n">
-        <v>0.3358548522172504</v>
+        <v>0.2148245019606608</v>
       </c>
       <c r="N264" t="n">
-        <v>0.09357791597725834</v>
+        <v>0.1375688538555006</v>
       </c>
       <c r="O264" t="n">
-        <v>0.336262476366765</v>
-      </c>
-    </row>
-    <row r="265" ht="15" customHeight="1"/>
-    <row r="266" ht="15" customHeight="1"/>
-    <row r="267" ht="15" customHeight="1"/>
-    <row r="268" ht="15" customHeight="1"/>
-    <row r="269" ht="15" customHeight="1"/>
-    <row r="270" ht="15" customHeight="1"/>
-    <row r="271" ht="15" customHeight="1"/>
-    <row r="272" ht="15" customHeight="1"/>
-    <row r="273" ht="15" customHeight="1"/>
-    <row r="274" ht="15" customHeight="1"/>
-    <row r="275" ht="15" customHeight="1"/>
-    <row r="276" ht="15" customHeight="1"/>
-    <row r="277" ht="15" customHeight="1"/>
-    <row r="278" ht="15" customHeight="1"/>
-    <row r="279" ht="15" customHeight="1"/>
-    <row r="280" ht="15" customHeight="1"/>
-    <row r="281" ht="15" customHeight="1"/>
-    <row r="282" ht="15" customHeight="1"/>
-    <row r="283" ht="15" customHeight="1"/>
-    <row r="284" ht="15" customHeight="1"/>
-    <row r="285" ht="15" customHeight="1"/>
-    <row r="286" ht="15" customHeight="1"/>
-    <row r="287" ht="15" customHeight="1"/>
-    <row r="288" ht="15" customHeight="1"/>
-    <row r="289" ht="15" customHeight="1"/>
-    <row r="290" ht="15" customHeight="1"/>
-    <row r="291" ht="15" customHeight="1"/>
-    <row r="292" ht="15" customHeight="1"/>
-    <row r="293" ht="15" customHeight="1"/>
-    <row r="294" ht="15" customHeight="1"/>
-    <row r="295" ht="15" customHeight="1"/>
-    <row r="296" ht="15" customHeight="1"/>
-    <row r="297" ht="15" customHeight="1"/>
-    <row r="298" ht="15" customHeight="1"/>
-    <row r="299" ht="15" customHeight="1"/>
-    <row r="300" ht="15" customHeight="1"/>
-    <row r="301" ht="15" customHeight="1"/>
-    <row r="302" ht="15" customHeight="1"/>
-    <row r="303" ht="15" customHeight="1"/>
-    <row r="304" ht="15" customHeight="1"/>
-    <row r="305" ht="15" customHeight="1"/>
-    <row r="306" ht="15" customHeight="1"/>
-    <row r="307" ht="15" customHeight="1"/>
-    <row r="308" ht="15" customHeight="1"/>
-    <row r="309" ht="15" customHeight="1"/>
-    <row r="310" ht="15" customHeight="1"/>
-    <row r="311" ht="15" customHeight="1"/>
-    <row r="312" ht="15" customHeight="1"/>
-    <row r="313" ht="15" customHeight="1"/>
-    <row r="314" ht="15" customHeight="1"/>
-    <row r="315" ht="15" customHeight="1"/>
-    <row r="316" ht="15" customHeight="1"/>
-    <row r="317" ht="15" customHeight="1"/>
-    <row r="318" ht="15" customHeight="1"/>
-    <row r="319" ht="15" customHeight="1"/>
-    <row r="320" ht="15" customHeight="1"/>
-    <row r="321" ht="15" customHeight="1"/>
-    <row r="322" ht="15" customHeight="1"/>
-    <row r="323" ht="15" customHeight="1"/>
-    <row r="324" ht="15" customHeight="1"/>
-    <row r="325" ht="15" customHeight="1"/>
-    <row r="326" ht="15" customHeight="1"/>
-    <row r="327" ht="15" customHeight="1"/>
-    <row r="328" ht="15" customHeight="1"/>
-    <row r="329" ht="15" customHeight="1"/>
-    <row r="330" ht="15" customHeight="1"/>
-    <row r="331" ht="15" customHeight="1"/>
-    <row r="332" ht="15" customHeight="1"/>
-    <row r="333" ht="15" customHeight="1"/>
-    <row r="334" ht="15" customHeight="1"/>
-    <row r="335" ht="15" customHeight="1"/>
-    <row r="336" ht="15" customHeight="1"/>
-    <row r="337" ht="15" customHeight="1"/>
-    <row r="338" ht="15" customHeight="1"/>
-    <row r="339" ht="15" customHeight="1"/>
-    <row r="340" ht="15" customHeight="1"/>
-    <row r="341" ht="15" customHeight="1"/>
-    <row r="342" ht="15" customHeight="1"/>
-    <row r="343" ht="15" customHeight="1"/>
-    <row r="344" ht="15" customHeight="1"/>
-    <row r="345" ht="15" customHeight="1"/>
-    <row r="346" ht="15" customHeight="1"/>
-    <row r="347" ht="15" customHeight="1"/>
-    <row r="348" ht="15" customHeight="1"/>
-    <row r="349" ht="15" customHeight="1"/>
-    <row r="350" ht="15" customHeight="1"/>
-    <row r="351" ht="15" customHeight="1"/>
-    <row r="352" ht="15" customHeight="1"/>
-    <row r="353" ht="15" customHeight="1"/>
-    <row r="354" ht="15" customHeight="1"/>
-    <row r="355" ht="15" customHeight="1"/>
-    <row r="356" ht="15" customHeight="1"/>
-    <row r="357" ht="15" customHeight="1"/>
-    <row r="358" ht="15" customHeight="1"/>
-    <row r="359" ht="15" customHeight="1"/>
-    <row r="360" ht="15" customHeight="1"/>
-    <row r="361" ht="15" customHeight="1"/>
-    <row r="362" ht="15" customHeight="1"/>
-    <row r="363" ht="15" customHeight="1"/>
-    <row r="364" ht="15" customHeight="1"/>
-    <row r="365" ht="15" customHeight="1"/>
-    <row r="366" ht="15" customHeight="1"/>
-    <row r="367" ht="15" customHeight="1"/>
-    <row r="368" ht="15" customHeight="1"/>
-    <row r="369" ht="15" customHeight="1"/>
-    <row r="370" ht="15" customHeight="1"/>
-    <row r="371" ht="15" customHeight="1"/>
-    <row r="372" ht="15" customHeight="1"/>
-    <row r="373" ht="15" customHeight="1"/>
-    <row r="374" ht="15" customHeight="1"/>
-    <row r="375" ht="15" customHeight="1"/>
-    <row r="376" ht="15" customHeight="1"/>
-    <row r="377" ht="15" customHeight="1"/>
-    <row r="378" ht="15" customHeight="1"/>
-    <row r="379" ht="15" customHeight="1"/>
-    <row r="380" ht="15" customHeight="1"/>
-    <row r="381" ht="15" customHeight="1"/>
-    <row r="382" ht="15" customHeight="1"/>
-    <row r="383" ht="15" customHeight="1"/>
-    <row r="384" ht="15" customHeight="1"/>
-    <row r="385" ht="15" customHeight="1"/>
-    <row r="386" ht="15" customHeight="1"/>
-    <row r="387" ht="15" customHeight="1"/>
-    <row r="388" ht="15" customHeight="1"/>
-    <row r="389" ht="15" customHeight="1"/>
-    <row r="390" ht="15" customHeight="1"/>
-    <row r="391" ht="15" customHeight="1"/>
-    <row r="392" ht="15" customHeight="1"/>
-    <row r="393" ht="15" customHeight="1"/>
-    <row r="394" ht="15" customHeight="1"/>
-    <row r="395" ht="15" customHeight="1"/>
-    <row r="396" ht="15" customHeight="1"/>
-    <row r="397" ht="15" customHeight="1"/>
-    <row r="398" ht="15" customHeight="1"/>
-    <row r="399" ht="15" customHeight="1"/>
-    <row r="400" ht="15" customHeight="1"/>
-    <row r="401" ht="15" customHeight="1"/>
-    <row r="402" ht="15" customHeight="1"/>
-    <row r="403" ht="15" customHeight="1"/>
-    <row r="404" ht="15" customHeight="1"/>
-    <row r="405" ht="15" customHeight="1"/>
-    <row r="406" ht="15" customHeight="1"/>
-    <row r="407" ht="15" customHeight="1"/>
-    <row r="408" ht="15" customHeight="1"/>
-    <row r="409" ht="15" customHeight="1"/>
-    <row r="410" ht="15" customHeight="1"/>
-    <row r="411" ht="15" customHeight="1"/>
-    <row r="412" ht="15" customHeight="1"/>
-    <row r="413" ht="15" customHeight="1"/>
-    <row r="414" ht="15" customHeight="1"/>
-    <row r="415" ht="15" customHeight="1"/>
-    <row r="416" ht="15" customHeight="1"/>
-    <row r="417" ht="15" customHeight="1"/>
-    <row r="418" ht="15" customHeight="1"/>
-    <row r="419" ht="15" customHeight="1"/>
-    <row r="420" ht="15" customHeight="1"/>
-    <row r="421" ht="15" customHeight="1"/>
-    <row r="422" ht="15" customHeight="1"/>
-    <row r="423" ht="15" customHeight="1"/>
-    <row r="424" ht="15" customHeight="1"/>
-    <row r="425" ht="15" customHeight="1"/>
-    <row r="426" ht="15" customHeight="1"/>
-    <row r="427" ht="15" customHeight="1"/>
-    <row r="428" ht="15" customHeight="1"/>
-    <row r="429" ht="15" customHeight="1"/>
-    <row r="430" ht="15" customHeight="1"/>
-    <row r="431" ht="15" customHeight="1"/>
-    <row r="432" ht="15" customHeight="1"/>
-    <row r="433" ht="15" customHeight="1"/>
-    <row r="434" ht="15" customHeight="1"/>
-    <row r="435" ht="15" customHeight="1"/>
-    <row r="436" ht="15" customHeight="1"/>
-    <row r="437" ht="15" customHeight="1"/>
-    <row r="438" ht="15" customHeight="1"/>
-    <row r="439" ht="15" customHeight="1"/>
-    <row r="440" ht="15" customHeight="1"/>
-    <row r="441" ht="15" customHeight="1"/>
-    <row r="442" ht="15" customHeight="1"/>
-    <row r="443" ht="15" customHeight="1"/>
-    <row r="444" ht="15" customHeight="1"/>
-    <row r="445" ht="15" customHeight="1"/>
-    <row r="446" ht="15" customHeight="1"/>
-    <row r="447" ht="15" customHeight="1"/>
-    <row r="448" ht="15" customHeight="1"/>
-    <row r="449" ht="15" customHeight="1"/>
-    <row r="450" ht="15" customHeight="1"/>
-    <row r="451" ht="15" customHeight="1"/>
-    <row r="452" ht="15" customHeight="1"/>
-    <row r="453" ht="15" customHeight="1"/>
-    <row r="454" ht="15" customHeight="1"/>
-    <row r="455" ht="15" customHeight="1"/>
-    <row r="456" ht="15" customHeight="1"/>
-    <row r="457" ht="15" customHeight="1"/>
-    <row r="458" ht="15" customHeight="1"/>
-    <row r="459" ht="15" customHeight="1"/>
-    <row r="460" ht="15" customHeight="1"/>
-    <row r="461" ht="15" customHeight="1"/>
-    <row r="462" ht="15" customHeight="1"/>
-    <row r="463" ht="15" customHeight="1"/>
-    <row r="464" ht="15" customHeight="1"/>
+        <v>0.2151532775899406</v>
+      </c>
+    </row>
+    <row r="265" ht="15" customHeight="1">
+      <c r="F265" t="n">
+        <v>0.005000000000000004</v>
+      </c>
+      <c r="G265" t="n">
+        <v>0.0638759480248587</v>
+      </c>
+      <c r="J265" t="n">
+        <v>0.005000000000000004</v>
+      </c>
+      <c r="K265" t="n">
+        <v>0.0638759480248587</v>
+      </c>
+    </row>
+    <row r="266" ht="15" customHeight="1">
+      <c r="F266" t="n">
+        <v>0.005724433215688773</v>
+      </c>
+      <c r="G266" t="n">
+        <v>0.06387621655332271</v>
+      </c>
+      <c r="J266" t="n">
+        <v>0.005724433215688773</v>
+      </c>
+      <c r="K266" t="n">
+        <v>0.06387621655332271</v>
+      </c>
+    </row>
+    <row r="267" ht="15" customHeight="1">
+      <c r="F267" t="n">
+        <v>0.006442320476833907</v>
+      </c>
+      <c r="G267" t="n">
+        <v>0.06387648508178673</v>
+      </c>
+      <c r="J267" t="n">
+        <v>0.006442320476833907</v>
+      </c>
+      <c r="K267" t="n">
+        <v>0.06387648508178673</v>
+      </c>
+    </row>
+    <row r="268" ht="15" customHeight="1">
+      <c r="F268" t="n">
+        <v>0.007153494525820592</v>
+      </c>
+      <c r="G268" t="n">
+        <v>0.06387675361025075</v>
+      </c>
+      <c r="J268" t="n">
+        <v>0.007153494525820592</v>
+      </c>
+      <c r="K268" t="n">
+        <v>0.06387675361025075</v>
+      </c>
+    </row>
+    <row r="269" ht="15" customHeight="1">
+      <c r="F269" t="n">
+        <v>0.007857788104941241</v>
+      </c>
+      <c r="G269" t="n">
+        <v>0.06387702213871477</v>
+      </c>
+      <c r="J269" t="n">
+        <v>0.007857788104941241</v>
+      </c>
+      <c r="K269" t="n">
+        <v>0.06387702213871477</v>
+      </c>
+    </row>
+    <row r="270" ht="15" customHeight="1">
+      <c r="F270" t="n">
+        <v>0.008555033956581262</v>
+      </c>
+      <c r="G270" t="n">
+        <v>0.06387729066717877</v>
+      </c>
+      <c r="J270" t="n">
+        <v>0.008555033956581262</v>
+      </c>
+      <c r="K270" t="n">
+        <v>0.06387729066717877</v>
+      </c>
+    </row>
+    <row r="271" ht="15" customHeight="1">
+      <c r="F271" t="n">
+        <v>0.009245064823095062</v>
+      </c>
+      <c r="G271" t="n">
+        <v>0.06387755919564279</v>
+      </c>
+      <c r="J271" t="n">
+        <v>0.009245064823095062</v>
+      </c>
+      <c r="K271" t="n">
+        <v>0.06387755919564279</v>
+      </c>
+    </row>
+    <row r="272" ht="15" customHeight="1">
+      <c r="F272" t="n">
+        <v>0.009927713446866465</v>
+      </c>
+      <c r="G272" t="n">
+        <v>0.06387782772410681</v>
+      </c>
+      <c r="J272" t="n">
+        <v>0.009927713446866465</v>
+      </c>
+      <c r="K272" t="n">
+        <v>0.06387782772410681</v>
+      </c>
+    </row>
+    <row r="273" ht="15" customHeight="1">
+      <c r="F273" t="n">
+        <v>0.01060281257019045</v>
+      </c>
+      <c r="G273" t="n">
+        <v>0.06387809625257083</v>
+      </c>
+      <c r="J273" t="n">
+        <v>0.01060281257019045</v>
+      </c>
+      <c r="K273" t="n">
+        <v>0.06387809625257083</v>
+      </c>
+    </row>
+    <row r="274" ht="15" customHeight="1">
+      <c r="F274" t="n">
+        <v>0.0112701949354512</v>
+      </c>
+      <c r="G274" t="n">
+        <v>0.06387836478103485</v>
+      </c>
+      <c r="J274" t="n">
+        <v>0.0112701949354512</v>
+      </c>
+      <c r="K274" t="n">
+        <v>0.06387836478103485</v>
+      </c>
+    </row>
+    <row r="275" ht="15" customHeight="1">
+      <c r="F275" t="n">
+        <v>0.01192969328500305</v>
+      </c>
+      <c r="G275" t="n">
+        <v>0.06387863330949886</v>
+      </c>
+      <c r="J275" t="n">
+        <v>0.01192969328500305</v>
+      </c>
+      <c r="K275" t="n">
+        <v>0.06387863330949886</v>
+      </c>
+    </row>
+    <row r="276" ht="15" customHeight="1">
+      <c r="F276" t="n">
+        <v>0.01258114036122854</v>
+      </c>
+      <c r="G276" t="n">
+        <v>0.0638789018379629</v>
+      </c>
+      <c r="J276" t="n">
+        <v>0.01258114036122854</v>
+      </c>
+      <c r="K276" t="n">
+        <v>0.0638789018379629</v>
+      </c>
+    </row>
+    <row r="277" ht="15" customHeight="1">
+      <c r="F277" t="n">
+        <v>0.0132243689064253</v>
+      </c>
+      <c r="G277" t="n">
+        <v>0.0638791703664269</v>
+      </c>
+      <c r="J277" t="n">
+        <v>0.0132243689064253</v>
+      </c>
+      <c r="K277" t="n">
+        <v>0.0638791703664269</v>
+      </c>
+    </row>
+    <row r="278" ht="15" customHeight="1">
+      <c r="F278" t="n">
+        <v>0.01385921166297617</v>
+      </c>
+      <c r="G278" t="n">
+        <v>0.06387943889489092</v>
+      </c>
+      <c r="J278" t="n">
+        <v>0.01385921166297617</v>
+      </c>
+      <c r="K278" t="n">
+        <v>0.06387943889489092</v>
+      </c>
+    </row>
+    <row r="279" ht="15" customHeight="1">
+      <c r="F279" t="n">
+        <v>0.01448550137323554</v>
+      </c>
+      <c r="G279" t="n">
+        <v>0.06387970742335493</v>
+      </c>
+      <c r="J279" t="n">
+        <v>0.01448550137323554</v>
+      </c>
+      <c r="K279" t="n">
+        <v>0.06387970742335493</v>
+      </c>
+    </row>
+    <row r="280" ht="15" customHeight="1">
+      <c r="F280" t="n">
+        <v>0.01510307077958439</v>
+      </c>
+      <c r="G280" t="n">
+        <v>0.06387997595181896</v>
+      </c>
+      <c r="J280" t="n">
+        <v>0.01510307077958439</v>
+      </c>
+      <c r="K280" t="n">
+        <v>0.06387997595181896</v>
+      </c>
+    </row>
+    <row r="281" ht="15" customHeight="1">
+      <c r="F281" t="n">
+        <v>0.01571175262432334</v>
+      </c>
+      <c r="G281" t="n">
+        <v>0.06388024448028297</v>
+      </c>
+      <c r="J281" t="n">
+        <v>0.01571175262432334</v>
+      </c>
+      <c r="K281" t="n">
+        <v>0.06388024448028297</v>
+      </c>
+    </row>
+    <row r="282" ht="15" customHeight="1">
+      <c r="F282" t="n">
+        <v>0.01631137964983378</v>
+      </c>
+      <c r="G282" t="n">
+        <v>0.06388051300874699</v>
+      </c>
+      <c r="J282" t="n">
+        <v>0.01631137964983378</v>
+      </c>
+      <c r="K282" t="n">
+        <v>0.06388051300874699</v>
+      </c>
+    </row>
+    <row r="283" ht="15" customHeight="1">
+      <c r="F283" t="n">
+        <v>0.0169017845984701</v>
+      </c>
+      <c r="G283" t="n">
+        <v>0.063880781537211</v>
+      </c>
+      <c r="J283" t="n">
+        <v>0.0169017845984701</v>
+      </c>
+      <c r="K283" t="n">
+        <v>0.063880781537211</v>
+      </c>
+    </row>
+    <row r="284" ht="15" customHeight="1">
+      <c r="F284" t="n">
+        <v>0.01748280021261162</v>
+      </c>
+      <c r="G284" t="n">
+        <v>0.06388105006567503</v>
+      </c>
+      <c r="J284" t="n">
+        <v>0.01748280021261162</v>
+      </c>
+      <c r="K284" t="n">
+        <v>0.06388105006567503</v>
+      </c>
+    </row>
+    <row r="285" ht="15" customHeight="1">
+      <c r="F285" t="n">
+        <v>0.01805425923456221</v>
+      </c>
+      <c r="G285" t="n">
+        <v>0.06388131859413904</v>
+      </c>
+      <c r="J285" t="n">
+        <v>0.01805425923456221</v>
+      </c>
+      <c r="K285" t="n">
+        <v>0.06388131859413904</v>
+      </c>
+    </row>
+    <row r="286" ht="15" customHeight="1">
+      <c r="F286" t="n">
+        <v>0.01861599440670166</v>
+      </c>
+      <c r="G286" t="n">
+        <v>0.06388158712260306</v>
+      </c>
+      <c r="J286" t="n">
+        <v>0.01861599440670166</v>
+      </c>
+      <c r="K286" t="n">
+        <v>0.06388158712260306</v>
+      </c>
+    </row>
+    <row r="287" ht="15" customHeight="1">
+      <c r="F287" t="n">
+        <v>0.0191678384713843</v>
+      </c>
+      <c r="G287" t="n">
+        <v>0.06388185565106708</v>
+      </c>
+      <c r="J287" t="n">
+        <v>0.0191678384713843</v>
+      </c>
+      <c r="K287" t="n">
+        <v>0.06388185565106708</v>
+      </c>
+    </row>
+    <row r="288" ht="15" customHeight="1">
+      <c r="F288" t="n">
+        <v>0.01970962417098786</v>
+      </c>
+      <c r="G288" t="n">
+        <v>0.0638821241795311</v>
+      </c>
+      <c r="J288" t="n">
+        <v>0.01970962417098786</v>
+      </c>
+      <c r="K288" t="n">
+        <v>0.0638821241795311</v>
+      </c>
+    </row>
+    <row r="289" ht="15" customHeight="1">
+      <c r="F289" t="n">
+        <v>0.0202411842478195</v>
+      </c>
+      <c r="G289" t="n">
+        <v>0.06388239270799512</v>
+      </c>
+      <c r="J289" t="n">
+        <v>0.0202411842478195</v>
+      </c>
+      <c r="K289" t="n">
+        <v>0.06388239270799512</v>
+      </c>
+    </row>
+    <row r="290" ht="15" customHeight="1">
+      <c r="F290" t="n">
+        <v>0.02076303441297721</v>
+      </c>
+      <c r="G290" t="n">
+        <v>0.06388266123645912</v>
+      </c>
+      <c r="J290" t="n">
+        <v>0.02076303441297721</v>
+      </c>
+      <c r="K290" t="n">
+        <v>0.06388266123645912</v>
+      </c>
+    </row>
+    <row r="291" ht="15" customHeight="1">
+      <c r="F291" t="n">
+        <v>0.02127910522113394</v>
+      </c>
+      <c r="G291" t="n">
+        <v>0.06388292976492314</v>
+      </c>
+      <c r="J291" t="n">
+        <v>0.02127910522113394</v>
+      </c>
+      <c r="K291" t="n">
+        <v>0.06388292976492314</v>
+      </c>
+    </row>
+    <row r="292" ht="15" customHeight="1">
+      <c r="F292" t="n">
+        <v>0.02178991238338589</v>
+      </c>
+      <c r="G292" t="n">
+        <v>0.06388319829338716</v>
+      </c>
+      <c r="J292" t="n">
+        <v>0.02178991238338589</v>
+      </c>
+      <c r="K292" t="n">
+        <v>0.06388319829338716</v>
+      </c>
+    </row>
+    <row r="293" ht="15" customHeight="1">
+      <c r="F293" t="n">
+        <v>0.0222952886420429</v>
+      </c>
+      <c r="G293" t="n">
+        <v>0.06388346682185118</v>
+      </c>
+      <c r="J293" t="n">
+        <v>0.0222952886420429</v>
+      </c>
+      <c r="K293" t="n">
+        <v>0.06388346682185118</v>
+      </c>
+    </row>
+    <row r="294" ht="15" customHeight="1">
+      <c r="F294" t="n">
+        <v>0.0227950667394817</v>
+      </c>
+      <c r="G294" t="n">
+        <v>0.06388373535031519</v>
+      </c>
+      <c r="J294" t="n">
+        <v>0.0227950667394817</v>
+      </c>
+      <c r="K294" t="n">
+        <v>0.06388373535031519</v>
+      </c>
+    </row>
+    <row r="295" ht="15" customHeight="1">
+      <c r="F295" t="n">
+        <v>0.02328907941805661</v>
+      </c>
+      <c r="G295" t="n">
+        <v>0.06388400387877921</v>
+      </c>
+      <c r="J295" t="n">
+        <v>0.02328907941805661</v>
+      </c>
+      <c r="K295" t="n">
+        <v>0.06388400387877921</v>
+      </c>
+    </row>
+    <row r="296" ht="15" customHeight="1">
+      <c r="F296" t="n">
+        <v>0.02377715942014308</v>
+      </c>
+      <c r="G296" t="n">
+        <v>0.06388427240724323</v>
+      </c>
+      <c r="J296" t="n">
+        <v>0.02377715942014308</v>
+      </c>
+      <c r="K296" t="n">
+        <v>0.06388427240724323</v>
+      </c>
+    </row>
+    <row r="297" ht="15" customHeight="1">
+      <c r="F297" t="n">
+        <v>0.02425913948805299</v>
+      </c>
+      <c r="G297" t="n">
+        <v>0.06388454093570725</v>
+      </c>
+      <c r="J297" t="n">
+        <v>0.02425913948805299</v>
+      </c>
+      <c r="K297" t="n">
+        <v>0.06388454093570725</v>
+      </c>
+    </row>
+    <row r="298" ht="15" customHeight="1">
+      <c r="F298" t="n">
+        <v>0.02473485236416202</v>
+      </c>
+      <c r="G298" t="n">
+        <v>0.06388480946417126</v>
+      </c>
+      <c r="J298" t="n">
+        <v>0.02473485236416202</v>
+      </c>
+      <c r="K298" t="n">
+        <v>0.06388480946417126</v>
+      </c>
+    </row>
+    <row r="299" ht="15" customHeight="1">
+      <c r="F299" t="n">
+        <v>0.02520413079082454</v>
+      </c>
+      <c r="G299" t="n">
+        <v>0.06388507799263528</v>
+      </c>
+      <c r="J299" t="n">
+        <v>0.02520413079082454</v>
+      </c>
+      <c r="K299" t="n">
+        <v>0.06388507799263528</v>
+      </c>
+    </row>
+    <row r="300" ht="15" customHeight="1">
+      <c r="F300" t="n">
+        <v>0.02566680751041486</v>
+      </c>
+      <c r="G300" t="n">
+        <v>0.0638853465210993</v>
+      </c>
+      <c r="J300" t="n">
+        <v>0.02566680751041486</v>
+      </c>
+      <c r="K300" t="n">
+        <v>0.0638853465210993</v>
+      </c>
+    </row>
+    <row r="301" ht="15" customHeight="1">
+      <c r="F301" t="n">
+        <v>0.02612271526524709</v>
+      </c>
+      <c r="G301" t="n">
+        <v>0.06388561504956332</v>
+      </c>
+      <c r="J301" t="n">
+        <v>0.02612271526524709</v>
+      </c>
+      <c r="K301" t="n">
+        <v>0.06388561504956332</v>
+      </c>
+    </row>
+    <row r="302" ht="15" customHeight="1">
+      <c r="F302" t="n">
+        <v>0.02657168679769581</v>
+      </c>
+      <c r="G302" t="n">
+        <v>0.06388588357802734</v>
+      </c>
+      <c r="J302" t="n">
+        <v>0.02657168679769581</v>
+      </c>
+      <c r="K302" t="n">
+        <v>0.06388588357802734</v>
+      </c>
+    </row>
+    <row r="303" ht="15" customHeight="1">
+      <c r="F303" t="n">
+        <v>0.02701355485011538</v>
+      </c>
+      <c r="G303" t="n">
+        <v>0.06388615210649135</v>
+      </c>
+      <c r="J303" t="n">
+        <v>0.02701355485011538</v>
+      </c>
+      <c r="K303" t="n">
+        <v>0.06388615210649135</v>
+      </c>
+    </row>
+    <row r="304" ht="15" customHeight="1">
+      <c r="F304" t="n">
+        <v>0.02744815216487891</v>
+      </c>
+      <c r="G304" t="n">
+        <v>0.06388642063495538</v>
+      </c>
+      <c r="J304" t="n">
+        <v>0.02744815216487891</v>
+      </c>
+      <c r="K304" t="n">
+        <v>0.06388642063495538</v>
+      </c>
+    </row>
+    <row r="305" ht="15" customHeight="1">
+      <c r="F305" t="n">
+        <v>0.02787531148430288</v>
+      </c>
+      <c r="G305" t="n">
+        <v>0.06388668916341939</v>
+      </c>
+      <c r="J305" t="n">
+        <v>0.02787531148430288</v>
+      </c>
+      <c r="K305" t="n">
+        <v>0.06388668916341939</v>
+      </c>
+    </row>
+    <row r="306" ht="15" customHeight="1">
+      <c r="F306" t="n">
+        <v>0.02829486555076073</v>
+      </c>
+      <c r="G306" t="n">
+        <v>0.06388695769188341</v>
+      </c>
+      <c r="J306" t="n">
+        <v>0.02829486555076073</v>
+      </c>
+      <c r="K306" t="n">
+        <v>0.06388695769188341</v>
+      </c>
+    </row>
+    <row r="307" ht="15" customHeight="1">
+      <c r="F307" t="n">
+        <v>0.02870664710660677</v>
+      </c>
+      <c r="G307" t="n">
+        <v>0.06388722622034741</v>
+      </c>
+      <c r="J307" t="n">
+        <v>0.02870664710660677</v>
+      </c>
+      <c r="K307" t="n">
+        <v>0.06388722622034741</v>
+      </c>
+    </row>
+    <row r="308" ht="15" customHeight="1">
+      <c r="F308" t="n">
+        <v>0.02911048889421279</v>
+      </c>
+      <c r="G308" t="n">
+        <v>0.06388749474881145</v>
+      </c>
+      <c r="J308" t="n">
+        <v>0.02911048889421279</v>
+      </c>
+      <c r="K308" t="n">
+        <v>0.06388749474881145</v>
+      </c>
+    </row>
+    <row r="309" ht="15" customHeight="1">
+      <c r="F309" t="n">
+        <v>0.02950622365589796</v>
+      </c>
+      <c r="G309" t="n">
+        <v>0.06388776327727545</v>
+      </c>
+      <c r="J309" t="n">
+        <v>0.02950622365589796</v>
+      </c>
+      <c r="K309" t="n">
+        <v>0.06388776327727545</v>
+      </c>
+    </row>
+    <row r="310" ht="15" customHeight="1">
+      <c r="F310" t="n">
+        <v>0.02989368413403436</v>
+      </c>
+      <c r="G310" t="n">
+        <v>0.06388803180573947</v>
+      </c>
+      <c r="J310" t="n">
+        <v>0.02989368413403436</v>
+      </c>
+      <c r="K310" t="n">
+        <v>0.06388803180573947</v>
+      </c>
+    </row>
+    <row r="311" ht="15" customHeight="1">
+      <c r="F311" t="n">
+        <v>0.03027270307097633</v>
+      </c>
+      <c r="G311" t="n">
+        <v>0.06388830033420349</v>
+      </c>
+      <c r="J311" t="n">
+        <v>0.03027270307097633</v>
+      </c>
+      <c r="K311" t="n">
+        <v>0.06388830033420349</v>
+      </c>
+    </row>
+    <row r="312" ht="15" customHeight="1">
+      <c r="F312" t="n">
+        <v>0.0306431132090942</v>
+      </c>
+      <c r="G312" t="n">
+        <v>0.06388856886266751</v>
+      </c>
+      <c r="J312" t="n">
+        <v>0.0306431132090942</v>
+      </c>
+      <c r="K312" t="n">
+        <v>0.06388856886266751</v>
+      </c>
+    </row>
+    <row r="313" ht="15" customHeight="1">
+      <c r="F313" t="n">
+        <v>0.03100474729071002</v>
+      </c>
+      <c r="G313" t="n">
+        <v>0.06388883739113153</v>
+      </c>
+      <c r="J313" t="n">
+        <v>0.03100474729071002</v>
+      </c>
+      <c r="K313" t="n">
+        <v>0.06388883739113153</v>
+      </c>
+    </row>
+    <row r="314" ht="15" customHeight="1">
+      <c r="F314" t="n">
+        <v>0.03135743805819442</v>
+      </c>
+      <c r="G314" t="n">
+        <v>0.06388910591959554</v>
+      </c>
+      <c r="J314" t="n">
+        <v>0.03135743805819442</v>
+      </c>
+      <c r="K314" t="n">
+        <v>0.06388910591959554</v>
+      </c>
+    </row>
+    <row r="315" ht="15" customHeight="1">
+      <c r="F315" t="n">
+        <v>0.03135743805819442</v>
+      </c>
+      <c r="G315" t="n">
+        <v>0.0638759480248587</v>
+      </c>
+      <c r="J315" t="n">
+        <v>0.03135743805819442</v>
+      </c>
+      <c r="K315" t="n">
+        <v>0.0638759480248587</v>
+      </c>
+    </row>
+    <row r="316" ht="15" customHeight="1">
+      <c r="F316" t="n">
+        <v>0.03191277141293257</v>
+      </c>
+      <c r="G316" t="n">
+        <v>0.06395130951595344</v>
+      </c>
+      <c r="J316" t="n">
+        <v>0.03191277141293257</v>
+      </c>
+      <c r="K316" t="n">
+        <v>0.06395130951595344</v>
+      </c>
+    </row>
+    <row r="317" ht="15" customHeight="1">
+      <c r="F317" t="n">
+        <v>0.03246164351038795</v>
+      </c>
+      <c r="G317" t="n">
+        <v>0.06402667100704817</v>
+      </c>
+      <c r="J317" t="n">
+        <v>0.03246164351038795</v>
+      </c>
+      <c r="K317" t="n">
+        <v>0.06402667100704817</v>
+      </c>
+    </row>
+    <row r="318" ht="15" customHeight="1">
+      <c r="F318" t="n">
+        <v>0.03300367668359645</v>
+      </c>
+      <c r="G318" t="n">
+        <v>0.06410203249814291</v>
+      </c>
+      <c r="J318" t="n">
+        <v>0.03300367668359645</v>
+      </c>
+      <c r="K318" t="n">
+        <v>0.06410203249814291</v>
+      </c>
+    </row>
+    <row r="319" ht="15" customHeight="1">
+      <c r="F319" t="n">
+        <v>0.03353849326559373</v>
+      </c>
+      <c r="G319" t="n">
+        <v>0.06417739398923765</v>
+      </c>
+      <c r="J319" t="n">
+        <v>0.03353849326559373</v>
+      </c>
+      <c r="K319" t="n">
+        <v>0.06417739398923765</v>
+      </c>
+    </row>
+    <row r="320" ht="15" customHeight="1">
+      <c r="F320" t="n">
+        <v>0.03406571558941561</v>
+      </c>
+      <c r="G320" t="n">
+        <v>0.06425275548033238</v>
+      </c>
+      <c r="J320" t="n">
+        <v>0.03406571558941561</v>
+      </c>
+      <c r="K320" t="n">
+        <v>0.06425275548033238</v>
+      </c>
+    </row>
+    <row r="321" ht="15" customHeight="1">
+      <c r="F321" t="n">
+        <v>0.03458496598809778</v>
+      </c>
+      <c r="G321" t="n">
+        <v>0.06432811697142711</v>
+      </c>
+      <c r="J321" t="n">
+        <v>0.03458496598809778</v>
+      </c>
+      <c r="K321" t="n">
+        <v>0.06432811697142711</v>
+      </c>
+    </row>
+    <row r="322" ht="15" customHeight="1">
+      <c r="F322" t="n">
+        <v>0.03509586679467615</v>
+      </c>
+      <c r="G322" t="n">
+        <v>0.06440347846252185</v>
+      </c>
+      <c r="J322" t="n">
+        <v>0.03509586679467615</v>
+      </c>
+      <c r="K322" t="n">
+        <v>0.06440347846252185</v>
+      </c>
+    </row>
+    <row r="323" ht="15" customHeight="1">
+      <c r="F323" t="n">
+        <v>0.03559804034218632</v>
+      </c>
+      <c r="G323" t="n">
+        <v>0.0644788399536166</v>
+      </c>
+      <c r="J323" t="n">
+        <v>0.03559804034218632</v>
+      </c>
+      <c r="K323" t="n">
+        <v>0.0644788399536166</v>
+      </c>
+    </row>
+    <row r="324" ht="15" customHeight="1">
+      <c r="F324" t="n">
+        <v>0.03609110896366406</v>
+      </c>
+      <c r="G324" t="n">
+        <v>0.06455420144471133</v>
+      </c>
+      <c r="J324" t="n">
+        <v>0.03609110896366406</v>
+      </c>
+      <c r="K324" t="n">
+        <v>0.06455420144471133</v>
+      </c>
+    </row>
+    <row r="325" ht="15" customHeight="1">
+      <c r="F325" t="n">
+        <v>0.0365746949921452</v>
+      </c>
+      <c r="G325" t="n">
+        <v>0.06462956293580607</v>
+      </c>
+      <c r="J325" t="n">
+        <v>0.0365746949921452</v>
+      </c>
+      <c r="K325" t="n">
+        <v>0.06462956293580607</v>
+      </c>
+    </row>
+    <row r="326" ht="15" customHeight="1">
+      <c r="F326" t="n">
+        <v>0.0370484207606654</v>
+      </c>
+      <c r="G326" t="n">
+        <v>0.0647049244269008</v>
+      </c>
+      <c r="J326" t="n">
+        <v>0.0370484207606654</v>
+      </c>
+      <c r="K326" t="n">
+        <v>0.0647049244269008</v>
+      </c>
+    </row>
+    <row r="327" ht="15" customHeight="1">
+      <c r="F327" t="n">
+        <v>0.03751190860226057</v>
+      </c>
+      <c r="G327" t="n">
+        <v>0.06478028591799555</v>
+      </c>
+      <c r="J327" t="n">
+        <v>0.03751190860226057</v>
+      </c>
+      <c r="K327" t="n">
+        <v>0.06478028591799555</v>
+      </c>
+    </row>
+    <row r="328" ht="15" customHeight="1">
+      <c r="F328" t="n">
+        <v>0.03796478084996631</v>
+      </c>
+      <c r="G328" t="n">
+        <v>0.06485564740909028</v>
+      </c>
+      <c r="J328" t="n">
+        <v>0.03796478084996631</v>
+      </c>
+      <c r="K328" t="n">
+        <v>0.06485564740909028</v>
+      </c>
+    </row>
+    <row r="329" ht="15" customHeight="1">
+      <c r="F329" t="n">
+        <v>0.0384066598368185</v>
+      </c>
+      <c r="G329" t="n">
+        <v>0.06493100890018502</v>
+      </c>
+      <c r="J329" t="n">
+        <v>0.0384066598368185</v>
+      </c>
+      <c r="K329" t="n">
+        <v>0.06493100890018502</v>
+      </c>
+    </row>
+    <row r="330" ht="15" customHeight="1">
+      <c r="F330" t="n">
+        <v>0.03883716789585283</v>
+      </c>
+      <c r="G330" t="n">
+        <v>0.06500637039127977</v>
+      </c>
+      <c r="J330" t="n">
+        <v>0.03883716789585283</v>
+      </c>
+      <c r="K330" t="n">
+        <v>0.06500637039127977</v>
+      </c>
+    </row>
+    <row r="331" ht="15" customHeight="1">
+      <c r="F331" t="n">
+        <v>0.03925592736010498</v>
+      </c>
+      <c r="G331" t="n">
+        <v>0.0650817318823745</v>
+      </c>
+      <c r="J331" t="n">
+        <v>0.03925592736010498</v>
+      </c>
+      <c r="K331" t="n">
+        <v>0.0650817318823745</v>
+      </c>
+    </row>
+    <row r="332" ht="15" customHeight="1">
+      <c r="F332" t="n">
+        <v>0.03966256056261093</v>
+      </c>
+      <c r="G332" t="n">
+        <v>0.06515709337346924</v>
+      </c>
+      <c r="J332" t="n">
+        <v>0.03966256056261093</v>
+      </c>
+      <c r="K332" t="n">
+        <v>0.06515709337346924</v>
+      </c>
+    </row>
+    <row r="333" ht="15" customHeight="1">
+      <c r="F333" t="n">
+        <v>0.04005668983640621</v>
+      </c>
+      <c r="G333" t="n">
+        <v>0.06523245486456397</v>
+      </c>
+      <c r="J333" t="n">
+        <v>0.04005668983640621</v>
+      </c>
+      <c r="K333" t="n">
+        <v>0.06523245486456397</v>
+      </c>
+    </row>
+    <row r="334" ht="15" customHeight="1">
+      <c r="F334" t="n">
+        <v>0.04043793751452672</v>
+      </c>
+      <c r="G334" t="n">
+        <v>0.06530781635565872</v>
+      </c>
+      <c r="J334" t="n">
+        <v>0.04043793751452672</v>
+      </c>
+      <c r="K334" t="n">
+        <v>0.06530781635565872</v>
+      </c>
+    </row>
+    <row r="335" ht="15" customHeight="1">
+      <c r="F335" t="n">
+        <v>0.04080592593000813</v>
+      </c>
+      <c r="G335" t="n">
+        <v>0.06538317784675345</v>
+      </c>
+      <c r="J335" t="n">
+        <v>0.04080592593000813</v>
+      </c>
+      <c r="K335" t="n">
+        <v>0.06538317784675345</v>
+      </c>
+    </row>
+    <row r="336" ht="15" customHeight="1">
+      <c r="F336" t="n">
+        <v>0.04116027741588628</v>
+      </c>
+      <c r="G336" t="n">
+        <v>0.06545853933784819</v>
+      </c>
+      <c r="J336" t="n">
+        <v>0.04116027741588628</v>
+      </c>
+      <c r="K336" t="n">
+        <v>0.06545853933784819</v>
+      </c>
+    </row>
+    <row r="337" ht="15" customHeight="1">
+      <c r="F337" t="n">
+        <v>0.04150061430519687</v>
+      </c>
+      <c r="G337" t="n">
+        <v>0.06553390082894293</v>
+      </c>
+      <c r="J337" t="n">
+        <v>0.04150061430519687</v>
+      </c>
+      <c r="K337" t="n">
+        <v>0.06553390082894293</v>
+      </c>
+    </row>
+    <row r="338" ht="15" customHeight="1">
+      <c r="F338" t="n">
+        <v>0.04182655893097563</v>
+      </c>
+      <c r="G338" t="n">
+        <v>0.06560926232003766</v>
+      </c>
+      <c r="J338" t="n">
+        <v>0.04182655893097563</v>
+      </c>
+      <c r="K338" t="n">
+        <v>0.06560926232003766</v>
+      </c>
+    </row>
+    <row r="339" ht="15" customHeight="1">
+      <c r="F339" t="n">
+        <v>0.0421377336262584</v>
+      </c>
+      <c r="G339" t="n">
+        <v>0.06568462381113241</v>
+      </c>
+      <c r="J339" t="n">
+        <v>0.0421377336262584</v>
+      </c>
+      <c r="K339" t="n">
+        <v>0.06568462381113241</v>
+      </c>
+    </row>
+    <row r="340" ht="15" customHeight="1">
+      <c r="F340" t="n">
+        <v>0.04243530286418486</v>
+      </c>
+      <c r="G340" t="n">
+        <v>0.06575998530222714</v>
+      </c>
+      <c r="J340" t="n">
+        <v>0.04243530286418486</v>
+      </c>
+      <c r="K340" t="n">
+        <v>0.06575998530222714</v>
+      </c>
+    </row>
+    <row r="341" ht="15" customHeight="1">
+      <c r="F341" t="n">
+        <v>0.04272814181841479</v>
+      </c>
+      <c r="G341" t="n">
+        <v>0.06583534679332188</v>
+      </c>
+      <c r="J341" t="n">
+        <v>0.04272814181841479</v>
+      </c>
+      <c r="K341" t="n">
+        <v>0.06583534679332188</v>
+      </c>
+    </row>
+    <row r="342" ht="15" customHeight="1">
+      <c r="F342" t="n">
+        <v>0.04301741496208782</v>
+      </c>
+      <c r="G342" t="n">
+        <v>0.06591070828441661</v>
+      </c>
+      <c r="J342" t="n">
+        <v>0.04301741496208782</v>
+      </c>
+      <c r="K342" t="n">
+        <v>0.06591070828441661</v>
+      </c>
+    </row>
+    <row r="343" ht="15" customHeight="1">
+      <c r="F343" t="n">
+        <v>0.04330274462823981</v>
+      </c>
+      <c r="G343" t="n">
+        <v>0.06598606977551136</v>
+      </c>
+      <c r="J343" t="n">
+        <v>0.04330274462823981</v>
+      </c>
+      <c r="K343" t="n">
+        <v>0.06598606977551136</v>
+      </c>
+    </row>
+    <row r="344" ht="15" customHeight="1">
+      <c r="F344" t="n">
+        <v>0.04358375314990649</v>
+      </c>
+      <c r="G344" t="n">
+        <v>0.06606143126660609</v>
+      </c>
+      <c r="J344" t="n">
+        <v>0.04358375314990649</v>
+      </c>
+      <c r="K344" t="n">
+        <v>0.06606143126660609</v>
+      </c>
+    </row>
+    <row r="345" ht="15" customHeight="1">
+      <c r="F345" t="n">
+        <v>0.04386006286012357</v>
+      </c>
+      <c r="G345" t="n">
+        <v>0.06613679275770083</v>
+      </c>
+      <c r="J345" t="n">
+        <v>0.04386006286012357</v>
+      </c>
+      <c r="K345" t="n">
+        <v>0.06613679275770083</v>
+      </c>
+    </row>
+    <row r="346" ht="15" customHeight="1">
+      <c r="F346" t="n">
+        <v>0.04413129609192688</v>
+      </c>
+      <c r="G346" t="n">
+        <v>0.06621215424879556</v>
+      </c>
+      <c r="J346" t="n">
+        <v>0.04413129609192688</v>
+      </c>
+      <c r="K346" t="n">
+        <v>0.06621215424879556</v>
+      </c>
+    </row>
+    <row r="347" ht="15" customHeight="1">
+      <c r="F347" t="n">
+        <v>0.04439707517835208</v>
+      </c>
+      <c r="G347" t="n">
+        <v>0.06628751573989029</v>
+      </c>
+      <c r="J347" t="n">
+        <v>0.04439707517835208</v>
+      </c>
+      <c r="K347" t="n">
+        <v>0.06628751573989029</v>
+      </c>
+    </row>
+    <row r="348" ht="15" customHeight="1">
+      <c r="F348" t="n">
+        <v>0.04465702245243507</v>
+      </c>
+      <c r="G348" t="n">
+        <v>0.06636287723098504</v>
+      </c>
+      <c r="J348" t="n">
+        <v>0.04465702245243507</v>
+      </c>
+      <c r="K348" t="n">
+        <v>0.06636287723098504</v>
+      </c>
+    </row>
+    <row r="349" ht="15" customHeight="1">
+      <c r="F349" t="n">
+        <v>0.04491076024721145</v>
+      </c>
+      <c r="G349" t="n">
+        <v>0.06643823872207977</v>
+      </c>
+      <c r="J349" t="n">
+        <v>0.04491076024721145</v>
+      </c>
+      <c r="K349" t="n">
+        <v>0.06643823872207977</v>
+      </c>
+    </row>
+    <row r="350" ht="15" customHeight="1">
+      <c r="F350" t="n">
+        <v>0.04515791089571712</v>
+      </c>
+      <c r="G350" t="n">
+        <v>0.06651360021317451</v>
+      </c>
+      <c r="J350" t="n">
+        <v>0.04515791089571712</v>
+      </c>
+      <c r="K350" t="n">
+        <v>0.06651360021317451</v>
+      </c>
+    </row>
+    <row r="351" ht="15" customHeight="1">
+      <c r="F351" t="n">
+        <v>0.04539809673098778</v>
+      </c>
+      <c r="G351" t="n">
+        <v>0.06658896170426926</v>
+      </c>
+      <c r="J351" t="n">
+        <v>0.04539809673098778</v>
+      </c>
+      <c r="K351" t="n">
+        <v>0.06658896170426926</v>
+      </c>
+    </row>
+    <row r="352" ht="15" customHeight="1">
+      <c r="F352" t="n">
+        <v>0.04563094008605913</v>
+      </c>
+      <c r="G352" t="n">
+        <v>0.06666432319536399</v>
+      </c>
+      <c r="J352" t="n">
+        <v>0.04563094008605913</v>
+      </c>
+      <c r="K352" t="n">
+        <v>0.06666432319536399</v>
+      </c>
+    </row>
+    <row r="353" ht="15" customHeight="1">
+      <c r="F353" t="n">
+        <v>0.04585606329396698</v>
+      </c>
+      <c r="G353" t="n">
+        <v>0.06673968468645873</v>
+      </c>
+      <c r="J353" t="n">
+        <v>0.04585606329396698</v>
+      </c>
+      <c r="K353" t="n">
+        <v>0.06673968468645873</v>
+      </c>
+    </row>
+    <row r="354" ht="15" customHeight="1">
+      <c r="F354" t="n">
+        <v>0.04607308868774708</v>
+      </c>
+      <c r="G354" t="n">
+        <v>0.06681504617755346</v>
+      </c>
+      <c r="J354" t="n">
+        <v>0.04607308868774708</v>
+      </c>
+      <c r="K354" t="n">
+        <v>0.06681504617755346</v>
+      </c>
+    </row>
+    <row r="355" ht="15" customHeight="1">
+      <c r="F355" t="n">
+        <v>0.04628163860043523</v>
+      </c>
+      <c r="G355" t="n">
+        <v>0.06689040766864821</v>
+      </c>
+      <c r="J355" t="n">
+        <v>0.04628163860043523</v>
+      </c>
+      <c r="K355" t="n">
+        <v>0.06689040766864821</v>
+      </c>
+    </row>
+    <row r="356" ht="15" customHeight="1">
+      <c r="F356" t="n">
+        <v>0.04648133536506709</v>
+      </c>
+      <c r="G356" t="n">
+        <v>0.06696576915974294</v>
+      </c>
+      <c r="J356" t="n">
+        <v>0.04648133536506709</v>
+      </c>
+      <c r="K356" t="n">
+        <v>0.06696576915974294</v>
+      </c>
+    </row>
+    <row r="357" ht="15" customHeight="1">
+      <c r="F357" t="n">
+        <v>0.04667180131467853</v>
+      </c>
+      <c r="G357" t="n">
+        <v>0.06704113065083768</v>
+      </c>
+      <c r="J357" t="n">
+        <v>0.04667180131467853</v>
+      </c>
+      <c r="K357" t="n">
+        <v>0.06704113065083768</v>
+      </c>
+    </row>
+    <row r="358" ht="15" customHeight="1">
+      <c r="F358" t="n">
+        <v>0.04685265878230523</v>
+      </c>
+      <c r="G358" t="n">
+        <v>0.06711649214193242</v>
+      </c>
+      <c r="J358" t="n">
+        <v>0.04685265878230523</v>
+      </c>
+      <c r="K358" t="n">
+        <v>0.06711649214193242</v>
+      </c>
+    </row>
+    <row r="359" ht="15" customHeight="1">
+      <c r="F359" t="n">
+        <v>0.04702353010098297</v>
+      </c>
+      <c r="G359" t="n">
+        <v>0.06719185363302715</v>
+      </c>
+      <c r="J359" t="n">
+        <v>0.04702353010098297</v>
+      </c>
+      <c r="K359" t="n">
+        <v>0.06719185363302715</v>
+      </c>
+    </row>
+    <row r="360" ht="15" customHeight="1">
+      <c r="F360" t="n">
+        <v>0.04718403760374752</v>
+      </c>
+      <c r="G360" t="n">
+        <v>0.0672672151241219</v>
+      </c>
+      <c r="J360" t="n">
+        <v>0.04718403760374752</v>
+      </c>
+      <c r="K360" t="n">
+        <v>0.0672672151241219</v>
+      </c>
+    </row>
+    <row r="361" ht="15" customHeight="1">
+      <c r="F361" t="n">
+        <v>0.04733380362363461</v>
+      </c>
+      <c r="G361" t="n">
+        <v>0.06734257661521663</v>
+      </c>
+      <c r="J361" t="n">
+        <v>0.04733380362363461</v>
+      </c>
+      <c r="K361" t="n">
+        <v>0.06734257661521663</v>
+      </c>
+    </row>
+    <row r="362" ht="15" customHeight="1">
+      <c r="F362" t="n">
+        <v>0.04747245049368003</v>
+      </c>
+      <c r="G362" t="n">
+        <v>0.06741793810631137</v>
+      </c>
+      <c r="J362" t="n">
+        <v>0.04747245049368003</v>
+      </c>
+      <c r="K362" t="n">
+        <v>0.06741793810631137</v>
+      </c>
+    </row>
+    <row r="363" ht="15" customHeight="1">
+      <c r="F363" t="n">
+        <v>0.04759960054691952</v>
+      </c>
+      <c r="G363" t="n">
+        <v>0.0674932995974061</v>
+      </c>
+      <c r="J363" t="n">
+        <v>0.04759960054691952</v>
+      </c>
+      <c r="K363" t="n">
+        <v>0.0674932995974061</v>
+      </c>
+    </row>
+    <row r="364" ht="15" customHeight="1">
+      <c r="F364" t="n">
+        <v>0.04771487611638879</v>
+      </c>
+      <c r="G364" t="n">
+        <v>0.06756866108850085</v>
+      </c>
+      <c r="J364" t="n">
+        <v>0.04771487611638879</v>
+      </c>
+      <c r="K364" t="n">
+        <v>0.06756866108850085</v>
+      </c>
+    </row>
+    <row r="365" ht="15" customHeight="1">
+      <c r="F365" t="n">
+        <v>0.04771487611638882</v>
+      </c>
+      <c r="G365" t="n">
+        <v>0.06756866108850085</v>
+      </c>
+      <c r="J365" t="n">
+        <v>0.04771487611638882</v>
+      </c>
+      <c r="K365" t="n">
+        <v>0.06756866108850085</v>
+      </c>
+    </row>
+    <row r="366" ht="15" customHeight="1">
+      <c r="F366" t="n">
+        <v>0.0470419592297333</v>
+      </c>
+      <c r="G366" t="n">
+        <v>0.07074908743715995</v>
+      </c>
+      <c r="J366" t="n">
+        <v>0.0470419592297333</v>
+      </c>
+      <c r="K366" t="n">
+        <v>0.07074908743715995</v>
+      </c>
+    </row>
+    <row r="367" ht="15" customHeight="1">
+      <c r="F367" t="n">
+        <v>0.04646238810782759</v>
+      </c>
+      <c r="G367" t="n">
+        <v>0.07392951378581904</v>
+      </c>
+      <c r="J367" t="n">
+        <v>0.04646238810782759</v>
+      </c>
+      <c r="K367" t="n">
+        <v>0.07392951378581904</v>
+      </c>
+    </row>
+    <row r="368" ht="15" customHeight="1">
+      <c r="F368" t="n">
+        <v>0.04596919674265577</v>
+      </c>
+      <c r="G368" t="n">
+        <v>0.07710994013447812</v>
+      </c>
+      <c r="J368" t="n">
+        <v>0.04596919674265577</v>
+      </c>
+      <c r="K368" t="n">
+        <v>0.07710994013447812</v>
+      </c>
+    </row>
+    <row r="369" ht="15" customHeight="1">
+      <c r="F369" t="n">
+        <v>0.04555541912620199</v>
+      </c>
+      <c r="G369" t="n">
+        <v>0.08029036648313723</v>
+      </c>
+      <c r="J369" t="n">
+        <v>0.04555541912620199</v>
+      </c>
+      <c r="K369" t="n">
+        <v>0.08029036648313723</v>
+      </c>
+    </row>
+    <row r="370" ht="15" customHeight="1">
+      <c r="F370" t="n">
+        <v>0.04521408925045022</v>
+      </c>
+      <c r="G370" t="n">
+        <v>0.08347079283179633</v>
+      </c>
+      <c r="J370" t="n">
+        <v>0.04521408925045022</v>
+      </c>
+      <c r="K370" t="n">
+        <v>0.08347079283179633</v>
+      </c>
+    </row>
+    <row r="371" ht="15" customHeight="1">
+      <c r="F371" t="n">
+        <v>0.04493824110738463</v>
+      </c>
+      <c r="G371" t="n">
+        <v>0.08665121918045542</v>
+      </c>
+      <c r="J371" t="n">
+        <v>0.04493824110738463</v>
+      </c>
+      <c r="K371" t="n">
+        <v>0.08665121918045542</v>
+      </c>
+    </row>
+    <row r="372" ht="15" customHeight="1">
+      <c r="F372" t="n">
+        <v>0.04472090868898927</v>
+      </c>
+      <c r="G372" t="n">
+        <v>0.08983164552911452</v>
+      </c>
+      <c r="J372" t="n">
+        <v>0.04472090868898927</v>
+      </c>
+      <c r="K372" t="n">
+        <v>0.08983164552911452</v>
+      </c>
+    </row>
+    <row r="373" ht="15" customHeight="1">
+      <c r="F373" t="n">
+        <v>0.04455512598724821</v>
+      </c>
+      <c r="G373" t="n">
+        <v>0.09301207187777362</v>
+      </c>
+      <c r="J373" t="n">
+        <v>0.04455512598724821</v>
+      </c>
+      <c r="K373" t="n">
+        <v>0.09301207187777362</v>
+      </c>
+    </row>
+    <row r="374" ht="15" customHeight="1">
+      <c r="F374" t="n">
+        <v>0.04443392699414554</v>
+      </c>
+      <c r="G374" t="n">
+        <v>0.09619249822643272</v>
+      </c>
+      <c r="J374" t="n">
+        <v>0.04443392699414554</v>
+      </c>
+      <c r="K374" t="n">
+        <v>0.09619249822643272</v>
+      </c>
+    </row>
+    <row r="375" ht="15" customHeight="1">
+      <c r="F375" t="n">
+        <v>0.04435034570166536</v>
+      </c>
+      <c r="G375" t="n">
+        <v>0.09937292457509179</v>
+      </c>
+      <c r="J375" t="n">
+        <v>0.04435034570166536</v>
+      </c>
+      <c r="K375" t="n">
+        <v>0.09937292457509179</v>
+      </c>
+    </row>
+    <row r="376" ht="15" customHeight="1">
+      <c r="F376" t="n">
+        <v>0.04429741610179171</v>
+      </c>
+      <c r="G376" t="n">
+        <v>0.1025533509237509</v>
+      </c>
+      <c r="J376" t="n">
+        <v>0.04429741610179171</v>
+      </c>
+      <c r="K376" t="n">
+        <v>0.1025533509237509</v>
+      </c>
+    </row>
+    <row r="377" ht="15" customHeight="1">
+      <c r="F377" t="n">
+        <v>0.04426817218650873</v>
+      </c>
+      <c r="G377" t="n">
+        <v>0.10573377727241</v>
+      </c>
+      <c r="J377" t="n">
+        <v>0.04426817218650873</v>
+      </c>
+      <c r="K377" t="n">
+        <v>0.10573377727241</v>
+      </c>
+    </row>
+    <row r="378" ht="15" customHeight="1">
+      <c r="F378" t="n">
+        <v>0.04425564794780044</v>
+      </c>
+      <c r="G378" t="n">
+        <v>0.1089142036210691</v>
+      </c>
+      <c r="J378" t="n">
+        <v>0.04425564794780044</v>
+      </c>
+      <c r="K378" t="n">
+        <v>0.1089142036210691</v>
+      </c>
+    </row>
+    <row r="379" ht="15" customHeight="1">
+      <c r="F379" t="n">
+        <v>0.044252877377651</v>
+      </c>
+      <c r="G379" t="n">
+        <v>0.1120946299697282</v>
+      </c>
+      <c r="J379" t="n">
+        <v>0.044252877377651</v>
+      </c>
+      <c r="K379" t="n">
+        <v>0.1120946299697282</v>
+      </c>
+    </row>
+    <row r="380" ht="15" customHeight="1">
+      <c r="F380" t="n">
+        <v>0.04439782008519379</v>
+      </c>
+      <c r="G380" t="n">
+        <v>0.1152750563183873</v>
+      </c>
+      <c r="J380" t="n">
+        <v>0.04439782008519379</v>
+      </c>
+      <c r="K380" t="n">
+        <v>0.1152750563183873</v>
+      </c>
+    </row>
+    <row r="381" ht="15" customHeight="1">
+      <c r="F381" t="n">
+        <v>0.0448314173430034</v>
+      </c>
+      <c r="G381" t="n">
+        <v>0.1184554826670464</v>
+      </c>
+      <c r="J381" t="n">
+        <v>0.0448314173430034</v>
+      </c>
+      <c r="K381" t="n">
+        <v>0.1184554826670464</v>
+      </c>
+    </row>
+    <row r="382" ht="15" customHeight="1">
+      <c r="F382" t="n">
+        <v>0.04546053605194152</v>
+      </c>
+      <c r="G382" t="n">
+        <v>0.1216359090157055</v>
+      </c>
+      <c r="J382" t="n">
+        <v>0.04546053605194152</v>
+      </c>
+      <c r="K382" t="n">
+        <v>0.1216359090157055</v>
+      </c>
+    </row>
+    <row r="383" ht="15" customHeight="1">
+      <c r="F383" t="n">
+        <v>0.04619062360299893</v>
+      </c>
+      <c r="G383" t="n">
+        <v>0.1248163353643646</v>
+      </c>
+      <c r="J383" t="n">
+        <v>0.04619062360299893</v>
+      </c>
+      <c r="K383" t="n">
+        <v>0.1248163353643646</v>
+      </c>
+    </row>
+    <row r="384" ht="15" customHeight="1">
+      <c r="F384" t="n">
+        <v>0.04692712738716646</v>
+      </c>
+      <c r="G384" t="n">
+        <v>0.1279967617130237</v>
+      </c>
+      <c r="J384" t="n">
+        <v>0.04692712738716646</v>
+      </c>
+      <c r="K384" t="n">
+        <v>0.1279967617130237</v>
+      </c>
+    </row>
+    <row r="385" ht="15" customHeight="1">
+      <c r="F385" t="n">
+        <v>0.04757549479543501</v>
+      </c>
+      <c r="G385" t="n">
+        <v>0.1311771880616828</v>
+      </c>
+      <c r="J385" t="n">
+        <v>0.04757549479543501</v>
+      </c>
+      <c r="K385" t="n">
+        <v>0.1311771880616828</v>
+      </c>
+    </row>
+    <row r="386" ht="15" customHeight="1">
+      <c r="F386" t="n">
+        <v>0.04804117321879535</v>
+      </c>
+      <c r="G386" t="n">
+        <v>0.1343576144103419</v>
+      </c>
+      <c r="J386" t="n">
+        <v>0.04804117321879535</v>
+      </c>
+      <c r="K386" t="n">
+        <v>0.1343576144103419</v>
+      </c>
+    </row>
+    <row r="387" ht="15" customHeight="1">
+      <c r="F387" t="n">
+        <v>0.04822961004823829</v>
+      </c>
+      <c r="G387" t="n">
+        <v>0.137538040759001</v>
+      </c>
+      <c r="J387" t="n">
+        <v>0.04822961004823829</v>
+      </c>
+      <c r="K387" t="n">
+        <v>0.137538040759001</v>
+      </c>
+    </row>
+    <row r="388" ht="15" customHeight="1">
+      <c r="F388" t="n">
+        <v>0.04814566242717992</v>
+      </c>
+      <c r="G388" t="n">
+        <v>0.1407184671076601</v>
+      </c>
+      <c r="J388" t="n">
+        <v>0.04814566242717992</v>
+      </c>
+      <c r="K388" t="n">
+        <v>0.1407184671076601</v>
+      </c>
+    </row>
+    <row r="389" ht="15" customHeight="1">
+      <c r="F389" t="n">
+        <v>0.0478851756847657</v>
+      </c>
+      <c r="G389" t="n">
+        <v>0.1438988934563191</v>
+      </c>
+      <c r="J389" t="n">
+        <v>0.0478851756847657</v>
+      </c>
+      <c r="K389" t="n">
+        <v>0.1438988934563191</v>
+      </c>
+    </row>
+    <row r="390" ht="15" customHeight="1">
+      <c r="F390" t="n">
+        <v>0.04746458073433364</v>
+      </c>
+      <c r="G390" t="n">
+        <v>0.1470793198049782</v>
+      </c>
+      <c r="J390" t="n">
+        <v>0.04746458073433364</v>
+      </c>
+      <c r="K390" t="n">
+        <v>0.1470793198049782</v>
+      </c>
+    </row>
+    <row r="391" ht="15" customHeight="1">
+      <c r="F391" t="n">
+        <v>0.04690008973274877</v>
+      </c>
+      <c r="G391" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="J391" t="n">
+        <v>0.04690008973274877</v>
+      </c>
+      <c r="K391" t="n">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="392" ht="15" customHeight="1">
+      <c r="F392" t="n">
+        <v>0.04620791483687607</v>
+      </c>
+      <c r="G392" t="n">
+        <v>0.1534401725022964</v>
+      </c>
+      <c r="J392" t="n">
+        <v>0.04620791483687607</v>
+      </c>
+      <c r="K392" t="n">
+        <v>0.1534401725022964</v>
+      </c>
+    </row>
+    <row r="393" ht="15" customHeight="1">
+      <c r="F393" t="n">
+        <v>0.04540426820358061</v>
+      </c>
+      <c r="G393" t="n">
+        <v>0.1566205988509555</v>
+      </c>
+      <c r="J393" t="n">
+        <v>0.04540426820358061</v>
+      </c>
+      <c r="K393" t="n">
+        <v>0.1566205988509555</v>
+      </c>
+    </row>
+    <row r="394" ht="15" customHeight="1">
+      <c r="F394" t="n">
+        <v>0.04450536198972745</v>
+      </c>
+      <c r="G394" t="n">
+        <v>0.1598010251996146</v>
+      </c>
+      <c r="J394" t="n">
+        <v>0.04450536198972745</v>
+      </c>
+      <c r="K394" t="n">
+        <v>0.1598010251996146</v>
+      </c>
+    </row>
+    <row r="395" ht="15" customHeight="1">
+      <c r="F395" t="n">
+        <v>0.04352740835218157</v>
+      </c>
+      <c r="G395" t="n">
+        <v>0.1629814515482737</v>
+      </c>
+      <c r="J395" t="n">
+        <v>0.04352740835218157</v>
+      </c>
+      <c r="K395" t="n">
+        <v>0.1629814515482737</v>
+      </c>
+    </row>
+    <row r="396" ht="15" customHeight="1">
+      <c r="F396" t="n">
+        <v>0.042486619447808</v>
+      </c>
+      <c r="G396" t="n">
+        <v>0.1661618778969328</v>
+      </c>
+      <c r="J396" t="n">
+        <v>0.042486619447808</v>
+      </c>
+      <c r="K396" t="n">
+        <v>0.1661618778969328</v>
+      </c>
+    </row>
+    <row r="397" ht="15" customHeight="1">
+      <c r="F397" t="n">
+        <v>0.04139920743347179</v>
+      </c>
+      <c r="G397" t="n">
+        <v>0.1693423042455919</v>
+      </c>
+      <c r="J397" t="n">
+        <v>0.04139920743347179</v>
+      </c>
+      <c r="K397" t="n">
+        <v>0.1693423042455919</v>
+      </c>
+    </row>
+    <row r="398" ht="15" customHeight="1">
+      <c r="F398" t="n">
+        <v>0.04028138446603803</v>
+      </c>
+      <c r="G398" t="n">
+        <v>0.172522730594251</v>
+      </c>
+      <c r="J398" t="n">
+        <v>0.04028138446603803</v>
+      </c>
+      <c r="K398" t="n">
+        <v>0.172522730594251</v>
+      </c>
+    </row>
+    <row r="399" ht="15" customHeight="1">
+      <c r="F399" t="n">
+        <v>0.03905064423804115</v>
+      </c>
+      <c r="G399" t="n">
+        <v>0.1757031569429101</v>
+      </c>
+      <c r="J399" t="n">
+        <v>0.03905064423804115</v>
+      </c>
+      <c r="K399" t="n">
+        <v>0.1757031569429101</v>
+      </c>
+    </row>
+    <row r="400" ht="15" customHeight="1">
+      <c r="F400" t="n">
+        <v>0.03693097096435501</v>
+      </c>
+      <c r="G400" t="n">
+        <v>0.1788835832915692</v>
+      </c>
+      <c r="J400" t="n">
+        <v>0.03693097096435501</v>
+      </c>
+      <c r="K400" t="n">
+        <v>0.1788835832915692</v>
+      </c>
+    </row>
+    <row r="401" ht="15" customHeight="1">
+      <c r="F401" t="n">
+        <v>0.03456360323200185</v>
+      </c>
+      <c r="G401" t="n">
+        <v>0.1820640096402283</v>
+      </c>
+      <c r="J401" t="n">
+        <v>0.03456360323200185</v>
+      </c>
+      <c r="K401" t="n">
+        <v>0.1820640096402283</v>
+      </c>
+    </row>
+    <row r="402" ht="15" customHeight="1">
+      <c r="F402" t="n">
+        <v>0.03296418701410549</v>
+      </c>
+      <c r="G402" t="n">
+        <v>0.1852444359888874</v>
+      </c>
+      <c r="J402" t="n">
+        <v>0.03296418701410549</v>
+      </c>
+      <c r="K402" t="n">
+        <v>0.1852444359888874</v>
+      </c>
+    </row>
+    <row r="403" ht="15" customHeight="1">
+      <c r="F403" t="n">
+        <v>0.03276714236127347</v>
+      </c>
+      <c r="G403" t="n">
+        <v>0.1884248623375465</v>
+      </c>
+      <c r="J403" t="n">
+        <v>0.03276714236127347</v>
+      </c>
+      <c r="K403" t="n">
+        <v>0.1884248623375465</v>
+      </c>
+    </row>
+    <row r="404" ht="15" customHeight="1">
+      <c r="F404" t="n">
+        <v>0.03277905008664929</v>
+      </c>
+      <c r="G404" t="n">
+        <v>0.1916052886862056</v>
+      </c>
+      <c r="J404" t="n">
+        <v>0.03277905008664929</v>
+      </c>
+      <c r="K404" t="n">
+        <v>0.1916052886862056</v>
+      </c>
+    </row>
+    <row r="405" ht="15" customHeight="1">
+      <c r="F405" t="n">
+        <v>0.03280297454218577</v>
+      </c>
+      <c r="G405" t="n">
+        <v>0.1947857150348647</v>
+      </c>
+      <c r="J405" t="n">
+        <v>0.03280297454218577</v>
+      </c>
+      <c r="K405" t="n">
+        <v>0.1947857150348647</v>
+      </c>
+    </row>
+    <row r="406" ht="15" customHeight="1">
+      <c r="F406" t="n">
+        <v>0.03283973457932567</v>
+      </c>
+      <c r="G406" t="n">
+        <v>0.1979661413835238</v>
+      </c>
+      <c r="J406" t="n">
+        <v>0.03283973457932567</v>
+      </c>
+      <c r="K406" t="n">
+        <v>0.1979661413835238</v>
+      </c>
+    </row>
+    <row r="407" ht="15" customHeight="1">
+      <c r="F407" t="n">
+        <v>0.03289014904951172</v>
+      </c>
+      <c r="G407" t="n">
+        <v>0.2011465677321829</v>
+      </c>
+      <c r="J407" t="n">
+        <v>0.03289014904951172</v>
+      </c>
+      <c r="K407" t="n">
+        <v>0.2011465677321829</v>
+      </c>
+    </row>
+    <row r="408" ht="15" customHeight="1">
+      <c r="F408" t="n">
+        <v>0.03295503680418678</v>
+      </c>
+      <c r="G408" t="n">
+        <v>0.204326994080842</v>
+      </c>
+      <c r="J408" t="n">
+        <v>0.03295503680418678</v>
+      </c>
+      <c r="K408" t="n">
+        <v>0.204326994080842</v>
+      </c>
+    </row>
+    <row r="409" ht="15" customHeight="1">
+      <c r="F409" t="n">
+        <v>0.03303521669479363</v>
+      </c>
+      <c r="G409" t="n">
+        <v>0.2075074204295011</v>
+      </c>
+      <c r="J409" t="n">
+        <v>0.03303521669479363</v>
+      </c>
+      <c r="K409" t="n">
+        <v>0.2075074204295011</v>
+      </c>
+    </row>
+    <row r="410" ht="15" customHeight="1">
+      <c r="F410" t="n">
+        <v>0.03313150757277498</v>
+      </c>
+      <c r="G410" t="n">
+        <v>0.2106878467781602</v>
+      </c>
+      <c r="J410" t="n">
+        <v>0.03313150757277498</v>
+      </c>
+      <c r="K410" t="n">
+        <v>0.2106878467781602</v>
+      </c>
+    </row>
+    <row r="411" ht="15" customHeight="1">
+      <c r="F411" t="n">
+        <v>0.03330906089616932</v>
+      </c>
+      <c r="G411" t="n">
+        <v>0.2138682731268193</v>
+      </c>
+      <c r="J411" t="n">
+        <v>0.03330906089616932</v>
+      </c>
+      <c r="K411" t="n">
+        <v>0.2138682731268193</v>
+      </c>
+    </row>
+    <row r="412" ht="15" customHeight="1">
+      <c r="F412" t="n">
+        <v>0.03414777003596751</v>
+      </c>
+      <c r="G412" t="n">
+        <v>0.2170486994754784</v>
+      </c>
+      <c r="J412" t="n">
+        <v>0.03414777003596751</v>
+      </c>
+      <c r="K412" t="n">
+        <v>0.2170486994754784</v>
+      </c>
+    </row>
+    <row r="413" ht="15" customHeight="1">
+      <c r="F413" t="n">
+        <v>0.03532461767923466</v>
+      </c>
+      <c r="G413" t="n">
+        <v>0.2202291258241375</v>
+      </c>
+      <c r="J413" t="n">
+        <v>0.03532461767923466</v>
+      </c>
+      <c r="K413" t="n">
+        <v>0.2202291258241375</v>
+      </c>
+    </row>
+    <row r="414" ht="15" customHeight="1">
+      <c r="F414" t="n">
+        <v>0.03626387761274154</v>
+      </c>
+      <c r="G414" t="n">
+        <v>0.2234095521727965</v>
+      </c>
+      <c r="J414" t="n">
+        <v>0.03626387761274154</v>
+      </c>
+      <c r="K414" t="n">
+        <v>0.2234095521727965</v>
+      </c>
+    </row>
+    <row r="415" ht="15" customHeight="1">
+      <c r="F415" t="n">
+        <v>0.03693713503294942</v>
+      </c>
+      <c r="G415" t="n">
+        <v>0.2265899785214556</v>
+      </c>
+      <c r="J415" t="n">
+        <v>0.03693713503294942</v>
+      </c>
+      <c r="K415" t="n">
+        <v>0.2265899785214556</v>
+      </c>
+    </row>
+    <row r="416" ht="15" customHeight="1">
+      <c r="F416" t="n">
+        <v>0.03754432014054078</v>
+      </c>
+      <c r="G416" t="n">
+        <v>0.2297704048701147</v>
+      </c>
+      <c r="J416" t="n">
+        <v>0.03754432014054078</v>
+      </c>
+      <c r="K416" t="n">
+        <v>0.2297704048701147</v>
+      </c>
+    </row>
+    <row r="417" ht="15" customHeight="1">
+      <c r="F417" t="n">
+        <v>0.03810379389911618</v>
+      </c>
+      <c r="G417" t="n">
+        <v>0.2329508312187738</v>
+      </c>
+      <c r="J417" t="n">
+        <v>0.03810379389911618</v>
+      </c>
+      <c r="K417" t="n">
+        <v>0.2329508312187738</v>
+      </c>
+    </row>
+    <row r="418" ht="15" customHeight="1">
+      <c r="F418" t="n">
+        <v>0.03863391727227626</v>
+      </c>
+      <c r="G418" t="n">
+        <v>0.2361312575674329</v>
+      </c>
+      <c r="J418" t="n">
+        <v>0.03863391727227626</v>
+      </c>
+      <c r="K418" t="n">
+        <v>0.2361312575674329</v>
+      </c>
+    </row>
+    <row r="419" ht="15" customHeight="1">
+      <c r="F419" t="n">
+        <v>0.03915305122362166</v>
+      </c>
+      <c r="G419" t="n">
+        <v>0.239311683916092</v>
+      </c>
+      <c r="J419" t="n">
+        <v>0.03915305122362166</v>
+      </c>
+      <c r="K419" t="n">
+        <v>0.239311683916092</v>
+      </c>
+    </row>
+    <row r="420" ht="15" customHeight="1">
+      <c r="F420" t="n">
+        <v>0.03967263222517263</v>
+      </c>
+      <c r="G420" t="n">
+        <v>0.2424921102647511</v>
+      </c>
+      <c r="J420" t="n">
+        <v>0.03967263222517263</v>
+      </c>
+      <c r="K420" t="n">
+        <v>0.2424921102647511</v>
+      </c>
+    </row>
+    <row r="421" ht="15" customHeight="1">
+      <c r="F421" t="n">
+        <v>0.04013592128070055</v>
+      </c>
+      <c r="G421" t="n">
+        <v>0.2456725366134102</v>
+      </c>
+      <c r="J421" t="n">
+        <v>0.04013592128070055</v>
+      </c>
+      <c r="K421" t="n">
+        <v>0.2456725366134102</v>
+      </c>
+    </row>
+    <row r="422" ht="15" customHeight="1">
+      <c r="F422" t="n">
+        <v>0.04057518845718523</v>
+      </c>
+      <c r="G422" t="n">
+        <v>0.2488529629620693</v>
+      </c>
+      <c r="J422" t="n">
+        <v>0.04057518845718523</v>
+      </c>
+      <c r="K422" t="n">
+        <v>0.2488529629620693</v>
+      </c>
+    </row>
+    <row r="423" ht="15" customHeight="1">
+      <c r="F423" t="n">
+        <v>0.04105270422578643</v>
+      </c>
+      <c r="G423" t="n">
+        <v>0.2520333893107284</v>
+      </c>
+      <c r="J423" t="n">
+        <v>0.04105270422578643</v>
+      </c>
+      <c r="K423" t="n">
+        <v>0.2520333893107284</v>
+      </c>
+    </row>
+    <row r="424" ht="15" customHeight="1">
+      <c r="F424" t="n">
+        <v>0.04163073905766397</v>
+      </c>
+      <c r="G424" t="n">
+        <v>0.2552138156593875</v>
+      </c>
+      <c r="J424" t="n">
+        <v>0.04163073905766397</v>
+      </c>
+      <c r="K424" t="n">
+        <v>0.2552138156593875</v>
+      </c>
+    </row>
+    <row r="425" ht="15" customHeight="1">
+      <c r="F425" t="n">
+        <v>0.04241128976636159</v>
+      </c>
+      <c r="G425" t="n">
+        <v>0.2583942420080466</v>
+      </c>
+      <c r="J425" t="n">
+        <v>0.04241128976636159</v>
+      </c>
+      <c r="K425" t="n">
+        <v>0.2583942420080466</v>
+      </c>
+    </row>
+    <row r="426" ht="15" customHeight="1">
+      <c r="F426" t="n">
+        <v>0.04344066709881091</v>
+      </c>
+      <c r="G426" t="n">
+        <v>0.2615746683567057</v>
+      </c>
+      <c r="J426" t="n">
+        <v>0.04344066709881091</v>
+      </c>
+      <c r="K426" t="n">
+        <v>0.2615746683567057</v>
+      </c>
+    </row>
+    <row r="427" ht="15" customHeight="1">
+      <c r="F427" t="n">
+        <v>0.04468515537253272</v>
+      </c>
+      <c r="G427" t="n">
+        <v>0.2647550947053648</v>
+      </c>
+      <c r="J427" t="n">
+        <v>0.04468515537253272</v>
+      </c>
+      <c r="K427" t="n">
+        <v>0.2647550947053648</v>
+      </c>
+    </row>
+    <row r="428" ht="15" customHeight="1">
+      <c r="F428" t="n">
+        <v>0.04611096124106494</v>
+      </c>
+      <c r="G428" t="n">
+        <v>0.2679355210540239</v>
+      </c>
+      <c r="J428" t="n">
+        <v>0.04611096124106494</v>
+      </c>
+      <c r="K428" t="n">
+        <v>0.2679355210540239</v>
+      </c>
+    </row>
+    <row r="429" ht="15" customHeight="1">
+      <c r="F429" t="n">
+        <v>0.04768429135794557</v>
+      </c>
+      <c r="G429" t="n">
+        <v>0.271115947402683</v>
+      </c>
+      <c r="J429" t="n">
+        <v>0.04768429135794557</v>
+      </c>
+      <c r="K429" t="n">
+        <v>0.271115947402683</v>
+      </c>
+    </row>
+    <row r="430" ht="15" customHeight="1">
+      <c r="F430" t="n">
+        <v>0.0493713523767126</v>
+      </c>
+      <c r="G430" t="n">
+        <v>0.2742963737513421</v>
+      </c>
+      <c r="J430" t="n">
+        <v>0.0493713523767126</v>
+      </c>
+      <c r="K430" t="n">
+        <v>0.2742963737513421</v>
+      </c>
+    </row>
+    <row r="431" ht="15" customHeight="1">
+      <c r="F431" t="n">
+        <v>0.05113835095090401</v>
+      </c>
+      <c r="G431" t="n">
+        <v>0.2774768001000012</v>
+      </c>
+      <c r="J431" t="n">
+        <v>0.05113835095090401</v>
+      </c>
+      <c r="K431" t="n">
+        <v>0.2774768001000012</v>
+      </c>
+    </row>
+    <row r="432" ht="15" customHeight="1">
+      <c r="F432" t="n">
+        <v>0.05295149373405782</v>
+      </c>
+      <c r="G432" t="n">
+        <v>0.2806572264486603</v>
+      </c>
+      <c r="J432" t="n">
+        <v>0.05295149373405782</v>
+      </c>
+      <c r="K432" t="n">
+        <v>0.2806572264486603</v>
+      </c>
+    </row>
+    <row r="433" ht="15" customHeight="1">
+      <c r="F433" t="n">
+        <v>0.05477698737971194</v>
+      </c>
+      <c r="G433" t="n">
+        <v>0.2838376527973194</v>
+      </c>
+      <c r="J433" t="n">
+        <v>0.05477698737971194</v>
+      </c>
+      <c r="K433" t="n">
+        <v>0.2838376527973194</v>
+      </c>
+    </row>
+    <row r="434" ht="15" customHeight="1">
+      <c r="F434" t="n">
+        <v>0.05658103854140446</v>
+      </c>
+      <c r="G434" t="n">
+        <v>0.2870180791459785</v>
+      </c>
+      <c r="J434" t="n">
+        <v>0.05658103854140446</v>
+      </c>
+      <c r="K434" t="n">
+        <v>0.2870180791459785</v>
+      </c>
+    </row>
+    <row r="435" ht="15" customHeight="1">
+      <c r="F435" t="n">
+        <v>0.05832985387267332</v>
+      </c>
+      <c r="G435" t="n">
+        <v>0.2901985054946376</v>
+      </c>
+      <c r="J435" t="n">
+        <v>0.05832985387267332</v>
+      </c>
+      <c r="K435" t="n">
+        <v>0.2901985054946376</v>
+      </c>
+    </row>
+    <row r="436" ht="15" customHeight="1">
+      <c r="F436" t="n">
+        <v>0.05998964002705647</v>
+      </c>
+      <c r="G436" t="n">
+        <v>0.2933789318432967</v>
+      </c>
+      <c r="J436" t="n">
+        <v>0.05998964002705647</v>
+      </c>
+      <c r="K436" t="n">
+        <v>0.2933789318432967</v>
+      </c>
+    </row>
+    <row r="437" ht="15" customHeight="1">
+      <c r="F437" t="n">
+        <v>0.06152660365809197</v>
+      </c>
+      <c r="G437" t="n">
+        <v>0.2965593581919558</v>
+      </c>
+      <c r="J437" t="n">
+        <v>0.06152660365809197</v>
+      </c>
+      <c r="K437" t="n">
+        <v>0.2965593581919558</v>
+      </c>
+    </row>
+    <row r="438" ht="15" customHeight="1">
+      <c r="F438" t="n">
+        <v>0.06290695141931772</v>
+      </c>
+      <c r="G438" t="n">
+        <v>0.2997397845406149</v>
+      </c>
+      <c r="J438" t="n">
+        <v>0.06290695141931772</v>
+      </c>
+      <c r="K438" t="n">
+        <v>0.2997397845406149</v>
+      </c>
+    </row>
+    <row r="439" ht="15" customHeight="1">
+      <c r="F439" t="n">
+        <v>0.06409688996427178</v>
+      </c>
+      <c r="G439" t="n">
+        <v>0.302920210889274</v>
+      </c>
+      <c r="J439" t="n">
+        <v>0.06409688996427178</v>
+      </c>
+      <c r="K439" t="n">
+        <v>0.302920210889274</v>
+      </c>
+    </row>
+    <row r="440" ht="15" customHeight="1">
+      <c r="F440" t="n">
+        <v>0.06506262594649211</v>
+      </c>
+      <c r="G440" t="n">
+        <v>0.306100637237933</v>
+      </c>
+      <c r="J440" t="n">
+        <v>0.06506262594649211</v>
+      </c>
+      <c r="K440" t="n">
+        <v>0.306100637237933</v>
+      </c>
+    </row>
+    <row r="441" ht="15" customHeight="1">
+      <c r="F441" t="n">
+        <v>0.06577036601951673</v>
+      </c>
+      <c r="G441" t="n">
+        <v>0.3092810635865921</v>
+      </c>
+      <c r="J441" t="n">
+        <v>0.06577036601951673</v>
+      </c>
+      <c r="K441" t="n">
+        <v>0.3092810635865921</v>
+      </c>
+    </row>
+    <row r="442" ht="15" customHeight="1">
+      <c r="F442" t="n">
+        <v>0.0662865014885184</v>
+      </c>
+      <c r="G442" t="n">
+        <v>0.3124614899352512</v>
+      </c>
+      <c r="J442" t="n">
+        <v>0.0662865014885184</v>
+      </c>
+      <c r="K442" t="n">
+        <v>0.3124614899352512</v>
+      </c>
+    </row>
+    <row r="443" ht="15" customHeight="1">
+      <c r="F443" t="n">
+        <v>0.06621632923227287</v>
+      </c>
+      <c r="G443" t="n">
+        <v>0.3156419162839103</v>
+      </c>
+      <c r="J443" t="n">
+        <v>0.06621632923227287</v>
+      </c>
+      <c r="K443" t="n">
+        <v>0.3156419162839103</v>
+      </c>
+    </row>
+    <row r="444" ht="15" customHeight="1">
+      <c r="F444" t="n">
+        <v>0.06451345159084897</v>
+      </c>
+      <c r="G444" t="n">
+        <v>0.3188223426325694</v>
+      </c>
+      <c r="J444" t="n">
+        <v>0.06451345159084897</v>
+      </c>
+      <c r="K444" t="n">
+        <v>0.3188223426325694</v>
+      </c>
+    </row>
+    <row r="445" ht="15" customHeight="1">
+      <c r="F445" t="n">
+        <v>0.0610010579889602</v>
+      </c>
+      <c r="G445" t="n">
+        <v>0.3220027689812285</v>
+      </c>
+      <c r="J445" t="n">
+        <v>0.0610010579889602</v>
+      </c>
+      <c r="K445" t="n">
+        <v>0.3220027689812285</v>
+      </c>
+    </row>
+    <row r="446" ht="15" customHeight="1">
+      <c r="F446" t="n">
+        <v>0.05630278766084022</v>
+      </c>
+      <c r="G446" t="n">
+        <v>0.3251831953298876</v>
+      </c>
+      <c r="J446" t="n">
+        <v>0.05630278766084022</v>
+      </c>
+      <c r="K446" t="n">
+        <v>0.3251831953298876</v>
+      </c>
+    </row>
+    <row r="447" ht="15" customHeight="1">
+      <c r="F447" t="n">
+        <v>0.0510422798407227</v>
+      </c>
+      <c r="G447" t="n">
+        <v>0.3283636216785467</v>
+      </c>
+      <c r="J447" t="n">
+        <v>0.0510422798407227</v>
+      </c>
+      <c r="K447" t="n">
+        <v>0.3283636216785467</v>
+      </c>
+    </row>
+    <row r="448" ht="15" customHeight="1">
+      <c r="F448" t="n">
+        <v>0.04584317376284115</v>
+      </c>
+      <c r="G448" t="n">
+        <v>0.3315440480272058</v>
+      </c>
+      <c r="J448" t="n">
+        <v>0.04584317376284115</v>
+      </c>
+      <c r="K448" t="n">
+        <v>0.3315440480272058</v>
+      </c>
+    </row>
+    <row r="449" ht="15" customHeight="1">
+      <c r="F449" t="n">
+        <v>0.04132910866142932</v>
+      </c>
+      <c r="G449" t="n">
+        <v>0.3347244743758649</v>
+      </c>
+      <c r="J449" t="n">
+        <v>0.04132910866142932</v>
+      </c>
+      <c r="K449" t="n">
+        <v>0.3347244743758649</v>
+      </c>
+    </row>
+    <row r="450" ht="15" customHeight="1">
+      <c r="F450" t="n">
+        <v>0.03812372377072069</v>
+      </c>
+      <c r="G450" t="n">
+        <v>0.337904900724524</v>
+      </c>
+      <c r="J450" t="n">
+        <v>0.03812372377072069</v>
+      </c>
+      <c r="K450" t="n">
+        <v>0.337904900724524</v>
+      </c>
+    </row>
+    <row r="451" ht="15" customHeight="1">
+      <c r="F451" t="n">
+        <v>0.03639739909273439</v>
+      </c>
+      <c r="G451" t="n">
+        <v>0.3410853270731831</v>
+      </c>
+      <c r="J451" t="n">
+        <v>0.03639739909273439</v>
+      </c>
+      <c r="K451" t="n">
+        <v>0.3410853270731831</v>
+      </c>
+    </row>
+    <row r="452" ht="15" customHeight="1">
+      <c r="F452" t="n">
+        <v>0.03486580566229218</v>
+      </c>
+      <c r="G452" t="n">
+        <v>0.3442657534218422</v>
+      </c>
+      <c r="J452" t="n">
+        <v>0.03486580566229218</v>
+      </c>
+      <c r="K452" t="n">
+        <v>0.3442657534218422</v>
+      </c>
+    </row>
+    <row r="453" ht="15" customHeight="1">
+      <c r="F453" t="n">
+        <v>0.03340438602678915</v>
+      </c>
+      <c r="G453" t="n">
+        <v>0.3474461797705013</v>
+      </c>
+      <c r="J453" t="n">
+        <v>0.03340438602678915</v>
+      </c>
+      <c r="K453" t="n">
+        <v>0.3474461797705013</v>
+      </c>
+    </row>
+    <row r="454" ht="15" customHeight="1">
+      <c r="F454" t="n">
+        <v>0.03202225045527905</v>
+      </c>
+      <c r="G454" t="n">
+        <v>0.3506266061191604</v>
+      </c>
+      <c r="J454" t="n">
+        <v>0.03202225045527905</v>
+      </c>
+      <c r="K454" t="n">
+        <v>0.3506266061191604</v>
+      </c>
+    </row>
+    <row r="455" ht="15" customHeight="1">
+      <c r="F455" t="n">
+        <v>0.03072850921681584</v>
+      </c>
+      <c r="G455" t="n">
+        <v>0.3538070324678195</v>
+      </c>
+      <c r="J455" t="n">
+        <v>0.03072850921681584</v>
+      </c>
+      <c r="K455" t="n">
+        <v>0.3538070324678195</v>
+      </c>
+    </row>
+    <row r="456" ht="15" customHeight="1">
+      <c r="F456" t="n">
+        <v>0.02953227258045342</v>
+      </c>
+      <c r="G456" t="n">
+        <v>0.3569874588164786</v>
+      </c>
+      <c r="J456" t="n">
+        <v>0.02953227258045342</v>
+      </c>
+      <c r="K456" t="n">
+        <v>0.3569874588164786</v>
+      </c>
+    </row>
+    <row r="457" ht="15" customHeight="1">
+      <c r="F457" t="n">
+        <v>0.02844265081524554</v>
+      </c>
+      <c r="G457" t="n">
+        <v>0.3601678851651377</v>
+      </c>
+      <c r="J457" t="n">
+        <v>0.02844265081524554</v>
+      </c>
+      <c r="K457" t="n">
+        <v>0.3601678851651377</v>
+      </c>
+    </row>
+    <row r="458" ht="15" customHeight="1">
+      <c r="F458" t="n">
+        <v>0.02746875419024618</v>
+      </c>
+      <c r="G458" t="n">
+        <v>0.3633483115137968</v>
+      </c>
+      <c r="J458" t="n">
+        <v>0.02746875419024618</v>
+      </c>
+      <c r="K458" t="n">
+        <v>0.3633483115137968</v>
+      </c>
+    </row>
+    <row r="459" ht="15" customHeight="1">
+      <c r="F459" t="n">
+        <v>0.02661969297450914</v>
+      </c>
+      <c r="G459" t="n">
+        <v>0.3665287378624559</v>
+      </c>
+      <c r="J459" t="n">
+        <v>0.02661969297450914</v>
+      </c>
+      <c r="K459" t="n">
+        <v>0.3665287378624559</v>
+      </c>
+    </row>
+    <row r="460" ht="15" customHeight="1">
+      <c r="F460" t="n">
+        <v>0.02590457743708834</v>
+      </c>
+      <c r="G460" t="n">
+        <v>0.369709164211115</v>
+      </c>
+      <c r="J460" t="n">
+        <v>0.02590457743708834</v>
+      </c>
+      <c r="K460" t="n">
+        <v>0.369709164211115</v>
+      </c>
+    </row>
+    <row r="461" ht="15" customHeight="1">
+      <c r="F461" t="n">
+        <v>0.02533251784703766</v>
+      </c>
+      <c r="G461" t="n">
+        <v>0.3728895905597741</v>
+      </c>
+      <c r="J461" t="n">
+        <v>0.02533251784703766</v>
+      </c>
+      <c r="K461" t="n">
+        <v>0.3728895905597741</v>
+      </c>
+    </row>
+    <row r="462" ht="15" customHeight="1">
+      <c r="F462" t="n">
+        <v>0.02491262447341094</v>
+      </c>
+      <c r="G462" t="n">
+        <v>0.3760700169084331</v>
+      </c>
+      <c r="J462" t="n">
+        <v>0.02491262447341094</v>
+      </c>
+      <c r="K462" t="n">
+        <v>0.3760700169084331</v>
+      </c>
+    </row>
+    <row r="463" ht="15" customHeight="1">
+      <c r="F463" t="n">
+        <v>0.02465400758526207</v>
+      </c>
+      <c r="G463" t="n">
+        <v>0.3792504432570922</v>
+      </c>
+      <c r="J463" t="n">
+        <v>0.02465400758526207</v>
+      </c>
+      <c r="K463" t="n">
+        <v>0.3792504432570922</v>
+      </c>
+    </row>
+    <row r="464" ht="15" customHeight="1">
+      <c r="F464" t="n">
+        <v>0.0245657774516449</v>
+      </c>
+      <c r="G464" t="n">
+        <v>0.3824308696057513</v>
+      </c>
+      <c r="J464" t="n">
+        <v>0.0245657774516449</v>
+      </c>
+      <c r="K464" t="n">
+        <v>0.3824308696057513</v>
+      </c>
+    </row>
     <row r="465" ht="15" customHeight="1"/>
     <row r="466" ht="15" customHeight="1"/>
     <row r="467" ht="15" customHeight="1"/>
